--- a/final.xlsx
+++ b/final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33074BC5-325E-492D-A2B9-1FE144436195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EFB40-48FF-479C-BBB1-FCD2BE18043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1491">
   <si>
     <t>BibKey</t>
   </si>
@@ -700,9 +700,6 @@
     <t>LSTM time-series anomaly detection + adaptive thresholding for drone-assisted cells</t>
   </si>
   <si>
-    <t>Swarm/Urban Air Mobility</t>
-  </si>
-  <si>
     <t>Coverage burst detection rate, false alarm rate, delay to deploy drone-BS</t>
   </si>
   <si>
@@ -1661,9 +1658,6 @@
     <t>Workshop covering multiple methods (machine learning, novelty detection, fusion) and data modalities (vision, sensor, telemetry)</t>
   </si>
   <si>
-    <t>Civilian &amp; Military†</t>
-  </si>
-  <si>
     <t>Workshop proceedings, challenge descriptions</t>
   </si>
   <si>
@@ -1745,9 +1739,6 @@
     <t>Semi-automated fuzz-testing and anomaly-detection frameworks applied to drone firmware and comm protocols</t>
   </si>
   <si>
-    <t>Hybrid (Civilian &amp; Military)</t>
-  </si>
-  <si>
     <t>State-of-the-art review; metrics vary by study</t>
   </si>
   <si>
@@ -2283,9 +2274,6 @@
   </si>
   <si>
     <t>Online Mahalanobis-distance based anomaly detection with differential sensor readings on UAV data stream</t>
-  </si>
-  <si>
-    <t>Detection latency, true-fault detection rate, false alarms</t>
   </si>
   <si>
     <t>Introduces one of the earliest online anomaly detection methods for UAVs using Mahalanobis distance and sensor differential features :contentReference[oaicite:0]{index=0}</t>
@@ -2739,9 +2727,6 @@
     <t>Real Flight / Real-World RF Data</t>
   </si>
   <si>
-    <t>Accuracy 92.85% (in-sample), 91.4% (out-of-sample); better noise robustness and few-label training</t>
-  </si>
-  <si>
     <t>Focused on detecting UAV types/modes via RF spectrum—not full flight anomaly recovery; dataset size/availability limited</t>
   </si>
   <si>
@@ -2877,9 +2862,6 @@
     <t>Deep neural networks (vision-based)</t>
   </si>
   <si>
-    <t>Drone-based surveillance</t>
-  </si>
-  <si>
     <t>AUC; Accuracy; Precision; Recall</t>
   </si>
   <si>
@@ -2914,9 +2896,6 @@
   </si>
   <si>
     <t>Reinforcement Learning (policy learning over motor behavior)</t>
-  </si>
-  <si>
-    <t>Flight control and propulsion system monitoring</t>
   </si>
   <si>
     <t>Detection accuracy; False alarm rate; Detection latency</t>
@@ -2967,9 +2946,6 @@
     <t>Small spatio-temporal neural networks (lightweight DL)</t>
   </si>
   <si>
-    <t>Airspace monitoring and drone detection</t>
-  </si>
-  <si>
     <t>Detection accuracy; Precision; Recall; Computational efficiency</t>
   </si>
   <si>
@@ -3024,9 +3000,6 @@
     <t>Machine learning; artificial intelligence</t>
   </si>
   <si>
-    <t>Precision agriculture; sustainable crop monitoring</t>
-  </si>
-  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -3066,9 +3039,6 @@
     <t>Transformer-based neural networks on UAV acoustic data</t>
   </si>
   <si>
-    <t>Real-time acoustic health monitoring</t>
-  </si>
-  <si>
     <t>Precision; Recall; F1 score</t>
   </si>
   <si>
@@ -3114,9 +3084,6 @@
     <t>Lightweight encoder-decoder; MS-GQA; RVQ</t>
   </si>
   <si>
-    <t>Real-time UAV anomaly detection</t>
-  </si>
-  <si>
     <t>Accuracy; Efficiency; Localization quality</t>
   </si>
   <si>
@@ -3153,9 +3120,6 @@
     <t>Machine learning on acoustic features</t>
   </si>
   <si>
-    <t>Propeller health monitoring</t>
-  </si>
-  <si>
     <t>Accuracy; Precision; Recall</t>
   </si>
   <si>
@@ -3198,9 +3162,6 @@
     <t>Various ML algorithms (k-NN, SVM, decision tree, logistic regression)</t>
   </si>
   <si>
-    <t>Survey of ML methods applied to UAV anomaly detection</t>
-  </si>
-  <si>
     <t>Not applicable as survey</t>
   </si>
   <si>
@@ -3246,9 +3207,6 @@
     <t>Graph Attention Networks applied to RSSI deviation graphs</t>
   </si>
   <si>
-    <t>Anomalous drone detection in multi-UAV settings</t>
-  </si>
-  <si>
     <t>Accuracy; Computing efficiency; Real-time detection capability</t>
   </si>
   <si>
@@ -3291,9 +3249,6 @@
     <t>1D CNN autoencoder; L0/1-SVDD threshold module</t>
   </si>
   <si>
-    <t>Flight health monitoring</t>
-  </si>
-  <si>
     <t>Accuracy; Precision; Recall; F1 score</t>
   </si>
   <si>
@@ -3339,9 +3294,6 @@
     <t>OCKELM with Triangular Global Alignment Kernel + FastICA</t>
   </si>
   <si>
-    <t>Drone system health monitoring</t>
-  </si>
-  <si>
     <t>Accuracy improved by ~30%; detection rates significantly higher than baseline methods</t>
   </si>
   <si>
@@ -3381,9 +3333,6 @@
     <t>Periodogram analysis on onboard vibration sensors</t>
   </si>
   <si>
-    <t>Mechanical health monitoring and anomaly detection</t>
-  </si>
-  <si>
     <t>Detection capability; Signal frequency characteristics</t>
   </si>
   <si>
@@ -3414,9 +3363,6 @@
     <t>Sentence embeddings + ML classifier</t>
   </si>
   <si>
-    <t>Flight health monitoring and severity analysis</t>
-  </si>
-  <si>
     <t>Classification accuracy; Severity discrimination metrics</t>
   </si>
   <si>
@@ -3453,9 +3399,6 @@
     <t>Framework incorporating sensor monitoring, classification and response modules</t>
   </si>
   <si>
-    <t>Defense drone security and anomaly response</t>
-  </si>
-  <si>
     <t>The system offers a structured methodology to identify abnormal flight path behavior and trigger autonomous security responses within defense UAVs</t>
   </si>
   <si>
@@ -3498,9 +3441,6 @@
     <t>Hybrid Bayesian networks with feature fusion</t>
   </si>
   <si>
-    <t>Anomaly detection in UAV operations</t>
-  </si>
-  <si>
     <t>The chapter presents a probabilistic approach using Bayesian networks combined with other learning techniques to detect anomalies across different UAV subsystems; discusses performance scenarios</t>
   </si>
   <si>
@@ -3540,9 +3480,6 @@
     <t>Log-processing ensemble with time series features</t>
   </si>
   <si>
-    <t>Drone anomaly detection in log data</t>
-  </si>
-  <si>
     <t>Accuracy; Precision; Recall; Robustness to noise</t>
   </si>
   <si>
@@ -3579,9 +3516,6 @@
     <t>Image difference analysis and motion change estimation</t>
   </si>
   <si>
-    <t>Flight behaviour monitoring and anomaly detection</t>
-  </si>
-  <si>
     <t>Detection accuracy; Change sensitivity; False positives</t>
   </si>
   <si>
@@ -3663,9 +3597,6 @@
     <t>Sigma rules applied to forensic event timelines</t>
   </si>
   <si>
-    <t>Drone incident investigation and forensic analysis</t>
-  </si>
-  <si>
     <t>Rule match coverage; Detection capability</t>
   </si>
   <si>
@@ -3708,9 +3639,6 @@
     <t>Wavelet scattering + LSTM autoencoder</t>
   </si>
   <si>
-    <t>Mechanical health monitoring and predictive maintenance</t>
-  </si>
-  <si>
     <t>Earliest warning time; detection lead time relative to failure</t>
   </si>
   <si>
@@ -3753,9 +3681,6 @@
     <t>Dynamic Bayesian Network + Belief Function Machine (evidential reasoning)</t>
   </si>
   <si>
-    <t>Abnormal behavior monitoring / detection</t>
-  </si>
-  <si>
     <t>The DBN+BFM fusion improves detection of abnormal behaviors by explicitly managing uncertainty and combining heterogeneous evidence</t>
   </si>
   <si>
@@ -3798,9 +3723,6 @@
     <t>Adaptive monitoring framework that enables dynamic switching of detectors and monitoring focus</t>
   </si>
   <si>
-    <t>SUAS runtime anomaly detection and monitoring</t>
-  </si>
-  <si>
     <t>Detection latency; Resource utilization; Accuracy</t>
   </si>
   <si>
@@ -3846,9 +3768,6 @@
     <t>Survey of fuzz testing methods applied to UAV control and communication subsystems</t>
   </si>
   <si>
-    <t>Software robustness evaluation and anomaly exposure</t>
-  </si>
-  <si>
     <t>This review highlights how fuzzing identifies latent bugs and vulnerabilities that could lead to runtime anomalies or exploits and discusses research gaps and future directions while connecting UAV anomaly detection with security testing challenges</t>
   </si>
   <si>
@@ -3888,9 +3807,6 @@
     <t>Federated learning with anomaly optimization in distributed drone swarms</t>
   </si>
   <si>
-    <t>Swarm anomaly detection and network incident monitoring</t>
-  </si>
-  <si>
     <t>Accuracy; Precision; Communication overhead</t>
   </si>
   <si>
@@ -3936,9 +3852,6 @@
     <t>GAN-based two-branch network</t>
   </si>
   <si>
-    <t>Aerial surveillance anomaly detection</t>
-  </si>
-  <si>
     <t>AUROC; SSIM</t>
   </si>
   <si>
@@ -3973,9 +3886,6 @@
   </si>
   <si>
     <t>Transformer-based language models with sentiment analysis</t>
-  </si>
-  <si>
-    <t>Drone incident investigation and post-flight forensic analysis</t>
   </si>
   <si>
     <t>Classification accuracy; Anomaly identification capability</t>
@@ -4027,9 +3937,6 @@
     <t>Conceptual machine learning architectures for swarm anomaly detection</t>
   </si>
   <si>
-    <t>Swarm UAV anomaly detection</t>
-  </si>
-  <si>
     <t>Presents foundational ML concepts for detecting anomalies in drone swarms; lays conceptual architecture rather than empirical benchmarks</t>
   </si>
   <si>
@@ -4069,9 +3976,6 @@
     <t>Deep neural network trained on navigation sensor data</t>
   </si>
   <si>
-    <t>Navigation reliability and anomaly detection</t>
-  </si>
-  <si>
     <t>Detection accuracy; False positive/negative rates</t>
   </si>
   <si>
@@ -4114,9 +4018,6 @@
     <t>Temporal convolutional network (TCN) + cross-attention mechanisms</t>
   </si>
   <si>
-    <t>Real-time UAV health and sensor anomaly detection</t>
-  </si>
-  <si>
     <t>Precision; Recall; F1</t>
   </si>
   <si>
@@ -4159,9 +4060,6 @@
     <t>Reconstruction-Prediction Co-Learning Attention Network (CNN + LSTM + attention)</t>
   </si>
   <si>
-    <t>Flight health and anomaly detection</t>
-  </si>
-  <si>
     <t>Detection accuracy; Robustness</t>
   </si>
   <si>
@@ -4198,9 +4096,6 @@
     <t>Statistical or learning-based online monitoring model</t>
   </si>
   <si>
-    <t>Runtime UAV health monitoring and anomaly detection</t>
-  </si>
-  <si>
     <t>The approach demonstrates the feasibility of detecting UAV anomalies online during flight, enabling early identification of abnormal behavior before mission failure</t>
   </si>
   <si>
@@ -4237,9 +4132,6 @@
     <t>CNN autoencoder on radar micro-Doppler spectrograms</t>
   </si>
   <si>
-    <t>Drone detection and classification using radar sensing</t>
-  </si>
-  <si>
     <t>Classification accuracy; Reconstruction error metrics</t>
   </si>
   <si>
@@ -4285,9 +4177,6 @@
     <t>End-to-end deep one-class network with integrated optical flow generation</t>
   </si>
   <si>
-    <t>Aerial video anomaly detection AUROC; AUC (85.3)</t>
-  </si>
-  <si>
     <t>The method achieves superior performance over existing techniques by automatically generating and embedding optical flow information with compactness regularization, enabling effective detection of abnormal events in complex video scenes</t>
   </si>
   <si>
@@ -4330,9 +4219,6 @@
     <t>Anomaly detection with active learning and precursor identification on mission telemetry and behavior logs</t>
   </si>
   <si>
-    <t>Operational anomaly detection in autonomous UAV systems</t>
-  </si>
-  <si>
     <t>Classification accuracy; False alarm reduction; Detection reliability</t>
   </si>
   <si>
@@ -4375,9 +4261,6 @@
     <t>Temperature sensor data from motors</t>
   </si>
   <si>
-    <t>Detection rate; False alarm rate; System response</t>
-  </si>
-  <si>
     <t>The system effectively identifies abnormal motor temperature using sensor data and reinforcement learning, enabling emergency landing to prevent crashes</t>
   </si>
   <si>
@@ -4414,9 +4297,6 @@
     <t>Assurance-based analysis combining autonomy and security signals</t>
   </si>
   <si>
-    <t>Fault diagnosis and incident triaging for autonomous drones</t>
-  </si>
-  <si>
     <t>Triage accuracy; Fault classification effectiveness</t>
   </si>
   <si>
@@ -4459,9 +4339,6 @@
     <t>Spatio-temporal contextual graph + transformer + graph VAE</t>
   </si>
   <si>
-    <t>Unsupervised video anomaly/event detection</t>
-  </si>
-  <si>
     <t>Frame-level anomaly scores; AUC; precision/recall (improved over baselines)</t>
   </si>
   <si>
@@ -4504,9 +4381,6 @@
     <t>Multiscale feature encoder + reconstruction network</t>
   </si>
   <si>
-    <t>Video anomaly detection performance (AUC, precision, recall)</t>
-  </si>
-  <si>
     <t>The framework achieves competitive performance with lightweight complexity suitable for resource-constrained UAVs, demonstrating effective anomaly detection in diverse aerial video scenes</t>
   </si>
   <si>
@@ -4541,9 +4415,6 @@
   </si>
   <si>
     <t>Wavelet decomposition + stacked denoising autoencoder (SDAE)</t>
-  </si>
-  <si>
-    <t>Flight health monitoring and anomaly detection</t>
   </si>
   <si>
     <t>Detection accuracy; Reconstruction error metrics</t>
@@ -4600,9 +4471,6 @@
     <t>Extended pNEUMA Vision dataset of drone video and trajectory annotations</t>
   </si>
   <si>
-    <t>Noise error detection; trajectory error classification</t>
-  </si>
-  <si>
     <t>The work shows that visually restricted trajectories from drones are highly prone to anomalies and that distinguishing between stationary vs non-stationary errors improves anomaly identification in urban traffic contexts</t>
   </si>
   <si>
@@ -4650,9 +4518,6 @@
     <t>Parallel UAV simulation framework with logging and monitoring</t>
   </si>
   <si>
-    <t>Behavior analysis and anomaly characterization in UAV systems</t>
-  </si>
-  <si>
     <t>The framework facilitates systematic analysis of abnormal UAV behavior by exploiting simulation and parallel evaluation but focuses more on analysis infrastructure than on a single detection model</t>
   </si>
   <si>
@@ -4690,6 +4555,9 @@
   </si>
   <si>
     <t>Simulation-based Data</t>
+  </si>
+  <si>
+    <t>Urban Air Mobility</t>
   </si>
 </sst>
 </file>
@@ -5080,7 +4948,7 @@
   <dimension ref="A1:W113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5138,7 +5006,7 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -5207,9 +5075,9 @@
         <v>35</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P2" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P2" t="s">
         <v>37</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -5275,7 +5143,7 @@
         <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P3" t="s">
         <v>54</v>
@@ -5343,10 +5211,10 @@
         <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="Q4" t="s">
         <v>71</v>
@@ -5411,7 +5279,7 @@
         <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P5" t="s">
         <v>37</v>
@@ -5479,7 +5347,7 @@
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P6" t="s">
         <v>54</v>
@@ -5547,7 +5415,7 @@
         <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P7" t="s">
         <v>37</v>
@@ -5615,7 +5483,7 @@
         <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5683,7 +5551,7 @@
         <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
@@ -5751,7 +5619,7 @@
         <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P10" t="s">
         <v>37</v>
@@ -5819,7 +5687,7 @@
         <v>153</v>
       </c>
       <c r="O11" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P11" t="s">
         <v>37</v>
@@ -5887,7 +5755,7 @@
         <v>168</v>
       </c>
       <c r="O12" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P12" t="s">
         <v>37</v>
@@ -5955,7 +5823,7 @@
         <v>181</v>
       </c>
       <c r="O13" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P13" t="s">
         <v>37</v>
@@ -6023,7 +5891,7 @@
         <v>194</v>
       </c>
       <c r="O14" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P14" t="s">
         <v>37</v>
@@ -6091,7 +5959,7 @@
         <v>207</v>
       </c>
       <c r="O15" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P15" t="s">
         <v>37</v>
@@ -6159,51 +6027,51 @@
         <v>220</v>
       </c>
       <c r="O16" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P16" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Q16" t="s">
         <v>221</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>222</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>223</v>
-      </c>
-      <c r="T16" t="s">
-        <v>224</v>
       </c>
       <c r="U16" t="s">
         <v>58</v>
       </c>
       <c r="V16" t="s">
+        <v>224</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
         <v>227</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>228</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>229</v>
-      </c>
-      <c r="D17" t="s">
-        <v>230</v>
       </c>
       <c r="E17">
         <v>2018</v>
       </c>
       <c r="F17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" t="s">
         <v>231</v>
-      </c>
-      <c r="G17" t="s">
-        <v>232</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -6215,63 +6083,63 @@
         <v>67</v>
       </c>
       <c r="K17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" t="s">
         <v>233</v>
-      </c>
-      <c r="L17" t="s">
-        <v>234</v>
       </c>
       <c r="M17" t="s">
         <v>52</v>
       </c>
       <c r="N17" t="s">
+        <v>234</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q17" t="s">
         <v>235</v>
       </c>
-      <c r="O17" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P17" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>236</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>237</v>
-      </c>
-      <c r="T17" t="s">
-        <v>238</v>
       </c>
       <c r="U17" t="s">
         <v>58</v>
       </c>
       <c r="V17" t="s">
+        <v>238</v>
+      </c>
+      <c r="W17" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" t="s">
         <v>241</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>242</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>243</v>
-      </c>
-      <c r="D18" t="s">
-        <v>244</v>
       </c>
       <c r="E18">
         <v>2025</v>
       </c>
       <c r="F18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" t="s">
         <v>245</v>
-      </c>
-      <c r="G18" t="s">
-        <v>246</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -6283,63 +6151,63 @@
         <v>137</v>
       </c>
       <c r="K18" t="s">
+        <v>246</v>
+      </c>
+      <c r="L18" t="s">
         <v>247</v>
-      </c>
-      <c r="L18" t="s">
-        <v>248</v>
       </c>
       <c r="M18" t="s">
         <v>52</v>
       </c>
       <c r="N18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O18" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
       </c>
       <c r="Q18" t="s">
+        <v>249</v>
+      </c>
+      <c r="S18" t="s">
         <v>250</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>251</v>
-      </c>
-      <c r="T18" t="s">
-        <v>252</v>
       </c>
       <c r="U18" t="s">
         <v>58</v>
       </c>
       <c r="V18" t="s">
+        <v>252</v>
+      </c>
+      <c r="W18" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" t="s">
         <v>255</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>256</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>257</v>
-      </c>
-      <c r="D19" t="s">
-        <v>258</v>
       </c>
       <c r="E19">
         <v>2020</v>
       </c>
       <c r="F19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" t="s">
         <v>259</v>
-      </c>
-      <c r="G19" t="s">
-        <v>260</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -6351,7 +6219,7 @@
         <v>31</v>
       </c>
       <c r="K19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L19" t="s">
         <v>33</v>
@@ -6360,54 +6228,54 @@
         <v>139</v>
       </c>
       <c r="N19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O19" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
       </c>
       <c r="Q19" t="s">
+        <v>262</v>
+      </c>
+      <c r="S19" t="s">
         <v>263</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>264</v>
-      </c>
-      <c r="T19" t="s">
-        <v>265</v>
       </c>
       <c r="U19" t="s">
         <v>41</v>
       </c>
       <c r="V19" t="s">
+        <v>265</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" t="s">
         <v>268</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>269</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>270</v>
-      </c>
-      <c r="D20" t="s">
-        <v>271</v>
       </c>
       <c r="E20">
         <v>2025</v>
       </c>
       <c r="F20" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" t="s">
         <v>272</v>
-      </c>
-      <c r="G20" t="s">
-        <v>273</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -6419,7 +6287,7 @@
         <v>97</v>
       </c>
       <c r="K20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L20" t="s">
         <v>33</v>
@@ -6428,54 +6296,54 @@
         <v>52</v>
       </c>
       <c r="N20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O20" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
       </c>
       <c r="Q20" t="s">
+        <v>275</v>
+      </c>
+      <c r="S20" t="s">
         <v>276</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>277</v>
-      </c>
-      <c r="T20" t="s">
-        <v>278</v>
       </c>
       <c r="U20" t="s">
         <v>58</v>
       </c>
       <c r="V20" t="s">
+        <v>278</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" t="s">
         <v>281</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>282</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>283</v>
-      </c>
-      <c r="D21" t="s">
-        <v>284</v>
       </c>
       <c r="E21">
         <v>2021</v>
       </c>
       <c r="F21" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" t="s">
         <v>285</v>
-      </c>
-      <c r="G21" t="s">
-        <v>286</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -6487,7 +6355,7 @@
         <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L21" t="s">
         <v>33</v>
@@ -6496,54 +6364,54 @@
         <v>52</v>
       </c>
       <c r="N21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O21" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P21" t="s">
         <v>37</v>
       </c>
       <c r="Q21" t="s">
+        <v>288</v>
+      </c>
+      <c r="S21" t="s">
         <v>289</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>290</v>
-      </c>
-      <c r="T21" t="s">
-        <v>291</v>
       </c>
       <c r="U21" t="s">
         <v>58</v>
       </c>
       <c r="V21" t="s">
+        <v>291</v>
+      </c>
+      <c r="W21" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s">
         <v>294</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>295</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>296</v>
-      </c>
-      <c r="D22" t="s">
-        <v>297</v>
       </c>
       <c r="E22">
         <v>2022</v>
       </c>
       <c r="F22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" t="s">
         <v>298</v>
-      </c>
-      <c r="G22" t="s">
-        <v>299</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -6555,7 +6423,7 @@
         <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L22" t="s">
         <v>33</v>
@@ -6564,54 +6432,54 @@
         <v>139</v>
       </c>
       <c r="N22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O22" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P22" t="s">
         <v>37</v>
       </c>
       <c r="Q22" t="s">
+        <v>301</v>
+      </c>
+      <c r="S22" t="s">
         <v>302</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>303</v>
-      </c>
-      <c r="T22" t="s">
-        <v>304</v>
       </c>
       <c r="U22" t="s">
         <v>41</v>
       </c>
       <c r="V22" t="s">
+        <v>304</v>
+      </c>
+      <c r="W22" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" t="s">
         <v>307</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>308</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>309</v>
-      </c>
-      <c r="D23" t="s">
-        <v>310</v>
       </c>
       <c r="E23">
         <v>2025</v>
       </c>
       <c r="F23" t="s">
+        <v>310</v>
+      </c>
+      <c r="G23" t="s">
         <v>311</v>
-      </c>
-      <c r="G23" t="s">
-        <v>312</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -6623,7 +6491,7 @@
         <v>97</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
@@ -6632,54 +6500,54 @@
         <v>34</v>
       </c>
       <c r="N23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O23" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P23" t="s">
         <v>54</v>
       </c>
       <c r="Q23" t="s">
+        <v>314</v>
+      </c>
+      <c r="S23" t="s">
         <v>315</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>316</v>
-      </c>
-      <c r="T23" t="s">
-        <v>317</v>
       </c>
       <c r="U23" t="s">
         <v>58</v>
       </c>
       <c r="V23" t="s">
+        <v>317</v>
+      </c>
+      <c r="W23" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" t="s">
         <v>320</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>321</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>322</v>
-      </c>
-      <c r="D24" t="s">
-        <v>323</v>
       </c>
       <c r="E24">
         <v>2023</v>
       </c>
       <c r="F24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" t="s">
         <v>324</v>
-      </c>
-      <c r="G24" t="s">
-        <v>325</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -6691,7 +6559,7 @@
         <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L24" t="s">
         <v>33</v>
@@ -6700,54 +6568,54 @@
         <v>52</v>
       </c>
       <c r="N24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O24" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P24" t="s">
         <v>37</v>
       </c>
       <c r="Q24" t="s">
+        <v>327</v>
+      </c>
+      <c r="S24" t="s">
         <v>328</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>329</v>
-      </c>
-      <c r="T24" t="s">
-        <v>330</v>
       </c>
       <c r="U24" t="s">
         <v>58</v>
       </c>
       <c r="V24" t="s">
+        <v>330</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s">
         <v>333</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>334</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>335</v>
-      </c>
-      <c r="D25" t="s">
-        <v>336</v>
       </c>
       <c r="E25">
         <v>2025</v>
       </c>
       <c r="F25" t="s">
+        <v>336</v>
+      </c>
+      <c r="G25" t="s">
         <v>337</v>
-      </c>
-      <c r="G25" t="s">
-        <v>338</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -6759,7 +6627,7 @@
         <v>165</v>
       </c>
       <c r="K25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L25" t="s">
         <v>33</v>
@@ -6768,54 +6636,54 @@
         <v>52</v>
       </c>
       <c r="N25" t="s">
+        <v>339</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q25" t="s">
         <v>340</v>
       </c>
-      <c r="O25" t="s">
-        <v>1533</v>
-      </c>
-      <c r="P25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>341</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>342</v>
-      </c>
-      <c r="T25" t="s">
-        <v>343</v>
       </c>
       <c r="U25" t="s">
         <v>58</v>
       </c>
       <c r="V25" t="s">
+        <v>343</v>
+      </c>
+      <c r="W25" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" t="s">
         <v>346</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>347</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>348</v>
-      </c>
-      <c r="D26" t="s">
-        <v>349</v>
       </c>
       <c r="E26">
         <v>2025</v>
       </c>
       <c r="F26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" t="s">
         <v>350</v>
-      </c>
-      <c r="G26" t="s">
-        <v>351</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -6827,7 +6695,7 @@
         <v>31</v>
       </c>
       <c r="K26" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L26" t="s">
         <v>33</v>
@@ -6836,54 +6704,54 @@
         <v>139</v>
       </c>
       <c r="N26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O26" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
       </c>
       <c r="Q26" t="s">
+        <v>353</v>
+      </c>
+      <c r="S26" t="s">
         <v>354</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>355</v>
-      </c>
-      <c r="T26" t="s">
-        <v>356</v>
       </c>
       <c r="U26" t="s">
         <v>58</v>
       </c>
       <c r="V26" t="s">
+        <v>356</v>
+      </c>
+      <c r="W26" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>358</v>
+      </c>
+      <c r="B27" t="s">
         <v>359</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>360</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>361</v>
-      </c>
-      <c r="D27" t="s">
-        <v>362</v>
       </c>
       <c r="E27">
         <v>2025</v>
       </c>
       <c r="F27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G27" t="s">
         <v>363</v>
-      </c>
-      <c r="G27" t="s">
-        <v>364</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -6895,10 +6763,10 @@
         <v>54</v>
       </c>
       <c r="K27" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" t="s">
         <v>365</v>
-      </c>
-      <c r="L27" t="s">
-        <v>366</v>
       </c>
       <c r="M27" t="s">
         <v>34</v>
@@ -6907,51 +6775,51 @@
         <v>33</v>
       </c>
       <c r="O27" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q27" t="s">
         <v>37</v>
       </c>
       <c r="R27" t="s">
+        <v>366</v>
+      </c>
+      <c r="T27" t="s">
         <v>367</v>
       </c>
-      <c r="T27" t="s">
+      <c r="U27" t="s">
         <v>368</v>
-      </c>
-      <c r="U27" t="s">
-        <v>369</v>
       </c>
       <c r="V27" t="s">
         <v>58</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B28" t="s">
         <v>371</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>372</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>373</v>
-      </c>
-      <c r="D28" t="s">
-        <v>374</v>
       </c>
       <c r="E28">
         <v>2025</v>
       </c>
       <c r="F28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G28" t="s">
         <v>375</v>
-      </c>
-      <c r="G28" t="s">
-        <v>376</v>
       </c>
       <c r="H28" t="s">
         <v>29</v>
@@ -6963,7 +6831,7 @@
         <v>97</v>
       </c>
       <c r="K28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L28" t="s">
         <v>69</v>
@@ -6972,54 +6840,54 @@
         <v>167</v>
       </c>
       <c r="N28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O28" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P28" t="s">
         <v>37</v>
       </c>
       <c r="Q28" t="s">
+        <v>378</v>
+      </c>
+      <c r="S28" t="s">
         <v>379</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>380</v>
-      </c>
-      <c r="T28" t="s">
-        <v>381</v>
       </c>
       <c r="U28" t="s">
         <v>58</v>
       </c>
       <c r="V28" t="s">
+        <v>381</v>
+      </c>
+      <c r="W28" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B29" t="s">
         <v>384</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>385</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>386</v>
-      </c>
-      <c r="D29" t="s">
-        <v>387</v>
       </c>
       <c r="E29">
         <v>2024</v>
       </c>
       <c r="F29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G29" t="s">
         <v>388</v>
-      </c>
-      <c r="G29" t="s">
-        <v>389</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -7031,7 +6899,7 @@
         <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L29" t="s">
         <v>33</v>
@@ -7040,54 +6908,54 @@
         <v>139</v>
       </c>
       <c r="N29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O29" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P29" t="s">
         <v>37</v>
       </c>
       <c r="Q29" t="s">
+        <v>391</v>
+      </c>
+      <c r="S29" t="s">
         <v>392</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>393</v>
-      </c>
-      <c r="T29" t="s">
-        <v>394</v>
       </c>
       <c r="U29" t="s">
         <v>41</v>
       </c>
       <c r="V29" t="s">
+        <v>394</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B30" t="s">
         <v>397</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>398</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>399</v>
-      </c>
-      <c r="D30" t="s">
-        <v>400</v>
       </c>
       <c r="E30">
         <v>2023</v>
       </c>
       <c r="F30" t="s">
+        <v>400</v>
+      </c>
+      <c r="G30" t="s">
         <v>401</v>
-      </c>
-      <c r="G30" t="s">
-        <v>402</v>
       </c>
       <c r="H30" t="s">
         <v>29</v>
@@ -7099,7 +6967,7 @@
         <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L30" t="s">
         <v>33</v>
@@ -7108,54 +6976,54 @@
         <v>167</v>
       </c>
       <c r="N30" t="s">
+        <v>403</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q30" t="s">
         <v>404</v>
       </c>
-      <c r="O30" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="S30" t="s">
         <v>405</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>406</v>
-      </c>
-      <c r="T30" t="s">
-        <v>407</v>
       </c>
       <c r="U30" t="s">
         <v>58</v>
       </c>
       <c r="V30" t="s">
+        <v>407</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>409</v>
+      </c>
+      <c r="B31" t="s">
         <v>410</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>411</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>412</v>
-      </c>
-      <c r="D31" t="s">
-        <v>413</v>
       </c>
       <c r="E31">
         <v>2025</v>
       </c>
       <c r="F31" t="s">
+        <v>413</v>
+      </c>
+      <c r="G31" t="s">
         <v>414</v>
-      </c>
-      <c r="G31" t="s">
-        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -7167,7 +7035,7 @@
         <v>97</v>
       </c>
       <c r="K31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L31" t="s">
         <v>33</v>
@@ -7176,54 +7044,54 @@
         <v>139</v>
       </c>
       <c r="N31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="O31" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P31" t="s">
         <v>54</v>
       </c>
       <c r="Q31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S31" t="s">
+        <v>417</v>
+      </c>
+      <c r="T31" t="s">
         <v>418</v>
-      </c>
-      <c r="T31" t="s">
-        <v>419</v>
       </c>
       <c r="U31" t="s">
         <v>58</v>
       </c>
       <c r="V31" t="s">
+        <v>419</v>
+      </c>
+      <c r="W31" s="3" t="s">
         <v>420</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" t="s">
         <v>422</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>423</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>424</v>
-      </c>
-      <c r="D32" t="s">
-        <v>425</v>
       </c>
       <c r="E32">
         <v>2021</v>
       </c>
       <c r="F32" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" t="s">
         <v>426</v>
-      </c>
-      <c r="G32" t="s">
-        <v>427</v>
       </c>
       <c r="H32" t="s">
         <v>29</v>
@@ -7235,63 +7103,63 @@
         <v>67</v>
       </c>
       <c r="K32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s">
         <v>52</v>
       </c>
       <c r="N32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O32" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P32" t="s">
         <v>37</v>
       </c>
       <c r="Q32" t="s">
+        <v>429</v>
+      </c>
+      <c r="S32" t="s">
         <v>430</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>431</v>
-      </c>
-      <c r="T32" t="s">
-        <v>432</v>
       </c>
       <c r="U32" t="s">
         <v>58</v>
       </c>
       <c r="V32" t="s">
+        <v>432</v>
+      </c>
+      <c r="W32" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" t="s">
         <v>435</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>436</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>437</v>
-      </c>
-      <c r="D33" t="s">
-        <v>438</v>
       </c>
       <c r="E33">
         <v>2025</v>
       </c>
       <c r="F33" t="s">
+        <v>438</v>
+      </c>
+      <c r="G33" t="s">
         <v>439</v>
-      </c>
-      <c r="G33" t="s">
-        <v>440</v>
       </c>
       <c r="H33" t="s">
         <v>29</v>
@@ -7303,7 +7171,7 @@
         <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L33" t="s">
         <v>33</v>
@@ -7312,69 +7180,69 @@
         <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O33" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q33" t="s">
         <v>443</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>444</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>445</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>446</v>
-      </c>
-      <c r="T33" t="s">
-        <v>447</v>
       </c>
       <c r="U33" t="s">
         <v>58</v>
       </c>
       <c r="V33" t="s">
+        <v>447</v>
+      </c>
+      <c r="W33" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" t="s">
         <v>450</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>451</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>452</v>
-      </c>
-      <c r="D34" t="s">
-        <v>453</v>
       </c>
       <c r="E34">
         <v>2022</v>
       </c>
       <c r="F34" t="s">
+        <v>453</v>
+      </c>
+      <c r="G34" t="s">
         <v>454</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>455</v>
-      </c>
-      <c r="H34" t="s">
-        <v>456</v>
       </c>
       <c r="I34" t="s">
         <v>50</v>
       </c>
       <c r="J34" t="s">
+        <v>456</v>
+      </c>
+      <c r="K34" t="s">
         <v>457</v>
-      </c>
-      <c r="K34" t="s">
-        <v>458</v>
       </c>
       <c r="L34" t="s">
         <v>69</v>
@@ -7383,54 +7251,54 @@
         <v>167</v>
       </c>
       <c r="N34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O34" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P34" t="s">
         <v>37</v>
       </c>
       <c r="Q34" t="s">
+        <v>459</v>
+      </c>
+      <c r="S34" t="s">
         <v>460</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>461</v>
-      </c>
-      <c r="T34" t="s">
-        <v>462</v>
       </c>
       <c r="U34" t="s">
         <v>58</v>
       </c>
       <c r="V34" t="s">
+        <v>462</v>
+      </c>
+      <c r="W34" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B35" t="s">
         <v>465</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>466</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>467</v>
-      </c>
-      <c r="D35" t="s">
-        <v>468</v>
       </c>
       <c r="E35">
         <v>2024</v>
       </c>
       <c r="F35" t="s">
+        <v>468</v>
+      </c>
+      <c r="G35" t="s">
         <v>469</v>
-      </c>
-      <c r="G35" t="s">
-        <v>470</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -7442,63 +7310,63 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
+        <v>470</v>
+      </c>
+      <c r="L35" t="s">
         <v>471</v>
-      </c>
-      <c r="L35" t="s">
-        <v>472</v>
       </c>
       <c r="M35" t="s">
         <v>52</v>
       </c>
       <c r="N35" t="s">
+        <v>472</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1489</v>
+      </c>
+      <c r="P35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q35" t="s">
         <v>473</v>
       </c>
-      <c r="O35" t="s">
-        <v>1534</v>
-      </c>
-      <c r="P35" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
         <v>474</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>475</v>
-      </c>
-      <c r="T35" t="s">
-        <v>476</v>
       </c>
       <c r="U35" t="s">
         <v>58</v>
       </c>
       <c r="V35" t="s">
+        <v>476</v>
+      </c>
+      <c r="W35" s="3" t="s">
         <v>477</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B36" t="s">
         <v>479</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>480</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>481</v>
-      </c>
-      <c r="D36" t="s">
-        <v>482</v>
       </c>
       <c r="E36">
         <v>2023</v>
       </c>
       <c r="F36" t="s">
+        <v>482</v>
+      </c>
+      <c r="G36" t="s">
         <v>483</v>
-      </c>
-      <c r="G36" t="s">
-        <v>484</v>
       </c>
       <c r="H36" t="s">
         <v>29</v>
@@ -7510,7 +7378,7 @@
         <v>31</v>
       </c>
       <c r="K36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L36" t="s">
         <v>33</v>
@@ -7519,54 +7387,54 @@
         <v>34</v>
       </c>
       <c r="N36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O36" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P36" t="s">
         <v>54</v>
       </c>
       <c r="Q36" t="s">
+        <v>486</v>
+      </c>
+      <c r="S36" t="s">
         <v>487</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>488</v>
-      </c>
-      <c r="T36" t="s">
-        <v>489</v>
       </c>
       <c r="U36" t="s">
         <v>58</v>
       </c>
       <c r="V36" t="s">
+        <v>489</v>
+      </c>
+      <c r="W36" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B37" t="s">
         <v>492</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>493</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>494</v>
-      </c>
-      <c r="D37" t="s">
-        <v>495</v>
       </c>
       <c r="E37">
         <v>2023</v>
       </c>
       <c r="F37" t="s">
+        <v>495</v>
+      </c>
+      <c r="G37" t="s">
         <v>496</v>
-      </c>
-      <c r="G37" t="s">
-        <v>497</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
@@ -7575,10 +7443,10 @@
         <v>50</v>
       </c>
       <c r="J37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L37" t="s">
         <v>33</v>
@@ -7587,54 +7455,54 @@
         <v>34</v>
       </c>
       <c r="N37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O37" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P37" t="s">
         <v>37</v>
       </c>
       <c r="Q37" t="s">
+        <v>499</v>
+      </c>
+      <c r="S37" t="s">
         <v>500</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>501</v>
-      </c>
-      <c r="T37" t="s">
-        <v>502</v>
       </c>
       <c r="U37" t="s">
         <v>58</v>
       </c>
       <c r="V37" t="s">
+        <v>502</v>
+      </c>
+      <c r="W37" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>504</v>
+      </c>
+      <c r="B38" t="s">
         <v>505</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>506</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>507</v>
-      </c>
-      <c r="D38" t="s">
-        <v>508</v>
       </c>
       <c r="E38">
         <v>2024</v>
       </c>
       <c r="F38" t="s">
+        <v>508</v>
+      </c>
+      <c r="G38" t="s">
         <v>509</v>
-      </c>
-      <c r="G38" t="s">
-        <v>510</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
@@ -7646,7 +7514,7 @@
         <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L38" t="s">
         <v>33</v>
@@ -7655,54 +7523,54 @@
         <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O38" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
       </c>
       <c r="Q38" t="s">
+        <v>512</v>
+      </c>
+      <c r="S38" t="s">
         <v>513</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>514</v>
-      </c>
-      <c r="T38" t="s">
-        <v>515</v>
       </c>
       <c r="U38" t="s">
         <v>41</v>
       </c>
       <c r="V38" t="s">
+        <v>515</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>517</v>
+      </c>
+      <c r="B39" t="s">
         <v>518</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>519</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>520</v>
-      </c>
-      <c r="D39" t="s">
-        <v>521</v>
       </c>
       <c r="E39">
         <v>2025</v>
       </c>
       <c r="F39" t="s">
+        <v>521</v>
+      </c>
+      <c r="G39" t="s">
         <v>522</v>
-      </c>
-      <c r="G39" t="s">
-        <v>523</v>
       </c>
       <c r="H39" t="s">
         <v>29</v>
@@ -7714,7 +7582,7 @@
         <v>137</v>
       </c>
       <c r="K39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L39" t="s">
         <v>33</v>
@@ -7723,54 +7591,54 @@
         <v>52</v>
       </c>
       <c r="N39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O39" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P39" t="s">
         <v>37</v>
       </c>
       <c r="Q39" t="s">
+        <v>525</v>
+      </c>
+      <c r="S39" t="s">
         <v>526</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>527</v>
-      </c>
-      <c r="T39" t="s">
-        <v>528</v>
       </c>
       <c r="U39" t="s">
         <v>58</v>
       </c>
       <c r="V39" t="s">
+        <v>528</v>
+      </c>
+      <c r="W39" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>530</v>
+      </c>
+      <c r="B40" t="s">
         <v>531</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>532</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>533</v>
-      </c>
-      <c r="D40" t="s">
-        <v>534</v>
       </c>
       <c r="E40">
         <v>2023</v>
       </c>
       <c r="F40" t="s">
+        <v>534</v>
+      </c>
+      <c r="G40" t="s">
         <v>535</v>
-      </c>
-      <c r="G40" t="s">
-        <v>536</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -7779,66 +7647,66 @@
         <v>50</v>
       </c>
       <c r="J40" t="s">
+        <v>536</v>
+      </c>
+      <c r="K40" t="s">
         <v>537</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>538</v>
-      </c>
-      <c r="L40" t="s">
-        <v>539</v>
       </c>
       <c r="M40" t="s">
         <v>52</v>
       </c>
       <c r="N40" t="s">
+        <v>539</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P40" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q40" t="s">
         <v>540</v>
       </c>
-      <c r="O40" t="s">
-        <v>1533</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="S40" t="s">
         <v>541</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="T40" t="s">
         <v>542</v>
       </c>
-      <c r="S40" t="s">
+      <c r="U40" t="s">
         <v>543</v>
       </c>
-      <c r="T40" t="s">
+      <c r="V40" t="s">
         <v>544</v>
       </c>
-      <c r="U40" t="s">
+      <c r="W40" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="V40" t="s">
-        <v>546</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>546</v>
+      </c>
+      <c r="B41" t="s">
+        <v>547</v>
+      </c>
+      <c r="C41" t="s">
         <v>548</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>549</v>
-      </c>
-      <c r="C41" t="s">
-        <v>550</v>
-      </c>
-      <c r="D41" t="s">
-        <v>551</v>
       </c>
       <c r="E41">
         <v>2020</v>
       </c>
       <c r="F41" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G41" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H41" t="s">
         <v>29</v>
@@ -7850,60 +7718,60 @@
         <v>67</v>
       </c>
       <c r="K41" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L41" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M41" t="s">
         <v>34</v>
       </c>
       <c r="N41" t="s">
+        <v>554</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P41" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>555</v>
+      </c>
+      <c r="R41" t="s">
         <v>556</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P41" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>557</v>
-      </c>
-      <c r="R41" t="s">
-        <v>558</v>
       </c>
       <c r="S41" t="s">
         <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="U41" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>559</v>
+      </c>
+      <c r="B42" t="s">
+        <v>560</v>
+      </c>
+      <c r="C42" t="s">
         <v>561</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>562</v>
-      </c>
-      <c r="C42" t="s">
-        <v>563</v>
-      </c>
-      <c r="D42" t="s">
-        <v>564</v>
       </c>
       <c r="E42">
         <v>2025</v>
       </c>
       <c r="F42" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G42" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H42" t="s">
         <v>29</v>
@@ -7915,7 +7783,7 @@
         <v>137</v>
       </c>
       <c r="K42" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L42" t="s">
         <v>69</v>
@@ -7924,54 +7792,54 @@
         <v>34</v>
       </c>
       <c r="N42" t="s">
+        <v>566</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P42" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>567</v>
+      </c>
+      <c r="S42" t="s">
         <v>568</v>
       </c>
-      <c r="O42" t="s">
-        <v>1533</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="T42" t="s">
         <v>569</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>570</v>
-      </c>
-      <c r="S42" t="s">
-        <v>571</v>
-      </c>
-      <c r="T42" t="s">
-        <v>572</v>
       </c>
       <c r="U42" t="s">
         <v>41</v>
       </c>
       <c r="V42" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>572</v>
+      </c>
+      <c r="B43" t="s">
+        <v>573</v>
+      </c>
+      <c r="C43" t="s">
+        <v>574</v>
+      </c>
+      <c r="D43" t="s">
         <v>575</v>
-      </c>
-      <c r="B43" t="s">
-        <v>576</v>
-      </c>
-      <c r="C43" t="s">
-        <v>577</v>
-      </c>
-      <c r="D43" t="s">
-        <v>578</v>
       </c>
       <c r="E43">
         <v>2022</v>
       </c>
       <c r="F43" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G43" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H43" t="s">
         <v>29</v>
@@ -7980,10 +7848,10 @@
         <v>50</v>
       </c>
       <c r="J43" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K43" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L43" t="s">
         <v>33</v>
@@ -7992,51 +7860,51 @@
         <v>139</v>
       </c>
       <c r="N43" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="O43" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
       </c>
       <c r="Q43" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="S43" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="T43" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="U43" t="s">
         <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>585</v>
+      </c>
+      <c r="B44" t="s">
+        <v>586</v>
+      </c>
+      <c r="C44" t="s">
+        <v>587</v>
+      </c>
+      <c r="D44" t="s">
         <v>588</v>
-      </c>
-      <c r="B44" t="s">
-        <v>589</v>
-      </c>
-      <c r="C44" t="s">
-        <v>590</v>
-      </c>
-      <c r="D44" t="s">
-        <v>591</v>
       </c>
       <c r="E44">
         <v>2023</v>
       </c>
       <c r="F44" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G44" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="H44" t="s">
         <v>29</v>
@@ -8045,10 +7913,10 @@
         <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K44" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="L44" t="s">
         <v>33</v>
@@ -8057,63 +7925,63 @@
         <v>139</v>
       </c>
       <c r="N44" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="O44" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
       </c>
       <c r="Q44" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="S44" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="T44" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="U44" t="s">
         <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>597</v>
+      </c>
+      <c r="B45" t="s">
+        <v>598</v>
+      </c>
+      <c r="C45" t="s">
+        <v>599</v>
+      </c>
+      <c r="D45" t="s">
         <v>600</v>
-      </c>
-      <c r="B45" t="s">
-        <v>601</v>
-      </c>
-      <c r="C45" t="s">
-        <v>602</v>
-      </c>
-      <c r="D45" t="s">
-        <v>603</v>
       </c>
       <c r="E45">
         <v>2023</v>
       </c>
       <c r="F45" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G45" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="H45" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I45" t="s">
         <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K45" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="L45" t="s">
         <v>69</v>
@@ -8122,51 +7990,51 @@
         <v>52</v>
       </c>
       <c r="N45" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="O45" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P45" t="s">
         <v>37</v>
       </c>
       <c r="Q45" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="S45" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="T45" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="U45" t="s">
         <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>609</v>
+      </c>
+      <c r="B46" t="s">
+        <v>610</v>
+      </c>
+      <c r="C46" t="s">
+        <v>611</v>
+      </c>
+      <c r="D46" t="s">
         <v>612</v>
-      </c>
-      <c r="B46" t="s">
-        <v>613</v>
-      </c>
-      <c r="C46" t="s">
-        <v>614</v>
-      </c>
-      <c r="D46" t="s">
-        <v>615</v>
       </c>
       <c r="E46">
         <v>2025</v>
       </c>
       <c r="F46" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G46" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -8175,10 +8043,10 @@
         <v>50</v>
       </c>
       <c r="J46" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K46" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L46" t="s">
         <v>33</v>
@@ -8187,51 +8055,51 @@
         <v>139</v>
       </c>
       <c r="N46" t="s">
+        <v>616</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1487</v>
+      </c>
+      <c r="P46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>617</v>
+      </c>
+      <c r="S46" t="s">
+        <v>618</v>
+      </c>
+      <c r="T46" t="s">
         <v>619</v>
-      </c>
-      <c r="O46" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P46" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>620</v>
-      </c>
-      <c r="S46" t="s">
-        <v>621</v>
-      </c>
-      <c r="T46" t="s">
-        <v>622</v>
       </c>
       <c r="U46" t="s">
         <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B47" t="s">
+        <v>622</v>
+      </c>
+      <c r="C47" t="s">
+        <v>623</v>
+      </c>
+      <c r="D47" t="s">
         <v>624</v>
-      </c>
-      <c r="B47" t="s">
-        <v>625</v>
-      </c>
-      <c r="C47" t="s">
-        <v>626</v>
-      </c>
-      <c r="D47" t="s">
-        <v>627</v>
       </c>
       <c r="E47">
         <v>2025</v>
       </c>
       <c r="F47" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G47" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
@@ -8243,7 +8111,7 @@
         <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L47" t="s">
         <v>33</v>
@@ -8252,60 +8120,60 @@
         <v>139</v>
       </c>
       <c r="N47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O47" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P47" t="s">
         <v>37</v>
       </c>
       <c r="Q47" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="S47" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="T47" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="U47" t="s">
         <v>58</v>
       </c>
       <c r="V47" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B48" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D48" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E48">
         <v>2024</v>
       </c>
       <c r="F48" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G48" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J48" t="s">
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L48" t="s">
         <v>33</v>
@@ -8314,39 +8182,39 @@
         <v>139</v>
       </c>
       <c r="N48" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="O48" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P48" t="s">
         <v>37</v>
       </c>
       <c r="Q48" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="S48" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="T48" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="U48" t="s">
         <v>58</v>
       </c>
       <c r="V48" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B49" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C49" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
@@ -8355,7 +8223,7 @@
         <v>2019</v>
       </c>
       <c r="F49" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G49" t="s">
         <v>49</v>
@@ -8370,7 +8238,7 @@
         <v>31</v>
       </c>
       <c r="K49" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="L49" t="s">
         <v>33</v>
@@ -8379,51 +8247,51 @@
         <v>52</v>
       </c>
       <c r="N49" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="O49" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P49" t="s">
         <v>54</v>
       </c>
       <c r="Q49" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="S49" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="T49" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="U49" t="s">
         <v>41</v>
       </c>
       <c r="V49" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>655</v>
+      </c>
+      <c r="B50" t="s">
+        <v>656</v>
+      </c>
+      <c r="C50" t="s">
+        <v>657</v>
+      </c>
+      <c r="D50" t="s">
         <v>658</v>
-      </c>
-      <c r="B50" t="s">
-        <v>659</v>
-      </c>
-      <c r="C50" t="s">
-        <v>660</v>
-      </c>
-      <c r="D50" t="s">
-        <v>661</v>
       </c>
       <c r="E50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G50" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H50" t="s">
         <v>29</v>
@@ -8435,63 +8303,63 @@
         <v>67</v>
       </c>
       <c r="K50" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="O50" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
       </c>
       <c r="Q50" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="R50" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="S50" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="T50" t="s">
         <v>41</v>
       </c>
       <c r="U50" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>666</v>
+      </c>
+      <c r="B51" t="s">
+        <v>667</v>
+      </c>
+      <c r="C51" t="s">
+        <v>668</v>
+      </c>
+      <c r="D51" t="s">
         <v>669</v>
-      </c>
-      <c r="B51" t="s">
-        <v>670</v>
-      </c>
-      <c r="C51" t="s">
-        <v>671</v>
-      </c>
-      <c r="D51" t="s">
-        <v>672</v>
       </c>
       <c r="E51">
         <v>2020</v>
       </c>
       <c r="F51" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G51" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H51" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I51" t="s">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="L51" t="s">
         <v>69</v>
@@ -8500,51 +8368,51 @@
         <v>34</v>
       </c>
       <c r="N51" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="O51" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P51" t="s">
         <v>37</v>
       </c>
       <c r="Q51" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="S51" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="T51" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="U51" t="s">
         <v>58</v>
       </c>
       <c r="V51" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>678</v>
+      </c>
+      <c r="B52" t="s">
+        <v>679</v>
+      </c>
+      <c r="C52" t="s">
+        <v>680</v>
+      </c>
+      <c r="D52" t="s">
         <v>681</v>
-      </c>
-      <c r="B52" t="s">
-        <v>682</v>
-      </c>
-      <c r="C52" t="s">
-        <v>683</v>
-      </c>
-      <c r="D52" t="s">
-        <v>684</v>
       </c>
       <c r="E52">
         <v>2021</v>
       </c>
       <c r="F52" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G52" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -8556,7 +8424,7 @@
         <v>67</v>
       </c>
       <c r="K52" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="L52" t="s">
         <v>33</v>
@@ -8565,51 +8433,51 @@
         <v>139</v>
       </c>
       <c r="N52" t="s">
+        <v>685</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1488</v>
+      </c>
+      <c r="P52" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>686</v>
+      </c>
+      <c r="S52" t="s">
+        <v>687</v>
+      </c>
+      <c r="T52" t="s">
         <v>688</v>
-      </c>
-      <c r="O52" t="s">
-        <v>1533</v>
-      </c>
-      <c r="P52" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>689</v>
-      </c>
-      <c r="S52" t="s">
-        <v>690</v>
-      </c>
-      <c r="T52" t="s">
-        <v>691</v>
       </c>
       <c r="U52" t="s">
         <v>58</v>
       </c>
       <c r="V52" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>690</v>
+      </c>
+      <c r="B53" t="s">
+        <v>691</v>
+      </c>
+      <c r="C53" t="s">
+        <v>692</v>
+      </c>
+      <c r="D53" t="s">
         <v>693</v>
-      </c>
-      <c r="B53" t="s">
-        <v>694</v>
-      </c>
-      <c r="C53" t="s">
-        <v>695</v>
-      </c>
-      <c r="D53" t="s">
-        <v>696</v>
       </c>
       <c r="E53">
         <v>2019</v>
       </c>
       <c r="F53" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G53" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -8618,66 +8486,66 @@
         <v>50</v>
       </c>
       <c r="J53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K53" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="L53" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M53" t="s">
         <v>34</v>
       </c>
       <c r="N53" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="O53" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
       </c>
       <c r="Q53" t="s">
+        <v>698</v>
+      </c>
+      <c r="R53" t="s">
+        <v>699</v>
+      </c>
+      <c r="S53" t="s">
+        <v>700</v>
+      </c>
+      <c r="T53" t="s">
         <v>701</v>
-      </c>
-      <c r="R53" t="s">
-        <v>702</v>
-      </c>
-      <c r="S53" t="s">
-        <v>703</v>
-      </c>
-      <c r="T53" t="s">
-        <v>704</v>
       </c>
       <c r="U53" t="s">
         <v>58</v>
       </c>
       <c r="V53" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>703</v>
+      </c>
+      <c r="B54" t="s">
+        <v>704</v>
+      </c>
+      <c r="C54" t="s">
+        <v>705</v>
+      </c>
+      <c r="D54" t="s">
         <v>706</v>
-      </c>
-      <c r="B54" t="s">
-        <v>707</v>
-      </c>
-      <c r="C54" t="s">
-        <v>708</v>
-      </c>
-      <c r="D54" t="s">
-        <v>709</v>
       </c>
       <c r="E54">
         <v>2017</v>
       </c>
       <c r="F54" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G54" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="H54" t="s">
         <v>29</v>
@@ -8686,66 +8554,66 @@
         <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="K54" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="L54" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M54" t="s">
         <v>34</v>
       </c>
       <c r="N54" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="O54" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
       </c>
       <c r="Q54" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="S54" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="T54" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="U54" t="s">
         <v>58</v>
       </c>
       <c r="V54" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>715</v>
+      </c>
+      <c r="B55" t="s">
+        <v>716</v>
+      </c>
+      <c r="C55" t="s">
+        <v>717</v>
+      </c>
+      <c r="D55" t="s">
         <v>718</v>
-      </c>
-      <c r="B55" t="s">
-        <v>719</v>
-      </c>
-      <c r="C55" t="s">
-        <v>720</v>
-      </c>
-      <c r="D55" t="s">
-        <v>721</v>
       </c>
       <c r="E55">
         <v>2019</v>
       </c>
       <c r="F55" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G55" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="H55" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I55" t="s">
         <v>50</v>
@@ -8754,7 +8622,7 @@
         <v>67</v>
       </c>
       <c r="K55" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="L55" t="s">
         <v>33</v>
@@ -8763,51 +8631,51 @@
         <v>52</v>
       </c>
       <c r="N55" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="O55" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
       </c>
       <c r="Q55" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="R55" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="S55" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="T55" t="s">
         <v>58</v>
       </c>
       <c r="U55" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>727</v>
+      </c>
+      <c r="B56" t="s">
+        <v>728</v>
+      </c>
+      <c r="C56" t="s">
+        <v>729</v>
+      </c>
+      <c r="D56" t="s">
         <v>730</v>
-      </c>
-      <c r="B56" t="s">
-        <v>731</v>
-      </c>
-      <c r="C56" t="s">
-        <v>732</v>
-      </c>
-      <c r="D56" t="s">
-        <v>733</v>
       </c>
       <c r="E56">
         <v>2025</v>
       </c>
       <c r="F56" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G56" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="H56" t="s">
         <v>29</v>
@@ -8816,10 +8684,10 @@
         <v>50</v>
       </c>
       <c r="J56" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K56" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="L56" t="s">
         <v>33</v>
@@ -8828,51 +8696,51 @@
         <v>52</v>
       </c>
       <c r="N56" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="O56" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P56" t="s">
         <v>37</v>
       </c>
       <c r="Q56" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="S56" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="T56" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="U56" t="s">
         <v>58</v>
       </c>
       <c r="V56" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>739</v>
+      </c>
+      <c r="B57" t="s">
+        <v>740</v>
+      </c>
+      <c r="C57" t="s">
+        <v>741</v>
+      </c>
+      <c r="D57" t="s">
         <v>742</v>
-      </c>
-      <c r="B57" t="s">
-        <v>743</v>
-      </c>
-      <c r="C57" t="s">
-        <v>744</v>
-      </c>
-      <c r="D57" t="s">
-        <v>745</v>
       </c>
       <c r="E57">
         <v>2020</v>
       </c>
       <c r="F57" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G57" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H57" t="s">
         <v>50</v>
@@ -8881,13 +8749,13 @@
         <v>50</v>
       </c>
       <c r="J57" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="K57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L57" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M57" t="s">
         <v>34</v>
@@ -8896,45 +8764,45 @@
         <v>36</v>
       </c>
       <c r="O57" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P57" t="s">
-        <v>749</v>
+        <v>37</v>
       </c>
       <c r="R57" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="S57" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="T57" t="s">
         <v>58</v>
       </c>
       <c r="U57" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B58" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C58" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="D58" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="E58">
         <v>2018</v>
       </c>
       <c r="F58" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G58" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="H58" t="s">
         <v>29</v>
@@ -8946,60 +8814,60 @@
         <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="L58" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="M58" t="s">
         <v>52</v>
       </c>
       <c r="N58" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="O58" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P58" t="s">
         <v>37</v>
       </c>
       <c r="Q58" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="S58" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="T58" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="U58" t="s">
         <v>58</v>
       </c>
       <c r="V58" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B59" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C59" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D59" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="E59">
         <v>2019</v>
       </c>
       <c r="F59" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="G59" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H59" t="s">
         <v>29</v>
@@ -9008,63 +8876,63 @@
         <v>50</v>
       </c>
       <c r="J59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K59" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="L59" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="M59" t="s">
         <v>139</v>
       </c>
       <c r="N59" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="O59" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P59" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q59" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="S59" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="T59" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="U59" t="s">
         <v>58</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B60" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C60" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D60" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E60">
         <v>2019</v>
       </c>
       <c r="F60" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G60" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H60" t="s">
         <v>29</v>
@@ -9073,63 +8941,63 @@
         <v>50</v>
       </c>
       <c r="J60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K60" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="L60" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="M60" t="s">
         <v>52</v>
       </c>
       <c r="N60" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="O60" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P60" t="s">
         <v>37</v>
       </c>
       <c r="Q60" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="S60" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="T60" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="U60" t="s">
         <v>58</v>
       </c>
       <c r="V60" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B61" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C61" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D61" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E61">
         <v>2021</v>
       </c>
       <c r="F61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="G61" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -9138,10 +9006,10 @@
         <v>50</v>
       </c>
       <c r="J61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K61" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L61" t="s">
         <v>33</v>
@@ -9150,51 +9018,51 @@
         <v>139</v>
       </c>
       <c r="N61" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="O61" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P61" t="s">
         <v>37</v>
       </c>
       <c r="Q61" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="S61" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="T61" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="U61" t="s">
         <v>58</v>
       </c>
       <c r="V61" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B62" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C62" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D62" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E62">
         <v>2024</v>
       </c>
       <c r="F62" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G62" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -9203,10 +9071,10 @@
         <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K62" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="L62" t="s">
         <v>33</v>
@@ -9215,51 +9083,51 @@
         <v>139</v>
       </c>
       <c r="N62" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="O62" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P62" t="s">
         <v>37</v>
       </c>
       <c r="Q62" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S62" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="T62" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="U62" t="s">
         <v>58</v>
       </c>
       <c r="V62" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B63" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C63" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D63" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E63">
         <v>2015</v>
       </c>
       <c r="F63" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G63" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H63" t="s">
         <v>29</v>
@@ -9268,10 +9136,10 @@
         <v>50</v>
       </c>
       <c r="J63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="L63" t="s">
         <v>69</v>
@@ -9280,66 +9148,66 @@
         <v>34</v>
       </c>
       <c r="N63" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="O63" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P63" t="s">
         <v>37</v>
       </c>
       <c r="Q63" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="R63" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="S63" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="T63" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="U63" t="s">
         <v>58</v>
       </c>
       <c r="V63" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B64" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C64" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D64" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E64">
         <v>2019</v>
       </c>
       <c r="F64" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G64" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="H64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I64" t="s">
         <v>50</v>
       </c>
       <c r="J64" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K64" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="L64" t="s">
         <v>69</v>
@@ -9348,51 +9216,51 @@
         <v>167</v>
       </c>
       <c r="N64" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="O64" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P64" t="s">
         <v>37</v>
       </c>
       <c r="Q64" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="S64" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="T64" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="U64" t="s">
         <v>58</v>
       </c>
       <c r="V64" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B65" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C65" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D65" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E65">
         <v>2024</v>
       </c>
       <c r="F65" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G65" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H65" t="s">
         <v>29</v>
@@ -9401,10 +9269,10 @@
         <v>50</v>
       </c>
       <c r="J65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K65" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="L65" t="s">
         <v>33</v>
@@ -9413,54 +9281,54 @@
         <v>139</v>
       </c>
       <c r="N65" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="O65" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P65" t="s">
         <v>37</v>
       </c>
       <c r="Q65" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="S65" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="T65" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="U65" t="s">
         <v>58</v>
       </c>
       <c r="V65" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="B66" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C66" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D66" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E66">
         <v>2017</v>
       </c>
       <c r="F66" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G66" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H66" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I66" t="s">
         <v>50</v>
@@ -9469,60 +9337,60 @@
         <v>67</v>
       </c>
       <c r="K66" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="L66" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="M66" t="s">
         <v>34</v>
       </c>
       <c r="N66" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="O66" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P66" t="s">
         <v>37</v>
       </c>
       <c r="Q66" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="S66" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="T66" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="U66" t="s">
         <v>58</v>
       </c>
       <c r="V66" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B67" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C67" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D67" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E67">
         <v>2022</v>
       </c>
       <c r="F67" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="G67" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -9531,60 +9399,60 @@
         <v>50</v>
       </c>
       <c r="J67" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K67" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="L67" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="M67" t="s">
         <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="O67" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P67" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q67" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="R67" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="S67" t="s">
         <v>58</v>
       </c>
       <c r="T67" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B68" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C68" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D68" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E68">
         <v>2023</v>
       </c>
       <c r="F68" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="G68" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -9593,10 +9461,10 @@
         <v>50</v>
       </c>
       <c r="J68" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K68" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L68" t="s">
         <v>33</v>
@@ -9605,51 +9473,51 @@
         <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="O68" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P68" t="s">
         <v>37</v>
       </c>
       <c r="Q68" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="S68" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="T68" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="U68" t="s">
         <v>58</v>
       </c>
       <c r="V68" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="B69" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C69" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D69" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="E69">
         <v>2023</v>
       </c>
       <c r="F69" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G69" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -9658,57 +9526,57 @@
         <v>50</v>
       </c>
       <c r="J69" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="K69" t="s">
         <v>33</v>
       </c>
       <c r="L69" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="M69" t="s">
         <v>167</v>
       </c>
       <c r="N69" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="O69" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P69" t="s">
-        <v>898</v>
+        <v>37</v>
       </c>
       <c r="Q69" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="R69" t="s">
         <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B70" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C70" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="D70" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E70">
         <v>2018</v>
       </c>
       <c r="F70" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="G70" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -9717,60 +9585,60 @@
         <v>50</v>
       </c>
       <c r="J70" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="L70" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s">
         <v>34</v>
       </c>
       <c r="N70" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="O70" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P70" t="s">
         <v>37</v>
       </c>
       <c r="Q70" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="R70" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="S70" t="s">
         <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="B71" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C71" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D71" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="E71">
         <v>2023</v>
       </c>
       <c r="F71" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G71" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -9782,7 +9650,7 @@
         <v>137</v>
       </c>
       <c r="K71" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="L71" t="s">
         <v>33</v>
@@ -9791,51 +9659,51 @@
         <v>139</v>
       </c>
       <c r="N71" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="O71" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P71" t="s">
         <v>37</v>
       </c>
       <c r="Q71" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="S71" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="T71" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="U71" t="s">
         <v>58</v>
       </c>
       <c r="V71" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="B72" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C72" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D72" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="E72">
         <v>2024</v>
       </c>
       <c r="F72" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="G72" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="H72" t="s">
         <v>29</v>
@@ -9844,10 +9712,10 @@
         <v>50</v>
       </c>
       <c r="J72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K72" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="L72" t="s">
         <v>33</v>
@@ -9856,326 +9724,326 @@
         <v>52</v>
       </c>
       <c r="N72" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="O72" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P72" t="s">
         <v>37</v>
       </c>
       <c r="Q72" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="S72" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="T72" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="U72" t="s">
         <v>58</v>
       </c>
       <c r="V72" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B73" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C73" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D73" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E73">
         <v>2021</v>
       </c>
       <c r="F73" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G73" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H73" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I73" t="s">
         <v>50</v>
       </c>
       <c r="J73" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="K73" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="L73" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="M73" t="s">
         <v>139</v>
       </c>
       <c r="N73" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="O73" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P73" t="s">
-        <v>944</v>
+        <v>37</v>
       </c>
       <c r="Q73" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="R73" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S73" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="T73" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="B74" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="C74" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D74" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E74">
         <v>2017</v>
       </c>
       <c r="F74" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G74" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H74" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I74" t="s">
         <v>50</v>
       </c>
       <c r="J74" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="K74" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="L74" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="M74" t="s">
         <v>167</v>
       </c>
       <c r="N74" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="O74" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P74" t="s">
-        <v>957</v>
+        <v>37</v>
       </c>
       <c r="Q74" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="R74" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S74" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="T74" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="U74" t="s">
         <v>58</v>
       </c>
       <c r="V74" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="B75" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C75" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D75" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="E75" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F75" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G75" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H75" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I75" t="s">
         <v>50</v>
       </c>
       <c r="J75" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="K75" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="L75" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="M75" t="s">
         <v>139</v>
       </c>
       <c r="N75" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="O75" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P75" t="s">
-        <v>971</v>
+        <v>37</v>
       </c>
       <c r="Q75" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="R75" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S75" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="T75" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="U75" t="s">
         <v>58</v>
       </c>
       <c r="V75" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B76" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="C76" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="D76" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="E76">
         <v>2024</v>
       </c>
       <c r="F76" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="G76" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="H76" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I76" t="s">
         <v>50</v>
       </c>
       <c r="J76" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="K76" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="L76" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="M76" t="s">
         <v>34</v>
       </c>
       <c r="N76" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="O76" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P76" t="s">
-        <v>987</v>
+        <v>37</v>
       </c>
       <c r="Q76" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="R76" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="S76" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="T76" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="U76" t="s">
         <v>58</v>
       </c>
       <c r="V76" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C77" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D77" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="E77">
         <v>2023</v>
       </c>
       <c r="F77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G77" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="H77" t="s">
         <v>29</v>
@@ -10184,69 +10052,69 @@
         <v>50</v>
       </c>
       <c r="J77" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="K77" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="L77" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="M77" t="s">
         <v>139</v>
       </c>
       <c r="N77" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="O77" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P77" t="s">
-        <v>1001</v>
+        <v>37</v>
       </c>
       <c r="Q77" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="R77" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S77" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="T77" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="U77" t="s">
         <v>58</v>
       </c>
       <c r="V77" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="B78" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="C78" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="D78" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="E78">
         <v>2025</v>
       </c>
       <c r="F78" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="G78" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="H78" t="s">
         <v>29</v>
@@ -10255,69 +10123,69 @@
         <v>50</v>
       </c>
       <c r="J78" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="K78" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="L78" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="M78" t="s">
         <v>34</v>
       </c>
       <c r="N78" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="O78" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P78" t="s">
-        <v>1017</v>
+        <v>37</v>
       </c>
       <c r="Q78" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="R78" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S78" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="T78" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="U78" t="s">
         <v>58</v>
       </c>
       <c r="V78" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="B79" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C79" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="D79" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="E79">
         <v>2025</v>
       </c>
       <c r="F79" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G79" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="H79" t="s">
         <v>29</v>
@@ -10326,69 +10194,69 @@
         <v>50</v>
       </c>
       <c r="J79" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="K79" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="L79" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="M79" t="s">
         <v>34</v>
       </c>
       <c r="N79" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="O79" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P79" t="s">
-        <v>1030</v>
+        <v>1490</v>
       </c>
       <c r="Q79" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="R79" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S79" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="T79" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="U79" t="s">
         <v>41</v>
       </c>
       <c r="V79" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="W79" s="3" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="B80" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="D80" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="E80">
         <v>2022</v>
       </c>
       <c r="F80" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="G80" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="H80" t="s">
         <v>29</v>
@@ -10397,66 +10265,66 @@
         <v>50</v>
       </c>
       <c r="J80" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="K80" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="L80" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="M80" t="s">
         <v>52</v>
       </c>
       <c r="N80" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="O80" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P80" t="s">
-        <v>1045</v>
+        <v>37</v>
       </c>
       <c r="Q80" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="R80" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="S80" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="T80" t="s">
         <v>58</v>
       </c>
       <c r="U80" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="V80" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B81" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="C81" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="D81" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="E81">
         <v>2025</v>
       </c>
       <c r="F81" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="G81" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -10465,69 +10333,69 @@
         <v>50</v>
       </c>
       <c r="J81" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="K81" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="L81" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="M81" t="s">
         <v>139</v>
       </c>
       <c r="N81" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="O81" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P81" t="s">
-        <v>1061</v>
+        <v>54</v>
       </c>
       <c r="Q81" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="R81" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S81" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="T81" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="U81" t="s">
         <v>58</v>
       </c>
       <c r="V81" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="B82" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C82" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="D82" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
       <c r="E82">
         <v>2024</v>
       </c>
       <c r="F82" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="G82" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="H82" t="s">
         <v>29</v>
@@ -10536,69 +10404,69 @@
         <v>50</v>
       </c>
       <c r="J82" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="K82" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
       <c r="L82" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="M82" t="s">
         <v>52</v>
       </c>
       <c r="N82" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="O82" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P82" t="s">
-        <v>1076</v>
+        <v>37</v>
       </c>
       <c r="Q82" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="R82" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S82" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="T82" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="U82" t="s">
         <v>58</v>
       </c>
       <c r="V82" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="B83" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="C83" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="D83" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="E83">
         <v>2023</v>
       </c>
       <c r="F83" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="G83" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
@@ -10607,69 +10475,69 @@
         <v>50</v>
       </c>
       <c r="J83" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="K83" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="L83" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="M83" t="s">
         <v>34</v>
       </c>
       <c r="N83" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="O83" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P83" t="s">
-        <v>1092</v>
+        <v>37</v>
       </c>
       <c r="Q83" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="R83" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S83" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="T83" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="U83" t="s">
         <v>58</v>
       </c>
       <c r="V83" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="W83" s="3" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>1098</v>
+        <v>1082</v>
       </c>
       <c r="B84" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C84" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="D84" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="E84">
         <v>2020</v>
       </c>
       <c r="F84" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="G84" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H84" t="s">
         <v>29</v>
@@ -10678,137 +10546,137 @@
         <v>50</v>
       </c>
       <c r="J84" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="K84" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="L84" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="M84" t="s">
         <v>34</v>
       </c>
       <c r="N84" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="O84" t="s">
-        <v>1532</v>
+        <v>1487</v>
       </c>
       <c r="P84" t="s">
-        <v>1106</v>
+        <v>37</v>
       </c>
       <c r="Q84" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="R84" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S84" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="T84" t="s">
         <v>58</v>
       </c>
       <c r="U84" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="V84" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="B85" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C85" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="D85" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E85" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F85" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G85" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H85" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I85" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J85" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
       <c r="K85" t="s">
-        <v>1114</v>
+        <v>1097</v>
       </c>
       <c r="L85" t="s">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="M85" t="s">
         <v>167</v>
       </c>
       <c r="N85" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="O85" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P85" t="s">
-        <v>1117</v>
+        <v>37</v>
       </c>
       <c r="Q85" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="R85" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S85" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="T85" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="U85" t="s">
         <v>58</v>
       </c>
       <c r="V85" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="B86" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C86" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="D86" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E86">
         <v>2025</v>
       </c>
       <c r="F86" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
       <c r="G86" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
@@ -10817,69 +10685,69 @@
         <v>50</v>
       </c>
       <c r="J86" t="s">
-        <v>1126</v>
+        <v>1108</v>
       </c>
       <c r="K86" t="s">
-        <v>1127</v>
+        <v>1109</v>
       </c>
       <c r="L86" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
       <c r="M86" t="s">
         <v>167</v>
       </c>
       <c r="N86" t="s">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="O86" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P86" t="s">
-        <v>1130</v>
+        <v>442</v>
       </c>
       <c r="Q86" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="R86" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="S86" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="T86" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="U86" t="s">
         <v>58</v>
       </c>
       <c r="V86" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
       <c r="B87" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
       <c r="C87" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
       <c r="D87" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="E87">
         <v>2021</v>
       </c>
       <c r="F87" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="G87" t="s">
-        <v>1140</v>
+        <v>1121</v>
       </c>
       <c r="H87" t="s">
         <v>29</v>
@@ -10888,69 +10756,69 @@
         <v>50</v>
       </c>
       <c r="J87" t="s">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="K87" t="s">
-        <v>1142</v>
+        <v>1123</v>
       </c>
       <c r="L87" t="s">
-        <v>1143</v>
+        <v>1124</v>
       </c>
       <c r="M87" t="s">
         <v>52</v>
       </c>
       <c r="N87" t="s">
-        <v>1144</v>
+        <v>1125</v>
       </c>
       <c r="O87" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P87" t="s">
-        <v>1145</v>
+        <v>37</v>
       </c>
       <c r="Q87" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="R87" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="S87" t="s">
-        <v>1146</v>
+        <v>1126</v>
       </c>
       <c r="T87" t="s">
-        <v>1147</v>
+        <v>1127</v>
       </c>
       <c r="U87" t="s">
         <v>58</v>
       </c>
       <c r="V87" t="s">
-        <v>1148</v>
+        <v>1128</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>1149</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C88" t="s">
-        <v>1151</v>
+        <v>1131</v>
       </c>
       <c r="D88" t="s">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="E88">
         <v>2025</v>
       </c>
       <c r="F88" t="s">
-        <v>1153</v>
+        <v>1133</v>
       </c>
       <c r="G88" t="s">
-        <v>1154</v>
+        <v>1134</v>
       </c>
       <c r="H88" t="s">
         <v>29</v>
@@ -10959,69 +10827,69 @@
         <v>50</v>
       </c>
       <c r="J88" t="s">
-        <v>1155</v>
+        <v>1135</v>
       </c>
       <c r="K88" t="s">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="L88" t="s">
-        <v>1157</v>
+        <v>1137</v>
       </c>
       <c r="M88" t="s">
         <v>167</v>
       </c>
       <c r="N88" t="s">
-        <v>1158</v>
+        <v>1138</v>
       </c>
       <c r="O88" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P88" t="s">
-        <v>1159</v>
+        <v>37</v>
       </c>
       <c r="Q88" t="s">
-        <v>1160</v>
+        <v>1139</v>
       </c>
       <c r="R88" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S88" t="s">
-        <v>1161</v>
+        <v>1140</v>
       </c>
       <c r="T88" t="s">
-        <v>1162</v>
+        <v>1141</v>
       </c>
       <c r="U88" t="s">
         <v>58</v>
       </c>
       <c r="V88" t="s">
-        <v>1163</v>
+        <v>1142</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>1164</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="B89" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C89" t="s">
-        <v>1166</v>
+        <v>1145</v>
       </c>
       <c r="D89" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E89">
         <v>2024</v>
       </c>
       <c r="F89" t="s">
-        <v>1167</v>
+        <v>1146</v>
       </c>
       <c r="G89" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -11030,69 +10898,69 @@
         <v>50</v>
       </c>
       <c r="J89" t="s">
-        <v>1168</v>
+        <v>1147</v>
       </c>
       <c r="K89" t="s">
-        <v>1169</v>
+        <v>1148</v>
       </c>
       <c r="L89" t="s">
-        <v>1170</v>
+        <v>1149</v>
       </c>
       <c r="M89" t="s">
         <v>34</v>
       </c>
       <c r="N89" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="O89" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P89" t="s">
-        <v>1172</v>
+        <v>37</v>
       </c>
       <c r="Q89" t="s">
-        <v>1173</v>
+        <v>1151</v>
       </c>
       <c r="R89" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S89" t="s">
-        <v>1174</v>
+        <v>1152</v>
       </c>
       <c r="T89" t="s">
-        <v>1175</v>
+        <v>1153</v>
       </c>
       <c r="U89" t="s">
         <v>58</v>
       </c>
       <c r="V89" t="s">
-        <v>1176</v>
+        <v>1154</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>1177</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1178</v>
+        <v>1156</v>
       </c>
       <c r="B90" t="s">
-        <v>1179</v>
+        <v>1157</v>
       </c>
       <c r="C90" t="s">
-        <v>1180</v>
+        <v>1158</v>
       </c>
       <c r="D90" t="s">
-        <v>1181</v>
+        <v>1159</v>
       </c>
       <c r="E90">
         <v>2025</v>
       </c>
       <c r="F90" t="s">
-        <v>1182</v>
+        <v>1160</v>
       </c>
       <c r="G90" t="s">
-        <v>1183</v>
+        <v>1161</v>
       </c>
       <c r="H90" t="s">
         <v>29</v>
@@ -11101,140 +10969,140 @@
         <v>50</v>
       </c>
       <c r="J90" t="s">
-        <v>1184</v>
+        <v>1162</v>
       </c>
       <c r="K90" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="L90" t="s">
-        <v>1186</v>
+        <v>1164</v>
       </c>
       <c r="M90" t="s">
         <v>139</v>
       </c>
       <c r="N90" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="O90" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P90" t="s">
-        <v>1106</v>
+        <v>37</v>
       </c>
       <c r="Q90" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="R90" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S90" t="s">
-        <v>1188</v>
+        <v>1166</v>
       </c>
       <c r="T90" t="s">
-        <v>1189</v>
+        <v>1167</v>
       </c>
       <c r="U90" t="s">
         <v>58</v>
       </c>
       <c r="V90" t="s">
-        <v>1190</v>
+        <v>1168</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>1191</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
       <c r="B91" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="C91" t="s">
-        <v>1194</v>
+        <v>1172</v>
       </c>
       <c r="D91" t="s">
-        <v>1195</v>
+        <v>1173</v>
       </c>
       <c r="E91">
         <v>2023</v>
       </c>
       <c r="F91" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G91" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H91" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I91" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J91" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
       <c r="K91" t="s">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="L91" t="s">
-        <v>1198</v>
+        <v>1176</v>
       </c>
       <c r="M91" t="s">
         <v>34</v>
       </c>
       <c r="N91" t="s">
-        <v>1199</v>
+        <v>1177</v>
       </c>
       <c r="O91" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P91" t="s">
-        <v>1200</v>
+        <v>37</v>
       </c>
       <c r="Q91" t="s">
-        <v>1201</v>
+        <v>1178</v>
       </c>
       <c r="R91" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="S91" t="s">
-        <v>1202</v>
+        <v>1179</v>
       </c>
       <c r="T91" t="s">
-        <v>1203</v>
+        <v>1180</v>
       </c>
       <c r="U91" t="s">
         <v>58</v>
       </c>
       <c r="V91" t="s">
-        <v>1204</v>
+        <v>1181</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>1205</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1206</v>
+        <v>1183</v>
       </c>
       <c r="B92" t="s">
-        <v>1207</v>
+        <v>1184</v>
       </c>
       <c r="C92" t="s">
-        <v>1208</v>
+        <v>1185</v>
       </c>
       <c r="D92" t="s">
-        <v>1209</v>
+        <v>1186</v>
       </c>
       <c r="E92">
         <v>2024</v>
       </c>
       <c r="F92" t="s">
-        <v>1210</v>
+        <v>1187</v>
       </c>
       <c r="G92" t="s">
-        <v>1211</v>
+        <v>1188</v>
       </c>
       <c r="H92" t="s">
         <v>29</v>
@@ -11243,69 +11111,69 @@
         <v>50</v>
       </c>
       <c r="J92" t="s">
-        <v>1212</v>
+        <v>1189</v>
       </c>
       <c r="K92" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="L92" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="M92" t="s">
         <v>139</v>
       </c>
       <c r="N92" t="s">
-        <v>1214</v>
+        <v>1191</v>
       </c>
       <c r="O92" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P92" t="s">
-        <v>1215</v>
+        <v>37</v>
       </c>
       <c r="Q92" t="s">
-        <v>1216</v>
+        <v>1192</v>
       </c>
       <c r="R92" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S92" t="s">
-        <v>1217</v>
+        <v>1193</v>
       </c>
       <c r="T92" t="s">
-        <v>1218</v>
+        <v>1194</v>
       </c>
       <c r="U92" t="s">
         <v>58</v>
       </c>
       <c r="V92" t="s">
-        <v>1219</v>
+        <v>1195</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>1220</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1221</v>
+        <v>1197</v>
       </c>
       <c r="B93" t="s">
-        <v>1222</v>
+        <v>1198</v>
       </c>
       <c r="C93" t="s">
-        <v>1223</v>
+        <v>1199</v>
       </c>
       <c r="D93" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E93">
         <v>2024</v>
       </c>
       <c r="F93" t="s">
-        <v>1224</v>
+        <v>1200</v>
       </c>
       <c r="G93" t="s">
-        <v>1225</v>
+        <v>1201</v>
       </c>
       <c r="H93" t="s">
         <v>29</v>
@@ -11314,69 +11182,69 @@
         <v>50</v>
       </c>
       <c r="J93" t="s">
-        <v>1226</v>
+        <v>1202</v>
       </c>
       <c r="K93" t="s">
-        <v>1227</v>
+        <v>1203</v>
       </c>
       <c r="L93" t="s">
-        <v>1228</v>
+        <v>1204</v>
       </c>
       <c r="M93" t="s">
         <v>52</v>
       </c>
       <c r="N93" t="s">
-        <v>1229</v>
+        <v>1205</v>
       </c>
       <c r="O93" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P93" t="s">
-        <v>1230</v>
+        <v>37</v>
       </c>
       <c r="Q93" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="R93" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S93" t="s">
-        <v>1231</v>
+        <v>1206</v>
       </c>
       <c r="T93" t="s">
-        <v>1232</v>
+        <v>1207</v>
       </c>
       <c r="U93" t="s">
         <v>58</v>
       </c>
       <c r="V93" t="s">
-        <v>1233</v>
+        <v>1208</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>1234</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1235</v>
+        <v>1210</v>
       </c>
       <c r="B94" t="s">
-        <v>1236</v>
+        <v>1211</v>
       </c>
       <c r="C94" t="s">
-        <v>1237</v>
+        <v>1212</v>
       </c>
       <c r="D94" t="s">
-        <v>1238</v>
+        <v>1213</v>
       </c>
       <c r="E94">
         <v>2024</v>
       </c>
       <c r="F94" t="s">
-        <v>1239</v>
+        <v>1214</v>
       </c>
       <c r="G94" t="s">
-        <v>1240</v>
+        <v>1215</v>
       </c>
       <c r="H94" t="s">
         <v>29</v>
@@ -11385,69 +11253,69 @@
         <v>50</v>
       </c>
       <c r="J94" t="s">
-        <v>1241</v>
+        <v>1216</v>
       </c>
       <c r="K94" t="s">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="L94" t="s">
-        <v>1243</v>
+        <v>1218</v>
       </c>
       <c r="M94" t="s">
         <v>34</v>
       </c>
       <c r="N94" t="s">
-        <v>1244</v>
+        <v>1219</v>
       </c>
       <c r="O94" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P94" t="s">
-        <v>1245</v>
+        <v>37</v>
       </c>
       <c r="Q94" t="s">
-        <v>1246</v>
+        <v>1220</v>
       </c>
       <c r="R94" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S94" t="s">
-        <v>1247</v>
+        <v>1221</v>
       </c>
       <c r="T94" t="s">
-        <v>1248</v>
+        <v>1222</v>
       </c>
       <c r="U94" t="s">
         <v>58</v>
       </c>
       <c r="V94" t="s">
-        <v>1249</v>
+        <v>1223</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>1250</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1251</v>
+        <v>1225</v>
       </c>
       <c r="B95" t="s">
-        <v>1252</v>
+        <v>1226</v>
       </c>
       <c r="C95" t="s">
-        <v>1253</v>
+        <v>1227</v>
       </c>
       <c r="D95" t="s">
-        <v>1254</v>
+        <v>1228</v>
       </c>
       <c r="E95">
         <v>2025</v>
       </c>
       <c r="F95" t="s">
-        <v>1255</v>
+        <v>1229</v>
       </c>
       <c r="G95" t="s">
-        <v>1256</v>
+        <v>1230</v>
       </c>
       <c r="H95" t="s">
         <v>29</v>
@@ -11456,69 +11324,69 @@
         <v>50</v>
       </c>
       <c r="J95" t="s">
-        <v>1257</v>
+        <v>1231</v>
       </c>
       <c r="K95" t="s">
-        <v>1258</v>
+        <v>1232</v>
       </c>
       <c r="L95" t="s">
-        <v>1259</v>
+        <v>1233</v>
       </c>
       <c r="M95" t="s">
         <v>34</v>
       </c>
       <c r="N95" t="s">
-        <v>1260</v>
+        <v>1234</v>
       </c>
       <c r="O95" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P95" t="s">
-        <v>1261</v>
+        <v>37</v>
       </c>
       <c r="Q95" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="R95" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="S95" t="s">
-        <v>1262</v>
+        <v>1235</v>
       </c>
       <c r="T95" t="s">
-        <v>1263</v>
+        <v>1236</v>
       </c>
       <c r="U95" t="s">
         <v>58</v>
       </c>
       <c r="V95" t="s">
-        <v>1264</v>
+        <v>1237</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>1265</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1266</v>
+        <v>1239</v>
       </c>
       <c r="B96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s">
-        <v>1267</v>
+        <v>1240</v>
       </c>
       <c r="D96" t="s">
-        <v>1268</v>
+        <v>1241</v>
       </c>
       <c r="E96">
         <v>2025</v>
       </c>
       <c r="F96" t="s">
-        <v>1269</v>
+        <v>1242</v>
       </c>
       <c r="G96" t="s">
-        <v>1270</v>
+        <v>1243</v>
       </c>
       <c r="H96" t="s">
         <v>29</v>
@@ -11527,69 +11395,69 @@
         <v>50</v>
       </c>
       <c r="J96" t="s">
-        <v>1271</v>
+        <v>1244</v>
       </c>
       <c r="K96" t="s">
-        <v>1272</v>
+        <v>1245</v>
       </c>
       <c r="L96" t="s">
-        <v>1273</v>
+        <v>1246</v>
       </c>
       <c r="M96" t="s">
         <v>34</v>
       </c>
       <c r="N96" t="s">
-        <v>1274</v>
+        <v>1247</v>
       </c>
       <c r="O96" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P96" t="s">
-        <v>1275</v>
+        <v>54</v>
       </c>
       <c r="Q96" t="s">
-        <v>1276</v>
+        <v>1248</v>
       </c>
       <c r="R96" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S96" t="s">
-        <v>1277</v>
+        <v>1249</v>
       </c>
       <c r="T96" t="s">
-        <v>1278</v>
+        <v>1250</v>
       </c>
       <c r="U96" t="s">
         <v>58</v>
       </c>
       <c r="V96" t="s">
-        <v>1279</v>
+        <v>1251</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>1280</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1281</v>
+        <v>1253</v>
       </c>
       <c r="B97" t="s">
-        <v>1282</v>
+        <v>1254</v>
       </c>
       <c r="C97" t="s">
-        <v>1283</v>
+        <v>1255</v>
       </c>
       <c r="D97" t="s">
-        <v>1284</v>
+        <v>1256</v>
       </c>
       <c r="E97">
         <v>2022</v>
       </c>
       <c r="F97" t="s">
-        <v>1285</v>
+        <v>1257</v>
       </c>
       <c r="G97" t="s">
-        <v>1286</v>
+        <v>1258</v>
       </c>
       <c r="H97" t="s">
         <v>29</v>
@@ -11598,353 +11466,353 @@
         <v>50</v>
       </c>
       <c r="J97" t="s">
-        <v>1287</v>
+        <v>1259</v>
       </c>
       <c r="K97" t="s">
-        <v>1288</v>
+        <v>1260</v>
       </c>
       <c r="L97" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="M97" t="s">
         <v>139</v>
       </c>
       <c r="N97" t="s">
-        <v>1290</v>
+        <v>1262</v>
       </c>
       <c r="O97" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P97" t="s">
-        <v>1291</v>
+        <v>37</v>
       </c>
       <c r="Q97" t="s">
-        <v>1292</v>
+        <v>1263</v>
       </c>
       <c r="R97" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S97" t="s">
-        <v>1293</v>
+        <v>1264</v>
       </c>
       <c r="T97" t="s">
-        <v>1294</v>
+        <v>1265</v>
       </c>
       <c r="U97" t="s">
-        <v>1295</v>
+        <v>1266</v>
       </c>
       <c r="V97" t="s">
-        <v>1296</v>
+        <v>1267</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>1297</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>1298</v>
+        <v>1269</v>
       </c>
       <c r="B98" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
       <c r="C98" t="s">
-        <v>1300</v>
+        <v>1271</v>
       </c>
       <c r="D98" t="s">
-        <v>1301</v>
+        <v>1272</v>
       </c>
       <c r="E98" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F98" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G98" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H98" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I98" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J98" t="s">
-        <v>1196</v>
+        <v>1174</v>
       </c>
       <c r="K98" t="s">
-        <v>1197</v>
+        <v>1175</v>
       </c>
       <c r="L98" t="s">
-        <v>1302</v>
+        <v>1273</v>
       </c>
       <c r="M98" t="s">
         <v>139</v>
       </c>
       <c r="N98" t="s">
-        <v>1303</v>
+        <v>1274</v>
       </c>
       <c r="O98" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P98" t="s">
-        <v>1304</v>
+        <v>37</v>
       </c>
       <c r="Q98" t="s">
-        <v>1305</v>
+        <v>1275</v>
       </c>
       <c r="R98" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="S98" t="s">
-        <v>1306</v>
+        <v>1276</v>
       </c>
       <c r="T98" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
       <c r="U98" t="s">
         <v>58</v>
       </c>
       <c r="V98" t="s">
-        <v>1308</v>
+        <v>1278</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>1309</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>1310</v>
+        <v>1280</v>
       </c>
       <c r="B99" t="s">
-        <v>1311</v>
+        <v>1281</v>
       </c>
       <c r="C99" t="s">
-        <v>1312</v>
+        <v>1282</v>
       </c>
       <c r="D99" t="s">
-        <v>1313</v>
+        <v>1283</v>
       </c>
       <c r="E99">
         <v>2019</v>
       </c>
       <c r="F99" t="s">
-        <v>1314</v>
+        <v>1284</v>
       </c>
       <c r="G99" t="s">
-        <v>1315</v>
+        <v>1285</v>
       </c>
       <c r="H99" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I99" t="s">
         <v>50</v>
       </c>
       <c r="J99" t="s">
-        <v>1316</v>
+        <v>1286</v>
       </c>
       <c r="K99" t="s">
-        <v>1317</v>
+        <v>1287</v>
       </c>
       <c r="L99" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="M99" t="s">
         <v>34</v>
       </c>
       <c r="N99" t="s">
-        <v>1318</v>
+        <v>1288</v>
       </c>
       <c r="O99" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P99" t="s">
-        <v>1319</v>
+        <v>54</v>
       </c>
       <c r="Q99" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="R99" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S99" t="s">
-        <v>1320</v>
+        <v>1289</v>
       </c>
       <c r="T99" t="s">
-        <v>1321</v>
+        <v>1290</v>
       </c>
       <c r="U99" t="s">
         <v>58</v>
       </c>
       <c r="V99" t="s">
-        <v>1322</v>
+        <v>1291</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>1323</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1324</v>
+        <v>1293</v>
       </c>
       <c r="B100" t="s">
-        <v>1325</v>
+        <v>1294</v>
       </c>
       <c r="C100" t="s">
-        <v>1326</v>
+        <v>1295</v>
       </c>
       <c r="D100" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="E100">
         <v>2024</v>
       </c>
       <c r="F100" t="s">
-        <v>1328</v>
+        <v>1297</v>
       </c>
       <c r="G100" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H100" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I100" t="s">
         <v>50</v>
       </c>
       <c r="J100" t="s">
-        <v>1329</v>
+        <v>1298</v>
       </c>
       <c r="K100" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="L100" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="M100" t="s">
         <v>139</v>
       </c>
       <c r="N100" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="O100" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P100" t="s">
-        <v>1333</v>
+        <v>37</v>
       </c>
       <c r="Q100" t="s">
-        <v>1334</v>
+        <v>1302</v>
       </c>
       <c r="R100" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S100" t="s">
-        <v>1335</v>
+        <v>1303</v>
       </c>
       <c r="T100" t="s">
-        <v>1336</v>
+        <v>1304</v>
       </c>
       <c r="U100" t="s">
         <v>58</v>
       </c>
       <c r="V100" t="s">
-        <v>1337</v>
+        <v>1305</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>1338</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1339</v>
+        <v>1307</v>
       </c>
       <c r="B101" t="s">
-        <v>1340</v>
+        <v>1308</v>
       </c>
       <c r="C101" t="s">
-        <v>1341</v>
+        <v>1309</v>
       </c>
       <c r="D101" t="s">
-        <v>1342</v>
+        <v>1310</v>
       </c>
       <c r="E101">
         <v>2025</v>
       </c>
       <c r="F101" t="s">
-        <v>1343</v>
+        <v>1311</v>
       </c>
       <c r="G101" t="s">
-        <v>1344</v>
+        <v>1312</v>
       </c>
       <c r="H101" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I101" t="s">
         <v>50</v>
       </c>
       <c r="J101" t="s">
-        <v>1345</v>
+        <v>1313</v>
       </c>
       <c r="K101" t="s">
-        <v>1346</v>
+        <v>1314</v>
       </c>
       <c r="L101" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="M101" t="s">
         <v>139</v>
       </c>
       <c r="N101" t="s">
-        <v>1347</v>
+        <v>1315</v>
       </c>
       <c r="O101" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P101" t="s">
-        <v>1348</v>
+        <v>37</v>
       </c>
       <c r="Q101" t="s">
-        <v>1349</v>
+        <v>1316</v>
       </c>
       <c r="R101" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S101" t="s">
-        <v>1350</v>
+        <v>1317</v>
       </c>
       <c r="T101" t="s">
-        <v>1351</v>
+        <v>1318</v>
       </c>
       <c r="U101" t="s">
         <v>58</v>
       </c>
       <c r="V101" t="s">
-        <v>1352</v>
+        <v>1319</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>1353</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1354</v>
+        <v>1321</v>
       </c>
       <c r="B102" t="s">
-        <v>1355</v>
+        <v>1322</v>
       </c>
       <c r="C102" t="s">
-        <v>1356</v>
+        <v>1323</v>
       </c>
       <c r="D102" t="s">
-        <v>1357</v>
+        <v>1324</v>
       </c>
       <c r="E102">
         <v>2025</v>
       </c>
       <c r="F102" t="s">
-        <v>1358</v>
+        <v>1325</v>
       </c>
       <c r="G102" t="s">
-        <v>1359</v>
+        <v>1326</v>
       </c>
       <c r="H102" t="s">
         <v>29</v>
@@ -11953,211 +11821,211 @@
         <v>50</v>
       </c>
       <c r="J102" t="s">
-        <v>1360</v>
+        <v>1327</v>
       </c>
       <c r="K102" t="s">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="L102" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="M102" t="s">
         <v>139</v>
       </c>
       <c r="N102" t="s">
-        <v>1362</v>
+        <v>1329</v>
       </c>
       <c r="O102" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P102" t="s">
-        <v>1363</v>
+        <v>37</v>
       </c>
       <c r="Q102" t="s">
-        <v>1364</v>
+        <v>1330</v>
       </c>
       <c r="R102" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S102" t="s">
-        <v>1365</v>
+        <v>1331</v>
       </c>
       <c r="T102" t="s">
-        <v>1366</v>
+        <v>1332</v>
       </c>
       <c r="U102" t="s">
         <v>58</v>
       </c>
       <c r="V102" t="s">
-        <v>1367</v>
+        <v>1333</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>1368</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>1369</v>
+        <v>1335</v>
       </c>
       <c r="B103" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C103" t="s">
-        <v>1370</v>
+        <v>1336</v>
       </c>
       <c r="D103" t="s">
-        <v>1371</v>
+        <v>1337</v>
       </c>
       <c r="E103" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F103" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G103" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H103" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I103" t="s">
         <v>50</v>
       </c>
       <c r="J103" t="s">
-        <v>1372</v>
+        <v>1338</v>
       </c>
       <c r="K103" t="s">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="L103" t="s">
-        <v>1374</v>
+        <v>1340</v>
       </c>
       <c r="M103" t="s">
         <v>167</v>
       </c>
       <c r="N103" t="s">
-        <v>1375</v>
+        <v>1341</v>
       </c>
       <c r="O103" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P103" t="s">
-        <v>1376</v>
+        <v>37</v>
       </c>
       <c r="Q103" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="R103" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S103" t="s">
-        <v>1377</v>
+        <v>1342</v>
       </c>
       <c r="T103" t="s">
-        <v>1378</v>
+        <v>1343</v>
       </c>
       <c r="U103" t="s">
         <v>58</v>
       </c>
       <c r="V103" t="s">
-        <v>1379</v>
+        <v>1344</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>1380</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>1381</v>
+        <v>1346</v>
       </c>
       <c r="B104" t="s">
-        <v>1382</v>
+        <v>1347</v>
       </c>
       <c r="C104" t="s">
-        <v>1383</v>
+        <v>1348</v>
       </c>
       <c r="D104" t="s">
-        <v>1384</v>
+        <v>1349</v>
       </c>
       <c r="E104" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F104" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G104" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H104" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I104" t="s">
         <v>50</v>
       </c>
       <c r="J104" t="s">
-        <v>1385</v>
+        <v>1350</v>
       </c>
       <c r="K104" t="s">
-        <v>1386</v>
+        <v>1351</v>
       </c>
       <c r="L104" t="s">
-        <v>1387</v>
+        <v>1352</v>
       </c>
       <c r="M104" t="s">
         <v>139</v>
       </c>
       <c r="N104" t="s">
-        <v>1388</v>
+        <v>1353</v>
       </c>
       <c r="O104" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P104" t="s">
-        <v>1389</v>
+        <v>37</v>
       </c>
       <c r="Q104" t="s">
-        <v>1390</v>
+        <v>1354</v>
       </c>
       <c r="R104" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S104" t="s">
-        <v>1391</v>
+        <v>1355</v>
       </c>
       <c r="T104" t="s">
-        <v>1392</v>
+        <v>1356</v>
       </c>
       <c r="U104" t="s">
         <v>58</v>
       </c>
       <c r="V104" t="s">
-        <v>1393</v>
+        <v>1357</v>
       </c>
       <c r="W104" s="3" t="s">
-        <v>1394</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1395</v>
+        <v>1359</v>
       </c>
       <c r="B105" t="s">
-        <v>1396</v>
+        <v>1360</v>
       </c>
       <c r="C105" t="s">
-        <v>1397</v>
+        <v>1361</v>
       </c>
       <c r="D105" t="s">
-        <v>1398</v>
+        <v>1362</v>
       </c>
       <c r="E105">
         <v>2021</v>
       </c>
       <c r="F105" t="s">
-        <v>1399</v>
+        <v>1363</v>
       </c>
       <c r="G105" t="s">
-        <v>1400</v>
+        <v>1364</v>
       </c>
       <c r="H105" t="s">
         <v>29</v>
@@ -12166,66 +12034,66 @@
         <v>50</v>
       </c>
       <c r="J105" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="K105" t="s">
-        <v>1402</v>
+        <v>1366</v>
       </c>
       <c r="L105" t="s">
-        <v>1403</v>
+        <v>1367</v>
       </c>
       <c r="M105" t="s">
         <v>52</v>
       </c>
       <c r="N105" t="s">
-        <v>1404</v>
+        <v>1368</v>
       </c>
       <c r="O105" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P105" t="s">
-        <v>1405</v>
+        <v>37</v>
       </c>
       <c r="Q105" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="R105" t="s">
-        <v>1406</v>
+        <v>1369</v>
       </c>
       <c r="S105" t="s">
-        <v>1407</v>
+        <v>1370</v>
       </c>
       <c r="T105" t="s">
         <v>41</v>
       </c>
       <c r="U105" t="s">
-        <v>1408</v>
+        <v>1371</v>
       </c>
       <c r="V105" t="s">
-        <v>1409</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>1410</v>
+        <v>1373</v>
       </c>
       <c r="B106" t="s">
-        <v>1411</v>
+        <v>1374</v>
       </c>
       <c r="C106" t="s">
-        <v>1412</v>
+        <v>1375</v>
       </c>
       <c r="D106" t="s">
-        <v>1413</v>
+        <v>1376</v>
       </c>
       <c r="E106">
         <v>2021</v>
       </c>
       <c r="F106" t="s">
-        <v>1414</v>
+        <v>1377</v>
       </c>
       <c r="G106" t="s">
-        <v>1415</v>
+        <v>1378</v>
       </c>
       <c r="H106" t="s">
         <v>29</v>
@@ -12234,69 +12102,69 @@
         <v>50</v>
       </c>
       <c r="J106" t="s">
-        <v>1416</v>
+        <v>1379</v>
       </c>
       <c r="K106" t="s">
-        <v>1417</v>
+        <v>1380</v>
       </c>
       <c r="L106" t="s">
-        <v>1418</v>
+        <v>1381</v>
       </c>
       <c r="M106" t="s">
         <v>34</v>
       </c>
       <c r="N106" t="s">
-        <v>1419</v>
+        <v>1382</v>
       </c>
       <c r="O106" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P106" t="s">
-        <v>1420</v>
+        <v>37</v>
       </c>
       <c r="Q106" t="s">
-        <v>1421</v>
+        <v>1383</v>
       </c>
       <c r="R106" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S106" t="s">
-        <v>1422</v>
+        <v>1384</v>
       </c>
       <c r="T106" t="s">
-        <v>1423</v>
+        <v>1385</v>
       </c>
       <c r="U106" t="s">
         <v>58</v>
       </c>
       <c r="V106" t="s">
-        <v>1424</v>
+        <v>1386</v>
       </c>
       <c r="W106" s="3" t="s">
-        <v>1425</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>1426</v>
+        <v>1388</v>
       </c>
       <c r="B107" t="s">
-        <v>1427</v>
+        <v>1389</v>
       </c>
       <c r="C107" t="s">
-        <v>1428</v>
+        <v>1390</v>
       </c>
       <c r="D107" t="s">
-        <v>1413</v>
+        <v>1376</v>
       </c>
       <c r="E107">
         <v>2018</v>
       </c>
       <c r="F107" t="s">
-        <v>1429</v>
+        <v>1391</v>
       </c>
       <c r="G107" t="s">
-        <v>1430</v>
+        <v>1392</v>
       </c>
       <c r="H107" t="s">
         <v>29</v>
@@ -12305,137 +12173,137 @@
         <v>50</v>
       </c>
       <c r="J107" t="s">
-        <v>1431</v>
+        <v>1393</v>
       </c>
       <c r="K107" t="s">
-        <v>1432</v>
+        <v>1394</v>
       </c>
       <c r="L107" t="s">
-        <v>1433</v>
+        <v>1395</v>
       </c>
       <c r="M107" t="s">
         <v>34</v>
       </c>
       <c r="N107" t="s">
-        <v>1434</v>
+        <v>1396</v>
       </c>
       <c r="O107" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P107" t="s">
-        <v>1435</v>
+        <v>37</v>
       </c>
       <c r="Q107" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="R107" t="s">
-        <v>1436</v>
+        <v>1397</v>
       </c>
       <c r="S107" t="s">
-        <v>1437</v>
+        <v>1398</v>
       </c>
       <c r="T107" t="s">
         <v>58</v>
       </c>
       <c r="U107" t="s">
-        <v>1438</v>
+        <v>1399</v>
       </c>
       <c r="V107" t="s">
-        <v>1439</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>1440</v>
+        <v>1401</v>
       </c>
       <c r="B108" t="s">
-        <v>1441</v>
+        <v>1402</v>
       </c>
       <c r="C108" t="s">
-        <v>1442</v>
+        <v>1403</v>
       </c>
       <c r="D108" t="s">
-        <v>1443</v>
+        <v>1404</v>
       </c>
       <c r="E108" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="F108" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G108" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H108" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I108" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J108" t="s">
-        <v>1444</v>
+        <v>1405</v>
       </c>
       <c r="K108" t="s">
-        <v>1445</v>
+        <v>1406</v>
       </c>
       <c r="L108" t="s">
-        <v>1446</v>
+        <v>1407</v>
       </c>
       <c r="M108" t="s">
         <v>34</v>
       </c>
       <c r="N108" t="s">
-        <v>1447</v>
+        <v>1408</v>
       </c>
       <c r="O108" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P108" t="s">
-        <v>1448</v>
+        <v>37</v>
       </c>
       <c r="Q108" t="s">
-        <v>1449</v>
+        <v>1409</v>
       </c>
       <c r="R108" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="S108" t="s">
-        <v>1450</v>
+        <v>1410</v>
       </c>
       <c r="T108" t="s">
-        <v>1451</v>
+        <v>1411</v>
       </c>
       <c r="U108" t="s">
         <v>58</v>
       </c>
       <c r="V108" t="s">
-        <v>1452</v>
+        <v>1412</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>1453</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>1454</v>
+        <v>1414</v>
       </c>
       <c r="B109" t="s">
-        <v>1455</v>
+        <v>1415</v>
       </c>
       <c r="C109" t="s">
-        <v>1456</v>
+        <v>1416</v>
       </c>
       <c r="D109" t="s">
-        <v>1457</v>
+        <v>1417</v>
       </c>
       <c r="E109">
         <v>2023</v>
       </c>
       <c r="F109" t="s">
-        <v>1458</v>
+        <v>1418</v>
       </c>
       <c r="G109" t="s">
-        <v>1459</v>
+        <v>1419</v>
       </c>
       <c r="H109" t="s">
         <v>29</v>
@@ -12444,69 +12312,69 @@
         <v>50</v>
       </c>
       <c r="J109" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="K109" t="s">
-        <v>1460</v>
+        <v>1420</v>
       </c>
       <c r="L109" t="s">
-        <v>1461</v>
+        <v>1421</v>
       </c>
       <c r="M109" t="s">
         <v>139</v>
       </c>
       <c r="N109" t="s">
-        <v>1462</v>
+        <v>1422</v>
       </c>
       <c r="O109" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P109" t="s">
-        <v>1463</v>
+        <v>37</v>
       </c>
       <c r="Q109" t="s">
-        <v>1464</v>
+        <v>1423</v>
       </c>
       <c r="R109" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S109" t="s">
-        <v>1465</v>
+        <v>1424</v>
       </c>
       <c r="T109" t="s">
-        <v>1466</v>
+        <v>1425</v>
       </c>
       <c r="U109" t="s">
-        <v>1467</v>
+        <v>1426</v>
       </c>
       <c r="V109" t="s">
-        <v>1468</v>
+        <v>1427</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>1469</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>1470</v>
+        <v>1429</v>
       </c>
       <c r="B110" t="s">
-        <v>1471</v>
+        <v>1430</v>
       </c>
       <c r="C110" t="s">
-        <v>1472</v>
+        <v>1431</v>
       </c>
       <c r="D110" t="s">
-        <v>1473</v>
+        <v>1432</v>
       </c>
       <c r="E110">
         <v>2024</v>
       </c>
       <c r="F110" t="s">
-        <v>1474</v>
+        <v>1433</v>
       </c>
       <c r="G110" t="s">
-        <v>1475</v>
+        <v>1434</v>
       </c>
       <c r="H110" t="s">
         <v>29</v>
@@ -12515,137 +12383,137 @@
         <v>50</v>
       </c>
       <c r="J110" t="s">
-        <v>1401</v>
+        <v>1365</v>
       </c>
       <c r="K110" t="s">
-        <v>1476</v>
+        <v>1435</v>
       </c>
       <c r="L110" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="M110" t="s">
         <v>34</v>
       </c>
       <c r="N110" t="s">
-        <v>1477</v>
+        <v>1436</v>
       </c>
       <c r="O110" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P110" t="s">
-        <v>1478</v>
+        <v>37</v>
       </c>
       <c r="Q110" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="R110" t="s">
-        <v>1479</v>
+        <v>1437</v>
       </c>
       <c r="S110" t="s">
-        <v>1480</v>
+        <v>1438</v>
       </c>
       <c r="T110" t="s">
-        <v>1481</v>
+        <v>1439</v>
       </c>
       <c r="U110" t="s">
-        <v>1482</v>
+        <v>1440</v>
       </c>
       <c r="V110" t="s">
-        <v>1483</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>1484</v>
+        <v>1442</v>
       </c>
       <c r="B111" t="s">
-        <v>1485</v>
+        <v>1443</v>
       </c>
       <c r="C111" t="s">
-        <v>1486</v>
+        <v>1444</v>
       </c>
       <c r="D111" t="s">
-        <v>1487</v>
+        <v>1445</v>
       </c>
       <c r="E111">
         <v>2024</v>
       </c>
       <c r="F111" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="G111" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H111" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="I111" t="s">
         <v>50</v>
       </c>
       <c r="J111" t="s">
-        <v>1488</v>
+        <v>1446</v>
       </c>
       <c r="K111" t="s">
-        <v>1489</v>
+        <v>1447</v>
       </c>
       <c r="L111" t="s">
-        <v>1213</v>
+        <v>1190</v>
       </c>
       <c r="M111" t="s">
         <v>139</v>
       </c>
       <c r="N111" t="s">
-        <v>1490</v>
+        <v>1448</v>
       </c>
       <c r="O111" t="s">
-        <v>1533</v>
+        <v>1488</v>
       </c>
       <c r="P111" t="s">
-        <v>1491</v>
+        <v>37</v>
       </c>
       <c r="Q111" t="s">
-        <v>1492</v>
+        <v>1449</v>
       </c>
       <c r="R111" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S111" t="s">
-        <v>1493</v>
+        <v>1450</v>
       </c>
       <c r="T111" t="s">
-        <v>1494</v>
+        <v>1451</v>
       </c>
       <c r="U111" t="s">
         <v>58</v>
       </c>
       <c r="V111" t="s">
-        <v>1495</v>
+        <v>1452</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>1496</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1497</v>
+        <v>1454</v>
       </c>
       <c r="B112" t="s">
-        <v>1498</v>
+        <v>1455</v>
       </c>
       <c r="C112" t="s">
-        <v>1499</v>
+        <v>1456</v>
       </c>
       <c r="D112" t="s">
-        <v>1500</v>
+        <v>1457</v>
       </c>
       <c r="E112">
         <v>2023</v>
       </c>
       <c r="F112" t="s">
-        <v>1501</v>
+        <v>1458</v>
       </c>
       <c r="G112" t="s">
-        <v>1502</v>
+        <v>1459</v>
       </c>
       <c r="H112" t="s">
         <v>29</v>
@@ -12654,66 +12522,66 @@
         <v>50</v>
       </c>
       <c r="J112" t="s">
-        <v>1503</v>
+        <v>1460</v>
       </c>
       <c r="K112" t="s">
-        <v>1504</v>
+        <v>1461</v>
       </c>
       <c r="L112" t="s">
-        <v>1505</v>
+        <v>1462</v>
       </c>
       <c r="M112" t="s">
         <v>34</v>
       </c>
       <c r="N112" t="s">
-        <v>1506</v>
+        <v>1463</v>
       </c>
       <c r="O112" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P112" t="s">
-        <v>1507</v>
+        <v>54</v>
       </c>
       <c r="Q112" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="R112" t="s">
-        <v>1508</v>
+        <v>1464</v>
       </c>
       <c r="S112" t="s">
-        <v>1509</v>
+        <v>1465</v>
       </c>
       <c r="T112" t="s">
         <v>41</v>
       </c>
       <c r="U112" t="s">
-        <v>1510</v>
+        <v>1466</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>1511</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>1512</v>
+        <v>1468</v>
       </c>
       <c r="B113" t="s">
-        <v>1513</v>
+        <v>1469</v>
       </c>
       <c r="C113" t="s">
-        <v>1514</v>
+        <v>1470</v>
       </c>
       <c r="D113" t="s">
-        <v>1515</v>
+        <v>1471</v>
       </c>
       <c r="E113">
         <v>2023</v>
       </c>
       <c r="F113" t="s">
-        <v>1516</v>
+        <v>1472</v>
       </c>
       <c r="G113" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="H113" t="s">
         <v>29</v>
@@ -12722,46 +12590,46 @@
         <v>50</v>
       </c>
       <c r="J113" t="s">
-        <v>1517</v>
+        <v>1473</v>
       </c>
       <c r="K113" t="s">
-        <v>1518</v>
+        <v>1474</v>
       </c>
       <c r="L113" t="s">
-        <v>1519</v>
+        <v>1475</v>
       </c>
       <c r="M113" t="s">
         <v>34</v>
       </c>
       <c r="N113" t="s">
-        <v>1520</v>
+        <v>1476</v>
       </c>
       <c r="O113" t="s">
-        <v>1534</v>
+        <v>1489</v>
       </c>
       <c r="P113" t="s">
-        <v>1521</v>
+        <v>37</v>
       </c>
       <c r="Q113" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="R113" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="S113" t="s">
-        <v>1522</v>
+        <v>1477</v>
       </c>
       <c r="T113" t="s">
-        <v>1523</v>
+        <v>1478</v>
       </c>
       <c r="U113" t="s">
         <v>58</v>
       </c>
       <c r="V113" t="s">
-        <v>1524</v>
+        <v>1479</v>
       </c>
       <c r="W113" s="3" t="s">
-        <v>1525</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -12791,24 +12659,24 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1526</v>
+        <v>1481</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1527</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
         <v>531</v>
-      </c>
-      <c r="B2" t="s">
-        <v>532</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>1528</v>
+        <v>1483</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
@@ -12816,50 +12684,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B3" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C3">
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>1529</v>
+        <v>1484</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>1530</v>
+        <v>1485</v>
       </c>
       <c r="E4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -12867,70 +12735,70 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1111</v>
+        <v>1094</v>
       </c>
       <c r="B6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C6" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D6" t="s">
-        <v>1529</v>
+        <v>1484</v>
       </c>
       <c r="E6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1192</v>
+        <v>1170</v>
       </c>
       <c r="B7" t="s">
-        <v>1193</v>
+        <v>1171</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>1529</v>
+        <v>1484</v>
       </c>
       <c r="E7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1298</v>
+        <v>1269</v>
       </c>
       <c r="B8" t="s">
-        <v>1299</v>
+        <v>1270</v>
       </c>
       <c r="C8" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D8" t="s">
-        <v>1529</v>
+        <v>1484</v>
       </c>
       <c r="E8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1440</v>
+        <v>1401</v>
       </c>
       <c r="B9" t="s">
-        <v>1441</v>
+        <v>1402</v>
       </c>
       <c r="C9" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D9" t="s">
-        <v>1529</v>
+        <v>1484</v>
       </c>
       <c r="E9" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -12954,7 +12822,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1531</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12967,7 +12835,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B3">
         <v>6</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6EFB40-48FF-479C-BBB1-FCD2BE18043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4AB76A-93E2-4514-A8C9-41BFEA7AE379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1478">
   <si>
     <t>BibKey</t>
   </si>
@@ -345,45 +345,6 @@
   </si>
   <si>
     <t>@article{Akram2024DroneSSL, title={DroneSSL: Self-Supervised Multimodal Anomaly Detection in Internet of Drone Things}, author={Akram, Junaid and Anaissi, Ali}, journal={IEEE Trans. Consum. Electron.}, year={2024}, volume={70}, number={1}, pages={4287-4298}, doi={10.1109/TCE.2024.3376440}}</t>
-  </si>
-  <si>
-    <t>Ahn2024SwarmVehicleAnomaly</t>
-  </si>
-  <si>
-    <t>Deep Learning-Based Anomaly Detection for Individual Drone Vehicles Performing Swarm Missions</t>
-  </si>
-  <si>
-    <t>This study explores methods for the detection and identification of anomalous instances in individual drone vehicles when performing missions in a swarm formation. Conventional anomaly detection (AD) in unmanned aerial vehicle (UAV) clusters typically involves manual inspection, which is time and resource-inefficient, followed by machine learning techniques. In this study, a novel machine-learning-based framework was proposed for the automatic detection of anomalous individual drones within a swarm and the rapid identification of faulty channels. Considering the imbalance between normal and abnormal states when using real flight data, semi-supervised models were selected. Four models with one-dimensional (1D) convolutions were trained on normal data. These models were based on a variational autoencoder and three popular AD-specific models (AnoGAN, GANomaly, and Skip-GANomaly), and their performances considering several metrics were compared. Data preprocessing was performed according to various scaling methods, and the hyperparameters that affect the training process were determined through Bayesian optimization. After training, AD was performed using a two-step process. First, detection through binary classification was performed by generating a reconstruction of the testing data and thresholding the reconstruction error. After detection, if the data were determined to be abnormal, each of the 16 channels was ranked in terms of its probability of being the source of the anomaly. The proposed scheme for detecting anomalies was tested and verified using real-world flight data, and analysis of the results revealed the major types of faults and identified specific abnormal channels. This has implications on future research of implementing necessary responses to abnormal readings to maintain UAV autonomy.</t>
-  </si>
-  <si>
-    <t>Ahn, Hyojung; Chung, Sonia; Lee, Jihun; Kim, Sunyoung</t>
-  </si>
-  <si>
-    <t>Expert Systems with Applications (Vol.244, Article122869)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.eswa.2023.122869</t>
-  </si>
-  <si>
-    <t>Vehicle-level anomaly in swarm flights (kinematics and inertial data)</t>
-  </si>
-  <si>
-    <t>1D-CNN and MLP fusion trained on swarm mission flight logs</t>
-  </si>
-  <si>
-    <t>Accuracy, precision, recall, detection latency</t>
-  </si>
-  <si>
-    <t>Proposes deep learning models to detect anomalies in individual UAV behavior during cooperative swarm missions; validated on real UAV experiments</t>
-  </si>
-  <si>
-    <t>Dataset not publicly available; focuses only on detection without fault isolation or recovery</t>
-  </si>
-  <si>
-    <t>Important Detection-pillar work highlighting vehicle-level anomaly detection within swarm coordination</t>
-  </si>
-  <si>
-    <t>@article{Ahn2024SwarmVehicleAnomaly, title={Deep Learning-Based Anomaly Detection for Individual Drone Vehicles Performing Swarm Missions}, author={Ahn, Hyojung and Chung, Sonia and Lee, Jihun and Kim, Sunyoung}, journal={Expert Systems with Applications}, year={2024}, volume={244}, article={122869}, doi={10.1016/j.eswa.2023.122869}}</t>
   </si>
   <si>
     <t>Henrio2018DroneVideoAnomaly</t>
@@ -4945,10 +4906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W113"/>
+  <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5075,7 +5036,7 @@
         <v>35</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P2" t="s">
         <v>37</v>
@@ -5143,7 +5104,7 @@
         <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P3" t="s">
         <v>54</v>
@@ -5211,10 +5172,10 @@
         <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P4" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="Q4" t="s">
         <v>71</v>
@@ -5279,7 +5240,7 @@
         <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P5" t="s">
         <v>37</v>
@@ -5347,7 +5308,7 @@
         <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P6" t="s">
         <v>54</v>
@@ -5415,7 +5376,7 @@
         <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P7" t="s">
         <v>37</v>
@@ -5453,7 +5414,7 @@
         <v>108</v>
       </c>
       <c r="E8">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="F8" t="s">
         <v>109</v>
@@ -5483,10 +5444,10 @@
         <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q8" t="s">
         <v>113</v>
@@ -5521,7 +5482,7 @@
         <v>121</v>
       </c>
       <c r="E9">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F9" t="s">
         <v>122</v>
@@ -5536,66 +5497,66 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O9" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P9" t="s">
         <v>37</v>
       </c>
       <c r="Q9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E10">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -5604,22 +5565,22 @@
         <v>50</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N10" t="s">
         <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P10" t="s">
         <v>37</v>
@@ -5634,7 +5595,7 @@
         <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
         <v>144</v>
@@ -5657,7 +5618,7 @@
         <v>149</v>
       </c>
       <c r="E11">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="F11" t="s">
         <v>150</v>
@@ -5672,66 +5633,66 @@
         <v>50</v>
       </c>
       <c r="J11" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P11" t="s">
         <v>37</v>
       </c>
       <c r="Q11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="S11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="T11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E12">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -5740,22 +5701,22 @@
         <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
         <v>168</v>
       </c>
       <c r="O12" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P12" t="s">
         <v>37</v>
@@ -5793,7 +5754,7 @@
         <v>177</v>
       </c>
       <c r="E13">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F13" t="s">
         <v>178</v>
@@ -5814,7 +5775,7 @@
         <v>180</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
         <v>52</v>
@@ -5823,7 +5784,7 @@
         <v>181</v>
       </c>
       <c r="O13" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P13" t="s">
         <v>37</v>
@@ -5861,7 +5822,7 @@
         <v>190</v>
       </c>
       <c r="E14">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="F14" t="s">
         <v>191</v>
@@ -5876,22 +5837,22 @@
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
         <v>193</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N14" t="s">
         <v>194</v>
       </c>
       <c r="O14" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P14" t="s">
         <v>37</v>
@@ -5929,7 +5890,7 @@
         <v>203</v>
       </c>
       <c r="E15">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="F15" t="s">
         <v>204</v>
@@ -5944,25 +5905,25 @@
         <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K15" t="s">
         <v>206</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N15" t="s">
         <v>207</v>
       </c>
       <c r="O15" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>1477</v>
       </c>
       <c r="Q15" t="s">
         <v>208</v>
@@ -5974,7 +5935,7 @@
         <v>210</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
         <v>211</v>
@@ -5997,7 +5958,7 @@
         <v>216</v>
       </c>
       <c r="E16">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F16" t="s">
         <v>217</v>
@@ -6012,66 +5973,66 @@
         <v>50</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
         <v>219</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="M16" t="s">
         <v>52</v>
       </c>
       <c r="N16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O16" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="P16" t="s">
-        <v>1490</v>
+        <v>54</v>
       </c>
       <c r="Q16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="T16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U16" t="s">
         <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E17">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -6080,66 +6041,66 @@
         <v>50</v>
       </c>
       <c r="J17" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M17" t="s">
         <v>52</v>
       </c>
       <c r="N17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O17" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q17" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U17" t="s">
         <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E18">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -6148,22 +6109,22 @@
         <v>50</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L18" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N18" t="s">
         <v>248</v>
       </c>
       <c r="O18" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="P18" t="s">
         <v>37</v>
@@ -6178,7 +6139,7 @@
         <v>251</v>
       </c>
       <c r="U18" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s">
         <v>252</v>
@@ -6201,7 +6162,7 @@
         <v>257</v>
       </c>
       <c r="E19">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="F19" t="s">
         <v>258</v>
@@ -6216,7 +6177,7 @@
         <v>50</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
         <v>260</v>
@@ -6225,13 +6186,13 @@
         <v>33</v>
       </c>
       <c r="M19" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N19" t="s">
         <v>261</v>
       </c>
       <c r="O19" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P19" t="s">
         <v>37</v>
@@ -6246,7 +6207,7 @@
         <v>264</v>
       </c>
       <c r="U19" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
         <v>265</v>
@@ -6269,7 +6230,7 @@
         <v>270</v>
       </c>
       <c r="E20">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F20" t="s">
         <v>271</v>
@@ -6284,7 +6245,7 @@
         <v>50</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="K20" t="s">
         <v>273</v>
@@ -6299,7 +6260,7 @@
         <v>274</v>
       </c>
       <c r="O20" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P20" t="s">
         <v>37</v>
@@ -6337,7 +6298,7 @@
         <v>283</v>
       </c>
       <c r="E21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F21" t="s">
         <v>284</v>
@@ -6361,13 +6322,13 @@
         <v>33</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N21" t="s">
         <v>287</v>
       </c>
       <c r="O21" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P21" t="s">
         <v>37</v>
@@ -6382,7 +6343,7 @@
         <v>290</v>
       </c>
       <c r="U21" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s">
         <v>291</v>
@@ -6405,7 +6366,7 @@
         <v>296</v>
       </c>
       <c r="E22">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="F22" t="s">
         <v>297</v>
@@ -6420,7 +6381,7 @@
         <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
         <v>299</v>
@@ -6429,16 +6390,16 @@
         <v>33</v>
       </c>
       <c r="M22" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N22" t="s">
         <v>300</v>
       </c>
       <c r="O22" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P22" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
         <v>301</v>
@@ -6450,7 +6411,7 @@
         <v>303</v>
       </c>
       <c r="U22" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
         <v>304</v>
@@ -6473,7 +6434,7 @@
         <v>309</v>
       </c>
       <c r="E23">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F23" t="s">
         <v>310</v>
@@ -6488,7 +6449,7 @@
         <v>50</v>
       </c>
       <c r="J23" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s">
         <v>312</v>
@@ -6497,16 +6458,16 @@
         <v>33</v>
       </c>
       <c r="M23" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N23" t="s">
         <v>313</v>
       </c>
       <c r="O23" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q23" t="s">
         <v>314</v>
@@ -6541,7 +6502,7 @@
         <v>322</v>
       </c>
       <c r="E24">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F24" t="s">
         <v>323</v>
@@ -6556,7 +6517,7 @@
         <v>50</v>
       </c>
       <c r="J24" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s">
         <v>325</v>
@@ -6571,10 +6532,10 @@
         <v>326</v>
       </c>
       <c r="O24" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q24" t="s">
         <v>327</v>
@@ -6624,7 +6585,7 @@
         <v>50</v>
       </c>
       <c r="J25" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="K25" t="s">
         <v>338</v>
@@ -6633,16 +6594,16 @@
         <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
         <v>339</v>
       </c>
       <c r="O25" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="s">
         <v>340</v>
@@ -6692,66 +6653,66 @@
         <v>50</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
         <v>351</v>
       </c>
       <c r="L26" t="s">
+        <v>352</v>
+      </c>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" t="s">
         <v>33</v>
       </c>
-      <c r="M26" t="s">
-        <v>139</v>
-      </c>
-      <c r="N26" t="s">
-        <v>352</v>
-      </c>
       <c r="O26" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P26" t="s">
         <v>37</v>
       </c>
       <c r="Q26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s">
         <v>353</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>354</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>355</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>58</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" t="s">
         <v>358</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>359</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>360</v>
-      </c>
-      <c r="D27" t="s">
-        <v>361</v>
       </c>
       <c r="E27">
         <v>2025</v>
       </c>
       <c r="F27" t="s">
+        <v>361</v>
+      </c>
+      <c r="G27" t="s">
         <v>362</v>
-      </c>
-      <c r="G27" t="s">
-        <v>363</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
@@ -6760,40 +6721,40 @@
         <v>50</v>
       </c>
       <c r="J27" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s">
+        <v>363</v>
+      </c>
+      <c r="L27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M27" t="s">
+        <v>154</v>
+      </c>
+      <c r="N27" t="s">
         <v>364</v>
       </c>
-      <c r="L27" t="s">
-        <v>365</v>
-      </c>
-      <c r="M27" t="s">
-        <v>34</v>
-      </c>
-      <c r="N27" t="s">
-        <v>33</v>
-      </c>
       <c r="O27" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="P27" t="s">
         <v>37</v>
       </c>
       <c r="Q27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" t="s">
+        <v>365</v>
+      </c>
+      <c r="S27" t="s">
         <v>366</v>
       </c>
       <c r="T27" t="s">
         <v>367</v>
       </c>
       <c r="U27" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" t="s">
         <v>368</v>
-      </c>
-      <c r="V27" t="s">
-        <v>58</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>369</v>
@@ -6813,7 +6774,7 @@
         <v>373</v>
       </c>
       <c r="E28">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F28" t="s">
         <v>374</v>
@@ -6828,22 +6789,22 @@
         <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="K28" t="s">
         <v>376</v>
       </c>
       <c r="L28" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="N28" t="s">
         <v>377</v>
       </c>
       <c r="O28" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P28" t="s">
         <v>37</v>
@@ -6858,7 +6819,7 @@
         <v>380</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s">
         <v>381</v>
@@ -6881,7 +6842,7 @@
         <v>386</v>
       </c>
       <c r="E29">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F29" t="s">
         <v>387</v>
@@ -6896,7 +6857,7 @@
         <v>50</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K29" t="s">
         <v>389</v>
@@ -6905,16 +6866,16 @@
         <v>33</v>
       </c>
       <c r="M29" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="N29" t="s">
         <v>390</v>
       </c>
       <c r="O29" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P29" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q29" t="s">
         <v>391</v>
@@ -6926,7 +6887,7 @@
         <v>393</v>
       </c>
       <c r="U29" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
         <v>394</v>
@@ -6949,7 +6910,7 @@
         <v>399</v>
       </c>
       <c r="E30">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F30" t="s">
         <v>400</v>
@@ -6964,7 +6925,7 @@
         <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s">
         <v>402</v>
@@ -6973,57 +6934,57 @@
         <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="N30" t="s">
         <v>403</v>
       </c>
       <c r="O30" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P30" t="s">
         <v>54</v>
       </c>
       <c r="Q30" t="s">
+        <v>391</v>
+      </c>
+      <c r="S30" t="s">
         <v>404</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>405</v>
-      </c>
-      <c r="T30" t="s">
-        <v>406</v>
       </c>
       <c r="U30" t="s">
         <v>58</v>
       </c>
       <c r="V30" t="s">
+        <v>406</v>
+      </c>
+      <c r="W30" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" t="s">
         <v>409</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>410</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>411</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>2021</v>
+      </c>
+      <c r="F31" t="s">
         <v>412</v>
       </c>
-      <c r="E31">
-        <v>2025</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>413</v>
-      </c>
-      <c r="G31" t="s">
-        <v>414</v>
       </c>
       <c r="H31" t="s">
         <v>29</v>
@@ -7032,28 +6993,28 @@
         <v>50</v>
       </c>
       <c r="J31" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K31" t="s">
+        <v>414</v>
+      </c>
+      <c r="L31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" t="s">
         <v>415</v>
       </c>
-      <c r="L31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" t="s">
-        <v>139</v>
-      </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" t="s">
         <v>416</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P31" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>404</v>
       </c>
       <c r="S31" t="s">
         <v>417</v>
@@ -7085,7 +7046,7 @@
         <v>424</v>
       </c>
       <c r="E32">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="F32" t="s">
         <v>425</v>
@@ -7100,205 +7061,205 @@
         <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K32" t="s">
         <v>427</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>33</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
         <v>428</v>
       </c>
       <c r="O32" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P32" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q32" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="R32" t="s">
+        <v>431</v>
       </c>
       <c r="S32" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="T32" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="U32" t="s">
         <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B33" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C33" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D33" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E33">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="F33" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G33" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H33" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="I33" t="s">
         <v>50</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="K33" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M33" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="N33" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="O33" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P33" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q33" t="s">
-        <v>443</v>
-      </c>
-      <c r="R33" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="S33" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="T33" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="U33" t="s">
         <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C34" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D34" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E34">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="F34" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G34" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H34" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
         <v>50</v>
       </c>
       <c r="J34" t="s">
-        <v>456</v>
+        <v>31</v>
       </c>
       <c r="K34" t="s">
         <v>457</v>
       </c>
       <c r="L34" t="s">
-        <v>69</v>
+        <v>458</v>
       </c>
       <c r="M34" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="N34" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O34" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q34" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="S34" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="T34" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="U34" t="s">
         <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C35" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E35">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F35" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G35" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H35" t="s">
         <v>29</v>
@@ -7310,19 +7271,19 @@
         <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L35" t="s">
-        <v>471</v>
+        <v>33</v>
       </c>
       <c r="M35" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N35" t="s">
         <v>472</v>
       </c>
       <c r="O35" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="P35" t="s">
         <v>54</v>
@@ -7375,7 +7336,7 @@
         <v>50</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>443</v>
       </c>
       <c r="K36" t="s">
         <v>484</v>
@@ -7390,10 +7351,10 @@
         <v>485</v>
       </c>
       <c r="O36" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P36" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q36" t="s">
         <v>486</v>
@@ -7428,7 +7389,7 @@
         <v>494</v>
       </c>
       <c r="E37">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F37" t="s">
         <v>495</v>
@@ -7443,7 +7404,7 @@
         <v>50</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>124</v>
       </c>
       <c r="K37" t="s">
         <v>497</v>
@@ -7458,7 +7419,7 @@
         <v>498</v>
       </c>
       <c r="O37" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P37" t="s">
         <v>37</v>
@@ -7473,7 +7434,7 @@
         <v>501</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s">
         <v>502</v>
@@ -7496,7 +7457,7 @@
         <v>507</v>
       </c>
       <c r="E38">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F38" t="s">
         <v>508</v>
@@ -7511,7 +7472,7 @@
         <v>50</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="K38" t="s">
         <v>510</v>
@@ -7520,13 +7481,13 @@
         <v>33</v>
       </c>
       <c r="M38" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N38" t="s">
         <v>511</v>
       </c>
       <c r="O38" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P38" t="s">
         <v>37</v>
@@ -7541,7 +7502,7 @@
         <v>514</v>
       </c>
       <c r="U38" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
         <v>515</v>
@@ -7564,7 +7525,7 @@
         <v>520</v>
       </c>
       <c r="E39">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F39" t="s">
         <v>521</v>
@@ -7579,66 +7540,66 @@
         <v>50</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>523</v>
       </c>
       <c r="K39" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>525</v>
       </c>
       <c r="M39" t="s">
         <v>52</v>
       </c>
       <c r="N39" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="O39" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P39" t="s">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="Q39" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="S39" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="T39" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="U39" t="s">
-        <v>58</v>
+        <v>530</v>
       </c>
       <c r="V39" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B40" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C40" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D40" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E40">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F40" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G40" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H40" t="s">
         <v>29</v>
@@ -7647,42 +7608,39 @@
         <v>50</v>
       </c>
       <c r="J40" t="s">
-        <v>536</v>
+        <v>67</v>
       </c>
       <c r="K40" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L40" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M40" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="O40" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P40" t="s">
-        <v>442</v>
+        <v>54</v>
       </c>
       <c r="Q40" t="s">
-        <v>540</v>
+        <v>542</v>
+      </c>
+      <c r="R40" t="s">
+        <v>543</v>
       </c>
       <c r="S40" t="s">
-        <v>541</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="U40" t="s">
-        <v>543</v>
-      </c>
-      <c r="V40" t="s">
-        <v>544</v>
-      </c>
-      <c r="W40" s="3" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7700,7 +7658,7 @@
         <v>549</v>
       </c>
       <c r="E41">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="F41" t="s">
         <v>550</v>
@@ -7715,39 +7673,42 @@
         <v>50</v>
       </c>
       <c r="J41" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="K41" t="s">
         <v>552</v>
       </c>
       <c r="L41" t="s">
-        <v>553</v>
+        <v>69</v>
       </c>
       <c r="M41" t="s">
         <v>34</v>
       </c>
       <c r="N41" t="s">
+        <v>553</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P41" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q41" t="s">
         <v>554</v>
       </c>
-      <c r="O41" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P41" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q41" t="s">
+      <c r="S41" t="s">
         <v>555</v>
       </c>
-      <c r="R41" t="s">
+      <c r="T41" t="s">
         <v>556</v>
       </c>
-      <c r="S41" t="s">
-        <v>58</v>
-      </c>
-      <c r="T41" t="s">
+      <c r="U41" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" t="s">
         <v>557</v>
       </c>
-      <c r="U41" t="s">
+      <c r="W41" s="3" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7765,7 +7726,7 @@
         <v>562</v>
       </c>
       <c r="E42">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="F42" t="s">
         <v>563</v>
@@ -7780,42 +7741,39 @@
         <v>50</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>565</v>
       </c>
       <c r="K42" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L42" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M42" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N42" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O42" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P42" t="s">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="Q42" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="S42" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="T42" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="U42" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>570</v>
-      </c>
-      <c r="W42" s="3" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7833,7 +7791,7 @@
         <v>575</v>
       </c>
       <c r="E43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F43" t="s">
         <v>576</v>
@@ -7848,193 +7806,193 @@
         <v>50</v>
       </c>
       <c r="J43" t="s">
+        <v>443</v>
+      </c>
+      <c r="K43" t="s">
         <v>578</v>
-      </c>
-      <c r="K43" t="s">
-        <v>579</v>
       </c>
       <c r="L43" t="s">
         <v>33</v>
       </c>
       <c r="M43" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O43" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P43" t="s">
         <v>37</v>
       </c>
       <c r="Q43" t="s">
+        <v>580</v>
+      </c>
+      <c r="S43" t="s">
         <v>581</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>582</v>
-      </c>
-      <c r="T43" t="s">
-        <v>583</v>
       </c>
       <c r="U43" t="s">
         <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>584</v>
+      </c>
+      <c r="B44" t="s">
         <v>585</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>586</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>587</v>
-      </c>
-      <c r="D44" t="s">
-        <v>588</v>
       </c>
       <c r="E44">
         <v>2023</v>
       </c>
       <c r="F44" t="s">
+        <v>588</v>
+      </c>
+      <c r="G44" t="s">
         <v>589</v>
       </c>
-      <c r="G44" t="s">
-        <v>590</v>
-      </c>
       <c r="H44" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="I44" t="s">
         <v>50</v>
       </c>
       <c r="J44" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
       <c r="K44" t="s">
+        <v>590</v>
+      </c>
+      <c r="L44" t="s">
+        <v>69</v>
+      </c>
+      <c r="M44" t="s">
+        <v>52</v>
+      </c>
+      <c r="N44" t="s">
         <v>591</v>
       </c>
-      <c r="L44" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" t="s">
-        <v>139</v>
-      </c>
-      <c r="N44" t="s">
-        <v>592</v>
-      </c>
       <c r="O44" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P44" t="s">
         <v>37</v>
       </c>
       <c r="Q44" t="s">
+        <v>592</v>
+      </c>
+      <c r="S44" t="s">
         <v>593</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>594</v>
-      </c>
-      <c r="T44" t="s">
-        <v>595</v>
       </c>
       <c r="U44" t="s">
         <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>596</v>
+      </c>
+      <c r="B45" t="s">
         <v>597</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>598</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>599</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45">
+        <v>2025</v>
+      </c>
+      <c r="F45" t="s">
         <v>600</v>
       </c>
-      <c r="E45">
-        <v>2023</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>601</v>
       </c>
-      <c r="G45" t="s">
-        <v>602</v>
-      </c>
       <c r="H45" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
         <v>50</v>
       </c>
       <c r="J45" t="s">
-        <v>578</v>
+        <v>443</v>
       </c>
       <c r="K45" t="s">
+        <v>602</v>
+      </c>
+      <c r="L45" t="s">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" t="s">
         <v>603</v>
       </c>
-      <c r="L45" t="s">
-        <v>69</v>
-      </c>
-      <c r="M45" t="s">
-        <v>52</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P45" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q45" t="s">
         <v>604</v>
       </c>
-      <c r="O45" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P45" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>605</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>606</v>
-      </c>
-      <c r="T45" t="s">
-        <v>607</v>
       </c>
       <c r="U45" t="s">
         <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>608</v>
+      </c>
+      <c r="B46" t="s">
         <v>609</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>610</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>611</v>
-      </c>
-      <c r="D46" t="s">
-        <v>612</v>
       </c>
       <c r="E46">
         <v>2025</v>
       </c>
       <c r="F46" t="s">
+        <v>612</v>
+      </c>
+      <c r="G46" t="s">
         <v>613</v>
-      </c>
-      <c r="G46" t="s">
-        <v>614</v>
       </c>
       <c r="H46" t="s">
         <v>29</v>
@@ -8043,376 +8001,376 @@
         <v>50</v>
       </c>
       <c r="J46" t="s">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="L46" t="s">
         <v>33</v>
       </c>
       <c r="M46" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N46" t="s">
+        <v>615</v>
+      </c>
+      <c r="O46" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P46" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" t="s">
         <v>616</v>
       </c>
-      <c r="O46" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q46" t="s">
+      <c r="S46" t="s">
         <v>617</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>618</v>
-      </c>
-      <c r="T46" t="s">
-        <v>619</v>
       </c>
       <c r="U46" t="s">
         <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>620</v>
+      </c>
+      <c r="B47" t="s">
         <v>621</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>622</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47">
+        <v>2024</v>
+      </c>
+      <c r="F47" t="s">
         <v>623</v>
       </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
         <v>624</v>
-      </c>
-      <c r="E47">
-        <v>2025</v>
-      </c>
-      <c r="F47" t="s">
-        <v>625</v>
-      </c>
-      <c r="G47" t="s">
-        <v>626</v>
       </c>
       <c r="H47" t="s">
         <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>625</v>
       </c>
       <c r="J47" t="s">
         <v>67</v>
       </c>
       <c r="K47" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L47" t="s">
         <v>33</v>
       </c>
       <c r="M47" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O47" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P47" t="s">
         <v>37</v>
       </c>
       <c r="Q47" t="s">
+        <v>628</v>
+      </c>
+      <c r="S47" t="s">
         <v>629</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>630</v>
-      </c>
-      <c r="T47" t="s">
-        <v>631</v>
       </c>
       <c r="U47" t="s">
         <v>58</v>
       </c>
       <c r="V47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>632</v>
+      </c>
+      <c r="B48" t="s">
         <v>633</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>634</v>
       </c>
       <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>2019</v>
+      </c>
+      <c r="F48" t="s">
         <v>635</v>
       </c>
-      <c r="E48">
-        <v>2024</v>
-      </c>
-      <c r="F48" t="s">
-        <v>636</v>
-      </c>
       <c r="G48" t="s">
-        <v>637</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
         <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>638</v>
+        <v>50</v>
       </c>
       <c r="J48" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K48" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="L48" t="s">
         <v>33</v>
       </c>
       <c r="M48" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N48" t="s">
+        <v>637</v>
+      </c>
+      <c r="O48" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P48" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>638</v>
+      </c>
+      <c r="S48" t="s">
+        <v>639</v>
+      </c>
+      <c r="T48" t="s">
         <v>640</v>
       </c>
-      <c r="O48" t="s">
-        <v>1488</v>
-      </c>
-      <c r="P48" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q48" t="s">
+      <c r="U48" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s">
         <v>641</v>
-      </c>
-      <c r="S48" t="s">
-        <v>642</v>
-      </c>
-      <c r="T48" t="s">
-        <v>643</v>
-      </c>
-      <c r="U48" t="s">
-        <v>58</v>
-      </c>
-      <c r="V48" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>642</v>
+      </c>
+      <c r="B49" t="s">
+        <v>643</v>
+      </c>
+      <c r="C49" t="s">
+        <v>644</v>
+      </c>
+      <c r="D49" t="s">
         <v>645</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49">
+        <v>2020</v>
+      </c>
+      <c r="F49" t="s">
         <v>646</v>
       </c>
-      <c r="C49" t="s">
+      <c r="G49" t="s">
         <v>647</v>
-      </c>
-      <c r="D49" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49">
-        <v>2019</v>
-      </c>
-      <c r="F49" t="s">
-        <v>648</v>
-      </c>
-      <c r="G49" t="s">
-        <v>49</v>
       </c>
       <c r="H49" t="s">
         <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="K49" t="s">
+        <v>648</v>
+      </c>
+      <c r="O49" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" t="s">
         <v>649</v>
       </c>
-      <c r="L49" t="s">
-        <v>33</v>
-      </c>
-      <c r="M49" t="s">
-        <v>52</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="R49" t="s">
         <v>650</v>
       </c>
-      <c r="O49" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P49" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="S49" t="s">
         <v>651</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s">
         <v>652</v>
-      </c>
-      <c r="T49" t="s">
-        <v>653</v>
-      </c>
-      <c r="U49" t="s">
-        <v>41</v>
-      </c>
-      <c r="V49" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>653</v>
+      </c>
+      <c r="B50" t="s">
+        <v>654</v>
+      </c>
+      <c r="C50" t="s">
         <v>655</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>656</v>
-      </c>
-      <c r="C50" t="s">
-        <v>657</v>
-      </c>
-      <c r="D50" t="s">
-        <v>658</v>
       </c>
       <c r="E50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
+        <v>657</v>
+      </c>
+      <c r="G50" t="s">
+        <v>658</v>
+      </c>
+      <c r="H50" t="s">
+        <v>442</v>
+      </c>
+      <c r="I50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
         <v>659</v>
       </c>
-      <c r="G50" t="s">
+      <c r="L50" t="s">
+        <v>69</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" t="s">
         <v>660</v>
       </c>
-      <c r="H50" t="s">
-        <v>29</v>
-      </c>
-      <c r="I50" t="s">
-        <v>30</v>
-      </c>
-      <c r="J50" t="s">
-        <v>67</v>
-      </c>
-      <c r="K50" t="s">
-        <v>661</v>
-      </c>
       <c r="O50" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P50" t="s">
         <v>37</v>
       </c>
       <c r="Q50" t="s">
+        <v>661</v>
+      </c>
+      <c r="S50" t="s">
         <v>662</v>
       </c>
-      <c r="R50" t="s">
+      <c r="T50" t="s">
         <v>663</v>
       </c>
-      <c r="S50" t="s">
+      <c r="U50" t="s">
+        <v>58</v>
+      </c>
+      <c r="V50" t="s">
         <v>664</v>
-      </c>
-      <c r="T50" t="s">
-        <v>41</v>
-      </c>
-      <c r="U50" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>665</v>
+      </c>
+      <c r="B51" t="s">
         <v>666</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>667</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>668</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51">
+        <v>2021</v>
+      </c>
+      <c r="F51" t="s">
         <v>669</v>
       </c>
-      <c r="E51">
-        <v>2020</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>670</v>
       </c>
-      <c r="G51" t="s">
-        <v>671</v>
-      </c>
       <c r="H51" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
         <v>50</v>
       </c>
       <c r="J51" t="s">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="K51" t="s">
+        <v>671</v>
+      </c>
+      <c r="L51" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51" t="s">
         <v>672</v>
       </c>
-      <c r="L51" t="s">
-        <v>69</v>
-      </c>
-      <c r="M51" t="s">
-        <v>34</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P51" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q51" t="s">
         <v>673</v>
       </c>
-      <c r="O51" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P51" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q51" t="s">
+      <c r="S51" t="s">
         <v>674</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>675</v>
-      </c>
-      <c r="T51" t="s">
-        <v>676</v>
       </c>
       <c r="U51" t="s">
         <v>58</v>
       </c>
       <c r="V51" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>677</v>
+      </c>
+      <c r="B52" t="s">
         <v>678</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>679</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>680</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52">
+        <v>2019</v>
+      </c>
+      <c r="F52" t="s">
         <v>681</v>
       </c>
-      <c r="E52">
-        <v>2021</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>682</v>
-      </c>
-      <c r="G52" t="s">
-        <v>683</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -8421,27 +8379,30 @@
         <v>50</v>
       </c>
       <c r="J52" t="s">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
+        <v>683</v>
+      </c>
+      <c r="L52" t="s">
+        <v>458</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" t="s">
         <v>684</v>
       </c>
-      <c r="L52" t="s">
-        <v>33</v>
-      </c>
-      <c r="M52" t="s">
-        <v>139</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P52" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" t="s">
         <v>685</v>
       </c>
-      <c r="O52" t="s">
-        <v>1488</v>
-      </c>
-      <c r="P52" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q52" t="s">
+      <c r="R52" t="s">
         <v>686</v>
       </c>
       <c r="S52" t="s">
@@ -8471,7 +8432,7 @@
         <v>693</v>
       </c>
       <c r="E53">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="F53" t="s">
         <v>694</v>
@@ -8486,13 +8447,13 @@
         <v>50</v>
       </c>
       <c r="J53" t="s">
-        <v>456</v>
+        <v>565</v>
       </c>
       <c r="K53" t="s">
         <v>696</v>
       </c>
       <c r="L53" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s">
         <v>34</v>
@@ -8501,7 +8462,7 @@
         <v>697</v>
       </c>
       <c r="O53" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P53" t="s">
         <v>37</v>
@@ -8509,120 +8470,117 @@
       <c r="Q53" t="s">
         <v>698</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>699</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>700</v>
-      </c>
-      <c r="T53" t="s">
-        <v>701</v>
       </c>
       <c r="U53" t="s">
         <v>58</v>
       </c>
       <c r="V53" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>702</v>
+      </c>
+      <c r="B54" t="s">
         <v>703</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>704</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>705</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54">
+        <v>2019</v>
+      </c>
+      <c r="F54" t="s">
         <v>706</v>
       </c>
-      <c r="E54">
-        <v>2017</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>707</v>
       </c>
-      <c r="G54" t="s">
-        <v>708</v>
-      </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="I54" t="s">
         <v>50</v>
       </c>
       <c r="J54" t="s">
-        <v>578</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s">
+        <v>708</v>
+      </c>
+      <c r="L54" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N54" t="s">
         <v>709</v>
       </c>
-      <c r="L54" t="s">
-        <v>471</v>
-      </c>
-      <c r="M54" t="s">
-        <v>34</v>
-      </c>
-      <c r="N54" t="s">
-        <v>710</v>
-      </c>
       <c r="O54" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P54" t="s">
         <v>37</v>
       </c>
       <c r="Q54" t="s">
+        <v>710</v>
+      </c>
+      <c r="R54" t="s">
         <v>711</v>
       </c>
       <c r="S54" t="s">
         <v>712</v>
       </c>
       <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
         <v>713</v>
-      </c>
-      <c r="U54" t="s">
-        <v>58</v>
-      </c>
-      <c r="V54" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>714</v>
+      </c>
+      <c r="B55" t="s">
         <v>715</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>716</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>717</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55">
+        <v>2025</v>
+      </c>
+      <c r="F55" t="s">
         <v>718</v>
       </c>
-      <c r="E55">
-        <v>2019</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>719</v>
       </c>
-      <c r="G55" t="s">
-        <v>720</v>
-      </c>
       <c r="H55" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
         <v>50</v>
       </c>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="K55" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L55" t="s">
         <v>33</v>
@@ -8631,154 +8589,154 @@
         <v>52</v>
       </c>
       <c r="N55" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O55" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P55" t="s">
         <v>37</v>
       </c>
       <c r="Q55" t="s">
+        <v>722</v>
+      </c>
+      <c r="S55" t="s">
         <v>723</v>
       </c>
-      <c r="R55" t="s">
+      <c r="T55" t="s">
         <v>724</v>
       </c>
-      <c r="S55" t="s">
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="V55" t="s">
         <v>725</v>
-      </c>
-      <c r="T55" t="s">
-        <v>58</v>
-      </c>
-      <c r="U55" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>726</v>
+      </c>
+      <c r="B56" t="s">
         <v>727</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>728</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>729</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56">
+        <v>2020</v>
+      </c>
+      <c r="F56" t="s">
         <v>730</v>
       </c>
-      <c r="E56">
-        <v>2025</v>
-      </c>
-      <c r="F56" t="s">
-        <v>731</v>
-      </c>
       <c r="G56" t="s">
-        <v>732</v>
+        <v>442</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I56" t="s">
         <v>50</v>
       </c>
       <c r="J56" t="s">
-        <v>456</v>
+        <v>731</v>
       </c>
       <c r="K56" t="s">
-        <v>733</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>732</v>
       </c>
       <c r="M56" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N56" t="s">
-        <v>734</v>
+        <v>36</v>
       </c>
       <c r="O56" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P56" t="s">
         <v>37</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
+        <v>733</v>
+      </c>
+      <c r="S56" t="s">
+        <v>734</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
         <v>735</v>
-      </c>
-      <c r="S56" t="s">
-        <v>736</v>
-      </c>
-      <c r="T56" t="s">
-        <v>737</v>
-      </c>
-      <c r="U56" t="s">
-        <v>58</v>
-      </c>
-      <c r="V56" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>736</v>
+      </c>
+      <c r="B57" t="s">
+        <v>737</v>
+      </c>
+      <c r="C57" t="s">
+        <v>738</v>
+      </c>
+      <c r="D57" t="s">
         <v>739</v>
       </c>
-      <c r="B57" t="s">
+      <c r="E57">
+        <v>2018</v>
+      </c>
+      <c r="F57" t="s">
         <v>740</v>
       </c>
-      <c r="C57" t="s">
+      <c r="G57" t="s">
         <v>741</v>
       </c>
-      <c r="D57" t="s">
-        <v>742</v>
-      </c>
-      <c r="E57">
-        <v>2020</v>
-      </c>
-      <c r="F57" t="s">
-        <v>743</v>
-      </c>
-      <c r="G57" t="s">
-        <v>455</v>
-      </c>
       <c r="H57" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
         <v>50</v>
       </c>
       <c r="J57" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" t="s">
+        <v>742</v>
+      </c>
+      <c r="L57" t="s">
+        <v>743</v>
+      </c>
+      <c r="M57" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" t="s">
         <v>744</v>
       </c>
-      <c r="K57" t="s">
-        <v>471</v>
-      </c>
-      <c r="L57" t="s">
-        <v>745</v>
-      </c>
-      <c r="M57" t="s">
-        <v>34</v>
-      </c>
-      <c r="N57" t="s">
-        <v>36</v>
-      </c>
       <c r="O57" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="P57" t="s">
         <v>37</v>
       </c>
-      <c r="R57" t="s">
+      <c r="Q57" t="s">
+        <v>745</v>
+      </c>
+      <c r="S57" t="s">
         <v>746</v>
       </c>
-      <c r="S57" t="s">
+      <c r="T57" t="s">
         <v>747</v>
       </c>
-      <c r="T57" t="s">
+      <c r="U57" t="s">
         <v>58</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>748</v>
       </c>
     </row>
@@ -8796,7 +8754,7 @@
         <v>752</v>
       </c>
       <c r="E58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F58" t="s">
         <v>753</v>
@@ -8811,7 +8769,7 @@
         <v>50</v>
       </c>
       <c r="J58" t="s">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
         <v>755</v>
@@ -8820,16 +8778,16 @@
         <v>756</v>
       </c>
       <c r="M58" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N58" t="s">
         <v>757</v>
       </c>
       <c r="O58" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="P58" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q58" t="s">
         <v>758</v>
@@ -8843,7 +8801,7 @@
       <c r="U58" t="s">
         <v>58</v>
       </c>
-      <c r="V58" t="s">
+      <c r="W58" s="3" t="s">
         <v>761</v>
       </c>
     </row>
@@ -8876,7 +8834,7 @@
         <v>50</v>
       </c>
       <c r="J59" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s">
         <v>768</v>
@@ -8885,16 +8843,16 @@
         <v>769</v>
       </c>
       <c r="M59" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N59" t="s">
         <v>770</v>
       </c>
       <c r="O59" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P59" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q59" t="s">
         <v>771</v>
@@ -8908,7 +8866,7 @@
       <c r="U59" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="V59" t="s">
         <v>774</v>
       </c>
     </row>
@@ -8926,7 +8884,7 @@
         <v>778</v>
       </c>
       <c r="E60">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F60" t="s">
         <v>779</v>
@@ -8941,63 +8899,63 @@
         <v>50</v>
       </c>
       <c r="J60" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K60" t="s">
         <v>781</v>
       </c>
       <c r="L60" t="s">
+        <v>33</v>
+      </c>
+      <c r="M60" t="s">
+        <v>126</v>
+      </c>
+      <c r="N60" t="s">
         <v>782</v>
       </c>
-      <c r="M60" t="s">
-        <v>52</v>
-      </c>
-      <c r="N60" t="s">
-        <v>783</v>
-      </c>
       <c r="O60" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P60" t="s">
         <v>37</v>
       </c>
       <c r="Q60" t="s">
+        <v>783</v>
+      </c>
+      <c r="S60" t="s">
         <v>784</v>
       </c>
-      <c r="S60" t="s">
+      <c r="T60" t="s">
         <v>785</v>
-      </c>
-      <c r="T60" t="s">
-        <v>786</v>
       </c>
       <c r="U60" t="s">
         <v>58</v>
       </c>
       <c r="V60" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>787</v>
+      </c>
+      <c r="B61" t="s">
         <v>788</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>789</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>790</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61">
+        <v>2024</v>
+      </c>
+      <c r="F61" t="s">
         <v>791</v>
       </c>
-      <c r="E61">
-        <v>2021</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>792</v>
-      </c>
-      <c r="G61" t="s">
-        <v>793</v>
       </c>
       <c r="H61" t="s">
         <v>29</v>
@@ -9006,63 +8964,63 @@
         <v>50</v>
       </c>
       <c r="J61" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K61" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L61" t="s">
         <v>33</v>
       </c>
       <c r="M61" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N61" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O61" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P61" t="s">
         <v>37</v>
       </c>
       <c r="Q61" t="s">
+        <v>795</v>
+      </c>
+      <c r="S61" t="s">
         <v>796</v>
       </c>
-      <c r="S61" t="s">
+      <c r="T61" t="s">
         <v>797</v>
-      </c>
-      <c r="T61" t="s">
-        <v>798</v>
       </c>
       <c r="U61" t="s">
         <v>58</v>
       </c>
       <c r="V61" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>799</v>
+      </c>
+      <c r="B62" t="s">
         <v>800</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>801</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>802</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62">
+        <v>2015</v>
+      </c>
+      <c r="F62" t="s">
         <v>803</v>
       </c>
-      <c r="E62">
-        <v>2024</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>804</v>
-      </c>
-      <c r="G62" t="s">
-        <v>805</v>
       </c>
       <c r="H62" t="s">
         <v>29</v>
@@ -9071,27 +9029,30 @@
         <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K62" t="s">
+        <v>805</v>
+      </c>
+      <c r="L62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M62" t="s">
+        <v>34</v>
+      </c>
+      <c r="N62" t="s">
         <v>806</v>
       </c>
-      <c r="L62" t="s">
-        <v>33</v>
-      </c>
-      <c r="M62" t="s">
-        <v>139</v>
-      </c>
-      <c r="N62" t="s">
-        <v>807</v>
-      </c>
       <c r="O62" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P62" t="s">
         <v>37</v>
       </c>
       <c r="Q62" t="s">
+        <v>807</v>
+      </c>
+      <c r="R62" t="s">
         <v>808</v>
       </c>
       <c r="S62" t="s">
@@ -9121,7 +9082,7 @@
         <v>815</v>
       </c>
       <c r="E63">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F63" t="s">
         <v>816</v>
@@ -9130,13 +9091,13 @@
         <v>817</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="I63" t="s">
         <v>50</v>
       </c>
       <c r="J63" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K63" t="s">
         <v>818</v>
@@ -9145,13 +9106,13 @@
         <v>69</v>
       </c>
       <c r="M63" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="N63" t="s">
         <v>819</v>
       </c>
       <c r="O63" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P63" t="s">
         <v>37</v>
@@ -9159,132 +9120,129 @@
       <c r="Q63" t="s">
         <v>820</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>821</v>
       </c>
-      <c r="S63" t="s">
+      <c r="T63" t="s">
         <v>822</v>
-      </c>
-      <c r="T63" t="s">
-        <v>823</v>
       </c>
       <c r="U63" t="s">
         <v>58</v>
       </c>
       <c r="V63" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>824</v>
+      </c>
+      <c r="B64" t="s">
         <v>825</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>826</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>827</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64">
+        <v>2024</v>
+      </c>
+      <c r="F64" t="s">
         <v>828</v>
       </c>
-      <c r="E64">
-        <v>2019</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>829</v>
       </c>
-      <c r="G64" t="s">
-        <v>830</v>
-      </c>
       <c r="H64" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
         <v>50</v>
       </c>
       <c r="J64" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K64" t="s">
+        <v>830</v>
+      </c>
+      <c r="L64" t="s">
+        <v>33</v>
+      </c>
+      <c r="M64" t="s">
+        <v>126</v>
+      </c>
+      <c r="N64" t="s">
         <v>831</v>
       </c>
-      <c r="L64" t="s">
-        <v>69</v>
-      </c>
-      <c r="M64" t="s">
-        <v>167</v>
-      </c>
-      <c r="N64" t="s">
-        <v>832</v>
-      </c>
       <c r="O64" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P64" t="s">
         <v>37</v>
       </c>
       <c r="Q64" t="s">
+        <v>832</v>
+      </c>
+      <c r="S64" t="s">
         <v>833</v>
       </c>
-      <c r="S64" t="s">
+      <c r="T64" t="s">
         <v>834</v>
-      </c>
-      <c r="T64" t="s">
-        <v>835</v>
       </c>
       <c r="U64" t="s">
         <v>58</v>
       </c>
       <c r="V64" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>836</v>
+      </c>
+      <c r="B65" t="s">
         <v>837</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>838</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>839</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65">
+        <v>2017</v>
+      </c>
+      <c r="F65" t="s">
         <v>840</v>
       </c>
-      <c r="E65">
-        <v>2024</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>841</v>
       </c>
-      <c r="G65" t="s">
-        <v>842</v>
-      </c>
       <c r="H65" t="s">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="I65" t="s">
         <v>50</v>
       </c>
       <c r="J65" t="s">
-        <v>456</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s">
+        <v>842</v>
+      </c>
+      <c r="L65" t="s">
         <v>843</v>
       </c>
-      <c r="L65" t="s">
-        <v>33</v>
-      </c>
       <c r="M65" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N65" t="s">
         <v>844</v>
       </c>
       <c r="O65" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="P65" t="s">
         <v>37</v>
@@ -9319,7 +9277,7 @@
         <v>852</v>
       </c>
       <c r="E66">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="F66" t="s">
         <v>853</v>
@@ -9328,69 +9286,66 @@
         <v>854</v>
       </c>
       <c r="H66" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
         <v>50</v>
       </c>
       <c r="J66" t="s">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="K66" t="s">
         <v>855</v>
       </c>
       <c r="L66" t="s">
-        <v>856</v>
+        <v>743</v>
       </c>
       <c r="M66" t="s">
         <v>34</v>
       </c>
       <c r="N66" t="s">
+        <v>856</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1475</v>
+      </c>
+      <c r="P66" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q66" t="s">
         <v>857</v>
       </c>
-      <c r="O66" t="s">
-        <v>1487</v>
-      </c>
-      <c r="P66" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q66" t="s">
+      <c r="R66" t="s">
         <v>858</v>
       </c>
       <c r="S66" t="s">
+        <v>58</v>
+      </c>
+      <c r="T66" t="s">
         <v>859</v>
-      </c>
-      <c r="T66" t="s">
-        <v>860</v>
-      </c>
-      <c r="U66" t="s">
-        <v>58</v>
-      </c>
-      <c r="V66" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>860</v>
+      </c>
+      <c r="B67" t="s">
+        <v>861</v>
+      </c>
+      <c r="C67" t="s">
         <v>862</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
         <v>863</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67">
+        <v>2023</v>
+      </c>
+      <c r="F67" t="s">
         <v>864</v>
       </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
         <v>865</v>
-      </c>
-      <c r="E67">
-        <v>2022</v>
-      </c>
-      <c r="F67" t="s">
-        <v>866</v>
-      </c>
-      <c r="G67" t="s">
-        <v>867</v>
       </c>
       <c r="H67" t="s">
         <v>29</v>
@@ -9399,60 +9354,63 @@
         <v>50</v>
       </c>
       <c r="J67" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="K67" t="s">
+        <v>866</v>
+      </c>
+      <c r="L67" t="s">
+        <v>33</v>
+      </c>
+      <c r="M67" t="s">
+        <v>126</v>
+      </c>
+      <c r="N67" t="s">
+        <v>867</v>
+      </c>
+      <c r="O67" t="s">
+        <v>1474</v>
+      </c>
+      <c r="P67" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" t="s">
         <v>868</v>
       </c>
-      <c r="L67" t="s">
-        <v>756</v>
-      </c>
-      <c r="M67" t="s">
-        <v>34</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="S67" t="s">
         <v>869</v>
       </c>
-      <c r="O67" t="s">
-        <v>1488</v>
-      </c>
-      <c r="P67" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q67" t="s">
+      <c r="T67" t="s">
         <v>870</v>
       </c>
-      <c r="R67" t="s">
+      <c r="U67" t="s">
+        <v>58</v>
+      </c>
+      <c r="V67" t="s">
         <v>871</v>
-      </c>
-      <c r="S67" t="s">
-        <v>58</v>
-      </c>
-      <c r="T67" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>872</v>
+      </c>
+      <c r="B68" t="s">
         <v>873</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>874</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>875</v>
-      </c>
-      <c r="D68" t="s">
-        <v>876</v>
       </c>
       <c r="E68">
         <v>2023</v>
       </c>
       <c r="F68" t="s">
+        <v>876</v>
+      </c>
+      <c r="G68" t="s">
         <v>877</v>
-      </c>
-      <c r="G68" t="s">
-        <v>878</v>
       </c>
       <c r="H68" t="s">
         <v>29</v>
@@ -9461,22 +9419,22 @@
         <v>50</v>
       </c>
       <c r="J68" t="s">
-        <v>456</v>
+        <v>878</v>
       </c>
       <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" t="s">
         <v>879</v>
       </c>
-      <c r="L68" t="s">
-        <v>33</v>
-      </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="N68" t="s">
         <v>880</v>
       </c>
       <c r="O68" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P68" t="s">
         <v>37</v>
@@ -9484,40 +9442,34 @@
       <c r="Q68" t="s">
         <v>881</v>
       </c>
+      <c r="R68" t="s">
+        <v>58</v>
+      </c>
       <c r="S68" t="s">
         <v>882</v>
-      </c>
-      <c r="T68" t="s">
-        <v>883</v>
-      </c>
-      <c r="U68" t="s">
-        <v>58</v>
-      </c>
-      <c r="V68" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>883</v>
+      </c>
+      <c r="B69" t="s">
+        <v>884</v>
+      </c>
+      <c r="C69" t="s">
         <v>885</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
+        <v>680</v>
+      </c>
+      <c r="E69">
+        <v>2018</v>
+      </c>
+      <c r="F69" t="s">
         <v>886</v>
       </c>
-      <c r="C69" t="s">
-        <v>887</v>
-      </c>
-      <c r="D69" t="s">
-        <v>888</v>
-      </c>
-      <c r="E69">
-        <v>2023</v>
-      </c>
-      <c r="F69" t="s">
-        <v>889</v>
-      </c>
       <c r="G69" t="s">
-        <v>890</v>
+        <v>682</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
@@ -9526,57 +9478,60 @@
         <v>50</v>
       </c>
       <c r="J69" t="s">
-        <v>891</v>
+        <v>443</v>
       </c>
       <c r="K69" t="s">
-        <v>33</v>
+        <v>887</v>
       </c>
       <c r="L69" t="s">
-        <v>892</v>
+        <v>458</v>
       </c>
       <c r="M69" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="N69" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="O69" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="P69" t="s">
         <v>37</v>
       </c>
       <c r="Q69" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="R69" t="s">
+        <v>890</v>
+      </c>
+      <c r="S69" t="s">
         <v>58</v>
       </c>
-      <c r="S69" t="s">
-        <v>895</v>
+      <c r="T69" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>892</v>
+      </c>
+      <c r="B70" t="s">
+        <v>893</v>
+      </c>
+      <c r="C70" t="s">
+        <v>894</v>
+      </c>
+      <c r="D70" t="s">
+        <v>895</v>
+      </c>
+      <c r="E70">
+        <v>2023</v>
+      </c>
+      <c r="F70" t="s">
         <v>896</v>
       </c>
-      <c r="B70" t="s">
+      <c r="G70" t="s">
         <v>897</v>
-      </c>
-      <c r="C70" t="s">
-        <v>898</v>
-      </c>
-      <c r="D70" t="s">
-        <v>693</v>
-      </c>
-      <c r="E70">
-        <v>2018</v>
-      </c>
-      <c r="F70" t="s">
-        <v>899</v>
-      </c>
-      <c r="G70" t="s">
-        <v>695</v>
       </c>
       <c r="H70" t="s">
         <v>29</v>
@@ -9585,60 +9540,63 @@
         <v>50</v>
       </c>
       <c r="J70" t="s">
-        <v>456</v>
+        <v>124</v>
       </c>
       <c r="K70" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="L70" t="s">
-        <v>471</v>
+        <v>33</v>
       </c>
       <c r="M70" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N70" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O70" t="s">
-        <v>1487</v>
+        <v>1475</v>
       </c>
       <c r="P70" t="s">
         <v>37</v>
       </c>
       <c r="Q70" t="s">
+        <v>900</v>
+      </c>
+      <c r="S70" t="s">
+        <v>901</v>
+      </c>
+      <c r="T70" t="s">
         <v>902</v>
       </c>
-      <c r="R70" t="s">
+      <c r="U70" t="s">
+        <v>58</v>
+      </c>
+      <c r="V70" t="s">
         <v>903</v>
-      </c>
-      <c r="S70" t="s">
-        <v>58</v>
-      </c>
-      <c r="T70" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>904</v>
+      </c>
+      <c r="B71" t="s">
         <v>905</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>906</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>907</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71">
+        <v>2024</v>
+      </c>
+      <c r="F71" t="s">
         <v>908</v>
       </c>
-      <c r="E71">
-        <v>2023</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>909</v>
-      </c>
-      <c r="G71" t="s">
-        <v>910</v>
       </c>
       <c r="H71" t="s">
         <v>29</v>
@@ -9647,166 +9605,172 @@
         <v>50</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>443</v>
       </c>
       <c r="K71" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L71" t="s">
         <v>33</v>
       </c>
       <c r="M71" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N71" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="O71" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="P71" t="s">
         <v>37</v>
       </c>
       <c r="Q71" t="s">
+        <v>912</v>
+      </c>
+      <c r="S71" t="s">
         <v>913</v>
       </c>
-      <c r="S71" t="s">
+      <c r="T71" t="s">
         <v>914</v>
-      </c>
-      <c r="T71" t="s">
-        <v>915</v>
       </c>
       <c r="U71" t="s">
         <v>58</v>
       </c>
       <c r="V71" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>916</v>
+      </c>
+      <c r="B72" t="s">
         <v>917</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>918</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>919</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72">
+        <v>2021</v>
+      </c>
+      <c r="F72" t="s">
         <v>920</v>
       </c>
-      <c r="E72">
-        <v>2024</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
+        <v>920</v>
+      </c>
+      <c r="H72" t="s">
         <v>921</v>
-      </c>
-      <c r="G72" t="s">
-        <v>922</v>
-      </c>
-      <c r="H72" t="s">
-        <v>29</v>
       </c>
       <c r="I72" t="s">
         <v>50</v>
       </c>
       <c r="J72" t="s">
-        <v>456</v>
+        <v>922</v>
       </c>
       <c r="K72" t="s">
         <v>923</v>
       </c>
       <c r="L72" t="s">
-        <v>33</v>
+        <v>924</v>
       </c>
       <c r="M72" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N72" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="O72" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P72" t="s">
         <v>37</v>
       </c>
       <c r="Q72" t="s">
-        <v>925</v>
+        <v>926</v>
+      </c>
+      <c r="R72" t="s">
+        <v>927</v>
       </c>
       <c r="S72" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="T72" t="s">
-        <v>927</v>
-      </c>
-      <c r="U72" t="s">
-        <v>58</v>
-      </c>
-      <c r="V72" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B73" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C73" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D73" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E73">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="F73" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="G73" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="H73" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I73" t="s">
         <v>50</v>
       </c>
       <c r="J73" t="s">
+        <v>934</v>
+      </c>
+      <c r="K73" t="s">
         <v>935</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>936</v>
       </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
+        <v>154</v>
+      </c>
+      <c r="N73" t="s">
         <v>937</v>
       </c>
-      <c r="M73" t="s">
-        <v>139</v>
-      </c>
-      <c r="N73" t="s">
-        <v>938</v>
-      </c>
       <c r="O73" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P73" t="s">
         <v>37</v>
       </c>
       <c r="Q73" t="s">
+        <v>938</v>
+      </c>
+      <c r="R73" t="s">
+        <v>927</v>
+      </c>
+      <c r="S73" t="s">
         <v>939</v>
       </c>
-      <c r="R73" t="s">
+      <c r="T73" t="s">
         <v>940</v>
       </c>
-      <c r="S73" t="s">
+      <c r="U73" t="s">
+        <v>58</v>
+      </c>
+      <c r="V73" t="s">
         <v>941</v>
       </c>
-      <c r="T73" t="s">
+      <c r="W73" s="3" t="s">
         <v>942</v>
       </c>
     </row>
@@ -9823,17 +9787,17 @@
       <c r="D74" t="s">
         <v>946</v>
       </c>
-      <c r="E74">
-        <v>2017</v>
+      <c r="E74" t="s">
+        <v>920</v>
       </c>
       <c r="F74" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="G74" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="H74" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I74" t="s">
         <v>50</v>
@@ -9848,13 +9812,13 @@
         <v>949</v>
       </c>
       <c r="M74" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="N74" t="s">
         <v>950</v>
       </c>
       <c r="O74" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P74" t="s">
         <v>37</v>
@@ -9863,7 +9827,7 @@
         <v>951</v>
       </c>
       <c r="R74" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S74" t="s">
         <v>952</v>
@@ -9894,88 +9858,88 @@
       <c r="D75" t="s">
         <v>959</v>
       </c>
-      <c r="E75" t="s">
-        <v>933</v>
+      <c r="E75">
+        <v>2024</v>
       </c>
       <c r="F75" t="s">
-        <v>933</v>
+        <v>960</v>
       </c>
       <c r="G75" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="H75" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I75" t="s">
         <v>50</v>
       </c>
       <c r="J75" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="K75" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="L75" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="M75" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N75" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="O75" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P75" t="s">
         <v>37</v>
       </c>
       <c r="Q75" t="s">
-        <v>964</v>
+        <v>920</v>
       </c>
       <c r="R75" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="S75" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="T75" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="U75" t="s">
         <v>58</v>
       </c>
       <c r="V75" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B76" t="s">
-        <v>970</v>
+        <v>307</v>
       </c>
       <c r="C76" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="D76" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E76">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F76" t="s">
-        <v>973</v>
+        <v>336</v>
       </c>
       <c r="G76" t="s">
         <v>974</v>
       </c>
       <c r="H76" t="s">
-        <v>934</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
         <v>50</v>
@@ -9990,22 +9954,22 @@
         <v>977</v>
       </c>
       <c r="M76" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N76" t="s">
         <v>978</v>
       </c>
       <c r="O76" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="P76" t="s">
         <v>37</v>
       </c>
       <c r="Q76" t="s">
-        <v>933</v>
+        <v>979</v>
       </c>
       <c r="R76" t="s">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="S76" t="s">
         <v>980</v>
@@ -10028,22 +9992,22 @@
         <v>984</v>
       </c>
       <c r="B77" t="s">
-        <v>320</v>
+        <v>985</v>
       </c>
       <c r="C77" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D77" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="E77">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F77" t="s">
-        <v>349</v>
+        <v>988</v>
       </c>
       <c r="G77" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="H77" t="s">
         <v>29</v>
@@ -10052,69 +10016,69 @@
         <v>50</v>
       </c>
       <c r="J77" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="K77" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="L77" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="M77" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N77" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="O77" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="P77" t="s">
         <v>37</v>
       </c>
       <c r="Q77" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="R77" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S77" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="T77" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="U77" t="s">
         <v>58</v>
       </c>
       <c r="V77" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B78" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C78" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="D78" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E78">
         <v>2025</v>
       </c>
       <c r="F78" t="s">
-        <v>1001</v>
+        <v>336</v>
       </c>
       <c r="G78" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="H78" t="s">
         <v>29</v>
@@ -10123,69 +10087,69 @@
         <v>50</v>
       </c>
       <c r="J78" t="s">
-        <v>1003</v>
+        <v>975</v>
       </c>
       <c r="K78" t="s">
         <v>1004</v>
       </c>
       <c r="L78" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="M78" t="s">
         <v>34</v>
       </c>
       <c r="N78" t="s">
+        <v>1005</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Q78" t="s">
         <v>1006</v>
       </c>
-      <c r="O78" t="s">
-        <v>1489</v>
-      </c>
-      <c r="P78" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q78" t="s">
+      <c r="R78" t="s">
+        <v>927</v>
+      </c>
+      <c r="S78" t="s">
         <v>1007</v>
       </c>
-      <c r="R78" t="s">
-        <v>940</v>
-      </c>
-      <c r="S78" t="s">
+      <c r="T78" t="s">
         <v>1008</v>
       </c>
-      <c r="T78" t="s">
+      <c r="U78" t="s">
+        <v>41</v>
+      </c>
+      <c r="V78" t="s">
         <v>1009</v>
       </c>
-      <c r="U78" t="s">
-        <v>58</v>
-      </c>
-      <c r="V78" t="s">
+      <c r="W78" s="3" t="s">
         <v>1010</v>
-      </c>
-      <c r="W78" s="3" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C79" t="s">
         <v>1012</v>
       </c>
-      <c r="B79" t="s">
+      <c r="D79" t="s">
         <v>1013</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79">
+        <v>2022</v>
+      </c>
+      <c r="F79" t="s">
         <v>1014</v>
       </c>
-      <c r="D79" t="s">
+      <c r="G79" t="s">
         <v>1015</v>
-      </c>
-      <c r="E79">
-        <v>2025</v>
-      </c>
-      <c r="F79" t="s">
-        <v>349</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1016</v>
       </c>
       <c r="H79" t="s">
         <v>29</v>
@@ -10194,69 +10158,66 @@
         <v>50</v>
       </c>
       <c r="J79" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="K79" t="s">
         <v>1017</v>
       </c>
       <c r="L79" t="s">
-        <v>989</v>
+        <v>1018</v>
       </c>
       <c r="M79" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N79" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="O79" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="P79" t="s">
-        <v>1490</v>
+        <v>37</v>
       </c>
       <c r="Q79" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="R79" t="s">
-        <v>940</v>
+        <v>1021</v>
       </c>
       <c r="S79" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="T79" t="s">
-        <v>1021</v>
+        <v>58</v>
       </c>
       <c r="U79" t="s">
-        <v>41</v>
+        <v>1023</v>
       </c>
       <c r="V79" t="s">
-        <v>1022</v>
-      </c>
-      <c r="W79" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B80" t="s">
-        <v>450</v>
+        <v>1026</v>
       </c>
       <c r="C80" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D80" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E80">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="F80" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="G80" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="H80" t="s">
         <v>29</v>
@@ -10265,66 +10226,69 @@
         <v>50</v>
       </c>
       <c r="J80" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="K80" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="L80" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="M80" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="N80" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="O80" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="P80" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q80" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="R80" t="s">
-        <v>1034</v>
+        <v>927</v>
       </c>
       <c r="S80" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="T80" t="s">
+        <v>1037</v>
+      </c>
+      <c r="U80" t="s">
         <v>58</v>
       </c>
-      <c r="U80" t="s">
-        <v>1036</v>
-      </c>
       <c r="V80" t="s">
-        <v>1037</v>
+        <v>1038</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B81" t="s">
-        <v>1039</v>
+        <v>905</v>
       </c>
       <c r="C81" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D81" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E81">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F81" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G81" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H81" t="s">
         <v>29</v>
@@ -10333,69 +10297,69 @@
         <v>50</v>
       </c>
       <c r="J81" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K81" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L81" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M81" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N81" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="O81" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="P81" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q81" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="R81" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S81" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="T81" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="U81" t="s">
         <v>58</v>
       </c>
       <c r="V81" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B82" t="s">
-        <v>918</v>
+        <v>1055</v>
       </c>
       <c r="C82" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="D82" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E82">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F82" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="G82" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H82" t="s">
         <v>29</v>
@@ -10404,69 +10368,69 @@
         <v>50</v>
       </c>
       <c r="J82" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="K82" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="L82" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="M82" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N82" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="O82" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P82" t="s">
         <v>37</v>
       </c>
       <c r="Q82" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="R82" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S82" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="T82" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="U82" t="s">
         <v>58</v>
       </c>
       <c r="V82" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B83" t="s">
-        <v>1068</v>
+        <v>534</v>
       </c>
       <c r="C83" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D83" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E83">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="F83" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G83" t="s">
-        <v>1072</v>
+        <v>920</v>
       </c>
       <c r="H83" t="s">
         <v>29</v>
@@ -10490,7 +10454,7 @@
         <v>1076</v>
       </c>
       <c r="O83" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="P83" t="s">
         <v>37</v>
@@ -10499,184 +10463,184 @@
         <v>1077</v>
       </c>
       <c r="R83" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S83" t="s">
         <v>1078</v>
       </c>
       <c r="T83" t="s">
+        <v>58</v>
+      </c>
+      <c r="U83" t="s">
         <v>1079</v>
-      </c>
-      <c r="U83" t="s">
-        <v>58</v>
       </c>
       <c r="V83" t="s">
         <v>1080</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
         <v>1082</v>
       </c>
-      <c r="B84" t="s">
-        <v>547</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>920</v>
+      </c>
+      <c r="E84" t="s">
+        <v>920</v>
+      </c>
+      <c r="F84" t="s">
+        <v>920</v>
+      </c>
+      <c r="G84" t="s">
+        <v>920</v>
+      </c>
+      <c r="H84" t="s">
+        <v>921</v>
+      </c>
+      <c r="I84" t="s">
+        <v>625</v>
+      </c>
+      <c r="J84" t="s">
         <v>1083</v>
       </c>
-      <c r="D84" t="s">
+      <c r="K84" t="s">
         <v>1084</v>
       </c>
-      <c r="E84">
-        <v>2020</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="L84" t="s">
         <v>1085</v>
       </c>
-      <c r="G84" t="s">
-        <v>933</v>
-      </c>
-      <c r="H84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I84" t="s">
-        <v>50</v>
-      </c>
-      <c r="J84" t="s">
+      <c r="M84" t="s">
+        <v>154</v>
+      </c>
+      <c r="N84" t="s">
         <v>1086</v>
       </c>
-      <c r="K84" t="s">
-        <v>1087</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1088</v>
-      </c>
-      <c r="M84" t="s">
-        <v>34</v>
-      </c>
-      <c r="N84" t="s">
-        <v>1089</v>
-      </c>
       <c r="O84" t="s">
-        <v>1487</v>
+        <v>1476</v>
       </c>
       <c r="P84" t="s">
         <v>37</v>
       </c>
       <c r="Q84" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R84" t="s">
+        <v>927</v>
+      </c>
+      <c r="S84" t="s">
+        <v>1088</v>
+      </c>
+      <c r="T84" t="s">
+        <v>1089</v>
+      </c>
+      <c r="U84" t="s">
+        <v>58</v>
+      </c>
+      <c r="V84" t="s">
         <v>1090</v>
       </c>
-      <c r="R84" t="s">
-        <v>940</v>
-      </c>
-      <c r="S84" t="s">
+      <c r="W84" s="3" t="s">
         <v>1091</v>
-      </c>
-      <c r="T84" t="s">
-        <v>58</v>
-      </c>
-      <c r="U84" t="s">
-        <v>1092</v>
-      </c>
-      <c r="V84" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B85" t="s">
+        <v>422</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D85" t="s">
+        <v>424</v>
+      </c>
+      <c r="E85">
+        <v>2025</v>
+      </c>
+      <c r="F85" t="s">
         <v>1094</v>
       </c>
-      <c r="B85" t="s">
-        <v>397</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="G85" t="s">
+        <v>920</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85" t="s">
         <v>1095</v>
       </c>
-      <c r="D85" t="s">
-        <v>933</v>
-      </c>
-      <c r="E85" t="s">
-        <v>933</v>
-      </c>
-      <c r="F85" t="s">
-        <v>933</v>
-      </c>
-      <c r="G85" t="s">
-        <v>933</v>
-      </c>
-      <c r="H85" t="s">
-        <v>934</v>
-      </c>
-      <c r="I85" t="s">
-        <v>638</v>
-      </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>1096</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>1097</v>
       </c>
-      <c r="L85" t="s">
+      <c r="M85" t="s">
+        <v>154</v>
+      </c>
+      <c r="N85" t="s">
         <v>1098</v>
       </c>
-      <c r="M85" t="s">
-        <v>167</v>
-      </c>
-      <c r="N85" t="s">
+      <c r="O85" t="s">
+        <v>1476</v>
+      </c>
+      <c r="P85" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>920</v>
+      </c>
+      <c r="R85" t="s">
+        <v>920</v>
+      </c>
+      <c r="S85" t="s">
         <v>1099</v>
       </c>
-      <c r="O85" t="s">
-        <v>1489</v>
-      </c>
-      <c r="P85" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q85" t="s">
+      <c r="T85" t="s">
         <v>1100</v>
-      </c>
-      <c r="R85" t="s">
-        <v>940</v>
-      </c>
-      <c r="S85" t="s">
-        <v>1101</v>
-      </c>
-      <c r="T85" t="s">
-        <v>1102</v>
       </c>
       <c r="U85" t="s">
         <v>58</v>
       </c>
       <c r="V85" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C86" t="s">
         <v>1105</v>
       </c>
-      <c r="B86" t="s">
-        <v>435</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>1106</v>
       </c>
-      <c r="D86" t="s">
-        <v>437</v>
-      </c>
       <c r="E86">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="F86" t="s">
         <v>1107</v>
       </c>
       <c r="G86" t="s">
-        <v>933</v>
+        <v>1108</v>
       </c>
       <c r="H86" t="s">
         <v>29</v>
@@ -10685,54 +10649,54 @@
         <v>50</v>
       </c>
       <c r="J86" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="K86" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="L86" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="M86" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="N86" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="O86" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="P86" t="s">
-        <v>442</v>
+        <v>37</v>
       </c>
       <c r="Q86" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="R86" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="S86" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="T86" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="U86" t="s">
         <v>58</v>
       </c>
       <c r="V86" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B87" t="s">
-        <v>1117</v>
+        <v>505</v>
       </c>
       <c r="C87" t="s">
         <v>1118</v>
@@ -10741,7 +10705,7 @@
         <v>1119</v>
       </c>
       <c r="E87">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="F87" t="s">
         <v>1120</v>
@@ -10765,60 +10729,60 @@
         <v>1124</v>
       </c>
       <c r="M87" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="N87" t="s">
         <v>1125</v>
       </c>
       <c r="O87" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="P87" t="s">
         <v>37</v>
       </c>
       <c r="Q87" t="s">
-        <v>933</v>
+        <v>1126</v>
       </c>
       <c r="R87" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="S87" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="T87" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="U87" t="s">
         <v>58</v>
       </c>
       <c r="V87" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="C88" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D88" t="s">
-        <v>1132</v>
+        <v>587</v>
       </c>
       <c r="E88">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F88" t="s">
         <v>1133</v>
       </c>
       <c r="G88" t="s">
-        <v>1134</v>
+        <v>920</v>
       </c>
       <c r="H88" t="s">
         <v>29</v>
@@ -10827,69 +10791,69 @@
         <v>50</v>
       </c>
       <c r="J88" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K88" t="s">
         <v>1135</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>1136</v>
       </c>
-      <c r="L88" t="s">
+      <c r="M88" t="s">
+        <v>34</v>
+      </c>
+      <c r="N88" t="s">
         <v>1137</v>
       </c>
-      <c r="M88" t="s">
-        <v>167</v>
-      </c>
-      <c r="N88" t="s">
-        <v>1138</v>
-      </c>
       <c r="O88" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P88" t="s">
         <v>37</v>
       </c>
       <c r="Q88" t="s">
+        <v>1138</v>
+      </c>
+      <c r="R88" t="s">
+        <v>927</v>
+      </c>
+      <c r="S88" t="s">
         <v>1139</v>
       </c>
-      <c r="R88" t="s">
-        <v>940</v>
-      </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>1140</v>
-      </c>
-      <c r="T88" t="s">
-        <v>1141</v>
       </c>
       <c r="U88" t="s">
         <v>58</v>
       </c>
       <c r="V88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="W88" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="W88" s="3" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B89" t="s">
         <v>1144</v>
-      </c>
-      <c r="B89" t="s">
-        <v>598</v>
       </c>
       <c r="C89" t="s">
         <v>1145</v>
       </c>
       <c r="D89" t="s">
-        <v>600</v>
+        <v>1146</v>
       </c>
       <c r="E89">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F89" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G89" t="s">
-        <v>933</v>
+        <v>1148</v>
       </c>
       <c r="H89" t="s">
         <v>29</v>
@@ -10898,102 +10862,102 @@
         <v>50</v>
       </c>
       <c r="J89" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="K89" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="L89" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="M89" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N89" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="O89" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P89" t="s">
         <v>37</v>
       </c>
       <c r="Q89" t="s">
-        <v>1151</v>
+        <v>1006</v>
       </c>
       <c r="R89" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S89" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="T89" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="U89" t="s">
         <v>58</v>
       </c>
       <c r="V89" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B90" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C90" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D90" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E90">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F90" t="s">
-        <v>1160</v>
+        <v>920</v>
       </c>
       <c r="G90" t="s">
+        <v>920</v>
+      </c>
+      <c r="H90" t="s">
+        <v>921</v>
+      </c>
+      <c r="I90" t="s">
+        <v>625</v>
+      </c>
+      <c r="J90" t="s">
         <v>1161</v>
       </c>
-      <c r="H90" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" t="s">
-        <v>50</v>
-      </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>1162</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>1163</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
+        <v>34</v>
+      </c>
+      <c r="N90" t="s">
         <v>1164</v>
       </c>
-      <c r="M90" t="s">
-        <v>139</v>
-      </c>
-      <c r="N90" t="s">
-        <v>1165</v>
-      </c>
       <c r="O90" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P90" t="s">
         <v>37</v>
       </c>
       <c r="Q90" t="s">
-        <v>1019</v>
+        <v>1165</v>
       </c>
       <c r="R90" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="S90" t="s">
         <v>1166</v>
@@ -11025,75 +10989,75 @@
         <v>1173</v>
       </c>
       <c r="E91">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F91" t="s">
-        <v>933</v>
+        <v>1174</v>
       </c>
       <c r="G91" t="s">
-        <v>933</v>
+        <v>1175</v>
       </c>
       <c r="H91" t="s">
-        <v>934</v>
+        <v>29</v>
       </c>
       <c r="I91" t="s">
-        <v>638</v>
+        <v>50</v>
       </c>
       <c r="J91" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="K91" t="s">
-        <v>1175</v>
+        <v>1074</v>
       </c>
       <c r="L91" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M91" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N91" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="O91" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P91" t="s">
         <v>37</v>
       </c>
       <c r="Q91" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="R91" t="s">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="S91" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="T91" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="U91" t="s">
         <v>58</v>
       </c>
       <c r="V91" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B92" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C92" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D92" t="s">
-        <v>1186</v>
+        <v>454</v>
       </c>
       <c r="E92">
         <v>2024</v>
@@ -11114,28 +11078,28 @@
         <v>1189</v>
       </c>
       <c r="K92" t="s">
-        <v>1087</v>
+        <v>1190</v>
       </c>
       <c r="L92" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M92" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N92" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="O92" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P92" t="s">
         <v>37</v>
       </c>
       <c r="Q92" t="s">
-        <v>1192</v>
+        <v>920</v>
       </c>
       <c r="R92" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S92" t="s">
         <v>1193</v>
@@ -11164,16 +11128,16 @@
         <v>1199</v>
       </c>
       <c r="D93" t="s">
-        <v>467</v>
+        <v>1200</v>
       </c>
       <c r="E93">
         <v>2024</v>
       </c>
       <c r="F93" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G93" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="H93" t="s">
         <v>29</v>
@@ -11182,69 +11146,69 @@
         <v>50</v>
       </c>
       <c r="J93" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="K93" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="L93" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="M93" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N93" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="O93" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P93" t="s">
         <v>37</v>
       </c>
       <c r="Q93" t="s">
-        <v>933</v>
+        <v>1207</v>
       </c>
       <c r="R93" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S93" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="T93" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="U93" t="s">
         <v>58</v>
       </c>
       <c r="V93" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B94" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C94" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D94" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E94">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F94" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="G94" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="H94" t="s">
         <v>29</v>
@@ -11253,54 +11217,54 @@
         <v>50</v>
       </c>
       <c r="J94" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K94" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="L94" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="M94" t="s">
         <v>34</v>
       </c>
       <c r="N94" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="O94" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P94" t="s">
         <v>37</v>
       </c>
       <c r="Q94" t="s">
-        <v>1220</v>
+        <v>966</v>
       </c>
       <c r="R94" t="s">
-        <v>940</v>
+        <v>966</v>
       </c>
       <c r="S94" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="T94" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="U94" t="s">
         <v>58</v>
       </c>
       <c r="V94" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B95" t="s">
-        <v>1226</v>
+        <v>294</v>
       </c>
       <c r="C95" t="s">
         <v>1227</v>
@@ -11339,54 +11303,54 @@
         <v>1234</v>
       </c>
       <c r="O95" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P95" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q95" t="s">
-        <v>979</v>
+        <v>1235</v>
       </c>
       <c r="R95" t="s">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="S95" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="T95" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="U95" t="s">
         <v>58</v>
       </c>
       <c r="V95" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B96" t="s">
-        <v>307</v>
+        <v>1241</v>
       </c>
       <c r="C96" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D96" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E96">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="F96" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="G96" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="H96" t="s">
         <v>29</v>
@@ -11395,173 +11359,173 @@
         <v>50</v>
       </c>
       <c r="J96" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="K96" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="L96" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="M96" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N96" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="O96" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P96" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q96" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="R96" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S96" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="T96" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="U96" t="s">
-        <v>58</v>
+        <v>1253</v>
       </c>
       <c r="V96" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="B97" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C97" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="D97" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E97">
-        <v>2022</v>
+        <v>1259</v>
+      </c>
+      <c r="E97" t="s">
+        <v>920</v>
       </c>
       <c r="F97" t="s">
-        <v>1257</v>
+        <v>920</v>
       </c>
       <c r="G97" t="s">
-        <v>1258</v>
+        <v>920</v>
       </c>
       <c r="H97" t="s">
-        <v>29</v>
+        <v>921</v>
       </c>
       <c r="I97" t="s">
-        <v>50</v>
+        <v>625</v>
       </c>
       <c r="J97" t="s">
-        <v>1259</v>
+        <v>1161</v>
       </c>
       <c r="K97" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L97" t="s">
         <v>1260</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
+        <v>126</v>
+      </c>
+      <c r="N97" t="s">
         <v>1261</v>
       </c>
-      <c r="M97" t="s">
-        <v>139</v>
-      </c>
-      <c r="N97" t="s">
-        <v>1262</v>
-      </c>
       <c r="O97" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P97" t="s">
         <v>37</v>
       </c>
       <c r="Q97" t="s">
+        <v>1262</v>
+      </c>
+      <c r="R97" t="s">
+        <v>966</v>
+      </c>
+      <c r="S97" t="s">
         <v>1263</v>
       </c>
-      <c r="R97" t="s">
-        <v>940</v>
-      </c>
-      <c r="S97" t="s">
+      <c r="T97" t="s">
         <v>1264</v>
       </c>
-      <c r="T97" t="s">
+      <c r="U97" t="s">
+        <v>58</v>
+      </c>
+      <c r="V97" t="s">
         <v>1265</v>
       </c>
-      <c r="U97" t="s">
+      <c r="W97" s="3" t="s">
         <v>1266</v>
-      </c>
-      <c r="V97" t="s">
-        <v>1267</v>
-      </c>
-      <c r="W97" s="3" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C98" t="s">
         <v>1269</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
         <v>1270</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98">
+        <v>2019</v>
+      </c>
+      <c r="F98" t="s">
         <v>1271</v>
       </c>
-      <c r="D98" t="s">
+      <c r="G98" t="s">
         <v>1272</v>
       </c>
-      <c r="E98" t="s">
-        <v>933</v>
-      </c>
-      <c r="F98" t="s">
-        <v>933</v>
-      </c>
-      <c r="G98" t="s">
-        <v>933</v>
-      </c>
       <c r="H98" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I98" t="s">
-        <v>638</v>
+        <v>50</v>
       </c>
       <c r="J98" t="s">
-        <v>1174</v>
+        <v>1273</v>
       </c>
       <c r="K98" t="s">
-        <v>1175</v>
+        <v>1274</v>
       </c>
       <c r="L98" t="s">
-        <v>1273</v>
+        <v>1018</v>
       </c>
       <c r="M98" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N98" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="O98" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P98" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q98" t="s">
-        <v>1275</v>
+        <v>920</v>
       </c>
       <c r="R98" t="s">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="S98" t="s">
         <v>1276</v>
@@ -11593,211 +11557,211 @@
         <v>1283</v>
       </c>
       <c r="E99">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="F99" t="s">
         <v>1284</v>
       </c>
       <c r="G99" t="s">
-        <v>1285</v>
+        <v>920</v>
       </c>
       <c r="H99" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I99" t="s">
         <v>50</v>
       </c>
       <c r="J99" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K99" t="s">
         <v>1286</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>1287</v>
       </c>
-      <c r="L99" t="s">
-        <v>1031</v>
-      </c>
       <c r="M99" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N99" t="s">
         <v>1288</v>
       </c>
       <c r="O99" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P99" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q99" t="s">
-        <v>933</v>
+        <v>1289</v>
       </c>
       <c r="R99" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S99" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="T99" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="U99" t="s">
         <v>58</v>
       </c>
       <c r="V99" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B100" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C100" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D100" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E100">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F100" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G100" t="s">
-        <v>933</v>
+        <v>1299</v>
       </c>
       <c r="H100" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I100" t="s">
         <v>50</v>
       </c>
       <c r="J100" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="K100" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="L100" t="s">
-        <v>1300</v>
+        <v>1248</v>
       </c>
       <c r="M100" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N100" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="O100" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="P100" t="s">
         <v>37</v>
       </c>
       <c r="Q100" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="R100" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S100" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="T100" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="U100" t="s">
         <v>58</v>
       </c>
       <c r="V100" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B101" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="C101" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D101" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E101">
         <v>2025</v>
       </c>
       <c r="F101" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G101" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="H101" t="s">
-        <v>934</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
         <v>50</v>
       </c>
       <c r="J101" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="K101" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="L101" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="M101" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N101" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="O101" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="P101" t="s">
         <v>37</v>
       </c>
       <c r="Q101" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="R101" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S101" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="T101" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="U101" t="s">
         <v>58</v>
       </c>
       <c r="V101" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B102" t="s">
-        <v>1322</v>
+        <v>727</v>
       </c>
       <c r="C102" t="s">
         <v>1323</v>
@@ -11805,118 +11769,118 @@
       <c r="D102" t="s">
         <v>1324</v>
       </c>
-      <c r="E102">
-        <v>2025</v>
+      <c r="E102" t="s">
+        <v>920</v>
       </c>
       <c r="F102" t="s">
-        <v>1325</v>
+        <v>920</v>
       </c>
       <c r="G102" t="s">
-        <v>1326</v>
+        <v>920</v>
       </c>
       <c r="H102" t="s">
-        <v>29</v>
+        <v>921</v>
       </c>
       <c r="I102" t="s">
         <v>50</v>
       </c>
       <c r="J102" t="s">
+        <v>1325</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L102" t="s">
         <v>1327</v>
       </c>
-      <c r="K102" t="s">
+      <c r="M102" t="s">
+        <v>154</v>
+      </c>
+      <c r="N102" t="s">
         <v>1328</v>
       </c>
-      <c r="L102" t="s">
-        <v>1261</v>
-      </c>
-      <c r="M102" t="s">
-        <v>139</v>
-      </c>
-      <c r="N102" t="s">
-        <v>1329</v>
-      </c>
       <c r="O102" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P102" t="s">
         <v>37</v>
       </c>
       <c r="Q102" t="s">
+        <v>938</v>
+      </c>
+      <c r="R102" t="s">
+        <v>927</v>
+      </c>
+      <c r="S102" t="s">
+        <v>1329</v>
+      </c>
+      <c r="T102" t="s">
         <v>1330</v>
-      </c>
-      <c r="R102" t="s">
-        <v>940</v>
-      </c>
-      <c r="S102" t="s">
-        <v>1331</v>
-      </c>
-      <c r="T102" t="s">
-        <v>1332</v>
       </c>
       <c r="U102" t="s">
         <v>58</v>
       </c>
       <c r="V102" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C103" t="s">
         <v>1335</v>
       </c>
-      <c r="B103" t="s">
-        <v>740</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>1336</v>
       </c>
-      <c r="D103" t="s">
-        <v>1337</v>
-      </c>
       <c r="E103" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F103" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="G103" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="H103" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="I103" t="s">
         <v>50</v>
       </c>
       <c r="J103" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K103" t="s">
         <v>1338</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>1339</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
+        <v>126</v>
+      </c>
+      <c r="N103" t="s">
         <v>1340</v>
       </c>
-      <c r="M103" t="s">
-        <v>167</v>
-      </c>
-      <c r="N103" t="s">
-        <v>1341</v>
-      </c>
       <c r="O103" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P103" t="s">
         <v>37</v>
       </c>
       <c r="Q103" t="s">
-        <v>951</v>
+        <v>1341</v>
       </c>
       <c r="R103" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="S103" t="s">
         <v>1342</v>
@@ -11947,85 +11911,82 @@
       <c r="D104" t="s">
         <v>1349</v>
       </c>
-      <c r="E104" t="s">
-        <v>933</v>
+      <c r="E104">
+        <v>2021</v>
       </c>
       <c r="F104" t="s">
-        <v>933</v>
+        <v>1350</v>
       </c>
       <c r="G104" t="s">
-        <v>933</v>
+        <v>1351</v>
       </c>
       <c r="H104" t="s">
-        <v>934</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
         <v>50</v>
       </c>
       <c r="J104" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="K104" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="L104" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="M104" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N104" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="O104" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P104" t="s">
         <v>37</v>
       </c>
       <c r="Q104" t="s">
-        <v>1354</v>
+        <v>927</v>
       </c>
       <c r="R104" t="s">
-        <v>940</v>
+        <v>1356</v>
       </c>
       <c r="S104" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="T104" t="s">
-        <v>1356</v>
+        <v>41</v>
       </c>
       <c r="U104" t="s">
-        <v>58</v>
+        <v>1358</v>
       </c>
       <c r="V104" t="s">
-        <v>1357</v>
-      </c>
-      <c r="W104" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B105" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C105" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="D105" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E105">
         <v>2021</v>
       </c>
       <c r="F105" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G105" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="H105" t="s">
         <v>29</v>
@@ -12034,66 +11995,69 @@
         <v>50</v>
       </c>
       <c r="J105" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="K105" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="L105" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="M105" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N105" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="O105" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P105" t="s">
         <v>37</v>
       </c>
       <c r="Q105" t="s">
-        <v>940</v>
+        <v>1370</v>
       </c>
       <c r="R105" t="s">
-        <v>1369</v>
+        <v>927</v>
       </c>
       <c r="S105" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="T105" t="s">
-        <v>41</v>
+        <v>1372</v>
       </c>
       <c r="U105" t="s">
-        <v>1371</v>
+        <v>58</v>
       </c>
       <c r="V105" t="s">
-        <v>1372</v>
+        <v>1373</v>
+      </c>
+      <c r="W105" s="3" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B106" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C106" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="D106" t="s">
-        <v>1376</v>
+        <v>1363</v>
       </c>
       <c r="E106">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F106" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G106" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H106" t="s">
         <v>29</v>
@@ -12102,45 +12066,42 @@
         <v>50</v>
       </c>
       <c r="J106" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="K106" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="L106" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="M106" t="s">
         <v>34</v>
       </c>
       <c r="N106" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="O106" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P106" t="s">
         <v>37</v>
       </c>
       <c r="Q106" t="s">
-        <v>1383</v>
+        <v>927</v>
       </c>
       <c r="R106" t="s">
-        <v>940</v>
+        <v>1384</v>
       </c>
       <c r="S106" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="T106" t="s">
-        <v>1385</v>
+        <v>58</v>
       </c>
       <c r="U106" t="s">
-        <v>58</v>
+        <v>1386</v>
       </c>
       <c r="V106" t="s">
-        <v>1386</v>
-      </c>
-      <c r="W106" s="3" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -12155,60 +12116,63 @@
         <v>1390</v>
       </c>
       <c r="D107" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E107">
-        <v>2018</v>
+        <v>1391</v>
+      </c>
+      <c r="E107" t="s">
+        <v>920</v>
       </c>
       <c r="F107" t="s">
-        <v>1391</v>
+        <v>920</v>
       </c>
       <c r="G107" t="s">
+        <v>920</v>
+      </c>
+      <c r="H107" t="s">
+        <v>921</v>
+      </c>
+      <c r="I107" t="s">
+        <v>625</v>
+      </c>
+      <c r="J107" t="s">
         <v>1392</v>
       </c>
-      <c r="H107" t="s">
-        <v>29</v>
-      </c>
-      <c r="I107" t="s">
-        <v>50</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>1393</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>1394</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1395</v>
       </c>
       <c r="M107" t="s">
         <v>34</v>
       </c>
       <c r="N107" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="O107" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P107" t="s">
         <v>37</v>
       </c>
       <c r="Q107" t="s">
-        <v>940</v>
+        <v>1396</v>
       </c>
       <c r="R107" t="s">
+        <v>966</v>
+      </c>
+      <c r="S107" t="s">
         <v>1397</v>
       </c>
-      <c r="S107" t="s">
+      <c r="T107" t="s">
         <v>1398</v>
       </c>
-      <c r="T107" t="s">
+      <c r="U107" t="s">
         <v>58</v>
       </c>
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>1399</v>
       </c>
-      <c r="V107" t="s">
+      <c r="W107" s="3" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -12225,85 +12189,85 @@
       <c r="D108" t="s">
         <v>1404</v>
       </c>
-      <c r="E108" t="s">
-        <v>933</v>
+      <c r="E108">
+        <v>2023</v>
       </c>
       <c r="F108" t="s">
-        <v>933</v>
+        <v>1405</v>
       </c>
       <c r="G108" t="s">
-        <v>933</v>
+        <v>1406</v>
       </c>
       <c r="H108" t="s">
-        <v>934</v>
+        <v>29</v>
       </c>
       <c r="I108" t="s">
-        <v>638</v>
+        <v>50</v>
       </c>
       <c r="J108" t="s">
-        <v>1405</v>
+        <v>1352</v>
       </c>
       <c r="K108" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="L108" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="M108" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="N108" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="O108" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P108" t="s">
         <v>37</v>
       </c>
       <c r="Q108" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="R108" t="s">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="S108" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="T108" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="U108" t="s">
-        <v>58</v>
+        <v>1413</v>
       </c>
       <c r="V108" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="B109" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="C109" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="D109" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="E109">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F109" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="G109" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="H109" t="s">
         <v>29</v>
@@ -12312,45 +12276,42 @@
         <v>50</v>
       </c>
       <c r="J109" t="s">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="K109" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="L109" t="s">
-        <v>1421</v>
+        <v>1177</v>
       </c>
       <c r="M109" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N109" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="O109" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P109" t="s">
         <v>37</v>
       </c>
       <c r="Q109" t="s">
-        <v>1423</v>
+        <v>927</v>
       </c>
       <c r="R109" t="s">
-        <v>940</v>
+        <v>1424</v>
       </c>
       <c r="S109" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="T109" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="U109" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="V109" t="s">
-        <v>1427</v>
-      </c>
-      <c r="W109" s="3" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -12371,149 +12332,149 @@
         <v>2024</v>
       </c>
       <c r="F110" t="s">
-        <v>1433</v>
+        <v>920</v>
       </c>
       <c r="G110" t="s">
-        <v>1434</v>
+        <v>920</v>
       </c>
       <c r="H110" t="s">
-        <v>29</v>
+        <v>921</v>
       </c>
       <c r="I110" t="s">
         <v>50</v>
       </c>
       <c r="J110" t="s">
-        <v>1365</v>
+        <v>1433</v>
       </c>
       <c r="K110" t="s">
+        <v>1434</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M110" t="s">
+        <v>126</v>
+      </c>
+      <c r="N110" t="s">
         <v>1435</v>
       </c>
-      <c r="L110" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M110" t="s">
-        <v>34</v>
-      </c>
-      <c r="N110" t="s">
-        <v>1436</v>
-      </c>
       <c r="O110" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
       <c r="P110" t="s">
         <v>37</v>
       </c>
       <c r="Q110" t="s">
-        <v>940</v>
+        <v>1436</v>
       </c>
       <c r="R110" t="s">
+        <v>927</v>
+      </c>
+      <c r="S110" t="s">
         <v>1437</v>
       </c>
-      <c r="S110" t="s">
+      <c r="T110" t="s">
         <v>1438</v>
       </c>
-      <c r="T110" t="s">
+      <c r="U110" t="s">
+        <v>58</v>
+      </c>
+      <c r="V110" t="s">
         <v>1439</v>
       </c>
-      <c r="U110" t="s">
+      <c r="W110" s="3" t="s">
         <v>1440</v>
-      </c>
-      <c r="V110" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B111" t="s">
         <v>1442</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>1443</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>1444</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111">
+        <v>2023</v>
+      </c>
+      <c r="F111" t="s">
         <v>1445</v>
       </c>
-      <c r="E111">
-        <v>2024</v>
-      </c>
-      <c r="F111" t="s">
-        <v>933</v>
-      </c>
       <c r="G111" t="s">
-        <v>933</v>
+        <v>1446</v>
       </c>
       <c r="H111" t="s">
-        <v>934</v>
+        <v>29</v>
       </c>
       <c r="I111" t="s">
         <v>50</v>
       </c>
       <c r="J111" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="K111" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="L111" t="s">
-        <v>1190</v>
+        <v>1449</v>
       </c>
       <c r="M111" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="N111" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="O111" t="s">
-        <v>1488</v>
+        <v>1476</v>
       </c>
       <c r="P111" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="Q111" t="s">
-        <v>1449</v>
+        <v>927</v>
       </c>
       <c r="R111" t="s">
-        <v>940</v>
+        <v>1451</v>
       </c>
       <c r="S111" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="T111" t="s">
-        <v>1451</v>
+        <v>41</v>
       </c>
       <c r="U111" t="s">
-        <v>58</v>
-      </c>
-      <c r="V111" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B112" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C112" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="D112" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E112">
         <v>2023</v>
       </c>
       <c r="F112" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="G112" t="s">
-        <v>1459</v>
+        <v>920</v>
       </c>
       <c r="H112" t="s">
         <v>29</v>
@@ -12537,99 +12498,31 @@
         <v>1463</v>
       </c>
       <c r="O112" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="P112" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q112" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
       <c r="R112" t="s">
+        <v>927</v>
+      </c>
+      <c r="S112" t="s">
         <v>1464</v>
       </c>
-      <c r="S112" t="s">
+      <c r="T112" t="s">
         <v>1465</v>
       </c>
-      <c r="T112" t="s">
-        <v>41</v>
-      </c>
       <c r="U112" t="s">
+        <v>58</v>
+      </c>
+      <c r="V112" t="s">
         <v>1466</v>
       </c>
       <c r="W112" s="3" t="s">
         <v>1467</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1469</v>
-      </c>
-      <c r="C113" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E113">
-        <v>2023</v>
-      </c>
-      <c r="F113" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G113" t="s">
-        <v>933</v>
-      </c>
-      <c r="H113" t="s">
-        <v>29</v>
-      </c>
-      <c r="I113" t="s">
-        <v>50</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K113" t="s">
-        <v>1474</v>
-      </c>
-      <c r="L113" t="s">
-        <v>1475</v>
-      </c>
-      <c r="M113" t="s">
-        <v>34</v>
-      </c>
-      <c r="N113" t="s">
-        <v>1476</v>
-      </c>
-      <c r="O113" t="s">
-        <v>1489</v>
-      </c>
-      <c r="P113" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>933</v>
-      </c>
-      <c r="R113" t="s">
-        <v>940</v>
-      </c>
-      <c r="S113" t="s">
-        <v>1477</v>
-      </c>
-      <c r="T113" t="s">
-        <v>1478</v>
-      </c>
-      <c r="U113" t="s">
-        <v>58</v>
-      </c>
-      <c r="V113" t="s">
-        <v>1479</v>
-      </c>
-      <c r="W113" s="3" t="s">
-        <v>1480</v>
       </c>
     </row>
   </sheetData>
@@ -12659,24 +12552,24 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
@@ -12684,50 +12577,50 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C3">
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="E3" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="E4" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="B5" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -12735,70 +12628,70 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="B6" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="C6" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="D6" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="E6" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="B7" t="s">
-        <v>1171</v>
+        <v>1158</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="E7" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="B8" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="C8" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="D8" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="E8" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1401</v>
+        <v>1388</v>
       </c>
       <c r="B9" t="s">
-        <v>1402</v>
+        <v>1389</v>
       </c>
       <c r="C9" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="D9" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="E9" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -12822,7 +12715,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -12835,7 +12728,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B3">
         <v>6</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{2C5A1C84-BCDC-4FE8-87A9-32A078056975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9972B2-B963-4760-B42C-ED5222108D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,11 @@
     <sheet name="Pillar_Counts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1484">
   <si>
     <t>BibKey</t>
   </si>
@@ -4499,9 +4498,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.eswa.2023.122869</t>
-  </si>
-  <si>
-    <t>=B20</t>
   </si>
   <si>
     <t>IEEE Journal of Selected Topics in Applied Earth Observations and Remote Sensing</t>
@@ -5003,7 +4999,7 @@
   <dimension ref="A1:W112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5108,7 +5104,7 @@
         <v>2023</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>27</v>
@@ -5161,7 +5157,7 @@
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>43</v>
@@ -5224,12 +5220,12 @@
         <v>57</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>58</v>
@@ -5292,12 +5288,12 @@
         <v>70</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>71</v>
@@ -5360,7 +5356,7 @@
         <v>82</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
@@ -5389,7 +5385,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>30</v>
@@ -5428,7 +5424,7 @@
         <v>57</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
@@ -5496,12 +5492,12 @@
         <v>95</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>96</v>
@@ -5564,7 +5560,7 @@
         <v>106</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="14.4" customHeight="1">
@@ -5578,7 +5574,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E9" s="4">
         <v>2022</v>
@@ -5632,7 +5628,7 @@
         <v>119</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="10" spans="1:23">

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0CDCA3-6BA9-4BBB-9ED8-4DB879FC7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAB518-8CEA-4305-80E4-575D8E3B9FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,9 +386,6 @@
     <t>Core Detection-pillar reference for software-level runtime anomaly detection in UAVs</t>
   </si>
   <si>
-    <t>Sindhwani2020SelfFlyingDeliveryDrone</t>
-  </si>
-  <si>
     <t>Unsupervised Anomaly Detection for Self-Flying Delivery Drones</t>
   </si>
   <si>
@@ -420,12 +417,6 @@
   </si>
   <si>
     <t>Pioneering work for anomaly detection in delivery-UAV context</t>
-  </si>
-  <si>
-    <t>@techreport{Sindhwani2020SelfFlyingDeliveryDrone, title={Unsupervised Anomaly Detection for Self-Flying Delivery Drones}, author={Sindhwani, V. and Sidahmed, H. and Choromanski, K. and Jones, B.}, year={2020}, note={Google/Wing Research}}</t>
-  </si>
-  <si>
-    <t>Chen2024DroneAnomalyDataset</t>
   </si>
   <si>
     <t>Drone Anomaly Detection: Dataset and Unsupervised Machine Learning</t>
@@ -435,12 +426,6 @@
 </t>
   </si>
   <si>
-    <t>Chen, Z.; [other authors as per full list]</t>
-  </si>
-  <si>
-    <t>[Venue/Publisher]</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1007/978-3-031-87499-4_12</t>
   </si>
   <si>
@@ -463,9 +448,6 @@
   </si>
   <si>
     <t>Dataset focuses on IoT WiFi-drone anomaly context</t>
-  </si>
-  <si>
-    <t>@inproceedings{Chen2024DroneAnomalyDataset, title={Drone Anomaly Detection: Dataset and Unsupervised Machine Learning}, author={Chen, Z. and …}, booktitle={Proceedings … 2024}, year={2024}, doi={10.1007/978-3-031-87499-4_12}}</t>
   </si>
   <si>
     <t>Zhai2020SmartAutopilotDrone</t>
@@ -4464,6 +4446,38 @@
   </si>
   <si>
     <t>Operational/Policy</t>
+  </si>
+  <si>
+    <t>@inproceedings{sindhwani2020unsupervised,
+  title={Unsupervised anomaly detection for self-flying delivery drones},
+  author={Sindhwani, Vikas and Sidahmed, Hakim and Choromanski, Krzysztof and Jones, Brandon},
+  booktitle={2020 IEEE international conference on robotics and automation (ICRA)},
+  pages={186--192},
+  year={2020},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>sindhwani2020unsupervised</t>
+  </si>
+  <si>
+    <t>Z Chen, I Traoré, M Mamun, S Saad</t>
+  </si>
+  <si>
+    <t>International Symposium on Foundations and Practice of Security, 2024</t>
+  </si>
+  <si>
+    <t>@inproceedings{chen2024drone,
+  title={Drone Anomaly Detection: Dataset and Unsupervised Machine Learning},
+  author={Chen, Zhuo and Traor{\'e}, Issa and Mamun, Mohammad and Saad, Sherif},
+  booktitle={International Symposium on Foundations and Practice of Security},
+  pages={186--201},
+  year={2024},
+  organization={Springer}
+}</t>
+  </si>
+  <si>
+    <t>chen2024drone</t>
   </si>
 </sst>
 </file>
@@ -4558,7 +4572,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4581,10 +4595,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4891,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4937,7 +4948,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -4997,7 +5008,7 @@
         <v>2023</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>27</v>
@@ -5008,7 +5019,7 @@
       <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" t="s">
         <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -5024,7 +5035,7 @@
         <v>33</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P2" t="s">
         <v>35</v>
@@ -5050,7 +5061,7 @@
     </row>
     <row r="3" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
@@ -5076,7 +5087,7 @@
       <c r="I3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" t="s">
         <v>88</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -5092,7 +5103,7 @@
         <v>50</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>51</v>
@@ -5113,12 +5124,12 @@
         <v>56</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>57</v>
@@ -5144,8 +5155,8 @@
       <c r="I4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>1440</v>
+      <c r="J4" t="s">
+        <v>1434</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>63</v>
@@ -5160,10 +5171,10 @@
         <v>65</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>66</v>
@@ -5181,12 +5192,12 @@
         <v>69</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>70</v>
@@ -5212,8 +5223,8 @@
       <c r="I5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>1440</v>
+      <c r="J5" t="s">
+        <v>1434</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>75</v>
@@ -5228,7 +5239,7 @@
         <v>77</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>35</v>
@@ -5249,39 +5260,39 @@
         <v>81</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="E6" s="4">
         <v>2024</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J6" t="s">
         <v>1434</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>1440</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>48</v>
@@ -5296,7 +5307,7 @@
         <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>51</v>
@@ -5317,7 +5328,7 @@
         <v>56</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
@@ -5348,7 +5359,7 @@
       <c r="I7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" t="s">
         <v>62</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -5364,7 +5375,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>35</v>
@@ -5385,12 +5396,12 @@
         <v>94</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>95</v>
@@ -5416,7 +5427,7 @@
       <c r="I8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" t="s">
         <v>62</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -5432,7 +5443,7 @@
         <v>101</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -5453,7 +5464,7 @@
         <v>105</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="14.4" customHeight="1">
@@ -5467,7 +5478,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="E9" s="4">
         <v>2022</v>
@@ -5484,8 +5495,8 @@
       <c r="I9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>1440</v>
+      <c r="J9" t="s">
+        <v>1434</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>111</v>
@@ -5500,7 +5511,7 @@
         <v>113</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>35</v>
@@ -5521,166 +5532,166 @@
         <v>117</v>
       </c>
       <c r="W9" s="5" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>1438</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>1437</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10">
-        <v>2020</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>1440</v>
-      </c>
-      <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1418</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="J11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" t="s">
-        <v>126</v>
-      </c>
-      <c r="S10" t="s">
-        <v>127</v>
-      </c>
-      <c r="T10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" t="s">
-        <v>55</v>
-      </c>
-      <c r="V10" t="s">
-        <v>129</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11">
-        <v>2024</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="Q11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G11" t="s">
+      <c r="S11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="T11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="L11" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="U11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="N11" t="s">
-        <v>139</v>
-      </c>
-      <c r="O11" t="s">
-        <v>1417</v>
-      </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>140</v>
-      </c>
-      <c r="S11" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" t="s">
-        <v>142</v>
-      </c>
-      <c r="U11" t="s">
-        <v>39</v>
-      </c>
-      <c r="V11" t="s">
-        <v>143</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>144</v>
+      <c r="W11" s="5" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>2020</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
@@ -5688,11 +5699,11 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>1440</v>
+      <c r="J12" t="s">
+        <v>1434</v>
       </c>
       <c r="K12" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
         <v>31</v>
@@ -5701,54 +5712,54 @@
         <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O12" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P12" t="s">
         <v>35</v>
       </c>
       <c r="Q12" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="S12" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="T12" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="U12" t="s">
         <v>39</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>2019</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
@@ -5756,11 +5767,11 @@
       <c r="I13" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" t="s">
         <v>62</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
         <v>64</v>
@@ -5769,54 +5780,54 @@
         <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P13" t="s">
         <v>35</v>
       </c>
       <c r="Q13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="S13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="T13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="U13" t="s">
         <v>39</v>
       </c>
       <c r="V13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>2024</v>
       </c>
       <c r="F14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
@@ -5824,11 +5835,11 @@
       <c r="I14" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>1440</v>
+      <c r="J14" t="s">
+        <v>1434</v>
       </c>
       <c r="K14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s">
         <v>31</v>
@@ -5837,54 +5848,54 @@
         <v>112</v>
       </c>
       <c r="N14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P14" t="s">
         <v>35</v>
       </c>
       <c r="Q14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="S14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="T14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="U14" t="s">
         <v>39</v>
       </c>
       <c r="V14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
@@ -5892,11 +5903,11 @@
       <c r="I15" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" t="s">
         <v>62</v>
       </c>
       <c r="K15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
         <v>64</v>
@@ -5905,54 +5916,54 @@
         <v>49</v>
       </c>
       <c r="N15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P15" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="Q15" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="T15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="U15" t="s">
         <v>55</v>
       </c>
       <c r="V15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E16">
         <v>2018</v>
       </c>
       <c r="F16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -5960,67 +5971,67 @@
       <c r="I16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>1440</v>
+      <c r="J16" t="s">
+        <v>1434</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s">
         <v>49</v>
       </c>
       <c r="N16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O16" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P16" t="s">
         <v>51</v>
       </c>
       <c r="Q16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="T16" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="U16" t="s">
         <v>55</v>
       </c>
       <c r="V16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E17">
         <v>2025</v>
       </c>
       <c r="F17" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H17" t="s">
         <v>28</v>
@@ -6028,67 +6039,67 @@
       <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>1440</v>
+      <c r="J17" t="s">
+        <v>1434</v>
       </c>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M17" t="s">
         <v>49</v>
       </c>
       <c r="N17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O17" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P17" t="s">
         <v>35</v>
       </c>
       <c r="Q17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="S17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="T17" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="U17" t="s">
         <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E18">
         <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -6096,11 +6107,11 @@
       <c r="I18" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>1440</v>
+      <c r="J18" t="s">
+        <v>1434</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s">
         <v>31</v>
@@ -6109,54 +6120,54 @@
         <v>112</v>
       </c>
       <c r="N18" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O18" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P18" t="s">
         <v>35</v>
       </c>
       <c r="Q18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="S18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="T18" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="U18" t="s">
         <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E19">
         <v>2025</v>
       </c>
       <c r="F19" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -6164,11 +6175,11 @@
       <c r="I19" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" t="s">
         <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L19" t="s">
         <v>31</v>
@@ -6177,54 +6188,54 @@
         <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O19" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="S19" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="T19" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="U19" t="s">
         <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E20">
         <v>2021</v>
       </c>
       <c r="F20" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -6232,11 +6243,11 @@
       <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>1440</v>
+      <c r="J20" t="s">
+        <v>1434</v>
       </c>
       <c r="K20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L20" t="s">
         <v>31</v>
@@ -6245,54 +6256,54 @@
         <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="O20" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P20" t="s">
         <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="S20" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="T20" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="U20" t="s">
         <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E21">
         <v>2022</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -6300,11 +6311,11 @@
       <c r="I21" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>1440</v>
+      <c r="J21" t="s">
+        <v>1434</v>
       </c>
       <c r="K21" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L21" t="s">
         <v>31</v>
@@ -6313,54 +6324,54 @@
         <v>112</v>
       </c>
       <c r="N21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O21" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="S21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="T21" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="U21" t="s">
         <v>39</v>
       </c>
       <c r="V21" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E22">
         <v>2025</v>
       </c>
       <c r="F22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G22" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -6368,11 +6379,11 @@
       <c r="I22" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" t="s">
         <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L22" t="s">
         <v>31</v>
@@ -6381,54 +6392,54 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O22" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P22" t="s">
         <v>51</v>
       </c>
       <c r="Q22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="S22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="T22" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E23">
         <v>2023</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G23" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -6436,11 +6447,11 @@
       <c r="I23" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>1440</v>
+      <c r="J23" t="s">
+        <v>1434</v>
       </c>
       <c r="K23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L23" t="s">
         <v>31</v>
@@ -6449,54 +6460,54 @@
         <v>49</v>
       </c>
       <c r="N23" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O23" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P23" t="s">
         <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="S23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="T23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B24" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D24" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E24">
         <v>2025</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -6504,11 +6515,11 @@
       <c r="I24" t="s">
         <v>47</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>1440</v>
+      <c r="J24" t="s">
+        <v>1434</v>
       </c>
       <c r="K24" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
@@ -6517,54 +6528,54 @@
         <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="O24" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P24" t="s">
         <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="S24" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="T24" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E25">
         <v>2025</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G25" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -6572,11 +6583,11 @@
       <c r="I25" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>1441</v>
+      <c r="J25" t="s">
+        <v>1435</v>
       </c>
       <c r="K25" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L25" t="s">
         <v>31</v>
@@ -6585,54 +6596,54 @@
         <v>112</v>
       </c>
       <c r="N25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="O25" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P25" t="s">
         <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="S25" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="T25" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="U25" t="s">
         <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E26">
         <v>2025</v>
       </c>
       <c r="F26" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G26" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -6640,14 +6651,14 @@
       <c r="I26" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" t="s">
         <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L26" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -6656,7 +6667,7 @@
         <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P26" t="s">
         <v>35</v>
@@ -6665,42 +6676,42 @@
         <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="T26" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="U26" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="V26" t="s">
         <v>55</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D27" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E27">
         <v>2025</v>
       </c>
       <c r="F27" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -6708,67 +6719,67 @@
       <c r="I27" t="s">
         <v>47</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" t="s">
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="L27" t="s">
         <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N27" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="O27" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="S27" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="T27" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="U27" t="s">
         <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D28" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E28">
         <v>2024</v>
       </c>
       <c r="F28" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G28" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -6776,11 +6787,11 @@
       <c r="I28" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>1440</v>
+      <c r="J28" t="s">
+        <v>1434</v>
       </c>
       <c r="K28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
@@ -6789,54 +6800,54 @@
         <v>112</v>
       </c>
       <c r="N28" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O28" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="S28" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="T28" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="U28" t="s">
         <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B29" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C29" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E29">
         <v>2023</v>
       </c>
       <c r="F29" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G29" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -6844,67 +6855,67 @@
       <c r="I29" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>1440</v>
+      <c r="J29" t="s">
+        <v>1434</v>
       </c>
       <c r="K29" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L29" t="s">
         <v>31</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N29" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O29" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P29" t="s">
         <v>51</v>
       </c>
       <c r="Q29" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="S29" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="T29" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C30" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D30" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="E30">
         <v>2025</v>
       </c>
       <c r="F30" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G30" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -6912,11 +6923,11 @@
       <c r="I30" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" t="s">
         <v>88</v>
       </c>
       <c r="K30" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
@@ -6925,54 +6936,54 @@
         <v>112</v>
       </c>
       <c r="N30" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="O30" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P30" t="s">
         <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="S30" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="T30" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="U30" t="s">
         <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C31" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E31">
         <v>2021</v>
       </c>
       <c r="F31" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G31" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
@@ -6980,67 +6991,67 @@
       <c r="I31" t="s">
         <v>47</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>1440</v>
+      <c r="J31" t="s">
+        <v>1434</v>
       </c>
       <c r="K31" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L31" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M31" t="s">
         <v>49</v>
       </c>
       <c r="N31" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="O31" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P31" t="s">
         <v>35</v>
       </c>
       <c r="Q31" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="S31" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="T31" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="U31" t="s">
         <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B32" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C32" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E32">
         <v>2025</v>
       </c>
       <c r="F32" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="G32" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
@@ -7048,11 +7059,11 @@
       <c r="I32" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" t="s">
         <v>88</v>
       </c>
       <c r="K32" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L32" t="s">
         <v>31</v>
@@ -7061,125 +7072,125 @@
         <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O32" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P32" t="s">
         <v>51</v>
       </c>
       <c r="Q32" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="R32" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="S32" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="T32" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="U32" t="s">
         <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B33" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E33">
         <v>2022</v>
       </c>
       <c r="F33" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G33" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H33" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I33" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>1440</v>
+      <c r="J33" t="s">
+        <v>1434</v>
       </c>
       <c r="K33" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="L33" t="s">
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N33" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="O33" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P33" t="s">
         <v>35</v>
       </c>
       <c r="Q33" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="S33" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="T33" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="U33" t="s">
         <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B34" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D34" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E34">
         <v>2024</v>
       </c>
       <c r="F34" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G34" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -7187,67 +7198,67 @@
       <c r="I34" t="s">
         <v>47</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" t="s">
         <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L34" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M34" t="s">
         <v>49</v>
       </c>
       <c r="N34" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="O34" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P34" t="s">
         <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="S34" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="T34" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C35" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D35" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E35">
         <v>2023</v>
       </c>
       <c r="F35" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="G35" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -7255,11 +7266,11 @@
       <c r="I35" t="s">
         <v>47</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" t="s">
         <v>88</v>
       </c>
       <c r="K35" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L35" t="s">
         <v>31</v>
@@ -7268,54 +7279,54 @@
         <v>32</v>
       </c>
       <c r="N35" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="O35" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P35" t="s">
         <v>51</v>
       </c>
       <c r="Q35" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="S35" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="T35" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B36" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C36" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D36" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E36">
         <v>2023</v>
       </c>
       <c r="F36" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G36" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -7323,11 +7334,11 @@
       <c r="I36" t="s">
         <v>47</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>1440</v>
+      <c r="J36" t="s">
+        <v>1434</v>
       </c>
       <c r="K36" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L36" t="s">
         <v>31</v>
@@ -7336,54 +7347,54 @@
         <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="O36" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P36" t="s">
         <v>35</v>
       </c>
       <c r="Q36" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="S36" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="T36" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B37" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="C37" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D37" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E37">
         <v>2024</v>
       </c>
       <c r="F37" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G37" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -7391,11 +7402,11 @@
       <c r="I37" t="s">
         <v>47</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>1440</v>
+      <c r="J37" t="s">
+        <v>1434</v>
       </c>
       <c r="K37" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L37" t="s">
         <v>31</v>
@@ -7404,54 +7415,54 @@
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="O37" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P37" t="s">
         <v>35</v>
       </c>
       <c r="Q37" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="S37" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="T37" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="U37" t="s">
         <v>39</v>
       </c>
       <c r="V37" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B38" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D38" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E38">
         <v>2025</v>
       </c>
       <c r="F38" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G38" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -7459,11 +7470,11 @@
       <c r="I38" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>1440</v>
+      <c r="J38" t="s">
+        <v>1434</v>
       </c>
       <c r="K38" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L38" t="s">
         <v>31</v>
@@ -7472,54 +7483,54 @@
         <v>49</v>
       </c>
       <c r="N38" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O38" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P38" t="s">
         <v>35</v>
       </c>
       <c r="Q38" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="S38" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="T38" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B39" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C39" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D39" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E39">
         <v>2023</v>
       </c>
       <c r="F39" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G39" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H39" t="s">
         <v>28</v>
@@ -7527,67 +7538,67 @@
       <c r="I39" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" t="s">
         <v>88</v>
       </c>
       <c r="K39" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L39" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M39" t="s">
         <v>49</v>
       </c>
       <c r="N39" t="s">
+        <v>503</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1412</v>
+      </c>
+      <c r="P39" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>504</v>
+      </c>
+      <c r="S39" t="s">
+        <v>505</v>
+      </c>
+      <c r="T39" t="s">
+        <v>506</v>
+      </c>
+      <c r="U39" t="s">
+        <v>507</v>
+      </c>
+      <c r="V39" t="s">
+        <v>508</v>
+      </c>
+      <c r="W39" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1418</v>
-      </c>
-      <c r="P39" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>510</v>
-      </c>
-      <c r="S39" t="s">
-        <v>511</v>
-      </c>
-      <c r="T39" t="s">
-        <v>512</v>
-      </c>
-      <c r="U39" t="s">
-        <v>513</v>
-      </c>
-      <c r="V39" t="s">
-        <v>514</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B40" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C40" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D40" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E40">
         <v>2020</v>
       </c>
       <c r="F40" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G40" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -7595,64 +7606,64 @@
       <c r="I40" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" t="s">
         <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="L40" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="M40" t="s">
         <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="O40" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P40" t="s">
         <v>51</v>
       </c>
       <c r="Q40" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="R40" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="S40" t="s">
         <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="U40" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B41" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C41" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D41" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E41">
         <v>2025</v>
       </c>
       <c r="F41" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G41" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -7660,11 +7671,11 @@
       <c r="I41" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>1440</v>
+      <c r="J41" t="s">
+        <v>1434</v>
       </c>
       <c r="K41" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="L41" t="s">
         <v>64</v>
@@ -7673,54 +7684,54 @@
         <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="O41" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P41" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q41" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="S41" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="T41" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="U41" t="s">
         <v>39</v>
       </c>
       <c r="V41" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B42" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C42" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D42" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E42">
         <v>2022</v>
       </c>
       <c r="F42" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G42" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H42" t="s">
         <v>28</v>
@@ -7728,11 +7739,11 @@
       <c r="I42" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>1440</v>
+      <c r="J42" t="s">
+        <v>1434</v>
       </c>
       <c r="K42" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="L42" t="s">
         <v>31</v>
@@ -7741,51 +7752,51 @@
         <v>112</v>
       </c>
       <c r="N42" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="O42" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P42" t="s">
         <v>35</v>
       </c>
       <c r="Q42" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="S42" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="T42" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="U42" t="s">
         <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B43" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C43" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D43" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E43">
         <v>2023</v>
       </c>
       <c r="F43" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G43" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="H43" t="s">
         <v>28</v>
@@ -7793,11 +7804,11 @@
       <c r="I43" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>1440</v>
+      <c r="J43" t="s">
+        <v>1434</v>
       </c>
       <c r="K43" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
@@ -7806,63 +7817,63 @@
         <v>112</v>
       </c>
       <c r="N43" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="O43" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P43" t="s">
         <v>35</v>
       </c>
       <c r="Q43" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="S43" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="T43" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="U43" t="s">
         <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B44" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C44" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D44" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E44">
         <v>2023</v>
       </c>
       <c r="F44" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G44" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H44" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I44" t="s">
         <v>47</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>1440</v>
+      <c r="J44" t="s">
+        <v>1434</v>
       </c>
       <c r="K44" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L44" t="s">
         <v>64</v>
@@ -7871,51 +7882,51 @@
         <v>49</v>
       </c>
       <c r="N44" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="O44" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P44" t="s">
         <v>35</v>
       </c>
       <c r="Q44" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="S44" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="T44" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="U44" t="s">
         <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B45" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C45" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E45">
         <v>2025</v>
       </c>
       <c r="F45" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G45" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H45" t="s">
         <v>28</v>
@@ -7923,11 +7934,11 @@
       <c r="I45" t="s">
         <v>47</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>1440</v>
+      <c r="J45" t="s">
+        <v>1434</v>
       </c>
       <c r="K45" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="L45" t="s">
         <v>31</v>
@@ -7936,51 +7947,51 @@
         <v>112</v>
       </c>
       <c r="N45" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="O45" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P45" t="s">
         <v>51</v>
       </c>
       <c r="Q45" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="S45" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="T45" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="U45" t="s">
         <v>55</v>
       </c>
       <c r="V45" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B46" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C46" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D46" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="E46">
         <v>2025</v>
       </c>
       <c r="F46" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G46" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="H46" t="s">
         <v>28</v>
@@ -7988,11 +7999,11 @@
       <c r="I46" t="s">
         <v>47</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" t="s">
         <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L46" t="s">
         <v>31</v>
@@ -8001,60 +8012,60 @@
         <v>112</v>
       </c>
       <c r="N46" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="O46" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P46" t="s">
         <v>35</v>
       </c>
       <c r="Q46" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="S46" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="T46" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="U46" t="s">
         <v>55</v>
       </c>
       <c r="V46" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B47" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="D47" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E47">
         <v>2024</v>
       </c>
       <c r="F47" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="G47" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>607</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>1440</v>
+        <v>601</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1434</v>
       </c>
       <c r="K47" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L47" t="s">
         <v>31</v>
@@ -8063,39 +8074,39 @@
         <v>112</v>
       </c>
       <c r="N47" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="O47" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P47" t="s">
         <v>35</v>
       </c>
       <c r="Q47" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="S47" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="T47" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="U47" t="s">
         <v>55</v>
       </c>
       <c r="V47" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B48" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C48" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
@@ -8104,7 +8115,7 @@
         <v>2019</v>
       </c>
       <c r="F48" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -8115,11 +8126,11 @@
       <c r="I48" t="s">
         <v>47</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>1441</v>
+      <c r="J48" t="s">
+        <v>1435</v>
       </c>
       <c r="K48" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="L48" t="s">
         <v>31</v>
@@ -8128,51 +8139,51 @@
         <v>49</v>
       </c>
       <c r="N48" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="O48" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P48" t="s">
         <v>51</v>
       </c>
       <c r="Q48" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="S48" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="T48" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="U48" t="s">
         <v>39</v>
       </c>
       <c r="V48" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B49" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C49" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="D49" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E49">
         <v>2020</v>
       </c>
       <c r="F49" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G49" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H49" t="s">
         <v>28</v>
@@ -8180,67 +8191,67 @@
       <c r="I49" t="s">
         <v>29</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>1440</v>
+      <c r="J49" t="s">
+        <v>1434</v>
       </c>
       <c r="K49" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="O49" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P49" t="s">
         <v>35</v>
       </c>
       <c r="Q49" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="R49" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="S49" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="T49" t="s">
         <v>39</v>
       </c>
       <c r="U49" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B50" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C50" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="D50" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="E50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G50" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H50" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>1440</v>
+      <c r="J50" t="s">
+        <v>1434</v>
       </c>
       <c r="K50" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L50" t="s">
         <v>64</v>
@@ -8249,51 +8260,51 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="O50" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P50" t="s">
         <v>35</v>
       </c>
       <c r="Q50" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="S50" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="T50" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="U50" t="s">
         <v>55</v>
       </c>
       <c r="V50" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B51" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C51" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D51" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E51">
         <v>2021</v>
       </c>
       <c r="F51" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G51" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H51" t="s">
         <v>28</v>
@@ -8301,11 +8312,11 @@
       <c r="I51" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>1440</v>
+      <c r="J51" t="s">
+        <v>1434</v>
       </c>
       <c r="K51" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="L51" t="s">
         <v>31</v>
@@ -8314,51 +8325,51 @@
         <v>112</v>
       </c>
       <c r="N51" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="O51" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P51" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q51" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="S51" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="T51" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="U51" t="s">
         <v>55</v>
       </c>
       <c r="V51" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B52" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C52" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="D52" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E52">
         <v>2019</v>
       </c>
       <c r="F52" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G52" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H52" t="s">
         <v>28</v>
@@ -8366,67 +8377,67 @@
       <c r="I52" t="s">
         <v>47</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>1440</v>
+      <c r="J52" t="s">
+        <v>1434</v>
       </c>
       <c r="K52" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s">
         <v>32</v>
       </c>
       <c r="N52" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="O52" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P52" t="s">
         <v>35</v>
       </c>
       <c r="Q52" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="R52" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="S52" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="T52" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="U52" t="s">
         <v>55</v>
       </c>
       <c r="V52" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B53" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C53" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D53" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G53" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="H53" t="s">
         <v>28</v>
@@ -8434,76 +8445,76 @@
       <c r="I53" t="s">
         <v>47</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" t="s">
         <v>62</v>
       </c>
       <c r="K53" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M53" t="s">
         <v>32</v>
       </c>
       <c r="N53" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="O53" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
       </c>
       <c r="Q53" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="S53" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="T53" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="U53" t="s">
         <v>55</v>
       </c>
       <c r="V53" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B54" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C54" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D54" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E54">
         <v>2019</v>
       </c>
       <c r="F54" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G54" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="H54" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>1440</v>
+      <c r="J54" t="s">
+        <v>1434</v>
       </c>
       <c r="K54" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
@@ -8512,51 +8523,51 @@
         <v>49</v>
       </c>
       <c r="N54" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="O54" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
       </c>
       <c r="Q54" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="R54" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="S54" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="T54" t="s">
         <v>55</v>
       </c>
       <c r="U54" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B55" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C55" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D55" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E55">
         <v>2025</v>
       </c>
       <c r="F55" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G55" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H55" t="s">
         <v>28</v>
@@ -8564,11 +8575,11 @@
       <c r="I55" t="s">
         <v>47</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>1440</v>
+      <c r="J55" t="s">
+        <v>1434</v>
       </c>
       <c r="K55" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
@@ -8577,51 +8588,51 @@
         <v>49</v>
       </c>
       <c r="N55" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="O55" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P55" t="s">
         <v>35</v>
       </c>
       <c r="Q55" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="S55" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="T55" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="U55" t="s">
         <v>55</v>
       </c>
       <c r="V55" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B56" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C56" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D56" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E56">
         <v>2020</v>
       </c>
       <c r="F56" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G56" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
@@ -8629,14 +8640,14 @@
       <c r="I56" t="s">
         <v>47</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>1440</v>
+      <c r="J56" t="s">
+        <v>1434</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="M56" t="s">
         <v>32</v>
@@ -8645,45 +8656,45 @@
         <v>34</v>
       </c>
       <c r="O56" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P56" t="s">
         <v>35</v>
       </c>
       <c r="R56" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="S56" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="T56" t="s">
         <v>55</v>
       </c>
       <c r="U56" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B57" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C57" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D57" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E57">
         <v>2018</v>
       </c>
       <c r="F57" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="G57" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="H57" t="s">
         <v>28</v>
@@ -8691,64 +8702,64 @@
       <c r="I57" t="s">
         <v>47</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" t="s">
         <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L57" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="M57" t="s">
         <v>49</v>
       </c>
       <c r="N57" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="O57" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P57" t="s">
         <v>35</v>
       </c>
       <c r="Q57" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="S57" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="T57" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="U57" t="s">
         <v>55</v>
       </c>
       <c r="V57" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B58" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C58" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D58" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E58">
         <v>2019</v>
       </c>
       <c r="F58" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G58" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H58" t="s">
         <v>28</v>
@@ -8756,64 +8767,64 @@
       <c r="I58" t="s">
         <v>47</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>1440</v>
+      <c r="J58" t="s">
+        <v>1434</v>
       </c>
       <c r="K58" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="L58" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="M58" t="s">
         <v>112</v>
       </c>
       <c r="N58" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="O58" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P58" t="s">
         <v>51</v>
       </c>
       <c r="Q58" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="S58" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="T58" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="U58" t="s">
         <v>55</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B59" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="C59" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="D59" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E59">
         <v>2019</v>
       </c>
       <c r="F59" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G59" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="H59" t="s">
         <v>28</v>
@@ -8821,64 +8832,64 @@
       <c r="I59" t="s">
         <v>47</v>
       </c>
-      <c r="J59" s="10" t="s">
-        <v>1440</v>
+      <c r="J59" t="s">
+        <v>1434</v>
       </c>
       <c r="K59" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="L59" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="M59" t="s">
         <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="O59" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
       </c>
       <c r="Q59" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="S59" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="T59" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="U59" t="s">
         <v>55</v>
       </c>
       <c r="V59" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B60" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C60" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D60" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E60">
         <v>2021</v>
       </c>
       <c r="F60" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G60" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H60" t="s">
         <v>28</v>
@@ -8886,11 +8897,11 @@
       <c r="I60" t="s">
         <v>47</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>1440</v>
+      <c r="J60" t="s">
+        <v>1434</v>
       </c>
       <c r="K60" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
@@ -8899,51 +8910,51 @@
         <v>112</v>
       </c>
       <c r="N60" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="O60" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="S60" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="T60" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="U60" t="s">
         <v>55</v>
       </c>
       <c r="V60" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B61" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="C61" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D61" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E61">
         <v>2024</v>
       </c>
       <c r="F61" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="G61" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="H61" t="s">
         <v>28</v>
@@ -8951,11 +8962,11 @@
       <c r="I61" t="s">
         <v>47</v>
       </c>
-      <c r="J61" s="10" t="s">
-        <v>1440</v>
+      <c r="J61" t="s">
+        <v>1434</v>
       </c>
       <c r="K61" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
@@ -8964,51 +8975,51 @@
         <v>112</v>
       </c>
       <c r="N61" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="O61" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P61" t="s">
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="S61" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="T61" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="U61" t="s">
         <v>55</v>
       </c>
       <c r="V61" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B62" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C62" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D62" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E62">
         <v>2015</v>
       </c>
       <c r="F62" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="G62" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -9016,11 +9027,11 @@
       <c r="I62" t="s">
         <v>47</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>1440</v>
+      <c r="J62" t="s">
+        <v>1434</v>
       </c>
       <c r="K62" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="L62" t="s">
         <v>64</v>
@@ -9029,119 +9040,119 @@
         <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="O62" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P62" t="s">
         <v>35</v>
       </c>
       <c r="Q62" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="R62" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="S62" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="T62" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="U62" t="s">
         <v>55</v>
       </c>
       <c r="V62" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B63" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="C63" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D63" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E63">
         <v>2019</v>
       </c>
       <c r="F63" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G63" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="H63" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
       </c>
-      <c r="J63" s="10" t="s">
-        <v>1440</v>
+      <c r="J63" t="s">
+        <v>1434</v>
       </c>
       <c r="K63" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="L63" t="s">
         <v>64</v>
       </c>
       <c r="M63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N63" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="O63" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
       </c>
       <c r="Q63" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="S63" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="T63" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="U63" t="s">
         <v>55</v>
       </c>
       <c r="V63" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B64" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="C64" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D64" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E64">
         <v>2024</v>
       </c>
       <c r="F64" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="G64" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="H64" t="s">
         <v>28</v>
@@ -9149,11 +9160,11 @@
       <c r="I64" t="s">
         <v>47</v>
       </c>
-      <c r="J64" s="10" t="s">
-        <v>1440</v>
+      <c r="J64" t="s">
+        <v>1434</v>
       </c>
       <c r="K64" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
@@ -9162,116 +9173,116 @@
         <v>112</v>
       </c>
       <c r="N64" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="O64" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P64" t="s">
         <v>35</v>
       </c>
       <c r="Q64" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="S64" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="T64" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="U64" t="s">
         <v>55</v>
       </c>
       <c r="V64" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B65" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C65" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="D65" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E65">
         <v>2017</v>
       </c>
       <c r="F65" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G65" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="H65" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" t="s">
         <v>62</v>
       </c>
       <c r="K65" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="L65" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="M65" t="s">
         <v>32</v>
       </c>
       <c r="N65" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="O65" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="S65" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="T65" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="U65" t="s">
         <v>55</v>
       </c>
       <c r="V65" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B66" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="C66" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="D66" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E66">
         <v>2022</v>
       </c>
       <c r="F66" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G66" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="H66" t="s">
         <v>28</v>
@@ -9279,61 +9290,61 @@
       <c r="I66" t="s">
         <v>47</v>
       </c>
-      <c r="J66" s="10" t="s">
-        <v>1440</v>
+      <c r="J66" t="s">
+        <v>1434</v>
       </c>
       <c r="K66" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="L66" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="M66" t="s">
         <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="O66" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P66" t="s">
         <v>51</v>
       </c>
       <c r="Q66" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="R66" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="S66" t="s">
         <v>55</v>
       </c>
       <c r="T66" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="B67" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="C67" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="D67" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="E67">
         <v>2023</v>
       </c>
       <c r="F67" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="G67" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="H67" t="s">
         <v>28</v>
@@ -9341,11 +9352,11 @@
       <c r="I67" t="s">
         <v>47</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>1440</v>
+      <c r="J67" t="s">
+        <v>1434</v>
       </c>
       <c r="K67" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
@@ -9354,51 +9365,51 @@
         <v>112</v>
       </c>
       <c r="N67" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="O67" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P67" t="s">
         <v>35</v>
       </c>
       <c r="Q67" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="S67" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="T67" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="U67" t="s">
         <v>55</v>
       </c>
       <c r="V67" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B68" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="C68" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D68" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E68">
         <v>2023</v>
       </c>
       <c r="F68" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G68" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="H68" t="s">
         <v>28</v>
@@ -9406,58 +9417,58 @@
       <c r="I68" t="s">
         <v>47</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" t="s">
         <v>62</v>
       </c>
       <c r="K68" t="s">
         <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="M68" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N68" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="O68" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P68" t="s">
         <v>35</v>
       </c>
       <c r="Q68" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="R68" t="s">
         <v>55</v>
       </c>
       <c r="S68" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B69" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C69" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="D69" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E69">
         <v>2018</v>
       </c>
       <c r="F69" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="G69" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="H69" t="s">
         <v>28</v>
@@ -9465,61 +9476,61 @@
       <c r="I69" t="s">
         <v>47</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>1440</v>
+      <c r="J69" t="s">
+        <v>1434</v>
       </c>
       <c r="K69" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="L69" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M69" t="s">
         <v>32</v>
       </c>
       <c r="N69" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="O69" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P69" t="s">
         <v>35</v>
       </c>
       <c r="Q69" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="R69" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="S69" t="s">
         <v>55</v>
       </c>
       <c r="T69" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B70" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C70" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="D70" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E70">
         <v>2023</v>
       </c>
       <c r="F70" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="G70" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
@@ -9527,11 +9538,11 @@
       <c r="I70" t="s">
         <v>47</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>1440</v>
+      <c r="J70" t="s">
+        <v>1434</v>
       </c>
       <c r="K70" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="L70" t="s">
         <v>31</v>
@@ -9540,51 +9551,51 @@
         <v>112</v>
       </c>
       <c r="N70" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="O70" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P70" t="s">
         <v>35</v>
       </c>
       <c r="Q70" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="S70" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="T70" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="U70" t="s">
         <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B71" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C71" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="D71" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E71">
         <v>2024</v>
       </c>
       <c r="F71" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G71" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="H71" t="s">
         <v>28</v>
@@ -9592,11 +9603,11 @@
       <c r="I71" t="s">
         <v>47</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>1440</v>
+      <c r="J71" t="s">
+        <v>1434</v>
       </c>
       <c r="K71" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="L71" t="s">
         <v>31</v>
@@ -9605,326 +9616,326 @@
         <v>49</v>
       </c>
       <c r="N71" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="O71" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P71" t="s">
         <v>35</v>
       </c>
       <c r="Q71" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="S71" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="T71" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="U71" t="s">
         <v>55</v>
       </c>
       <c r="V71" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B72" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="C72" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D72" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E72">
         <v>2021</v>
       </c>
       <c r="F72" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G72" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H72" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I72" t="s">
         <v>47</v>
       </c>
-      <c r="J72" s="10" t="s">
-        <v>1441</v>
+      <c r="J72" t="s">
+        <v>1435</v>
       </c>
       <c r="K72" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="L72" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="M72" t="s">
         <v>112</v>
       </c>
       <c r="N72" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="O72" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P72" t="s">
         <v>35</v>
       </c>
       <c r="Q72" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="R72" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S72" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="T72" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="B73" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="C73" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="D73" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E73">
         <v>2017</v>
       </c>
       <c r="F73" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G73" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H73" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I73" t="s">
         <v>47</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>1440</v>
+      <c r="J73" t="s">
+        <v>1434</v>
       </c>
       <c r="K73" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="L73" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="M73" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N73" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="O73" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P73" t="s">
         <v>35</v>
       </c>
       <c r="Q73" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="R73" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S73" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="T73" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="U73" t="s">
         <v>55</v>
       </c>
       <c r="V73" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B74" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="C74" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D74" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E74" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F74" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G74" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H74" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I74" t="s">
         <v>47</v>
       </c>
-      <c r="J74" s="10" t="s">
+      <c r="J74" t="s">
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="L74" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="M74" t="s">
         <v>112</v>
       </c>
       <c r="N74" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="O74" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P74" t="s">
         <v>35</v>
       </c>
       <c r="Q74" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="R74" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S74" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="T74" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="U74" t="s">
         <v>55</v>
       </c>
       <c r="V74" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B75" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C75" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="D75" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E75">
         <v>2024</v>
       </c>
       <c r="F75" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G75" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H75" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I75" t="s">
         <v>47</v>
       </c>
-      <c r="J75" s="10" t="s">
-        <v>1440</v>
+      <c r="J75" t="s">
+        <v>1434</v>
       </c>
       <c r="K75" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="L75" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="M75" t="s">
         <v>32</v>
       </c>
       <c r="N75" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="O75" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P75" t="s">
         <v>35</v>
       </c>
       <c r="Q75" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R75" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="S75" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="T75" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="U75" t="s">
         <v>55</v>
       </c>
       <c r="V75" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C76" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="D76" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="E76">
         <v>2023</v>
       </c>
       <c r="F76" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G76" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="H76" t="s">
         <v>28</v>
@@ -9932,70 +9943,70 @@
       <c r="I76" t="s">
         <v>47</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" t="s">
         <v>62</v>
       </c>
       <c r="K76" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="L76" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="M76" t="s">
         <v>112</v>
       </c>
       <c r="N76" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="O76" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P76" t="s">
         <v>35</v>
       </c>
       <c r="Q76" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="R76" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S76" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="T76" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="U76" t="s">
         <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B77" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="C77" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D77" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E77">
         <v>2025</v>
       </c>
       <c r="F77" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="G77" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="H77" t="s">
         <v>28</v>
@@ -10003,70 +10014,70 @@
       <c r="I77" t="s">
         <v>47</v>
       </c>
-      <c r="J77" s="10" t="s">
-        <v>1440</v>
+      <c r="J77" t="s">
+        <v>1434</v>
       </c>
       <c r="K77" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="L77" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="M77" t="s">
         <v>32</v>
       </c>
       <c r="N77" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="O77" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P77" t="s">
         <v>35</v>
       </c>
       <c r="Q77" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="R77" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S77" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="T77" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="U77" t="s">
         <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="B78" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C78" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="D78" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E78">
         <v>2025</v>
       </c>
       <c r="F78" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G78" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="H78" t="s">
         <v>28</v>
@@ -10074,70 +10085,70 @@
       <c r="I78" t="s">
         <v>47</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J78" t="s">
         <v>62</v>
       </c>
       <c r="K78" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="L78" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="M78" t="s">
         <v>32</v>
       </c>
       <c r="N78" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="O78" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P78" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="Q78" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="R78" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S78" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="T78" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="U78" t="s">
         <v>39</v>
       </c>
       <c r="V78" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C79" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D79" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E79">
         <v>2022</v>
       </c>
       <c r="F79" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="G79" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="H79" t="s">
         <v>28</v>
@@ -10145,67 +10156,67 @@
       <c r="I79" t="s">
         <v>47</v>
       </c>
-      <c r="J79" s="10" t="s">
+      <c r="J79" t="s">
         <v>62</v>
       </c>
       <c r="K79" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="L79" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="M79" t="s">
         <v>49</v>
       </c>
       <c r="N79" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="O79" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P79" t="s">
         <v>35</v>
       </c>
       <c r="Q79" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="R79" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="S79" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="T79" t="s">
         <v>55</v>
       </c>
       <c r="U79" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="V79" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="B80" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C80" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="D80" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="E80">
         <v>2025</v>
       </c>
       <c r="F80" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="G80" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="H80" t="s">
         <v>28</v>
@@ -10213,70 +10224,70 @@
       <c r="I80" t="s">
         <v>47</v>
       </c>
-      <c r="J80" s="10" t="s">
+      <c r="J80" t="s">
         <v>62</v>
       </c>
       <c r="K80" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="L80" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="M80" t="s">
         <v>112</v>
       </c>
       <c r="N80" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="O80" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P80" t="s">
         <v>51</v>
       </c>
       <c r="Q80" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="R80" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S80" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="T80" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="U80" t="s">
         <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B81" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="C81" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D81" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E81">
         <v>2024</v>
       </c>
       <c r="F81" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="G81" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H81" t="s">
         <v>28</v>
@@ -10284,70 +10295,70 @@
       <c r="I81" t="s">
         <v>47</v>
       </c>
-      <c r="J81" s="10" t="s">
-        <v>1440</v>
+      <c r="J81" t="s">
+        <v>1434</v>
       </c>
       <c r="K81" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="L81" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="M81" t="s">
         <v>49</v>
       </c>
       <c r="N81" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="O81" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P81" t="s">
         <v>35</v>
       </c>
       <c r="Q81" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="R81" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S81" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="T81" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="U81" t="s">
         <v>55</v>
       </c>
       <c r="V81" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B82" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="C82" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D82" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="E82">
         <v>2023</v>
       </c>
       <c r="F82" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="G82" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="H82" t="s">
         <v>28</v>
@@ -10355,70 +10366,70 @@
       <c r="I82" t="s">
         <v>47</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" t="s">
         <v>62</v>
       </c>
       <c r="K82" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="L82" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="M82" t="s">
         <v>32</v>
       </c>
       <c r="N82" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="O82" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P82" t="s">
         <v>35</v>
       </c>
       <c r="Q82" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="R82" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S82" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="T82" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="U82" t="s">
         <v>55</v>
       </c>
       <c r="V82" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B83" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C83" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D83" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="E83">
         <v>2020</v>
       </c>
       <c r="F83" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G83" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H83" t="s">
         <v>28</v>
@@ -10426,138 +10437,138 @@
       <c r="I83" t="s">
         <v>47</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" t="s">
         <v>62</v>
       </c>
       <c r="K83" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="L83" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="M83" t="s">
         <v>32</v>
       </c>
       <c r="N83" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="O83" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="P83" t="s">
         <v>35</v>
       </c>
       <c r="Q83" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="R83" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="T83" t="s">
         <v>55</v>
       </c>
       <c r="U83" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="V83" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C84" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D84" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E84" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F84" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G84" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H84" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I84" t="s">
-        <v>607</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>1440</v>
+        <v>601</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1434</v>
       </c>
       <c r="K84" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="L84" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="M84" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N84" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="O84" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P84" t="s">
         <v>35</v>
       </c>
       <c r="Q84" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="R84" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S84" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="T84" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="U84" t="s">
         <v>55</v>
       </c>
       <c r="V84" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B85" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C85" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="D85" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E85">
         <v>2025</v>
       </c>
       <c r="F85" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G85" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H85" t="s">
         <v>28</v>
@@ -10565,70 +10576,70 @@
       <c r="I85" t="s">
         <v>47</v>
       </c>
-      <c r="J85" s="10" t="s">
+      <c r="J85" t="s">
         <v>62</v>
       </c>
       <c r="K85" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="L85" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="M85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N85" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="O85" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P85" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q85" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R85" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="S85" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="T85" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="U85" t="s">
         <v>55</v>
       </c>
       <c r="V85" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B86" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="C86" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="D86" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E86">
         <v>2021</v>
       </c>
       <c r="F86" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="G86" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="H86" t="s">
         <v>28</v>
@@ -10636,70 +10647,70 @@
       <c r="I86" t="s">
         <v>47</v>
       </c>
-      <c r="J86" s="10" t="s">
+      <c r="J86" t="s">
         <v>62</v>
       </c>
       <c r="K86" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="L86" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="M86" t="s">
         <v>49</v>
       </c>
       <c r="N86" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="O86" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P86" t="s">
         <v>35</v>
       </c>
       <c r="Q86" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="R86" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="S86" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="T86" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="U86" t="s">
         <v>55</v>
       </c>
       <c r="V86" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B87" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C87" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D87" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E87">
         <v>2025</v>
       </c>
       <c r="F87" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="G87" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="H87" t="s">
         <v>28</v>
@@ -10707,70 +10718,70 @@
       <c r="I87" t="s">
         <v>47</v>
       </c>
-      <c r="J87" s="10" t="s">
+      <c r="J87" t="s">
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="L87" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="M87" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N87" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="O87" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P87" t="s">
         <v>35</v>
       </c>
       <c r="Q87" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="R87" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S87" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="T87" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="U87" t="s">
         <v>55</v>
       </c>
       <c r="V87" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B88" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C88" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D88" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="E88">
         <v>2024</v>
       </c>
       <c r="F88" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="G88" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H88" t="s">
         <v>28</v>
@@ -10778,70 +10789,70 @@
       <c r="I88" t="s">
         <v>47</v>
       </c>
-      <c r="J88" s="10" t="s">
-        <v>1442</v>
+      <c r="J88" t="s">
+        <v>1436</v>
       </c>
       <c r="K88" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="L88" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="M88" t="s">
         <v>32</v>
       </c>
       <c r="N88" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="O88" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P88" t="s">
         <v>35</v>
       </c>
       <c r="Q88" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="R88" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S88" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="T88" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="U88" t="s">
         <v>55</v>
       </c>
       <c r="V88" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="B89" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C89" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D89" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E89">
         <v>2025</v>
       </c>
       <c r="F89" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="G89" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="H89" t="s">
         <v>28</v>
@@ -10849,141 +10860,141 @@
       <c r="I89" t="s">
         <v>47</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" t="s">
         <v>62</v>
       </c>
       <c r="K89" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="L89" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="M89" t="s">
         <v>112</v>
       </c>
       <c r="N89" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="O89" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P89" t="s">
         <v>35</v>
       </c>
       <c r="Q89" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="R89" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S89" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="T89" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="U89" t="s">
         <v>55</v>
       </c>
       <c r="V89" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B90" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C90" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D90" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E90">
         <v>2023</v>
       </c>
       <c r="F90" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G90" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H90" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I90" t="s">
-        <v>607</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>1442</v>
+        <v>601</v>
+      </c>
+      <c r="J90" t="s">
+        <v>1436</v>
       </c>
       <c r="K90" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="L90" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="M90" t="s">
         <v>32</v>
       </c>
       <c r="N90" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="O90" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P90" t="s">
         <v>35</v>
       </c>
       <c r="Q90" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="R90" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="S90" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="T90" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="U90" t="s">
         <v>55</v>
       </c>
       <c r="V90" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B91" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="C91" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="D91" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="E91">
         <v>2024</v>
       </c>
       <c r="F91" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G91" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="H91" t="s">
         <v>28</v>
@@ -10991,70 +11002,70 @@
       <c r="I91" t="s">
         <v>47</v>
       </c>
-      <c r="J91" s="10" t="s">
-        <v>1440</v>
+      <c r="J91" t="s">
+        <v>1434</v>
       </c>
       <c r="K91" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="L91" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="M91" t="s">
         <v>112</v>
       </c>
       <c r="N91" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="O91" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P91" t="s">
         <v>35</v>
       </c>
       <c r="Q91" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="R91" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S91" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="T91" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="U91" t="s">
         <v>55</v>
       </c>
       <c r="V91" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="B92" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="C92" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="D92" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E92">
         <v>2024</v>
       </c>
       <c r="F92" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="G92" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="H92" t="s">
         <v>28</v>
@@ -11062,70 +11073,70 @@
       <c r="I92" t="s">
         <v>47</v>
       </c>
-      <c r="J92" s="10" t="s">
+      <c r="J92" t="s">
         <v>62</v>
       </c>
       <c r="K92" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="L92" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="M92" t="s">
         <v>49</v>
       </c>
       <c r="N92" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="O92" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P92" t="s">
         <v>35</v>
       </c>
       <c r="Q92" t="s">
+        <v>894</v>
+      </c>
+      <c r="R92" t="s">
         <v>900</v>
       </c>
-      <c r="R92" t="s">
-        <v>906</v>
-      </c>
       <c r="S92" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="T92" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="U92" t="s">
         <v>55</v>
       </c>
       <c r="V92" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B93" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C93" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="D93" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="E93">
         <v>2024</v>
       </c>
       <c r="F93" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="G93" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="H93" t="s">
         <v>28</v>
@@ -11133,70 +11144,70 @@
       <c r="I93" t="s">
         <v>47</v>
       </c>
-      <c r="J93" s="10" t="s">
-        <v>1440</v>
+      <c r="J93" t="s">
+        <v>1434</v>
       </c>
       <c r="K93" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="L93" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="M93" t="s">
         <v>32</v>
       </c>
       <c r="N93" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="O93" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P93" t="s">
         <v>35</v>
       </c>
       <c r="Q93" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="R93" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S93" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="T93" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="U93" t="s">
         <v>55</v>
       </c>
       <c r="V93" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="B94" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="C94" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="D94" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="E94">
         <v>2025</v>
       </c>
       <c r="F94" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="G94" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="H94" t="s">
         <v>28</v>
@@ -11204,70 +11215,70 @@
       <c r="I94" t="s">
         <v>47</v>
       </c>
-      <c r="J94" s="10" t="s">
-        <v>1440</v>
+      <c r="J94" t="s">
+        <v>1434</v>
       </c>
       <c r="K94" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="L94" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="M94" t="s">
         <v>32</v>
       </c>
       <c r="N94" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="O94" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P94" t="s">
         <v>35</v>
       </c>
       <c r="Q94" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="R94" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="S94" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="T94" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="U94" t="s">
         <v>55</v>
       </c>
       <c r="V94" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D95" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="E95">
         <v>2025</v>
       </c>
       <c r="F95" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="G95" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="H95" t="s">
         <v>28</v>
@@ -11275,70 +11286,70 @@
       <c r="I95" t="s">
         <v>47</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" t="s">
         <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="L95" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="M95" t="s">
         <v>32</v>
       </c>
       <c r="N95" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="O95" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P95" t="s">
         <v>51</v>
       </c>
       <c r="Q95" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="R95" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S95" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="T95" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="U95" t="s">
         <v>55</v>
       </c>
       <c r="V95" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="B96" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="C96" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D96" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="E96">
         <v>2022</v>
       </c>
       <c r="F96" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="G96" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="H96" t="s">
         <v>28</v>
@@ -11346,354 +11357,354 @@
       <c r="I96" t="s">
         <v>47</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" t="s">
         <v>88</v>
       </c>
       <c r="K96" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="L96" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="M96" t="s">
         <v>112</v>
       </c>
       <c r="N96" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="O96" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P96" t="s">
         <v>35</v>
       </c>
       <c r="Q96" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="R96" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S96" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="T96" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="U96" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="V96" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B97" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C97" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="D97" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="E97" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F97" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G97" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H97" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I97" t="s">
-        <v>607</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>1442</v>
+        <v>601</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1436</v>
       </c>
       <c r="K97" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="L97" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="M97" t="s">
         <v>112</v>
       </c>
       <c r="N97" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="O97" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P97" t="s">
         <v>35</v>
       </c>
       <c r="Q97" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="R97" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="S97" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="T97" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="U97" t="s">
         <v>55</v>
       </c>
       <c r="V97" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="B98" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="C98" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="D98" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E98">
         <v>2019</v>
       </c>
       <c r="F98" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="G98" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="H98" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I98" t="s">
         <v>47</v>
       </c>
-      <c r="J98" s="10" t="s">
-        <v>1442</v>
+      <c r="J98" t="s">
+        <v>1436</v>
       </c>
       <c r="K98" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="L98" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="M98" t="s">
         <v>32</v>
       </c>
       <c r="N98" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="O98" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P98" t="s">
         <v>51</v>
       </c>
       <c r="Q98" t="s">
+        <v>894</v>
+      </c>
+      <c r="R98" t="s">
         <v>900</v>
       </c>
-      <c r="R98" t="s">
-        <v>906</v>
-      </c>
       <c r="S98" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="T98" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="U98" t="s">
         <v>55</v>
       </c>
       <c r="V98" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="B99" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="C99" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="D99" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="E99">
         <v>2024</v>
       </c>
       <c r="F99" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="G99" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H99" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I99" t="s">
         <v>47</v>
       </c>
-      <c r="J99" s="10" t="s">
+      <c r="J99" t="s">
         <v>62</v>
       </c>
       <c r="K99" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="L99" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="M99" t="s">
         <v>112</v>
       </c>
       <c r="N99" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="O99" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P99" t="s">
         <v>35</v>
       </c>
       <c r="Q99" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="R99" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S99" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="T99" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="U99" t="s">
         <v>55</v>
       </c>
       <c r="V99" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="B100" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C100" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="D100" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="E100">
         <v>2025</v>
       </c>
       <c r="F100" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="G100" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="H100" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I100" t="s">
         <v>47</v>
       </c>
-      <c r="J100" s="10" t="s">
+      <c r="J100" t="s">
         <v>62</v>
       </c>
       <c r="K100" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="L100" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="M100" t="s">
         <v>112</v>
       </c>
       <c r="N100" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="O100" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P100" t="s">
         <v>35</v>
       </c>
       <c r="Q100" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="R100" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S100" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="T100" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="U100" t="s">
         <v>55</v>
       </c>
       <c r="V100" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B101" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C101" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="D101" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="E101">
         <v>2025</v>
       </c>
       <c r="F101" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="G101" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="H101" t="s">
         <v>28</v>
@@ -11701,212 +11712,212 @@
       <c r="I101" t="s">
         <v>47</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>1440</v>
+      <c r="J101" t="s">
+        <v>1434</v>
       </c>
       <c r="K101" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="L101" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="M101" t="s">
         <v>112</v>
       </c>
       <c r="N101" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="O101" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P101" t="s">
         <v>35</v>
       </c>
       <c r="Q101" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="R101" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S101" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="T101" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="U101" t="s">
         <v>55</v>
       </c>
       <c r="V101" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B102" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C102" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="D102" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E102" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F102" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G102" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H102" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I102" t="s">
         <v>47</v>
       </c>
-      <c r="J102" s="10" t="s">
-        <v>1440</v>
+      <c r="J102" t="s">
+        <v>1434</v>
       </c>
       <c r="K102" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="L102" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="M102" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="N102" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="O102" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P102" t="s">
         <v>35</v>
       </c>
       <c r="Q102" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="R102" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S102" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="T102" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="U102" t="s">
         <v>55</v>
       </c>
       <c r="V102" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B103" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C103" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="D103" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E103" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F103" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G103" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H103" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I103" t="s">
         <v>47</v>
       </c>
-      <c r="J103" s="10" t="s">
-        <v>1440</v>
+      <c r="J103" t="s">
+        <v>1434</v>
       </c>
       <c r="K103" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="L103" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="M103" t="s">
         <v>112</v>
       </c>
       <c r="N103" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="O103" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P103" t="s">
         <v>35</v>
       </c>
       <c r="Q103" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="R103" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S103" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="T103" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="U103" t="s">
         <v>55</v>
       </c>
       <c r="V103" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="B104" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C104" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="D104" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="E104">
         <v>2021</v>
       </c>
       <c r="F104" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="G104" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="H104" t="s">
         <v>28</v>
@@ -11914,67 +11925,67 @@
       <c r="I104" t="s">
         <v>47</v>
       </c>
-      <c r="J104" s="10" t="s">
+      <c r="J104" t="s">
         <v>88</v>
       </c>
       <c r="K104" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="L104" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="M104" t="s">
         <v>49</v>
       </c>
       <c r="N104" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="O104" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P104" t="s">
         <v>35</v>
       </c>
       <c r="Q104" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R104" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="S104" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="T104" t="s">
         <v>39</v>
       </c>
       <c r="U104" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="V104" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="B105" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C105" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="D105" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="E105">
         <v>2021</v>
       </c>
       <c r="F105" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="G105" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="H105" t="s">
         <v>28</v>
@@ -11982,70 +11993,70 @@
       <c r="I105" t="s">
         <v>47</v>
       </c>
-      <c r="J105" s="10" t="s">
-        <v>1442</v>
+      <c r="J105" t="s">
+        <v>1436</v>
       </c>
       <c r="K105" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="L105" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="M105" t="s">
         <v>32</v>
       </c>
       <c r="N105" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="O105" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P105" t="s">
         <v>35</v>
       </c>
       <c r="Q105" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="R105" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S105" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="T105" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="U105" t="s">
         <v>55</v>
       </c>
       <c r="V105" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="B106" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="C106" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="D106" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
       <c r="F106" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="G106" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="H106" t="s">
         <v>28</v>
@@ -12053,138 +12064,138 @@
       <c r="I106" t="s">
         <v>47</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J106" t="s">
         <v>62</v>
       </c>
       <c r="K106" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="L106" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="M106" t="s">
         <v>32</v>
       </c>
       <c r="N106" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="O106" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P106" t="s">
         <v>35</v>
       </c>
       <c r="Q106" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R106" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="S106" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="T106" t="s">
         <v>55</v>
       </c>
       <c r="U106" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="V106" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="B107" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C107" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="D107" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="E107" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="F107" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G107" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H107" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I107" t="s">
-        <v>607</v>
-      </c>
-      <c r="J107" s="10" t="s">
-        <v>1440</v>
+        <v>601</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1434</v>
       </c>
       <c r="K107" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="L107" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="M107" t="s">
         <v>32</v>
       </c>
       <c r="N107" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="O107" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P107" t="s">
         <v>35</v>
       </c>
       <c r="Q107" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="R107" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="S107" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="T107" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="U107" t="s">
         <v>55</v>
       </c>
       <c r="V107" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="B108" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C108" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="D108" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="E108">
         <v>2023</v>
       </c>
       <c r="F108" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="G108" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="H108" t="s">
         <v>28</v>
@@ -12192,70 +12203,70 @@
       <c r="I108" t="s">
         <v>47</v>
       </c>
-      <c r="J108" s="10" t="s">
-        <v>1440</v>
+      <c r="J108" t="s">
+        <v>1434</v>
       </c>
       <c r="K108" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="L108" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="M108" t="s">
         <v>112</v>
       </c>
       <c r="N108" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="O108" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P108" t="s">
         <v>35</v>
       </c>
       <c r="Q108" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="R108" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S108" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="T108" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="U108" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="V108" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="B109" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="C109" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="D109" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="E109">
         <v>2024</v>
       </c>
       <c r="F109" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="G109" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="H109" t="s">
         <v>28</v>
@@ -12263,138 +12274,138 @@
       <c r="I109" t="s">
         <v>47</v>
       </c>
-      <c r="J109" s="10" t="s">
-        <v>1440</v>
+      <c r="J109" t="s">
+        <v>1434</v>
       </c>
       <c r="K109" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="L109" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="M109" t="s">
         <v>32</v>
       </c>
       <c r="N109" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="O109" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P109" t="s">
         <v>35</v>
       </c>
       <c r="Q109" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R109" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="S109" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="T109" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="U109" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="V109" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="B110" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="C110" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="D110" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="E110">
         <v>2024</v>
       </c>
       <c r="F110" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G110" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H110" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I110" t="s">
         <v>47</v>
       </c>
-      <c r="J110" s="10" t="s">
-        <v>1440</v>
+      <c r="J110" t="s">
+        <v>1434</v>
       </c>
       <c r="K110" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="L110" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="M110" t="s">
         <v>112</v>
       </c>
       <c r="N110" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="O110" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="P110" t="s">
         <v>35</v>
       </c>
       <c r="Q110" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="R110" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="S110" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="T110" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="U110" t="s">
         <v>55</v>
       </c>
       <c r="V110" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="B111" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="C111" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="D111" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="E111">
         <v>2023</v>
       </c>
       <c r="F111" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="G111" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="H111" t="s">
         <v>28</v>
@@ -12402,67 +12413,67 @@
       <c r="I111" t="s">
         <v>47</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>1442</v>
+      <c r="J111" t="s">
+        <v>1436</v>
       </c>
       <c r="K111" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="L111" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="M111" t="s">
         <v>32</v>
       </c>
       <c r="N111" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="O111" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P111" t="s">
         <v>51</v>
       </c>
       <c r="Q111" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="R111" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="S111" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="T111" t="s">
         <v>39</v>
       </c>
       <c r="U111" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="112" spans="1:23">
       <c r="A112" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="B112" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="C112" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="D112" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="E112">
         <v>2023</v>
       </c>
       <c r="F112" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="G112" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="H112" t="s">
         <v>28</v>
@@ -12470,52 +12481,53 @@
       <c r="I112" t="s">
         <v>47</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J112" t="s">
         <v>62</v>
       </c>
       <c r="K112" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="L112" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="M112" t="s">
         <v>32</v>
       </c>
       <c r="N112" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="O112" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="P112" t="s">
         <v>35</v>
       </c>
       <c r="Q112" t="s">
+        <v>894</v>
+      </c>
+      <c r="R112" t="s">
         <v>900</v>
       </c>
-      <c r="R112" t="s">
-        <v>906</v>
-      </c>
       <c r="S112" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="T112" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="U112" t="s">
         <v>55</v>
       </c>
       <c r="V112" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{98EC9591-B59A-4EB1-84D2-1B2528B18401}"/>
+    <hyperlink ref="W12" r:id="rId2" display="=@inproceedings{Zhai2020SmartAutopilotDrone, title={Smart Autopilot Drone System for Surface Surveillance and Anomaly Detection via Customizable Deep Neural Network}, author={Zhai, Xiang and Liu, Kui and Nash, William and Castineira, David}, booktitle={International Petroleum Technology Conference (IPTC)}, year={2020}, doi={10.2523/IPTC-20111-MS}}" xr:uid="{92A0DF47-F495-4BEC-99DC-CA2C070A8202}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -12543,24 +12555,24 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -12568,50 +12580,50 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C3">
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E3" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -12619,70 +12631,70 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D6" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E6" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B7" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="B8" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="C8" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D8" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E8" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="B9" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="C9" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D9" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="E9" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -12706,7 +12718,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12719,7 +12731,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B3">
         <v>6</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAB518-8CEA-4305-80E4-575D8E3B9FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810813F-E658-46FE-B777-C1185DA1136F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,15 @@
     <sheet name="Pillar_Changes" sheetId="2" r:id="rId2"/>
     <sheet name="Pillar_Counts" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Papers!$A$1:$W$112</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="1442">
   <si>
     <t>BibKey</t>
   </si>
@@ -362,9 +365,6 @@
     <t>29th Asia-Pacific Software Engineering Conference (APSEC 2022), Springer</t>
   </si>
   <si>
-    <t>https://ink.library.smu.edu.sg/sis_research/7545/</t>
-  </si>
-  <si>
     <t>Runtime log-level anomalies in UAV autopilot and control stack</t>
   </si>
   <si>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>Google/Wing white-paper (preprint)</t>
-  </si>
-  <si>
-    <t>https://vikas.sindhwani.org/WingAnomalyDetection.pdf</t>
   </si>
   <si>
     <t>Hybrid aerial vehicle flight-dynamics anomalies</t>
@@ -448,9 +445,6 @@
   </si>
   <si>
     <t>Dataset focuses on IoT WiFi-drone anomaly context</t>
-  </si>
-  <si>
-    <t>Zhai2020SmartAutopilotDrone</t>
   </si>
   <si>
     <t>Smart Autopilot Drone System for Surface Surveillance and Anomaly Detection via Customizable Deep Neural Network</t>
@@ -489,12 +483,6 @@
     <t>Demonstrates a full system (hardware + DNN + cloud) for real-time anomaly detection in drone-based surveillance</t>
   </si>
   <si>
-    <t>@inproceedings{Zhai2020SmartAutopilotDrone, title={Smart Autopilot Drone System for Surface Surveillance and Anomaly Detection via Customizable Deep Neural Network}, author={Zhai, Xiang and Liu, Kui and Nash, William and Castineira, David}, booktitle={International Petroleum Technology Conference (IPTC)}, year={2020}, doi={10.2523/IPTC-20111-MS}}</t>
-  </si>
-  <si>
-    <t>Wang2019WindTurbineDroneAnomaly</t>
-  </si>
-  <si>
     <t>Unsupervised anomaly detection with compact deep features for wind turbine blade images taken by a drone</t>
   </si>
   <si>
@@ -508,9 +496,6 @@
     <t>IPSJ Transactions on Computer Vision and Applications Vol.11:Article 3</t>
   </si>
   <si>
-    <t>https://doi.org/10.1186/s41074-019-0056-0</t>
-  </si>
-  <si>
     <t>Anomalies (cracks/erosion) in wind turbine blades captured by UAV imagery</t>
   </si>
   <si>
@@ -529,12 +514,6 @@
     <t>Useful dataset-and-unsupervised‐ML reference for aerial visual anomaly detection in infrastructure inspection</t>
   </si>
   <si>
-    <t>@article{Wang2019WindTurbineDroneAnomaly, title={Unsupervised anomaly detection with compact deep features for wind turbine blade images taken by a drone}, author={Wang, Yinan and Yoshihashi, Ryota and Kawakami, Rei and You, Shaodi and Harano, Tohru and Ito, Masahiko and Komagome, Katsura and Iida, Makoto and Naemura, Takeshi}, journal={IPSJ Trans. Comput. Vis. Appl.}, volume={11}, year={2019}, article={3}, doi={10.1186/s41074-019-0056-0}}</t>
-  </si>
-  <si>
-    <t>Silalahi2024DroLoVe</t>
-  </si>
-  <si>
     <t>Severity-Oriented Multiclass Drone Flight Logs Anomaly Detection</t>
   </si>
   <si>
@@ -568,12 +547,6 @@
     <t>Strong Detection-pillar work in log-based anomaly detection for UAVs</t>
   </si>
   <si>
-    <t>@article{Silalahi2024DroLoVe, title={Severity-Oriented Multiclass Drone Flight Logs Anomaly Detection}, author={Silalahi, Swardiantara and Ahmad, Tohari and Studiawan, Hudan and Anthi, Eirini and Williams, Lowri}, journal={IEEE Access}, year={2024}, volume={12}, pages={64252-64266}, doi={10.1109/ACCESS.2024.3396926}}</t>
-  </si>
-  <si>
-    <t>Boucetta2019DroneCellAnomaly</t>
-  </si>
-  <si>
     <t>Adaptive Range-based Anomaly Detection in Drone-assisted Cellular Networks</t>
   </si>
   <si>
@@ -586,9 +559,6 @@
     <t>15th International Wireless Communications &amp; Mobile Computing Conference (IWCMC)</t>
   </si>
   <si>
-    <t>https://doi.org/10.1109/IWCMC.2019.xxx</t>
-  </si>
-  <si>
     <t>Overload/anomalous traffic in cellular network offloaded by drone base-stations</t>
   </si>
   <si>
@@ -607,12 +577,6 @@
     <t>Good example of detection in communication-drone network context</t>
   </si>
   <si>
-    <t>@inproceedings{Boucetta2019DroneCellAnomaly, title={Adaptive Range-based Anomaly Detection in Drone-assisted Cellular Networks}, author={Boucetta, C. and Nour, B. and Hammami, S. E. and Moungla, H. and Afifi, H.}, booktitle={Proceedings of the 15th International Wireless Communications &amp; Mobile Computing Conference (IWCMC)}, year={2019}}</t>
-  </si>
-  <si>
-    <t>Lu2018MotorAnomalyUAVRL</t>
-  </si>
-  <si>
     <t>Motor Anomaly Detection for Unmanned Aerial Vehicles Using Reinforcement Learning</t>
   </si>
   <si>
@@ -625,9 +589,6 @@
     <t>IEEE Internet of Things Journal, Vol.5, No.4, pp.2315-2323</t>
   </si>
   <si>
-    <t>https://doi.org/10.1109/JIOT.2018.2848519</t>
-  </si>
-  <si>
     <t>Motor-temperature anomaly and motor-failure prevention via automatic landing</t>
   </si>
   <si>
@@ -647,12 +608,6 @@
   </si>
   <si>
     <t>Unique example of hardware-level anomaly detection using RL in UAVs</t>
-  </si>
-  <si>
-    <t>@article{Lu2018MotorAnomalyUAVRL, title={Motor Anomaly Detection for Unmanned Aerial Vehicles Using Reinforcement Learning}, author={Lu, H.; Li, Y.; Mu, S.; Wang, D.; Kim, H.; Serikawa, S.}, journal={IEEE Internet of Things Journal}, volume={5}, number={4}, pages={2315-2323}, year={2018}, doi={10.1109/JIOT.2018.2848519}}</t>
-  </si>
-  <si>
-    <t>Tan2025RADD</t>
   </si>
   <si>
     <t>Runtime Anomaly Detection for Drones: An Integrated Rule-Mining and Unsupervised-Learning Approach</t>
@@ -668,9 +623,6 @@
     <t>arXiv preprint – CoRR abs/2505.01947</t>
   </si>
   <si>
-    <t>https://doi.org/10.48550/arXiv.2505.01947</t>
-  </si>
-  <si>
     <t>Runtime sensor‐actuator rule violations and control anomalies in UAV missions</t>
   </si>
   <si>
@@ -690,9 +642,6 @@
   </si>
   <si>
     <t>Strong detection-pillar work blending interpretability (rules) and unsupervised models for UAV runtime anomaly detection</t>
-  </si>
-  <si>
-    <t>@article{Tan2025RADD, title={Runtime Anomaly Detection for Drones: An Integrated Rule-Mining and Unsupervised-Learning Approach}, author={Tan, I. and Minn, W. and Poskitt, C. M. and Shar, L. K. and Jiang, L.}, journal={CoRR}, year={2025}, volume={abs/2505.01947}, doi={10.48550/arXiv.2505.01947}}</t>
   </si>
   <si>
     <t>Bozcan2020UAVAdNet</t>
@@ -4478,6 +4427,96 @@
   </si>
   <si>
     <t>chen2024drone</t>
+  </si>
+  <si>
+    <t>@inproceedings{zhai2020smart,
+  title={Smart autopilot drone system for surface surveillance and anomaly detection via customizable deep neural network},
+  author={Zhai, Xiang and Liu, Kui and Nash, William and Castineira, David},
+  booktitle={International petroleum technology conference},
+  pages={D021S053R001},
+  year={2020},
+  organization={IPTC}
+}</t>
+  </si>
+  <si>
+    <t>zhai2020smart</t>
+  </si>
+  <si>
+    <t>@article{wang2019unsupervised,
+  title={Unsupervised anomaly detection with compact deep features for wind turbine blade images taken by a drone},
+  author={Wang, Yinan and Yoshihashi, Ryota and Kawakami, Rei and You, Shaodi and Harano, Tohru and Ito, Masahiko and Komagome, Katsura and Iida, Makoto and Naemura, Takeshi},
+  journal={IPSJ Transactions on Computer Vision and Applications},
+  volume={11},
+  number={1},
+  pages={3},
+  year={2019},
+  publisher={Springer}
+}</t>
+  </si>
+  <si>
+    <t>wang2019unsupervised</t>
+  </si>
+  <si>
+    <t>@article{silalahi2024severity,
+  title={Severity-oriented multiclass drone flight logs anomaly detection},
+  author={Silalahi, Swardiantara and Ahmad, Tohari and Studiawan, Hudan and Anthi, Eirini and Williams, Lowri},
+  journal={IEEE Access},
+  volume={12},
+  pages={64252--64266},
+  year={2024},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>silalahi2024severity</t>
+  </si>
+  <si>
+    <t>@inproceedings{boucetta2019adaptive,
+  title={Adaptive range-based anomaly detection in drone-assisted cellular networks},
+  author={Boucetta, Cherifa and Nour, Boubakr and Hammami, Seif Eddine and Moungla, Hassine and Afifi, Hossam},
+  booktitle={2019 15th International Wireless Communications \&amp; Mobile Computing Conference (IWCMC)},
+  pages={1239--1244},
+  year={2019},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>boucetta2019adaptive</t>
+  </si>
+  <si>
+    <t>lu2017motor</t>
+  </si>
+  <si>
+    <t>@inproceedings{tan2025runtime,
+  title={Runtime Anomaly Detection for Drones: An Integrated Rule-Mining and Unsupervised-Learning Approach},
+  author={Tan, Ivan and Minn, Wei and Poskitt, Christopher M and Shar, Lwin Khin and Jiang, Lingxiao},
+  booktitle={International Conference on Engineering of Complex Computer Systems},
+  pages={3--23},
+  year={2025},
+  organization={Springer}
+}</t>
+  </si>
+  <si>
+    <t>tan2025runtime</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/JIOT.2017.2737479</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/IWCMC.2019.8766446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1186/s41074-019-0056-0
+</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/APSEC57359.2022.00024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICRA40945.2020.9197074</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-032-00828-2_1</t>
   </si>
 </sst>
 </file>
@@ -4572,7 +4611,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4595,7 +4634,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4900,10 +4944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4912,6 +4957,7 @@
     <col min="2" max="2" width="144.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="155.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" customWidth="1"/>
     <col min="17" max="17" width="17.109375" customWidth="1"/>
     <col min="18" max="18" width="16.88671875" customWidth="1"/>
     <col min="19" max="19" width="14.33203125" customWidth="1"/>
@@ -4991,7 +5037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="13.8" hidden="1" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -5008,7 +5054,7 @@
         <v>2023</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1421</v>
+        <v>1403</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>27</v>
@@ -5035,7 +5081,7 @@
         <v>33</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P2" t="s">
         <v>35</v>
@@ -5059,9 +5105,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="13.8" hidden="1" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>1423</v>
+        <v>1405</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
@@ -5103,7 +5149,7 @@
         <v>50</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>51</v>
@@ -5124,12 +5170,12 @@
         <v>56</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>1422</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="4" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>57</v>
@@ -5156,7 +5202,7 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>63</v>
@@ -5171,10 +5217,10 @@
         <v>65</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>66</v>
@@ -5192,12 +5238,12 @@
         <v>69</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1424</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>1427</v>
+        <v>1409</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>70</v>
@@ -5224,7 +5270,7 @@
         <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>75</v>
@@ -5239,7 +5285,7 @@
         <v>77</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>35</v>
@@ -5260,39 +5306,39 @@
         <v>81</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1424</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>1416</v>
+        <v>1398</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1415</v>
+        <v>1397</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1417</v>
+        <v>1399</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1418</v>
+        <v>1400</v>
       </c>
       <c r="E6" s="4">
         <v>2024</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1420</v>
+        <v>1402</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="J6" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>48</v>
@@ -5301,13 +5347,13 @@
         <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>51</v>
@@ -5328,10 +5374,10 @@
         <v>56</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1426</v>
+        <v>1408</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="16.2" hidden="1" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -5375,7 +5421,7 @@
         <v>90</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>35</v>
@@ -5396,12 +5442,12 @@
         <v>94</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1429</v>
+        <v>1411</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="13.8" hidden="1" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>1431</v>
+        <v>1413</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>95</v>
@@ -5418,7 +5464,7 @@
       <c r="F8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H8" s="4" t="s">
@@ -5443,7 +5489,7 @@
         <v>101</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -5464,7 +5510,7 @@
         <v>105</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1430</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="4" customFormat="1" ht="14.4" customHeight="1">
@@ -5478,7 +5524,7 @@
         <v>108</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1433</v>
+        <v>1415</v>
       </c>
       <c r="E9" s="4">
         <v>2022</v>
@@ -5486,8 +5532,8 @@
       <c r="F9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>110</v>
+      <c r="G9" s="7" t="s">
+        <v>1439</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>28</v>
@@ -5496,66 +5542,66 @@
         <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="M9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="O9" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1432</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="4" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>1438</v>
+        <v>1420</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E10" s="4">
         <v>2020</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1440</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>28</v>
@@ -5564,10 +5610,10 @@
         <v>47</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>31</v>
@@ -5576,54 +5622,54 @@
         <v>49</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="V10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="14.4" hidden="1" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="W10" s="5" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>1439</v>
+        <v>1421</v>
       </c>
       <c r="E11" s="4">
         <v>2024</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1440</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>1422</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>28</v>
@@ -5635,471 +5681,471 @@
         <v>62</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>35</v>
       </c>
       <c r="Q11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>137</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="16.8" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="D12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="13.2" hidden="1" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2024</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="16.2" hidden="1" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2019</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2025</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12">
-        <v>2020</v>
-      </c>
-      <c r="F12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J17" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="W17" s="5" t="s">
         <v>1434</v>
-      </c>
-      <c r="K12" t="s">
-        <v>145</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>146</v>
-      </c>
-      <c r="O12" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>147</v>
-      </c>
-      <c r="S12" t="s">
-        <v>148</v>
-      </c>
-      <c r="T12" t="s">
-        <v>149</v>
-      </c>
-      <c r="U12" t="s">
-        <v>39</v>
-      </c>
-      <c r="V12" t="s">
-        <v>150</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13">
-        <v>2019</v>
-      </c>
-      <c r="F13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" t="s">
-        <v>158</v>
-      </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" t="s">
-        <v>159</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>160</v>
-      </c>
-      <c r="S13" t="s">
-        <v>161</v>
-      </c>
-      <c r="T13" t="s">
-        <v>162</v>
-      </c>
-      <c r="U13" t="s">
-        <v>39</v>
-      </c>
-      <c r="V13" t="s">
-        <v>163</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14">
-        <v>2024</v>
-      </c>
-      <c r="F14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K14" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" t="s">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s">
-        <v>172</v>
-      </c>
-      <c r="O14" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>173</v>
-      </c>
-      <c r="S14" t="s">
-        <v>174</v>
-      </c>
-      <c r="T14" t="s">
-        <v>175</v>
-      </c>
-      <c r="U14" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" t="s">
-        <v>176</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" t="s">
-        <v>181</v>
-      </c>
-      <c r="E15">
-        <v>2019</v>
-      </c>
-      <c r="F15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>185</v>
-      </c>
-      <c r="O15" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1414</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>186</v>
-      </c>
-      <c r="S15" t="s">
-        <v>187</v>
-      </c>
-      <c r="T15" t="s">
-        <v>188</v>
-      </c>
-      <c r="U15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" t="s">
-        <v>189</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16">
-        <v>2018</v>
-      </c>
-      <c r="F16" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" t="s">
-        <v>196</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K16" t="s">
-        <v>197</v>
-      </c>
-      <c r="L16" t="s">
-        <v>198</v>
-      </c>
-      <c r="M16" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" t="s">
-        <v>199</v>
-      </c>
-      <c r="O16" t="s">
-        <v>1411</v>
-      </c>
-      <c r="P16" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>200</v>
-      </c>
-      <c r="S16" t="s">
-        <v>201</v>
-      </c>
-      <c r="T16" t="s">
-        <v>202</v>
-      </c>
-      <c r="U16" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" t="s">
-        <v>203</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17">
-        <v>2025</v>
-      </c>
-      <c r="F17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" t="s">
-        <v>210</v>
-      </c>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1434</v>
-      </c>
-      <c r="K17" t="s">
-        <v>211</v>
-      </c>
-      <c r="L17" t="s">
-        <v>212</v>
-      </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" t="s">
-        <v>213</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1413</v>
-      </c>
-      <c r="P17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>214</v>
-      </c>
-      <c r="S17" t="s">
-        <v>215</v>
-      </c>
-      <c r="T17" t="s">
-        <v>216</v>
-      </c>
-      <c r="U17" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" t="s">
-        <v>217</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="E18">
         <v>2020</v>
       </c>
       <c r="F18" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
@@ -6108,66 +6154,66 @@
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K18" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
         <v>31</v>
       </c>
       <c r="M18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="O18" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P18" t="s">
         <v>35</v>
       </c>
       <c r="Q18" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="S18" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="T18" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="U18" t="s">
         <v>39</v>
       </c>
       <c r="V18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" hidden="1">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="E19">
         <v>2025</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H19" t="s">
         <v>28</v>
@@ -6179,7 +6225,7 @@
         <v>88</v>
       </c>
       <c r="K19" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
         <v>31</v>
@@ -6188,54 +6234,54 @@
         <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="O19" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P19" t="s">
         <v>35</v>
       </c>
       <c r="Q19" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="S19" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="T19" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="U19" t="s">
         <v>55</v>
       </c>
       <c r="V19" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E20">
         <v>2021</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="H20" t="s">
         <v>28</v>
@@ -6244,10 +6290,10 @@
         <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K20" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s">
         <v>31</v>
@@ -6256,54 +6302,54 @@
         <v>49</v>
       </c>
       <c r="N20" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="O20" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P20" t="s">
         <v>35</v>
       </c>
       <c r="Q20" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="S20" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="T20" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="U20" t="s">
         <v>55</v>
       </c>
       <c r="V20" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="E21">
         <v>2022</v>
       </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="H21" t="s">
         <v>28</v>
@@ -6312,66 +6358,66 @@
         <v>47</v>
       </c>
       <c r="J21" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K21" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s">
         <v>31</v>
       </c>
       <c r="M21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N21" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="O21" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P21" t="s">
         <v>35</v>
       </c>
       <c r="Q21" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="S21" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="T21" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="U21" t="s">
         <v>39</v>
       </c>
       <c r="V21" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" hidden="1">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C22" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E22">
         <v>2025</v>
       </c>
       <c r="F22" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="H22" t="s">
         <v>28</v>
@@ -6383,7 +6429,7 @@
         <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="L22" t="s">
         <v>31</v>
@@ -6392,54 +6438,54 @@
         <v>32</v>
       </c>
       <c r="N22" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O22" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P22" t="s">
         <v>51</v>
       </c>
       <c r="Q22" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="S22" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="T22" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="U22" t="s">
         <v>55</v>
       </c>
       <c r="V22" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C23" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="D23" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E23">
         <v>2023</v>
       </c>
       <c r="F23" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
@@ -6448,10 +6494,10 @@
         <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K23" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="L23" t="s">
         <v>31</v>
@@ -6460,54 +6506,54 @@
         <v>49</v>
       </c>
       <c r="N23" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="O23" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P23" t="s">
         <v>35</v>
       </c>
       <c r="Q23" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="S23" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="T23" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="U23" t="s">
         <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="D24" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="E24">
         <v>2025</v>
       </c>
       <c r="F24" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="H24" t="s">
         <v>28</v>
@@ -6516,10 +6562,10 @@
         <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K24" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s">
         <v>31</v>
@@ -6528,54 +6574,54 @@
         <v>49</v>
       </c>
       <c r="N24" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="O24" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P24" t="s">
         <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="S24" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="T24" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="U24" t="s">
         <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C25" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="E25">
         <v>2025</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G25" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H25" t="s">
         <v>28</v>
@@ -6584,66 +6630,66 @@
         <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="K25" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="L25" t="s">
         <v>31</v>
       </c>
       <c r="M25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="O25" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P25" t="s">
         <v>35</v>
       </c>
       <c r="Q25" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="S25" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="T25" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="U25" t="s">
         <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E26">
         <v>2025</v>
       </c>
       <c r="F26" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="H26" t="s">
         <v>28</v>
@@ -6655,10 +6701,10 @@
         <v>62</v>
       </c>
       <c r="K26" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="L26" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
@@ -6667,7 +6713,7 @@
         <v>31</v>
       </c>
       <c r="O26" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P26" t="s">
         <v>35</v>
@@ -6676,42 +6722,42 @@
         <v>35</v>
       </c>
       <c r="R26" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="T26" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="U26" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="V26" t="s">
         <v>55</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="D27" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E27">
         <v>2025</v>
       </c>
       <c r="F27" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="G27" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="H27" t="s">
         <v>28</v>
@@ -6723,63 +6769,63 @@
         <v>62</v>
       </c>
       <c r="K27" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="L27" t="s">
         <v>64</v>
       </c>
       <c r="M27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N27" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="O27" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P27" t="s">
         <v>35</v>
       </c>
       <c r="Q27" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="S27" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="T27" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="U27" t="s">
         <v>55</v>
       </c>
       <c r="V27" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C28" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="E28">
         <v>2024</v>
       </c>
       <c r="F28" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="G28" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -6788,66 +6834,66 @@
         <v>47</v>
       </c>
       <c r="J28" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K28" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="L28" t="s">
         <v>31</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="O28" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P28" t="s">
         <v>35</v>
       </c>
       <c r="Q28" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="S28" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="T28" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="U28" t="s">
         <v>39</v>
       </c>
       <c r="V28" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B29" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E29">
         <v>2023</v>
       </c>
       <c r="F29" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G29" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H29" t="s">
         <v>28</v>
@@ -6856,66 +6902,66 @@
         <v>47</v>
       </c>
       <c r="J29" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K29" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="L29" t="s">
         <v>31</v>
       </c>
       <c r="M29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N29" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="O29" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P29" t="s">
         <v>51</v>
       </c>
       <c r="Q29" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="S29" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="T29" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
       </c>
       <c r="V29" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B30" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="C30" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E30">
         <v>2025</v>
       </c>
       <c r="F30" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G30" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -6927,63 +6973,63 @@
         <v>88</v>
       </c>
       <c r="K30" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="L30" t="s">
         <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N30" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="O30" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P30" t="s">
         <v>51</v>
       </c>
       <c r="Q30" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="S30" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="T30" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="U30" t="s">
         <v>55</v>
       </c>
       <c r="V30" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B31" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C31" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D31" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E31">
         <v>2021</v>
       </c>
       <c r="F31" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="G31" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
@@ -6992,66 +7038,66 @@
         <v>47</v>
       </c>
       <c r="J31" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K31" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="L31" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s">
         <v>49</v>
       </c>
       <c r="N31" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="O31" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P31" t="s">
         <v>35</v>
       </c>
       <c r="Q31" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="S31" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="T31" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="U31" t="s">
         <v>55</v>
       </c>
       <c r="V31" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="B32" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C32" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="D32" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E32">
         <v>2025</v>
       </c>
       <c r="F32" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="H32" t="s">
         <v>28</v>
@@ -7063,7 +7109,7 @@
         <v>88</v>
       </c>
       <c r="K32" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="L32" t="s">
         <v>31</v>
@@ -7072,125 +7118,125 @@
         <v>32</v>
       </c>
       <c r="N32" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="O32" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P32" t="s">
         <v>51</v>
       </c>
       <c r="Q32" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="R32" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="S32" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="T32" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="U32" t="s">
         <v>55</v>
       </c>
       <c r="V32" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C33" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="D33" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E33">
         <v>2022</v>
       </c>
       <c r="F33" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G33" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="H33" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="I33" t="s">
         <v>47</v>
       </c>
       <c r="J33" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K33" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="L33" t="s">
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N33" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="O33" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P33" t="s">
         <v>35</v>
       </c>
       <c r="Q33" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="S33" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="T33" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="U33" t="s">
         <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:23" hidden="1">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B34" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D34" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E34">
         <v>2024</v>
       </c>
       <c r="F34" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="G34" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -7202,63 +7248,63 @@
         <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="L34" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="M34" t="s">
         <v>49</v>
       </c>
       <c r="N34" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="O34" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P34" t="s">
         <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="S34" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="T34" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
       </c>
       <c r="V34" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:23" hidden="1">
       <c r="A35" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B35" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="D35" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="E35">
         <v>2023</v>
       </c>
       <c r="F35" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="G35" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -7270,7 +7316,7 @@
         <v>88</v>
       </c>
       <c r="K35" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="L35" t="s">
         <v>31</v>
@@ -7279,54 +7325,54 @@
         <v>32</v>
       </c>
       <c r="N35" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="O35" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P35" t="s">
         <v>51</v>
       </c>
       <c r="Q35" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="S35" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="T35" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B36" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D36" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="E36">
         <v>2023</v>
       </c>
       <c r="F36" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G36" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -7335,10 +7381,10 @@
         <v>47</v>
       </c>
       <c r="J36" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K36" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="L36" t="s">
         <v>31</v>
@@ -7347,54 +7393,54 @@
         <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="O36" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P36" t="s">
         <v>35</v>
       </c>
       <c r="Q36" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="S36" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="T36" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
       </c>
       <c r="V36" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B37" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C37" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D37" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E37">
         <v>2024</v>
       </c>
       <c r="F37" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G37" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -7403,10 +7449,10 @@
         <v>47</v>
       </c>
       <c r="J37" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K37" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="L37" t="s">
         <v>31</v>
@@ -7415,54 +7461,54 @@
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="O37" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P37" t="s">
         <v>35</v>
       </c>
       <c r="Q37" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="S37" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="T37" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="U37" t="s">
         <v>39</v>
       </c>
       <c r="V37" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="W37" s="3" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="B38" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C38" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D38" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E38">
         <v>2025</v>
       </c>
       <c r="F38" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="G38" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -7471,10 +7517,10 @@
         <v>47</v>
       </c>
       <c r="J38" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K38" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="L38" t="s">
         <v>31</v>
@@ -7483,54 +7529,54 @@
         <v>49</v>
       </c>
       <c r="N38" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="O38" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P38" t="s">
         <v>35</v>
       </c>
       <c r="Q38" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="S38" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="T38" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
       </c>
       <c r="V38" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" hidden="1">
       <c r="A39" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="B39" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E39">
         <v>2023</v>
       </c>
       <c r="F39" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="G39" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="H39" t="s">
         <v>28</v>
@@ -7542,63 +7588,63 @@
         <v>88</v>
       </c>
       <c r="K39" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="L39" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="M39" t="s">
         <v>49</v>
       </c>
       <c r="N39" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="O39" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P39" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="Q39" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="S39" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="T39" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="U39" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="V39" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" hidden="1">
       <c r="A40" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B40" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C40" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="D40" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="E40">
         <v>2020</v>
       </c>
       <c r="F40" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="G40" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -7610,60 +7656,60 @@
         <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="L40" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="M40" t="s">
         <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="O40" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P40" t="s">
         <v>51</v>
       </c>
       <c r="Q40" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="R40" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="S40" t="s">
         <v>55</v>
       </c>
       <c r="T40" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="U40" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="C41" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="D41" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="E41">
         <v>2025</v>
       </c>
       <c r="F41" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="G41" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -7672,10 +7718,10 @@
         <v>47</v>
       </c>
       <c r="J41" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K41" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="L41" t="s">
         <v>64</v>
@@ -7684,54 +7730,54 @@
         <v>32</v>
       </c>
       <c r="N41" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="O41" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P41" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="Q41" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="S41" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="T41" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="U41" t="s">
         <v>39</v>
       </c>
       <c r="V41" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="B42" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="C42" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="D42" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="E42">
         <v>2022</v>
       </c>
       <c r="F42" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="G42" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="H42" t="s">
         <v>28</v>
@@ -7740,63 +7786,63 @@
         <v>47</v>
       </c>
       <c r="J42" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K42" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="L42" t="s">
         <v>31</v>
       </c>
       <c r="M42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N42" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="O42" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P42" t="s">
         <v>35</v>
       </c>
       <c r="Q42" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="S42" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="T42" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="U42" t="s">
         <v>55</v>
       </c>
       <c r="V42" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B43" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="C43" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="D43" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="E43">
         <v>2023</v>
       </c>
       <c r="F43" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="G43" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="H43" t="s">
         <v>28</v>
@@ -7805,75 +7851,75 @@
         <v>47</v>
       </c>
       <c r="J43" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K43" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="L43" t="s">
         <v>31</v>
       </c>
       <c r="M43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N43" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="O43" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P43" t="s">
         <v>35</v>
       </c>
       <c r="Q43" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="S43" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="T43" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="U43" t="s">
         <v>55</v>
       </c>
       <c r="V43" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="B44" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C44" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="D44" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="E44">
         <v>2023</v>
       </c>
       <c r="F44" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="G44" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="H44" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="I44" t="s">
         <v>47</v>
       </c>
       <c r="J44" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K44" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="L44" t="s">
         <v>64</v>
@@ -7882,51 +7928,51 @@
         <v>49</v>
       </c>
       <c r="N44" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="O44" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P44" t="s">
         <v>35</v>
       </c>
       <c r="Q44" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="S44" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="T44" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="U44" t="s">
         <v>55</v>
       </c>
       <c r="V44" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="B45" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
       <c r="C45" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="D45" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="E45">
         <v>2025</v>
       </c>
       <c r="F45" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="G45" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="H45" t="s">
         <v>28</v>
@@ -7935,63 +7981,63 @@
         <v>47</v>
       </c>
       <c r="J45" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K45" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="L45" t="s">
         <v>31</v>
       </c>
       <c r="M45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N45" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="O45" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P45" t="s">
         <v>51</v>
       </c>
       <c r="Q45" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="S45" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="T45" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="U45" t="s">
         <v>55</v>
       </c>
       <c r="V45" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" hidden="1">
       <c r="A46" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="B46" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="C46" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="D46" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="E46">
         <v>2025</v>
       </c>
       <c r="F46" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
       <c r="G46" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="H46" t="s">
         <v>28</v>
@@ -8003,110 +8049,110 @@
         <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="L46" t="s">
         <v>31</v>
       </c>
       <c r="M46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N46" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="O46" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P46" t="s">
         <v>35</v>
       </c>
       <c r="Q46" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="S46" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="T46" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="U46" t="s">
         <v>55</v>
       </c>
       <c r="V46" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B47" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="D47" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="E47">
         <v>2024</v>
       </c>
       <c r="F47" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="G47" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="H47" t="s">
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="J47" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K47" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="L47" t="s">
         <v>31</v>
       </c>
       <c r="M47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N47" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="O47" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P47" t="s">
         <v>35</v>
       </c>
       <c r="Q47" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="S47" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="T47" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="U47" t="s">
         <v>55</v>
       </c>
       <c r="V47" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" hidden="1">
       <c r="A48" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="B48" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="C48" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
@@ -8115,7 +8161,7 @@
         <v>2019</v>
       </c>
       <c r="F48" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -8127,10 +8173,10 @@
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="K48" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="L48" t="s">
         <v>31</v>
@@ -8139,51 +8185,51 @@
         <v>49</v>
       </c>
       <c r="N48" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="O48" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P48" t="s">
         <v>51</v>
       </c>
       <c r="Q48" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="S48" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="T48" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="U48" t="s">
         <v>39</v>
       </c>
       <c r="V48" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="B49" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="C49" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="D49" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="E49">
         <v>2020</v>
       </c>
       <c r="F49" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="G49" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="H49" t="s">
         <v>28</v>
@@ -8192,66 +8238,66 @@
         <v>29</v>
       </c>
       <c r="J49" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K49" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="O49" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P49" t="s">
         <v>35</v>
       </c>
       <c r="Q49" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="R49" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="S49" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="T49" t="s">
         <v>39</v>
       </c>
       <c r="U49" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B50" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="C50" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="D50" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="E50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="G50" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="H50" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
       </c>
       <c r="J50" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K50" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="L50" t="s">
         <v>64</v>
@@ -8260,51 +8306,51 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="O50" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P50" t="s">
         <v>35</v>
       </c>
       <c r="Q50" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="S50" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="T50" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="U50" t="s">
         <v>55</v>
       </c>
       <c r="V50" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="B51" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="C51" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="D51" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="E51">
         <v>2021</v>
       </c>
       <c r="F51" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="G51" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="H51" t="s">
         <v>28</v>
@@ -8313,63 +8359,63 @@
         <v>47</v>
       </c>
       <c r="J51" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K51" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="L51" t="s">
         <v>31</v>
       </c>
       <c r="M51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N51" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="O51" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P51" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="Q51" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="S51" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="T51" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="U51" t="s">
         <v>55</v>
       </c>
       <c r="V51" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="B52" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="C52" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D52" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E52">
         <v>2019</v>
       </c>
       <c r="F52" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="G52" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="H52" t="s">
         <v>28</v>
@@ -8378,66 +8424,66 @@
         <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K52" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="L52" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="M52" t="s">
         <v>32</v>
       </c>
       <c r="N52" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="O52" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P52" t="s">
         <v>35</v>
       </c>
       <c r="Q52" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="R52" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="S52" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="T52" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="U52" t="s">
         <v>55</v>
       </c>
       <c r="V52" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" hidden="1">
       <c r="A53" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="B53" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="C53" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="D53" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
       <c r="G53" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="H53" t="s">
         <v>28</v>
@@ -8449,72 +8495,72 @@
         <v>62</v>
       </c>
       <c r="K53" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="L53" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="M53" t="s">
         <v>32</v>
       </c>
       <c r="N53" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="O53" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P53" t="s">
         <v>35</v>
       </c>
       <c r="Q53" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="S53" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="T53" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="U53" t="s">
         <v>55</v>
       </c>
       <c r="V53" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="B54" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="C54" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="D54" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="E54">
         <v>2019</v>
       </c>
       <c r="F54" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="G54" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="H54" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="I54" t="s">
         <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K54" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="L54" t="s">
         <v>31</v>
@@ -8523,51 +8569,51 @@
         <v>49</v>
       </c>
       <c r="N54" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="O54" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P54" t="s">
         <v>35</v>
       </c>
       <c r="Q54" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
       <c r="R54" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
       <c r="S54" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="T54" t="s">
         <v>55</v>
       </c>
       <c r="U54" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="B55" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
       <c r="C55" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="D55" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="E55">
         <v>2025</v>
       </c>
       <c r="F55" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="G55" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
       <c r="H55" t="s">
         <v>28</v>
@@ -8576,10 +8622,10 @@
         <v>47</v>
       </c>
       <c r="J55" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K55" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="L55" t="s">
         <v>31</v>
@@ -8588,51 +8634,51 @@
         <v>49</v>
       </c>
       <c r="N55" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="O55" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P55" t="s">
         <v>35</v>
       </c>
       <c r="Q55" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="S55" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="T55" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="U55" t="s">
         <v>55</v>
       </c>
       <c r="V55" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="B56" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C56" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="D56" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="E56">
         <v>2020</v>
       </c>
       <c r="F56" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="G56" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
@@ -8641,13 +8687,13 @@
         <v>47</v>
       </c>
       <c r="J56" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K56" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="M56" t="s">
         <v>32</v>
@@ -8656,45 +8702,45 @@
         <v>34</v>
       </c>
       <c r="O56" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P56" t="s">
         <v>35</v>
       </c>
       <c r="R56" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="S56" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="T56" t="s">
         <v>55</v>
       </c>
       <c r="U56" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" hidden="1">
       <c r="A57" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="B57" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="C57" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
       <c r="D57" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="E57">
         <v>2018</v>
       </c>
       <c r="F57" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
       <c r="G57" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="H57" t="s">
         <v>28</v>
@@ -8706,60 +8752,60 @@
         <v>62</v>
       </c>
       <c r="K57" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="L57" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="M57" t="s">
         <v>49</v>
       </c>
       <c r="N57" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="O57" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P57" t="s">
         <v>35</v>
       </c>
       <c r="Q57" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="S57" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="T57" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="U57" t="s">
         <v>55</v>
       </c>
       <c r="V57" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="B58" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="C58" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="D58" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="E58">
         <v>2019</v>
       </c>
       <c r="F58" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="G58" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="H58" t="s">
         <v>28</v>
@@ -8768,63 +8814,63 @@
         <v>47</v>
       </c>
       <c r="J58" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K58" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="L58" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="M58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N58" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="O58" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P58" t="s">
         <v>51</v>
       </c>
       <c r="Q58" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="S58" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="T58" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="U58" t="s">
         <v>55</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="B59" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="C59" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="D59" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="E59">
         <v>2019</v>
       </c>
       <c r="F59" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
       <c r="G59" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="H59" t="s">
         <v>28</v>
@@ -8833,63 +8879,63 @@
         <v>47</v>
       </c>
       <c r="J59" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K59" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="L59" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="M59" t="s">
         <v>49</v>
       </c>
       <c r="N59" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="O59" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
       </c>
       <c r="Q59" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="S59" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="T59" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="U59" t="s">
         <v>55</v>
       </c>
       <c r="V59" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="B60" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
       <c r="C60" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="D60" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
       <c r="E60">
         <v>2021</v>
       </c>
       <c r="F60" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="G60" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
       <c r="H60" t="s">
         <v>28</v>
@@ -8898,63 +8944,63 @@
         <v>47</v>
       </c>
       <c r="J60" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K60" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="L60" t="s">
         <v>31</v>
       </c>
       <c r="M60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N60" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="O60" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
       </c>
       <c r="Q60" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="S60" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="T60" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="U60" t="s">
         <v>55</v>
       </c>
       <c r="V60" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="B61" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
       <c r="C61" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="D61" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
       <c r="E61">
         <v>2024</v>
       </c>
       <c r="F61" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="G61" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="H61" t="s">
         <v>28</v>
@@ -8963,63 +9009,63 @@
         <v>47</v>
       </c>
       <c r="J61" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K61" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="L61" t="s">
         <v>31</v>
       </c>
       <c r="M61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N61" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
       <c r="O61" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P61" t="s">
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="S61" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="T61" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="U61" t="s">
         <v>55</v>
       </c>
       <c r="V61" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="B62" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="C62" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="D62" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="E62">
         <v>2015</v>
       </c>
       <c r="F62" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="G62" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -9028,10 +9074,10 @@
         <v>47</v>
       </c>
       <c r="J62" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K62" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="L62" t="s">
         <v>64</v>
@@ -9040,119 +9086,119 @@
         <v>32</v>
       </c>
       <c r="N62" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="O62" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P62" t="s">
         <v>35</v>
       </c>
       <c r="Q62" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="R62" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="S62" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="T62" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="U62" t="s">
         <v>55</v>
       </c>
       <c r="V62" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="C63" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="D63" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="E63">
         <v>2019</v>
       </c>
       <c r="F63" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="G63" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="H63" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="I63" t="s">
         <v>47</v>
       </c>
       <c r="J63" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K63" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="L63" t="s">
         <v>64</v>
       </c>
       <c r="M63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N63" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="O63" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P63" t="s">
         <v>35</v>
       </c>
       <c r="Q63" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="S63" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="T63" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="U63" t="s">
         <v>55</v>
       </c>
       <c r="V63" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="B64" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="C64" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="D64" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="E64">
         <v>2024</v>
       </c>
       <c r="F64" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="G64" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="H64" t="s">
         <v>28</v>
@@ -9161,66 +9207,66 @@
         <v>47</v>
       </c>
       <c r="J64" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K64" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="L64" t="s">
         <v>31</v>
       </c>
       <c r="M64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N64" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="O64" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P64" t="s">
         <v>35</v>
       </c>
       <c r="Q64" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="S64" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="T64" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="U64" t="s">
         <v>55</v>
       </c>
       <c r="V64" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" hidden="1">
       <c r="A65" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="B65" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="C65" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="D65" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="E65">
         <v>2017</v>
       </c>
       <c r="F65" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="G65" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="H65" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="I65" t="s">
         <v>47</v>
@@ -9229,60 +9275,60 @@
         <v>62</v>
       </c>
       <c r="K65" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="L65" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="M65" t="s">
         <v>32</v>
       </c>
       <c r="N65" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="O65" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P65" t="s">
         <v>35</v>
       </c>
       <c r="Q65" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="S65" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="T65" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="U65" t="s">
         <v>55</v>
       </c>
       <c r="V65" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="B66" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="C66" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="D66" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="E66">
         <v>2022</v>
       </c>
       <c r="F66" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="G66" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="H66" t="s">
         <v>28</v>
@@ -9291,60 +9337,60 @@
         <v>47</v>
       </c>
       <c r="J66" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K66" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="L66" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="M66" t="s">
         <v>32</v>
       </c>
       <c r="N66" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="O66" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P66" t="s">
         <v>51</v>
       </c>
       <c r="Q66" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="R66" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="S66" t="s">
         <v>55</v>
       </c>
       <c r="T66" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="B67" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="C67" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="D67" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="E67">
         <v>2023</v>
       </c>
       <c r="F67" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="G67" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="H67" t="s">
         <v>28</v>
@@ -9353,63 +9399,63 @@
         <v>47</v>
       </c>
       <c r="J67" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K67" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="L67" t="s">
         <v>31</v>
       </c>
       <c r="M67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N67" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="O67" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P67" t="s">
         <v>35</v>
       </c>
       <c r="Q67" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="S67" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="T67" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="U67" t="s">
         <v>55</v>
       </c>
       <c r="V67" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:23" hidden="1">
       <c r="A68" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="B68" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="C68" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="D68" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
       <c r="E68">
         <v>2023</v>
       </c>
       <c r="F68" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="G68" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="H68" t="s">
         <v>28</v>
@@ -9424,51 +9470,51 @@
         <v>31</v>
       </c>
       <c r="L68" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="M68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N68" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="O68" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P68" t="s">
         <v>35</v>
       </c>
       <c r="Q68" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="R68" t="s">
         <v>55</v>
       </c>
       <c r="S68" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="B69" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="C69" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="D69" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="E69">
         <v>2018</v>
       </c>
       <c r="F69" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="G69" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="H69" t="s">
         <v>28</v>
@@ -9477,60 +9523,60 @@
         <v>47</v>
       </c>
       <c r="J69" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K69" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="L69" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="M69" t="s">
         <v>32</v>
       </c>
       <c r="N69" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
       <c r="O69" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P69" t="s">
         <v>35</v>
       </c>
       <c r="Q69" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="R69" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
       <c r="S69" t="s">
         <v>55</v>
       </c>
       <c r="T69" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
       <c r="B70" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="C70" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="D70" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="E70">
         <v>2023</v>
       </c>
       <c r="F70" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="G70" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="H70" t="s">
         <v>28</v>
@@ -9539,63 +9585,63 @@
         <v>47</v>
       </c>
       <c r="J70" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K70" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="L70" t="s">
         <v>31</v>
       </c>
       <c r="M70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N70" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="O70" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P70" t="s">
         <v>35</v>
       </c>
       <c r="Q70" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="S70" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="T70" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="U70" t="s">
         <v>55</v>
       </c>
       <c r="V70" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="B71" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="C71" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="D71" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="E71">
         <v>2024</v>
       </c>
       <c r="F71" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="G71" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="H71" t="s">
         <v>28</v>
@@ -9604,10 +9650,10 @@
         <v>47</v>
       </c>
       <c r="J71" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K71" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="L71" t="s">
         <v>31</v>
@@ -9616,187 +9662,187 @@
         <v>49</v>
       </c>
       <c r="N71" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="O71" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P71" t="s">
         <v>35</v>
       </c>
       <c r="Q71" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
       <c r="S71" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="T71" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
       <c r="U71" t="s">
         <v>55</v>
       </c>
       <c r="V71" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:23" hidden="1">
       <c r="A72" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="B72" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
       <c r="C72" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="D72" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
       <c r="E72">
         <v>2021</v>
       </c>
       <c r="F72" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G72" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H72" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I72" t="s">
         <v>47</v>
       </c>
       <c r="J72" t="s">
-        <v>1435</v>
+        <v>1417</v>
       </c>
       <c r="K72" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="L72" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
       <c r="M72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N72" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="O72" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P72" t="s">
         <v>35</v>
       </c>
       <c r="Q72" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="R72" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S72" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="T72" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="B73" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
       <c r="C73" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
       <c r="D73" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="E73">
         <v>2017</v>
       </c>
       <c r="F73" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G73" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H73" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I73" t="s">
         <v>47</v>
       </c>
       <c r="J73" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K73" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="L73" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
       <c r="M73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N73" t="s">
-        <v>909</v>
+        <v>891</v>
       </c>
       <c r="O73" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P73" t="s">
         <v>35</v>
       </c>
       <c r="Q73" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="R73" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S73" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
       <c r="T73" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="U73" t="s">
         <v>55</v>
       </c>
       <c r="V73" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="W73" s="3" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:23" hidden="1">
       <c r="A74" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="B74" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="C74" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="D74" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="E74" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="F74" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G74" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H74" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I74" t="s">
         <v>47</v>
@@ -9805,137 +9851,137 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="L74" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="M74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N74" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="O74" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P74" t="s">
         <v>35</v>
       </c>
       <c r="Q74" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="R74" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S74" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="T74" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="U74" t="s">
         <v>55</v>
       </c>
       <c r="V74" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
       <c r="W74" s="3" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
       <c r="B75" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="C75" t="s">
-        <v>929</v>
+        <v>911</v>
       </c>
       <c r="D75" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="E75">
         <v>2024</v>
       </c>
       <c r="F75" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="G75" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="H75" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I75" t="s">
         <v>47</v>
       </c>
       <c r="J75" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K75" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
       <c r="L75" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="M75" t="s">
         <v>32</v>
       </c>
       <c r="N75" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="O75" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P75" t="s">
         <v>35</v>
       </c>
       <c r="Q75" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="R75" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="S75" t="s">
-        <v>937</v>
+        <v>919</v>
       </c>
       <c r="T75" t="s">
-        <v>938</v>
+        <v>920</v>
       </c>
       <c r="U75" t="s">
         <v>55</v>
       </c>
       <c r="V75" t="s">
-        <v>939</v>
+        <v>921</v>
       </c>
       <c r="W75" s="3" t="s">
-        <v>940</v>
+        <v>922</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:23" hidden="1">
       <c r="A76" t="s">
-        <v>941</v>
+        <v>923</v>
       </c>
       <c r="B76" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C76" t="s">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="D76" t="s">
-        <v>943</v>
+        <v>925</v>
       </c>
       <c r="E76">
         <v>2023</v>
       </c>
       <c r="F76" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
-        <v>944</v>
+        <v>926</v>
       </c>
       <c r="H76" t="s">
         <v>28</v>
@@ -9947,66 +9993,66 @@
         <v>62</v>
       </c>
       <c r="K76" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="L76" t="s">
-        <v>946</v>
+        <v>928</v>
       </c>
       <c r="M76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N76" t="s">
-        <v>947</v>
+        <v>929</v>
       </c>
       <c r="O76" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P76" t="s">
         <v>35</v>
       </c>
       <c r="Q76" t="s">
-        <v>948</v>
+        <v>930</v>
       </c>
       <c r="R76" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S76" t="s">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="T76" t="s">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="U76" t="s">
         <v>55</v>
       </c>
       <c r="V76" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="W76" s="3" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="B77" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="C77" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="D77" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="E77">
         <v>2025</v>
       </c>
       <c r="F77" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="G77" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="H77" t="s">
         <v>28</v>
@@ -10015,69 +10061,69 @@
         <v>47</v>
       </c>
       <c r="J77" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K77" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="L77" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="M77" t="s">
         <v>32</v>
       </c>
       <c r="N77" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="O77" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P77" t="s">
         <v>35</v>
       </c>
       <c r="Q77" t="s">
-        <v>962</v>
+        <v>944</v>
       </c>
       <c r="R77" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S77" t="s">
-        <v>963</v>
+        <v>945</v>
       </c>
       <c r="T77" t="s">
-        <v>964</v>
+        <v>946</v>
       </c>
       <c r="U77" t="s">
         <v>55</v>
       </c>
       <c r="V77" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>966</v>
+        <v>948</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:23" hidden="1">
       <c r="A78" t="s">
-        <v>967</v>
+        <v>949</v>
       </c>
       <c r="B78" t="s">
-        <v>968</v>
+        <v>950</v>
       </c>
       <c r="C78" t="s">
-        <v>969</v>
+        <v>951</v>
       </c>
       <c r="D78" t="s">
-        <v>970</v>
+        <v>952</v>
       </c>
       <c r="E78">
         <v>2025</v>
       </c>
       <c r="F78" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="G78" t="s">
-        <v>971</v>
+        <v>953</v>
       </c>
       <c r="H78" t="s">
         <v>28</v>
@@ -10089,66 +10135,66 @@
         <v>62</v>
       </c>
       <c r="K78" t="s">
-        <v>972</v>
+        <v>954</v>
       </c>
       <c r="L78" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
       <c r="M78" t="s">
         <v>32</v>
       </c>
       <c r="N78" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
       <c r="O78" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P78" t="s">
-        <v>1414</v>
+        <v>1396</v>
       </c>
       <c r="Q78" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="R78" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S78" t="s">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="T78" t="s">
-        <v>976</v>
+        <v>958</v>
       </c>
       <c r="U78" t="s">
         <v>39</v>
       </c>
       <c r="V78" t="s">
-        <v>977</v>
+        <v>959</v>
       </c>
       <c r="W78" s="3" t="s">
-        <v>978</v>
+        <v>960</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:23" hidden="1">
       <c r="A79" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="B79" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>980</v>
+        <v>962</v>
       </c>
       <c r="D79" t="s">
-        <v>981</v>
+        <v>963</v>
       </c>
       <c r="E79">
         <v>2022</v>
       </c>
       <c r="F79" t="s">
-        <v>982</v>
+        <v>964</v>
       </c>
       <c r="G79" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
       <c r="H79" t="s">
         <v>28</v>
@@ -10160,63 +10206,63 @@
         <v>62</v>
       </c>
       <c r="K79" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
       <c r="L79" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="M79" t="s">
         <v>49</v>
       </c>
       <c r="N79" t="s">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="O79" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P79" t="s">
         <v>35</v>
       </c>
       <c r="Q79" t="s">
-        <v>987</v>
+        <v>969</v>
       </c>
       <c r="R79" t="s">
-        <v>988</v>
+        <v>970</v>
       </c>
       <c r="S79" t="s">
-        <v>989</v>
+        <v>971</v>
       </c>
       <c r="T79" t="s">
         <v>55</v>
       </c>
       <c r="U79" t="s">
-        <v>990</v>
+        <v>972</v>
       </c>
       <c r="V79" t="s">
-        <v>991</v>
+        <v>973</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:23" hidden="1">
       <c r="A80" t="s">
-        <v>992</v>
+        <v>974</v>
       </c>
       <c r="B80" t="s">
-        <v>993</v>
+        <v>975</v>
       </c>
       <c r="C80" t="s">
-        <v>994</v>
+        <v>976</v>
       </c>
       <c r="D80" t="s">
-        <v>995</v>
+        <v>977</v>
       </c>
       <c r="E80">
         <v>2025</v>
       </c>
       <c r="F80" t="s">
-        <v>996</v>
+        <v>978</v>
       </c>
       <c r="G80" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="H80" t="s">
         <v>28</v>
@@ -10228,66 +10274,66 @@
         <v>62</v>
       </c>
       <c r="K80" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="L80" t="s">
-        <v>999</v>
+        <v>981</v>
       </c>
       <c r="M80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N80" t="s">
-        <v>1000</v>
+        <v>982</v>
       </c>
       <c r="O80" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P80" t="s">
         <v>51</v>
       </c>
       <c r="Q80" t="s">
-        <v>1001</v>
+        <v>983</v>
       </c>
       <c r="R80" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S80" t="s">
-        <v>1002</v>
+        <v>984</v>
       </c>
       <c r="T80" t="s">
-        <v>1003</v>
+        <v>985</v>
       </c>
       <c r="U80" t="s">
         <v>55</v>
       </c>
       <c r="V80" t="s">
-        <v>1004</v>
+        <v>986</v>
       </c>
       <c r="W80" s="3" t="s">
-        <v>1005</v>
+        <v>987</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>1006</v>
+        <v>988</v>
       </c>
       <c r="B81" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="C81" t="s">
-        <v>1007</v>
+        <v>989</v>
       </c>
       <c r="D81" t="s">
-        <v>1008</v>
+        <v>990</v>
       </c>
       <c r="E81">
         <v>2024</v>
       </c>
       <c r="F81" t="s">
-        <v>1009</v>
+        <v>991</v>
       </c>
       <c r="G81" t="s">
-        <v>1010</v>
+        <v>992</v>
       </c>
       <c r="H81" t="s">
         <v>28</v>
@@ -10296,69 +10342,69 @@
         <v>47</v>
       </c>
       <c r="J81" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K81" t="s">
-        <v>1011</v>
+        <v>993</v>
       </c>
       <c r="L81" t="s">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="M81" t="s">
         <v>49</v>
       </c>
       <c r="N81" t="s">
-        <v>1013</v>
+        <v>995</v>
       </c>
       <c r="O81" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P81" t="s">
         <v>35</v>
       </c>
       <c r="Q81" t="s">
-        <v>1014</v>
+        <v>996</v>
       </c>
       <c r="R81" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S81" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="T81" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="U81" t="s">
         <v>55</v>
       </c>
       <c r="V81" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="W81" s="3" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:23" hidden="1">
       <c r="A82" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="B82" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="C82" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="D82" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="E82">
         <v>2023</v>
       </c>
       <c r="F82" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="G82" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="H82" t="s">
         <v>28</v>
@@ -10370,66 +10416,66 @@
         <v>62</v>
       </c>
       <c r="K82" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="L82" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="M82" t="s">
         <v>32</v>
       </c>
       <c r="N82" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="O82" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P82" t="s">
         <v>35</v>
       </c>
       <c r="Q82" t="s">
-        <v>1028</v>
+        <v>1010</v>
       </c>
       <c r="R82" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S82" t="s">
-        <v>1029</v>
+        <v>1011</v>
       </c>
       <c r="T82" t="s">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="U82" t="s">
         <v>55</v>
       </c>
       <c r="V82" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="W82" s="3" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:23" hidden="1">
       <c r="A83" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="B83" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C83" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="D83" t="s">
-        <v>1035</v>
+        <v>1017</v>
       </c>
       <c r="E83">
         <v>2020</v>
       </c>
       <c r="F83" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="G83" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H83" t="s">
         <v>28</v>
@@ -10441,134 +10487,134 @@
         <v>62</v>
       </c>
       <c r="K83" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="L83" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="M83" t="s">
         <v>32</v>
       </c>
       <c r="N83" t="s">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="O83" t="s">
-        <v>1411</v>
+        <v>1393</v>
       </c>
       <c r="P83" t="s">
         <v>35</v>
       </c>
       <c r="Q83" t="s">
-        <v>1040</v>
+        <v>1022</v>
       </c>
       <c r="R83" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S83" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="T83" t="s">
         <v>55</v>
       </c>
       <c r="U83" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="V83" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="B84" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="D84" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="E84" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="F84" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G84" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H84" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I84" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="J84" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K84" t="s">
-        <v>1046</v>
+        <v>1028</v>
       </c>
       <c r="L84" t="s">
-        <v>1047</v>
+        <v>1029</v>
       </c>
       <c r="M84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N84" t="s">
-        <v>1048</v>
+        <v>1030</v>
       </c>
       <c r="O84" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P84" t="s">
         <v>35</v>
       </c>
       <c r="Q84" t="s">
-        <v>1049</v>
+        <v>1031</v>
       </c>
       <c r="R84" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S84" t="s">
-        <v>1050</v>
+        <v>1032</v>
       </c>
       <c r="T84" t="s">
-        <v>1051</v>
+        <v>1033</v>
       </c>
       <c r="U84" t="s">
         <v>55</v>
       </c>
       <c r="V84" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="W84" s="3" t="s">
-        <v>1053</v>
+        <v>1035</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:23" hidden="1">
       <c r="A85" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C85" t="s">
-        <v>1055</v>
+        <v>1037</v>
       </c>
       <c r="D85" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E85">
         <v>2025</v>
       </c>
       <c r="F85" t="s">
-        <v>1056</v>
+        <v>1038</v>
       </c>
       <c r="G85" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H85" t="s">
         <v>28</v>
@@ -10580,66 +10626,66 @@
         <v>62</v>
       </c>
       <c r="K85" t="s">
-        <v>1057</v>
+        <v>1039</v>
       </c>
       <c r="L85" t="s">
-        <v>1058</v>
+        <v>1040</v>
       </c>
       <c r="M85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N85" t="s">
-        <v>1059</v>
+        <v>1041</v>
       </c>
       <c r="O85" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P85" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="Q85" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="R85" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="S85" t="s">
-        <v>1060</v>
+        <v>1042</v>
       </c>
       <c r="T85" t="s">
-        <v>1061</v>
+        <v>1043</v>
       </c>
       <c r="U85" t="s">
         <v>55</v>
       </c>
       <c r="V85" t="s">
-        <v>1062</v>
+        <v>1044</v>
       </c>
       <c r="W85" s="3" t="s">
-        <v>1063</v>
+        <v>1045</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:23" hidden="1">
       <c r="A86" t="s">
-        <v>1064</v>
+        <v>1046</v>
       </c>
       <c r="B86" t="s">
-        <v>1065</v>
+        <v>1047</v>
       </c>
       <c r="C86" t="s">
-        <v>1066</v>
+        <v>1048</v>
       </c>
       <c r="D86" t="s">
-        <v>1067</v>
+        <v>1049</v>
       </c>
       <c r="E86">
         <v>2021</v>
       </c>
       <c r="F86" t="s">
-        <v>1068</v>
+        <v>1050</v>
       </c>
       <c r="G86" t="s">
-        <v>1069</v>
+        <v>1051</v>
       </c>
       <c r="H86" t="s">
         <v>28</v>
@@ -10651,66 +10697,66 @@
         <v>62</v>
       </c>
       <c r="K86" t="s">
-        <v>1070</v>
+        <v>1052</v>
       </c>
       <c r="L86" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="M86" t="s">
         <v>49</v>
       </c>
       <c r="N86" t="s">
-        <v>1072</v>
+        <v>1054</v>
       </c>
       <c r="O86" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P86" t="s">
         <v>35</v>
       </c>
       <c r="Q86" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="R86" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="S86" t="s">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="T86" t="s">
-        <v>1074</v>
+        <v>1056</v>
       </c>
       <c r="U86" t="s">
         <v>55</v>
       </c>
       <c r="V86" t="s">
-        <v>1075</v>
+        <v>1057</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>1076</v>
+        <v>1058</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:23" hidden="1">
       <c r="A87" t="s">
-        <v>1077</v>
+        <v>1059</v>
       </c>
       <c r="B87" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C87" t="s">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="D87" t="s">
-        <v>1079</v>
+        <v>1061</v>
       </c>
       <c r="E87">
         <v>2025</v>
       </c>
       <c r="F87" t="s">
-        <v>1080</v>
+        <v>1062</v>
       </c>
       <c r="G87" t="s">
-        <v>1081</v>
+        <v>1063</v>
       </c>
       <c r="H87" t="s">
         <v>28</v>
@@ -10722,66 +10768,66 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>1082</v>
+        <v>1064</v>
       </c>
       <c r="L87" t="s">
-        <v>1083</v>
+        <v>1065</v>
       </c>
       <c r="M87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N87" t="s">
-        <v>1084</v>
+        <v>1066</v>
       </c>
       <c r="O87" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P87" t="s">
         <v>35</v>
       </c>
       <c r="Q87" t="s">
-        <v>1085</v>
+        <v>1067</v>
       </c>
       <c r="R87" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S87" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="T87" t="s">
-        <v>1087</v>
+        <v>1069</v>
       </c>
       <c r="U87" t="s">
         <v>55</v>
       </c>
       <c r="V87" t="s">
-        <v>1088</v>
+        <v>1070</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>1089</v>
+        <v>1071</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:23" hidden="1">
       <c r="A88" t="s">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="B88" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="C88" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="D88" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="E88">
         <v>2024</v>
       </c>
       <c r="F88" t="s">
-        <v>1092</v>
+        <v>1074</v>
       </c>
       <c r="G88" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H88" t="s">
         <v>28</v>
@@ -10790,69 +10836,69 @@
         <v>47</v>
       </c>
       <c r="J88" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K88" t="s">
-        <v>1093</v>
+        <v>1075</v>
       </c>
       <c r="L88" t="s">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="M88" t="s">
         <v>32</v>
       </c>
       <c r="N88" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
       <c r="O88" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P88" t="s">
         <v>35</v>
       </c>
       <c r="Q88" t="s">
-        <v>1096</v>
+        <v>1078</v>
       </c>
       <c r="R88" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S88" t="s">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="T88" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="U88" t="s">
         <v>55</v>
       </c>
       <c r="V88" t="s">
-        <v>1099</v>
+        <v>1081</v>
       </c>
       <c r="W88" s="3" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:23" hidden="1">
       <c r="A89" t="s">
-        <v>1101</v>
+        <v>1083</v>
       </c>
       <c r="B89" t="s">
-        <v>1102</v>
+        <v>1084</v>
       </c>
       <c r="C89" t="s">
-        <v>1103</v>
+        <v>1085</v>
       </c>
       <c r="D89" t="s">
-        <v>1104</v>
+        <v>1086</v>
       </c>
       <c r="E89">
         <v>2025</v>
       </c>
       <c r="F89" t="s">
-        <v>1105</v>
+        <v>1087</v>
       </c>
       <c r="G89" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="H89" t="s">
         <v>28</v>
@@ -10864,137 +10910,137 @@
         <v>62</v>
       </c>
       <c r="K89" t="s">
-        <v>1107</v>
+        <v>1089</v>
       </c>
       <c r="L89" t="s">
-        <v>1108</v>
+        <v>1090</v>
       </c>
       <c r="M89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N89" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="O89" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P89" t="s">
         <v>35</v>
       </c>
       <c r="Q89" t="s">
-        <v>974</v>
+        <v>956</v>
       </c>
       <c r="R89" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S89" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
       <c r="T89" t="s">
-        <v>1111</v>
+        <v>1093</v>
       </c>
       <c r="U89" t="s">
         <v>55</v>
       </c>
       <c r="V89" t="s">
-        <v>1112</v>
+        <v>1094</v>
       </c>
       <c r="W89" s="3" t="s">
-        <v>1113</v>
+        <v>1095</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:23" hidden="1">
       <c r="A90" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="B90" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="C90" t="s">
-        <v>1116</v>
+        <v>1098</v>
       </c>
       <c r="D90" t="s">
-        <v>1117</v>
+        <v>1099</v>
       </c>
       <c r="E90">
         <v>2023</v>
       </c>
       <c r="F90" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G90" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H90" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I90" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="J90" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K90" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="L90" t="s">
-        <v>1119</v>
+        <v>1101</v>
       </c>
       <c r="M90" t="s">
         <v>32</v>
       </c>
       <c r="N90" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="O90" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P90" t="s">
         <v>35</v>
       </c>
       <c r="Q90" t="s">
-        <v>1121</v>
+        <v>1103</v>
       </c>
       <c r="R90" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="S90" t="s">
-        <v>1122</v>
+        <v>1104</v>
       </c>
       <c r="T90" t="s">
-        <v>1123</v>
+        <v>1105</v>
       </c>
       <c r="U90" t="s">
         <v>55</v>
       </c>
       <c r="V90" t="s">
-        <v>1124</v>
+        <v>1106</v>
       </c>
       <c r="W90" s="3" t="s">
-        <v>1125</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>1126</v>
+        <v>1108</v>
       </c>
       <c r="B91" t="s">
-        <v>1127</v>
+        <v>1109</v>
       </c>
       <c r="C91" t="s">
-        <v>1128</v>
+        <v>1110</v>
       </c>
       <c r="D91" t="s">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="E91">
         <v>2024</v>
       </c>
       <c r="F91" t="s">
-        <v>1130</v>
+        <v>1112</v>
       </c>
       <c r="G91" t="s">
-        <v>1131</v>
+        <v>1113</v>
       </c>
       <c r="H91" t="s">
         <v>28</v>
@@ -11003,69 +11049,69 @@
         <v>47</v>
       </c>
       <c r="J91" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K91" t="s">
-        <v>1037</v>
+        <v>1019</v>
       </c>
       <c r="L91" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="M91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N91" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
       <c r="O91" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P91" t="s">
         <v>35</v>
       </c>
       <c r="Q91" t="s">
-        <v>1134</v>
+        <v>1116</v>
       </c>
       <c r="R91" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S91" t="s">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="T91" t="s">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="U91" t="s">
         <v>55</v>
       </c>
       <c r="V91" t="s">
-        <v>1137</v>
+        <v>1119</v>
       </c>
       <c r="W91" s="3" t="s">
-        <v>1138</v>
+        <v>1120</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:23" hidden="1">
       <c r="A92" t="s">
-        <v>1139</v>
+        <v>1121</v>
       </c>
       <c r="B92" t="s">
-        <v>1140</v>
+        <v>1122</v>
       </c>
       <c r="C92" t="s">
-        <v>1141</v>
+        <v>1123</v>
       </c>
       <c r="D92" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="E92">
         <v>2024</v>
       </c>
       <c r="F92" t="s">
-        <v>1142</v>
+        <v>1124</v>
       </c>
       <c r="G92" t="s">
-        <v>1143</v>
+        <v>1125</v>
       </c>
       <c r="H92" t="s">
         <v>28</v>
@@ -11077,66 +11123,66 @@
         <v>62</v>
       </c>
       <c r="K92" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="L92" t="s">
-        <v>1145</v>
+        <v>1127</v>
       </c>
       <c r="M92" t="s">
         <v>49</v>
       </c>
       <c r="N92" t="s">
-        <v>1146</v>
+        <v>1128</v>
       </c>
       <c r="O92" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P92" t="s">
         <v>35</v>
       </c>
       <c r="Q92" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="R92" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S92" t="s">
-        <v>1147</v>
+        <v>1129</v>
       </c>
       <c r="T92" t="s">
-        <v>1148</v>
+        <v>1130</v>
       </c>
       <c r="U92" t="s">
         <v>55</v>
       </c>
       <c r="V92" t="s">
-        <v>1149</v>
+        <v>1131</v>
       </c>
       <c r="W92" s="3" t="s">
-        <v>1150</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="B93" t="s">
-        <v>1152</v>
+        <v>1134</v>
       </c>
       <c r="C93" t="s">
-        <v>1153</v>
+        <v>1135</v>
       </c>
       <c r="D93" t="s">
-        <v>1154</v>
+        <v>1136</v>
       </c>
       <c r="E93">
         <v>2024</v>
       </c>
       <c r="F93" t="s">
-        <v>1155</v>
+        <v>1137</v>
       </c>
       <c r="G93" t="s">
-        <v>1156</v>
+        <v>1138</v>
       </c>
       <c r="H93" t="s">
         <v>28</v>
@@ -11145,69 +11191,69 @@
         <v>47</v>
       </c>
       <c r="J93" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K93" t="s">
-        <v>1157</v>
+        <v>1139</v>
       </c>
       <c r="L93" t="s">
-        <v>1158</v>
+        <v>1140</v>
       </c>
       <c r="M93" t="s">
         <v>32</v>
       </c>
       <c r="N93" t="s">
-        <v>1159</v>
+        <v>1141</v>
       </c>
       <c r="O93" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P93" t="s">
         <v>35</v>
       </c>
       <c r="Q93" t="s">
-        <v>1160</v>
+        <v>1142</v>
       </c>
       <c r="R93" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S93" t="s">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="T93" t="s">
-        <v>1162</v>
+        <v>1144</v>
       </c>
       <c r="U93" t="s">
         <v>55</v>
       </c>
       <c r="V93" t="s">
-        <v>1163</v>
+        <v>1145</v>
       </c>
       <c r="W93" s="3" t="s">
-        <v>1164</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>1165</v>
+        <v>1147</v>
       </c>
       <c r="B94" t="s">
-        <v>1166</v>
+        <v>1148</v>
       </c>
       <c r="C94" t="s">
-        <v>1167</v>
+        <v>1149</v>
       </c>
       <c r="D94" t="s">
-        <v>1168</v>
+        <v>1150</v>
       </c>
       <c r="E94">
         <v>2025</v>
       </c>
       <c r="F94" t="s">
-        <v>1169</v>
+        <v>1151</v>
       </c>
       <c r="G94" t="s">
-        <v>1170</v>
+        <v>1152</v>
       </c>
       <c r="H94" t="s">
         <v>28</v>
@@ -11216,69 +11262,69 @@
         <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K94" t="s">
-        <v>1171</v>
+        <v>1153</v>
       </c>
       <c r="L94" t="s">
-        <v>1172</v>
+        <v>1154</v>
       </c>
       <c r="M94" t="s">
         <v>32</v>
       </c>
       <c r="N94" t="s">
-        <v>1173</v>
+        <v>1155</v>
       </c>
       <c r="O94" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P94" t="s">
         <v>35</v>
       </c>
       <c r="Q94" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="R94" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="S94" t="s">
-        <v>1174</v>
+        <v>1156</v>
       </c>
       <c r="T94" t="s">
-        <v>1175</v>
+        <v>1157</v>
       </c>
       <c r="U94" t="s">
         <v>55</v>
       </c>
       <c r="V94" t="s">
-        <v>1176</v>
+        <v>1158</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>1177</v>
+        <v>1159</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:23" hidden="1">
       <c r="A95" t="s">
-        <v>1178</v>
+        <v>1160</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C95" t="s">
-        <v>1179</v>
+        <v>1161</v>
       </c>
       <c r="D95" t="s">
-        <v>1180</v>
+        <v>1162</v>
       </c>
       <c r="E95">
         <v>2025</v>
       </c>
       <c r="F95" t="s">
-        <v>1181</v>
+        <v>1163</v>
       </c>
       <c r="G95" t="s">
-        <v>1182</v>
+        <v>1164</v>
       </c>
       <c r="H95" t="s">
         <v>28</v>
@@ -11290,66 +11336,66 @@
         <v>88</v>
       </c>
       <c r="K95" t="s">
-        <v>1183</v>
+        <v>1165</v>
       </c>
       <c r="L95" t="s">
-        <v>1184</v>
+        <v>1166</v>
       </c>
       <c r="M95" t="s">
         <v>32</v>
       </c>
       <c r="N95" t="s">
-        <v>1185</v>
+        <v>1167</v>
       </c>
       <c r="O95" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P95" t="s">
         <v>51</v>
       </c>
       <c r="Q95" t="s">
-        <v>1186</v>
+        <v>1168</v>
       </c>
       <c r="R95" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S95" t="s">
-        <v>1187</v>
+        <v>1169</v>
       </c>
       <c r="T95" t="s">
-        <v>1188</v>
+        <v>1170</v>
       </c>
       <c r="U95" t="s">
         <v>55</v>
       </c>
       <c r="V95" t="s">
-        <v>1189</v>
+        <v>1171</v>
       </c>
       <c r="W95" s="3" t="s">
-        <v>1190</v>
+        <v>1172</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:23" hidden="1">
       <c r="A96" t="s">
-        <v>1191</v>
+        <v>1173</v>
       </c>
       <c r="B96" t="s">
-        <v>1192</v>
+        <v>1174</v>
       </c>
       <c r="C96" t="s">
-        <v>1193</v>
+        <v>1175</v>
       </c>
       <c r="D96" t="s">
-        <v>1194</v>
+        <v>1176</v>
       </c>
       <c r="E96">
         <v>2022</v>
       </c>
       <c r="F96" t="s">
-        <v>1195</v>
+        <v>1177</v>
       </c>
       <c r="G96" t="s">
-        <v>1196</v>
+        <v>1178</v>
       </c>
       <c r="H96" t="s">
         <v>28</v>
@@ -11361,211 +11407,211 @@
         <v>88</v>
       </c>
       <c r="K96" t="s">
-        <v>1197</v>
+        <v>1179</v>
       </c>
       <c r="L96" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="M96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N96" t="s">
-        <v>1199</v>
+        <v>1181</v>
       </c>
       <c r="O96" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P96" t="s">
         <v>35</v>
       </c>
       <c r="Q96" t="s">
-        <v>1200</v>
+        <v>1182</v>
       </c>
       <c r="R96" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S96" t="s">
-        <v>1201</v>
+        <v>1183</v>
       </c>
       <c r="T96" t="s">
-        <v>1202</v>
+        <v>1184</v>
       </c>
       <c r="U96" t="s">
-        <v>1203</v>
+        <v>1185</v>
       </c>
       <c r="V96" t="s">
-        <v>1204</v>
+        <v>1186</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>1205</v>
+        <v>1187</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" hidden="1">
       <c r="A97" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="B97" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="C97" t="s">
-        <v>1208</v>
+        <v>1190</v>
       </c>
       <c r="D97" t="s">
-        <v>1209</v>
+        <v>1191</v>
       </c>
       <c r="E97" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="F97" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G97" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H97" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I97" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="J97" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K97" t="s">
-        <v>1118</v>
+        <v>1100</v>
       </c>
       <c r="L97" t="s">
-        <v>1210</v>
+        <v>1192</v>
       </c>
       <c r="M97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N97" t="s">
-        <v>1211</v>
+        <v>1193</v>
       </c>
       <c r="O97" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P97" t="s">
         <v>35</v>
       </c>
       <c r="Q97" t="s">
-        <v>1212</v>
+        <v>1194</v>
       </c>
       <c r="R97" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="S97" t="s">
-        <v>1213</v>
+        <v>1195</v>
       </c>
       <c r="T97" t="s">
-        <v>1214</v>
+        <v>1196</v>
       </c>
       <c r="U97" t="s">
         <v>55</v>
       </c>
       <c r="V97" t="s">
-        <v>1215</v>
+        <v>1197</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>1216</v>
+        <v>1198</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" hidden="1">
       <c r="A98" t="s">
-        <v>1217</v>
+        <v>1199</v>
       </c>
       <c r="B98" t="s">
-        <v>1218</v>
+        <v>1200</v>
       </c>
       <c r="C98" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
       <c r="D98" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="E98">
         <v>2019</v>
       </c>
       <c r="F98" t="s">
-        <v>1221</v>
+        <v>1203</v>
       </c>
       <c r="G98" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="H98" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I98" t="s">
         <v>47</v>
       </c>
       <c r="J98" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K98" t="s">
-        <v>1223</v>
+        <v>1205</v>
       </c>
       <c r="L98" t="s">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="M98" t="s">
         <v>32</v>
       </c>
       <c r="N98" t="s">
-        <v>1224</v>
+        <v>1206</v>
       </c>
       <c r="O98" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P98" t="s">
         <v>51</v>
       </c>
       <c r="Q98" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="R98" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S98" t="s">
-        <v>1225</v>
+        <v>1207</v>
       </c>
       <c r="T98" t="s">
-        <v>1226</v>
+        <v>1208</v>
       </c>
       <c r="U98" t="s">
         <v>55</v>
       </c>
       <c r="V98" t="s">
-        <v>1227</v>
+        <v>1209</v>
       </c>
       <c r="W98" s="3" t="s">
-        <v>1228</v>
+        <v>1210</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" hidden="1">
       <c r="A99" t="s">
-        <v>1229</v>
+        <v>1211</v>
       </c>
       <c r="B99" t="s">
-        <v>1230</v>
+        <v>1212</v>
       </c>
       <c r="C99" t="s">
-        <v>1231</v>
+        <v>1213</v>
       </c>
       <c r="D99" t="s">
-        <v>1232</v>
+        <v>1214</v>
       </c>
       <c r="E99">
         <v>2024</v>
       </c>
       <c r="F99" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="G99" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H99" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I99" t="s">
         <v>47</v>
@@ -11574,69 +11620,69 @@
         <v>62</v>
       </c>
       <c r="K99" t="s">
-        <v>1234</v>
+        <v>1216</v>
       </c>
       <c r="L99" t="s">
-        <v>1235</v>
+        <v>1217</v>
       </c>
       <c r="M99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N99" t="s">
-        <v>1236</v>
+        <v>1218</v>
       </c>
       <c r="O99" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P99" t="s">
         <v>35</v>
       </c>
       <c r="Q99" t="s">
-        <v>1237</v>
+        <v>1219</v>
       </c>
       <c r="R99" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S99" t="s">
-        <v>1238</v>
+        <v>1220</v>
       </c>
       <c r="T99" t="s">
-        <v>1239</v>
+        <v>1221</v>
       </c>
       <c r="U99" t="s">
         <v>55</v>
       </c>
       <c r="V99" t="s">
-        <v>1240</v>
+        <v>1222</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>1241</v>
+        <v>1223</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" hidden="1">
       <c r="A100" t="s">
-        <v>1242</v>
+        <v>1224</v>
       </c>
       <c r="B100" t="s">
-        <v>1243</v>
+        <v>1225</v>
       </c>
       <c r="C100" t="s">
-        <v>1244</v>
+        <v>1226</v>
       </c>
       <c r="D100" t="s">
-        <v>1245</v>
+        <v>1227</v>
       </c>
       <c r="E100">
         <v>2025</v>
       </c>
       <c r="F100" t="s">
-        <v>1246</v>
+        <v>1228</v>
       </c>
       <c r="G100" t="s">
-        <v>1247</v>
+        <v>1229</v>
       </c>
       <c r="H100" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I100" t="s">
         <v>47</v>
@@ -11645,66 +11691,66 @@
         <v>62</v>
       </c>
       <c r="K100" t="s">
-        <v>1248</v>
+        <v>1230</v>
       </c>
       <c r="L100" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="M100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N100" t="s">
-        <v>1249</v>
+        <v>1231</v>
       </c>
       <c r="O100" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P100" t="s">
         <v>35</v>
       </c>
       <c r="Q100" t="s">
-        <v>1250</v>
+        <v>1232</v>
       </c>
       <c r="R100" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S100" t="s">
-        <v>1251</v>
+        <v>1233</v>
       </c>
       <c r="T100" t="s">
-        <v>1252</v>
+        <v>1234</v>
       </c>
       <c r="U100" t="s">
         <v>55</v>
       </c>
       <c r="V100" t="s">
-        <v>1253</v>
+        <v>1235</v>
       </c>
       <c r="W100" s="3" t="s">
-        <v>1254</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>1255</v>
+        <v>1237</v>
       </c>
       <c r="B101" t="s">
-        <v>1256</v>
+        <v>1238</v>
       </c>
       <c r="C101" t="s">
-        <v>1257</v>
+        <v>1239</v>
       </c>
       <c r="D101" t="s">
-        <v>1258</v>
+        <v>1240</v>
       </c>
       <c r="E101">
         <v>2025</v>
       </c>
       <c r="F101" t="s">
-        <v>1259</v>
+        <v>1241</v>
       </c>
       <c r="G101" t="s">
-        <v>1260</v>
+        <v>1242</v>
       </c>
       <c r="H101" t="s">
         <v>28</v>
@@ -11713,211 +11759,211 @@
         <v>47</v>
       </c>
       <c r="J101" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K101" t="s">
-        <v>1261</v>
+        <v>1243</v>
       </c>
       <c r="L101" t="s">
-        <v>1198</v>
+        <v>1180</v>
       </c>
       <c r="M101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N101" t="s">
-        <v>1262</v>
+        <v>1244</v>
       </c>
       <c r="O101" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P101" t="s">
         <v>35</v>
       </c>
       <c r="Q101" t="s">
-        <v>1263</v>
+        <v>1245</v>
       </c>
       <c r="R101" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S101" t="s">
-        <v>1264</v>
+        <v>1246</v>
       </c>
       <c r="T101" t="s">
-        <v>1265</v>
+        <v>1247</v>
       </c>
       <c r="U101" t="s">
         <v>55</v>
       </c>
       <c r="V101" t="s">
-        <v>1266</v>
+        <v>1248</v>
       </c>
       <c r="W101" s="3" t="s">
-        <v>1267</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>1268</v>
+        <v>1250</v>
       </c>
       <c r="B102" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C102" t="s">
-        <v>1269</v>
+        <v>1251</v>
       </c>
       <c r="D102" t="s">
-        <v>1270</v>
+        <v>1252</v>
       </c>
       <c r="E102" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="F102" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G102" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H102" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I102" t="s">
         <v>47</v>
       </c>
       <c r="J102" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K102" t="s">
-        <v>1271</v>
+        <v>1253</v>
       </c>
       <c r="L102" t="s">
-        <v>1272</v>
+        <v>1254</v>
       </c>
       <c r="M102" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N102" t="s">
-        <v>1273</v>
+        <v>1255</v>
       </c>
       <c r="O102" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P102" t="s">
         <v>35</v>
       </c>
       <c r="Q102" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="R102" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S102" t="s">
-        <v>1274</v>
+        <v>1256</v>
       </c>
       <c r="T102" t="s">
-        <v>1275</v>
+        <v>1257</v>
       </c>
       <c r="U102" t="s">
         <v>55</v>
       </c>
       <c r="V102" t="s">
-        <v>1276</v>
+        <v>1258</v>
       </c>
       <c r="W102" s="3" t="s">
-        <v>1277</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>1278</v>
+        <v>1260</v>
       </c>
       <c r="B103" t="s">
-        <v>1279</v>
+        <v>1261</v>
       </c>
       <c r="C103" t="s">
-        <v>1280</v>
+        <v>1262</v>
       </c>
       <c r="D103" t="s">
-        <v>1281</v>
+        <v>1263</v>
       </c>
       <c r="E103" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="F103" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G103" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H103" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I103" t="s">
         <v>47</v>
       </c>
       <c r="J103" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K103" t="s">
-        <v>1282</v>
+        <v>1264</v>
       </c>
       <c r="L103" t="s">
-        <v>1283</v>
+        <v>1265</v>
       </c>
       <c r="M103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N103" t="s">
-        <v>1284</v>
+        <v>1266</v>
       </c>
       <c r="O103" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P103" t="s">
         <v>35</v>
       </c>
       <c r="Q103" t="s">
-        <v>1285</v>
+        <v>1267</v>
       </c>
       <c r="R103" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S103" t="s">
-        <v>1286</v>
+        <v>1268</v>
       </c>
       <c r="T103" t="s">
-        <v>1287</v>
+        <v>1269</v>
       </c>
       <c r="U103" t="s">
         <v>55</v>
       </c>
       <c r="V103" t="s">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="W103" s="3" t="s">
-        <v>1289</v>
+        <v>1271</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" hidden="1">
       <c r="A104" t="s">
-        <v>1290</v>
+        <v>1272</v>
       </c>
       <c r="B104" t="s">
-        <v>1291</v>
+        <v>1273</v>
       </c>
       <c r="C104" t="s">
-        <v>1292</v>
+        <v>1274</v>
       </c>
       <c r="D104" t="s">
-        <v>1293</v>
+        <v>1275</v>
       </c>
       <c r="E104">
         <v>2021</v>
       </c>
       <c r="F104" t="s">
-        <v>1294</v>
+        <v>1276</v>
       </c>
       <c r="G104" t="s">
-        <v>1295</v>
+        <v>1277</v>
       </c>
       <c r="H104" t="s">
         <v>28</v>
@@ -11929,63 +11975,63 @@
         <v>88</v>
       </c>
       <c r="K104" t="s">
-        <v>1296</v>
+        <v>1278</v>
       </c>
       <c r="L104" t="s">
-        <v>1297</v>
+        <v>1279</v>
       </c>
       <c r="M104" t="s">
         <v>49</v>
       </c>
       <c r="N104" t="s">
-        <v>1298</v>
+        <v>1280</v>
       </c>
       <c r="O104" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P104" t="s">
         <v>35</v>
       </c>
       <c r="Q104" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="R104" t="s">
-        <v>1299</v>
+        <v>1281</v>
       </c>
       <c r="S104" t="s">
-        <v>1300</v>
+        <v>1282</v>
       </c>
       <c r="T104" t="s">
         <v>39</v>
       </c>
       <c r="U104" t="s">
-        <v>1301</v>
+        <v>1283</v>
       </c>
       <c r="V104" t="s">
-        <v>1302</v>
+        <v>1284</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:23" hidden="1">
       <c r="A105" t="s">
-        <v>1303</v>
+        <v>1285</v>
       </c>
       <c r="B105" t="s">
-        <v>1304</v>
+        <v>1286</v>
       </c>
       <c r="C105" t="s">
-        <v>1305</v>
+        <v>1287</v>
       </c>
       <c r="D105" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="E105">
         <v>2021</v>
       </c>
       <c r="F105" t="s">
-        <v>1307</v>
+        <v>1289</v>
       </c>
       <c r="G105" t="s">
-        <v>1308</v>
+        <v>1290</v>
       </c>
       <c r="H105" t="s">
         <v>28</v>
@@ -11994,69 +12040,69 @@
         <v>47</v>
       </c>
       <c r="J105" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K105" t="s">
-        <v>1309</v>
+        <v>1291</v>
       </c>
       <c r="L105" t="s">
-        <v>1310</v>
+        <v>1292</v>
       </c>
       <c r="M105" t="s">
         <v>32</v>
       </c>
       <c r="N105" t="s">
-        <v>1311</v>
+        <v>1293</v>
       </c>
       <c r="O105" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P105" t="s">
         <v>35</v>
       </c>
       <c r="Q105" t="s">
-        <v>1312</v>
+        <v>1294</v>
       </c>
       <c r="R105" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S105" t="s">
-        <v>1313</v>
+        <v>1295</v>
       </c>
       <c r="T105" t="s">
-        <v>1314</v>
+        <v>1296</v>
       </c>
       <c r="U105" t="s">
         <v>55</v>
       </c>
       <c r="V105" t="s">
-        <v>1315</v>
+        <v>1297</v>
       </c>
       <c r="W105" s="3" t="s">
-        <v>1316</v>
+        <v>1298</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" hidden="1">
       <c r="A106" t="s">
-        <v>1317</v>
+        <v>1299</v>
       </c>
       <c r="B106" t="s">
-        <v>1318</v>
+        <v>1300</v>
       </c>
       <c r="C106" t="s">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="D106" t="s">
-        <v>1306</v>
+        <v>1288</v>
       </c>
       <c r="E106">
         <v>2018</v>
       </c>
       <c r="F106" t="s">
-        <v>1320</v>
+        <v>1302</v>
       </c>
       <c r="G106" t="s">
-        <v>1321</v>
+        <v>1303</v>
       </c>
       <c r="H106" t="s">
         <v>28</v>
@@ -12068,134 +12114,134 @@
         <v>62</v>
       </c>
       <c r="K106" t="s">
-        <v>1322</v>
+        <v>1304</v>
       </c>
       <c r="L106" t="s">
-        <v>1323</v>
+        <v>1305</v>
       </c>
       <c r="M106" t="s">
         <v>32</v>
       </c>
       <c r="N106" t="s">
-        <v>1324</v>
+        <v>1306</v>
       </c>
       <c r="O106" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P106" t="s">
         <v>35</v>
       </c>
       <c r="Q106" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="R106" t="s">
-        <v>1325</v>
+        <v>1307</v>
       </c>
       <c r="S106" t="s">
-        <v>1326</v>
+        <v>1308</v>
       </c>
       <c r="T106" t="s">
         <v>55</v>
       </c>
       <c r="U106" t="s">
-        <v>1327</v>
+        <v>1309</v>
       </c>
       <c r="V106" t="s">
-        <v>1328</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>1329</v>
+        <v>1311</v>
       </c>
       <c r="B107" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C107" t="s">
-        <v>1331</v>
+        <v>1313</v>
       </c>
       <c r="D107" t="s">
-        <v>1332</v>
+        <v>1314</v>
       </c>
       <c r="E107" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="F107" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G107" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H107" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I107" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="J107" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K107" t="s">
-        <v>1333</v>
+        <v>1315</v>
       </c>
       <c r="L107" t="s">
-        <v>1334</v>
+        <v>1316</v>
       </c>
       <c r="M107" t="s">
         <v>32</v>
       </c>
       <c r="N107" t="s">
-        <v>1335</v>
+        <v>1317</v>
       </c>
       <c r="O107" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P107" t="s">
         <v>35</v>
       </c>
       <c r="Q107" t="s">
-        <v>1336</v>
+        <v>1318</v>
       </c>
       <c r="R107" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="S107" t="s">
-        <v>1337</v>
+        <v>1319</v>
       </c>
       <c r="T107" t="s">
-        <v>1338</v>
+        <v>1320</v>
       </c>
       <c r="U107" t="s">
         <v>55</v>
       </c>
       <c r="V107" t="s">
-        <v>1339</v>
+        <v>1321</v>
       </c>
       <c r="W107" s="3" t="s">
-        <v>1340</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>1341</v>
+        <v>1323</v>
       </c>
       <c r="B108" t="s">
-        <v>1342</v>
+        <v>1324</v>
       </c>
       <c r="C108" t="s">
-        <v>1343</v>
+        <v>1325</v>
       </c>
       <c r="D108" t="s">
-        <v>1344</v>
+        <v>1326</v>
       </c>
       <c r="E108">
         <v>2023</v>
       </c>
       <c r="F108" t="s">
-        <v>1345</v>
+        <v>1327</v>
       </c>
       <c r="G108" t="s">
-        <v>1346</v>
+        <v>1328</v>
       </c>
       <c r="H108" t="s">
         <v>28</v>
@@ -12204,69 +12250,69 @@
         <v>47</v>
       </c>
       <c r="J108" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K108" t="s">
-        <v>1347</v>
+        <v>1329</v>
       </c>
       <c r="L108" t="s">
-        <v>1348</v>
+        <v>1330</v>
       </c>
       <c r="M108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N108" t="s">
-        <v>1349</v>
+        <v>1331</v>
       </c>
       <c r="O108" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P108" t="s">
         <v>35</v>
       </c>
       <c r="Q108" t="s">
-        <v>1350</v>
+        <v>1332</v>
       </c>
       <c r="R108" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S108" t="s">
-        <v>1351</v>
+        <v>1333</v>
       </c>
       <c r="T108" t="s">
-        <v>1352</v>
+        <v>1334</v>
       </c>
       <c r="U108" t="s">
-        <v>1353</v>
+        <v>1335</v>
       </c>
       <c r="V108" t="s">
-        <v>1354</v>
+        <v>1336</v>
       </c>
       <c r="W108" s="3" t="s">
-        <v>1355</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>1356</v>
+        <v>1338</v>
       </c>
       <c r="B109" t="s">
-        <v>1357</v>
+        <v>1339</v>
       </c>
       <c r="C109" t="s">
-        <v>1358</v>
+        <v>1340</v>
       </c>
       <c r="D109" t="s">
-        <v>1359</v>
+        <v>1341</v>
       </c>
       <c r="E109">
         <v>2024</v>
       </c>
       <c r="F109" t="s">
-        <v>1360</v>
+        <v>1342</v>
       </c>
       <c r="G109" t="s">
-        <v>1361</v>
+        <v>1343</v>
       </c>
       <c r="H109" t="s">
         <v>28</v>
@@ -12275,137 +12321,137 @@
         <v>47</v>
       </c>
       <c r="J109" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K109" t="s">
-        <v>1362</v>
+        <v>1344</v>
       </c>
       <c r="L109" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="M109" t="s">
         <v>32</v>
       </c>
       <c r="N109" t="s">
-        <v>1363</v>
+        <v>1345</v>
       </c>
       <c r="O109" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P109" t="s">
         <v>35</v>
       </c>
       <c r="Q109" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="R109" t="s">
-        <v>1364</v>
+        <v>1346</v>
       </c>
       <c r="S109" t="s">
-        <v>1365</v>
+        <v>1347</v>
       </c>
       <c r="T109" t="s">
-        <v>1366</v>
+        <v>1348</v>
       </c>
       <c r="U109" t="s">
-        <v>1367</v>
+        <v>1349</v>
       </c>
       <c r="V109" t="s">
-        <v>1368</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>1369</v>
+        <v>1351</v>
       </c>
       <c r="B110" t="s">
-        <v>1370</v>
+        <v>1352</v>
       </c>
       <c r="C110" t="s">
-        <v>1371</v>
+        <v>1353</v>
       </c>
       <c r="D110" t="s">
-        <v>1372</v>
+        <v>1354</v>
       </c>
       <c r="E110">
         <v>2024</v>
       </c>
       <c r="F110" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="G110" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H110" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="I110" t="s">
         <v>47</v>
       </c>
       <c r="J110" t="s">
-        <v>1434</v>
+        <v>1416</v>
       </c>
       <c r="K110" t="s">
-        <v>1373</v>
+        <v>1355</v>
       </c>
       <c r="L110" t="s">
-        <v>1132</v>
+        <v>1114</v>
       </c>
       <c r="M110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N110" t="s">
-        <v>1374</v>
+        <v>1356</v>
       </c>
       <c r="O110" t="s">
-        <v>1412</v>
+        <v>1394</v>
       </c>
       <c r="P110" t="s">
         <v>35</v>
       </c>
       <c r="Q110" t="s">
-        <v>1375</v>
+        <v>1357</v>
       </c>
       <c r="R110" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S110" t="s">
-        <v>1376</v>
+        <v>1358</v>
       </c>
       <c r="T110" t="s">
-        <v>1377</v>
+        <v>1359</v>
       </c>
       <c r="U110" t="s">
         <v>55</v>
       </c>
       <c r="V110" t="s">
-        <v>1378</v>
+        <v>1360</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>1379</v>
+        <v>1361</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" hidden="1">
       <c r="A111" t="s">
-        <v>1380</v>
+        <v>1362</v>
       </c>
       <c r="B111" t="s">
-        <v>1381</v>
+        <v>1363</v>
       </c>
       <c r="C111" t="s">
-        <v>1382</v>
+        <v>1364</v>
       </c>
       <c r="D111" t="s">
-        <v>1383</v>
+        <v>1365</v>
       </c>
       <c r="E111">
         <v>2023</v>
       </c>
       <c r="F111" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="G111" t="s">
-        <v>1385</v>
+        <v>1367</v>
       </c>
       <c r="H111" t="s">
         <v>28</v>
@@ -12414,66 +12460,66 @@
         <v>47</v>
       </c>
       <c r="J111" t="s">
-        <v>1436</v>
+        <v>1418</v>
       </c>
       <c r="K111" t="s">
-        <v>1386</v>
+        <v>1368</v>
       </c>
       <c r="L111" t="s">
-        <v>1387</v>
+        <v>1369</v>
       </c>
       <c r="M111" t="s">
         <v>32</v>
       </c>
       <c r="N111" t="s">
-        <v>1388</v>
+        <v>1370</v>
       </c>
       <c r="O111" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P111" t="s">
         <v>51</v>
       </c>
       <c r="Q111" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="R111" t="s">
-        <v>1389</v>
+        <v>1371</v>
       </c>
       <c r="S111" t="s">
-        <v>1390</v>
+        <v>1372</v>
       </c>
       <c r="T111" t="s">
         <v>39</v>
       </c>
       <c r="U111" t="s">
-        <v>1391</v>
+        <v>1373</v>
       </c>
       <c r="W111" s="3" t="s">
-        <v>1392</v>
+        <v>1374</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" hidden="1">
       <c r="A112" t="s">
-        <v>1393</v>
+        <v>1375</v>
       </c>
       <c r="B112" t="s">
-        <v>1394</v>
+        <v>1376</v>
       </c>
       <c r="C112" t="s">
-        <v>1395</v>
+        <v>1377</v>
       </c>
       <c r="D112" t="s">
-        <v>1396</v>
+        <v>1378</v>
       </c>
       <c r="E112">
         <v>2023</v>
       </c>
       <c r="F112" t="s">
-        <v>1397</v>
+        <v>1379</v>
       </c>
       <c r="G112" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="H112" t="s">
         <v>28</v>
@@ -12485,49 +12531,66 @@
         <v>62</v>
       </c>
       <c r="K112" t="s">
-        <v>1398</v>
+        <v>1380</v>
       </c>
       <c r="L112" t="s">
-        <v>1399</v>
+        <v>1381</v>
       </c>
       <c r="M112" t="s">
         <v>32</v>
       </c>
       <c r="N112" t="s">
-        <v>1400</v>
+        <v>1382</v>
       </c>
       <c r="O112" t="s">
-        <v>1413</v>
+        <v>1395</v>
       </c>
       <c r="P112" t="s">
         <v>35</v>
       </c>
       <c r="Q112" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="R112" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="S112" t="s">
-        <v>1401</v>
+        <v>1383</v>
       </c>
       <c r="T112" t="s">
-        <v>1402</v>
+        <v>1384</v>
       </c>
       <c r="U112" t="s">
         <v>55</v>
       </c>
       <c r="V112" t="s">
-        <v>1403</v>
+        <v>1385</v>
       </c>
       <c r="W112" s="3" t="s">
-        <v>1404</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W112" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Software/Control"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{98EC9591-B59A-4EB1-84D2-1B2528B18401}"/>
     <hyperlink ref="W12" r:id="rId2" display="=@inproceedings{Zhai2020SmartAutopilotDrone, title={Smart Autopilot Drone System for Surface Surveillance and Anomaly Detection via Customizable Deep Neural Network}, author={Zhai, Xiang and Liu, Kui and Nash, William and Castineira, David}, booktitle={International Petroleum Technology Conference (IPTC)}, year={2020}, doi={10.2523/IPTC-20111-MS}}" xr:uid="{92A0DF47-F495-4BEC-99DC-CA2C070A8202}"/>
+    <hyperlink ref="G16" r:id="rId3" xr:uid="{3F269CB5-9DBD-4E24-BD9C-57EF250D67F2}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{657F3D07-A988-4FD0-A165-1A50FDC7D788}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{548B0C86-121D-4C8F-A286-A9F1C34E7CFE}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{B3D24F2F-6EB7-4641-BDB4-80E590EADBF3}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{1F6D61B5-516A-4C16-88CB-63A442BFBC16}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{F3DA61FA-9EBC-4603-9CF8-774F0CE4CC5B}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{58603406-8566-4FBF-9A13-4B4A20461A5E}"/>
+    <hyperlink ref="G9" r:id="rId10" xr:uid="{5053F58A-0DA7-47E3-A75D-BA6B6AB44D1A}"/>
+    <hyperlink ref="G10" r:id="rId11" xr:uid="{2A342DA8-9325-41A1-B69D-693C4F46E645}"/>
+    <hyperlink ref="G8" r:id="rId12" xr:uid="{5F896015-4FCC-41A5-A9B2-63EF51CFE7D6}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter>
@@ -12555,24 +12618,24 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1405</v>
+        <v>1387</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1406</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="C2">
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>1407</v>
+        <v>1389</v>
       </c>
       <c r="E2" t="s">
         <v>47</v>
@@ -12580,50 +12643,50 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B3" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C3">
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
       <c r="E3" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="B4" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>1409</v>
+        <v>1391</v>
       </c>
       <c r="E4" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="B5" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -12631,70 +12694,70 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1044</v>
+        <v>1026</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="C6" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="D6" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
       <c r="E6" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="B7" t="s">
-        <v>1115</v>
+        <v>1097</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
       <c r="E7" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1206</v>
+        <v>1188</v>
       </c>
       <c r="B8" t="s">
-        <v>1207</v>
+        <v>1189</v>
       </c>
       <c r="C8" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="D8" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
       <c r="E8" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1329</v>
+        <v>1311</v>
       </c>
       <c r="B9" t="s">
-        <v>1330</v>
+        <v>1312</v>
       </c>
       <c r="C9" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
       <c r="D9" t="s">
-        <v>1408</v>
+        <v>1390</v>
       </c>
       <c r="E9" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -12718,7 +12781,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1410</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12731,7 +12794,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B3">
         <v>6</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7810813F-E658-46FE-B777-C1185DA1136F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B856563B-60F6-4C93-97EB-5841D97839DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4944,11 +4944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5037,7 +5036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" ht="13.8" hidden="1" customHeight="1">
+    <row r="2" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="4" customFormat="1" ht="13.8" hidden="1" customHeight="1">
+    <row r="3" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1405</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="4" customFormat="1" ht="16.2" hidden="1" customHeight="1">
+    <row r="7" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" ht="13.8" hidden="1" customHeight="1">
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="13.8" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>1413</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="14.4" hidden="1" customHeight="1">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="14.4" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>1424</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" ht="13.2" hidden="1" customHeight="1">
+    <row r="13" spans="1:23" s="4" customFormat="1" ht="13.2" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>1428</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="15" spans="1:23" s="4" customFormat="1" ht="16.2" hidden="1" customHeight="1">
+    <row r="15" spans="1:23" s="4" customFormat="1" ht="16.2" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>1432</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -6397,7 +6396,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
         <v>253</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>292</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>317</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>356</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>381</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
         <v>411</v>
       </c>
@@ -7284,7 +7283,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
         <v>425</v>
       </c>
@@ -7556,7 +7555,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>477</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
         <v>492</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
         <v>566</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>590</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>648</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="57" spans="1:23" hidden="1">
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
         <v>693</v>
       </c>
@@ -9243,7 +9242,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="65" spans="1:23" hidden="1">
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
         <v>793</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="68" spans="1:23" hidden="1">
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>829</v>
       </c>
@@ -9686,7 +9685,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1">
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
         <v>872</v>
       </c>
@@ -9819,7 +9818,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1">
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>897</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1">
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>923</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1">
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>949</v>
       </c>
@@ -10174,7 +10173,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="79" spans="1:23" hidden="1">
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
         <v>961</v>
       </c>
@@ -10242,7 +10241,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="80" spans="1:23" hidden="1">
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
         <v>974</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="82" spans="1:23" hidden="1">
+    <row r="82" spans="1:23">
       <c r="A82" t="s">
         <v>1001</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="83" spans="1:23" hidden="1">
+    <row r="83" spans="1:23">
       <c r="A83" t="s">
         <v>1015</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="85" spans="1:23" hidden="1">
+    <row r="85" spans="1:23">
       <c r="A85" t="s">
         <v>1036</v>
       </c>
@@ -10665,7 +10664,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="86" spans="1:23" hidden="1">
+    <row r="86" spans="1:23">
       <c r="A86" t="s">
         <v>1046</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="87" spans="1:23" hidden="1">
+    <row r="87" spans="1:23">
       <c r="A87" t="s">
         <v>1059</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="88" spans="1:23" hidden="1">
+    <row r="88" spans="1:23">
       <c r="A88" t="s">
         <v>1072</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="89" spans="1:23" hidden="1">
+    <row r="89" spans="1:23">
       <c r="A89" t="s">
         <v>1083</v>
       </c>
@@ -10949,7 +10948,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="90" spans="1:23" hidden="1">
+    <row r="90" spans="1:23">
       <c r="A90" t="s">
         <v>1096</v>
       </c>
@@ -11091,7 +11090,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="92" spans="1:23" hidden="1">
+    <row r="92" spans="1:23">
       <c r="A92" t="s">
         <v>1121</v>
       </c>
@@ -11304,7 +11303,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="95" spans="1:23" hidden="1">
+    <row r="95" spans="1:23">
       <c r="A95" t="s">
         <v>1160</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="96" spans="1:23" hidden="1">
+    <row r="96" spans="1:23">
       <c r="A96" t="s">
         <v>1173</v>
       </c>
@@ -11446,7 +11445,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1">
+    <row r="97" spans="1:23">
       <c r="A97" t="s">
         <v>1188</v>
       </c>
@@ -11517,7 +11516,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1">
+    <row r="98" spans="1:23">
       <c r="A98" t="s">
         <v>1199</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1">
+    <row r="99" spans="1:23">
       <c r="A99" t="s">
         <v>1211</v>
       </c>
@@ -11659,7 +11658,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1">
+    <row r="100" spans="1:23">
       <c r="A100" t="s">
         <v>1224</v>
       </c>
@@ -11943,7 +11942,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1">
+    <row r="104" spans="1:23">
       <c r="A104" t="s">
         <v>1272</v>
       </c>
@@ -12011,7 +12010,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1">
+    <row r="105" spans="1:23">
       <c r="A105" t="s">
         <v>1285</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1">
+    <row r="106" spans="1:23">
       <c r="A106" t="s">
         <v>1299</v>
       </c>
@@ -12431,7 +12430,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1">
+    <row r="111" spans="1:23">
       <c r="A111" t="s">
         <v>1362</v>
       </c>
@@ -12499,7 +12498,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="112" spans="1:23" hidden="1">
+    <row r="112" spans="1:23">
       <c r="A112" t="s">
         <v>1375</v>
       </c>
@@ -12571,13 +12570,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W112" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Software/Control"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:W112" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{98EC9591-B59A-4EB1-84D2-1B2528B18401}"/>
     <hyperlink ref="W12" r:id="rId2" display="=@inproceedings{Zhai2020SmartAutopilotDrone, title={Smart Autopilot Drone System for Surface Surveillance and Anomaly Detection via Customizable Deep Neural Network}, author={Zhai, Xiang and Liu, Kui and Nash, William and Castineira, David}, booktitle={International Petroleum Technology Conference (IPTC)}, year={2020}, doi={10.2523/IPTC-20111-MS}}" xr:uid="{92A0DF47-F495-4BEC-99DC-CA2C070A8202}"/>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D347A75E-37A6-4D38-A83F-A52A4F0E05A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030C90E-AA63-4742-A093-2DF14297B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4560,31 +4560,27 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -4593,7 +4589,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4900,8 +4895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="D72" workbookViewId="0">
+      <selection activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4919,7506 +4914,7450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2">
         <v>2023</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" t="s">
         <v>1385</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" t="s">
         <v>1375</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>1387</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3">
         <v>2019</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" t="s">
         <v>1375</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>1386</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>1389</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4">
         <v>2024</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" t="s">
         <v>1398</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" t="s">
         <v>1375</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" t="s">
         <v>387</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" t="s">
         <v>67</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" t="s">
         <v>68</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="6" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>1391</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5">
         <v>2022</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" t="s">
         <v>1398</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" t="s">
         <v>1375</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" t="s">
         <v>80</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="6" t="s">
         <v>1388</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>1380</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" t="s">
         <v>1379</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>1381</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" t="s">
         <v>1382</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6">
         <v>2024</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" t="s">
         <v>1383</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>1384</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" t="s">
         <v>1392</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" t="s">
         <v>1398</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" t="s">
         <v>1375</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" t="s">
         <v>52</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" t="s">
         <v>53</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="6" t="s">
         <v>1390</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7">
         <v>2024</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" t="s">
         <v>89</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" t="s">
         <v>1375</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" t="s">
         <v>90</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" t="s">
         <v>91</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" t="s">
         <v>92</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" t="s">
         <v>93</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="6" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>1395</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8">
         <v>2018</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" t="s">
         <v>1376</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" t="s">
         <v>101</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="S8" t="s">
         <v>103</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="V8" s="6" t="s">
         <v>1394</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>1397</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9">
         <v>2022</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>1421</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" t="s">
         <v>1398</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" t="s">
         <v>1375</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" t="s">
         <v>112</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" t="s">
         <v>113</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" t="s">
         <v>38</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" t="s">
         <v>115</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="V9" s="6" t="s">
         <v>1396</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>1402</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10">
         <v>2020</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" t="s">
         <v>119</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>1422</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" t="s">
         <v>1398</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" t="s">
         <v>48</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" t="s">
         <v>1376</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" t="s">
         <v>122</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" t="s">
         <v>124</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" t="s">
         <v>125</v>
       </c>
-      <c r="V10" s="8" t="s">
+      <c r="V10" s="6" t="s">
         <v>1401</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>1406</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" t="s">
         <v>1403</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11">
         <v>2024</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" t="s">
         <v>1404</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" t="s">
         <v>130</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" t="s">
         <v>1375</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" t="s">
         <v>133</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" t="s">
         <v>134</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" t="s">
         <v>135</v>
       </c>
-      <c r="V11" s="8" t="s">
+      <c r="V11" s="6" t="s">
         <v>1405</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="16.8" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>1408</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12">
         <v>2020</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" t="s">
         <v>1398</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" t="s">
         <v>48</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" t="s">
         <v>142</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" t="s">
         <v>1375</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>143</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" t="s">
         <v>144</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" t="s">
         <v>145</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" t="s">
         <v>38</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" t="s">
         <v>146</v>
       </c>
-      <c r="V12" s="12" t="s">
+      <c r="V12" s="10" t="s">
         <v>1407</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>1410</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13">
         <v>2019</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>1420</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" t="s">
         <v>63</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" t="s">
         <v>48</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" t="s">
         <v>1375</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="7" t="s">
+      <c r="Q13" t="s">
         <v>153</v>
       </c>
-      <c r="R13" s="7" t="s">
+      <c r="R13" t="s">
         <v>154</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="S13" t="s">
         <v>155</v>
       </c>
-      <c r="T13" s="7" t="s">
+      <c r="T13" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="U13" t="s">
         <v>156</v>
       </c>
-      <c r="V13" s="8" t="s">
+      <c r="V13" s="6" t="s">
         <v>1409</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" t="s">
         <v>1412</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" t="s">
         <v>159</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14">
         <v>2024</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" t="s">
         <v>160</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" t="s">
         <v>1398</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" t="s">
         <v>163</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" t="s">
         <v>1375</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" t="s">
         <v>164</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" t="s">
         <v>165</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" t="s">
         <v>166</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" t="s">
         <v>38</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" t="s">
         <v>167</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="V14" s="6" t="s">
         <v>1411</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" t="s">
         <v>1414</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15">
         <v>2019</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="7" t="s">
         <v>1419</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" t="s">
         <v>61</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" t="s">
         <v>172</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" t="s">
         <v>173</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" t="s">
         <v>1377</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" t="s">
         <v>1378</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" t="s">
         <v>174</v>
       </c>
-      <c r="R15" s="7" t="s">
+      <c r="R15" t="s">
         <v>175</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" t="s">
         <v>176</v>
       </c>
-      <c r="T15" s="7" t="s">
+      <c r="T15" t="s">
         <v>54</v>
       </c>
-      <c r="U15" s="7" t="s">
+      <c r="U15" t="s">
         <v>177</v>
       </c>
-      <c r="V15" s="8" t="s">
+      <c r="V15" s="6" t="s">
         <v>1413</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>1415</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>179</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16">
         <v>2017</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>1418</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" t="s">
         <v>1398</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" t="s">
         <v>182</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" t="s">
         <v>183</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" t="s">
         <v>184</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" t="s">
         <v>1375</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="7" t="s">
+      <c r="Q16" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="7" t="s">
+      <c r="R16" t="s">
         <v>186</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="S16" t="s">
         <v>187</v>
       </c>
-      <c r="T16" s="7" t="s">
+      <c r="T16" t="s">
         <v>54</v>
       </c>
-      <c r="U16" s="7" t="s">
+      <c r="U16" t="s">
         <v>188</v>
       </c>
-      <c r="V16" s="8" t="s">
+      <c r="V16" s="6" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>1417</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17">
         <v>2025</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" t="s">
         <v>192</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>1423</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" t="s">
         <v>1398</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" t="s">
         <v>193</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" t="s">
         <v>194</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" t="s">
         <v>195</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" t="s">
         <v>1377</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" t="s">
         <v>196</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" t="s">
         <v>197</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" t="s">
         <v>198</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" t="s">
         <v>54</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" t="s">
         <v>199</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="6" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="7" t="s">
+      <c r="A18" t="s">
         <v>200</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>201</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" t="s">
         <v>203</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18">
         <v>2020</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" t="s">
         <v>204</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" t="s">
         <v>205</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" t="s">
         <v>1398</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" t="s">
         <v>206</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" t="s">
         <v>207</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" t="s">
         <v>1375</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" t="s">
         <v>208</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" t="s">
         <v>209</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="S18" t="s">
         <v>210</v>
       </c>
-      <c r="T18" s="7" t="s">
+      <c r="T18" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="7" t="s">
+      <c r="U18" t="s">
         <v>211</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="7" t="s">
+      <c r="A19" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>2025</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" t="s">
         <v>218</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" t="s">
         <v>87</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" t="s">
         <v>219</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" t="s">
         <v>220</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" t="s">
         <v>1375</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="P19" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" t="s">
         <v>221</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" t="s">
         <v>222</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="S19" t="s">
         <v>223</v>
       </c>
-      <c r="T19" s="7" t="s">
+      <c r="T19" t="s">
         <v>54</v>
       </c>
-      <c r="U19" s="7" t="s">
+      <c r="U19" t="s">
         <v>224</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="7" t="s">
+      <c r="A20" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s">
         <v>227</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20">
         <v>2021</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" t="s">
         <v>231</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" t="s">
         <v>1398</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" t="s">
         <v>232</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" t="s">
         <v>48</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" t="s">
         <v>233</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" t="s">
         <v>1375</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" t="s">
         <v>234</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" t="s">
         <v>235</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="S20" t="s">
         <v>236</v>
       </c>
-      <c r="T20" s="7" t="s">
+      <c r="T20" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="7" t="s">
+      <c r="U20" t="s">
         <v>237</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="7" t="s">
+      <c r="A21" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s">
         <v>240</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>241</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" t="s">
         <v>242</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21">
         <v>2022</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" t="s">
         <v>1398</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" t="s">
         <v>245</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" t="s">
         <v>110</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" t="s">
         <v>1375</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="7" t="s">
+      <c r="Q21" t="s">
         <v>247</v>
       </c>
-      <c r="R21" s="7" t="s">
+      <c r="R21" t="s">
         <v>248</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="S21" t="s">
         <v>249</v>
       </c>
-      <c r="T21" s="7" t="s">
+      <c r="T21" t="s">
         <v>38</v>
       </c>
-      <c r="U21" s="7" t="s">
+      <c r="U21" t="s">
         <v>250</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" t="s">
         <v>252</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22">
         <v>2025</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" t="s">
         <v>256</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" t="s">
         <v>257</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" t="s">
         <v>258</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" t="s">
         <v>259</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" t="s">
         <v>1376</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="P22" t="s">
         <v>50</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" t="s">
         <v>260</v>
       </c>
-      <c r="R22" s="7" t="s">
+      <c r="R22" t="s">
         <v>261</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="S22" t="s">
         <v>262</v>
       </c>
-      <c r="T22" s="7" t="s">
+      <c r="T22" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="7" t="s">
+      <c r="U22" t="s">
         <v>263</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="7" t="s">
+      <c r="A23" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>2023</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" t="s">
         <v>269</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" t="s">
         <v>270</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" t="s">
         <v>1398</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" t="s">
         <v>271</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" t="s">
         <v>272</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" t="s">
         <v>1376</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" t="s">
         <v>273</v>
       </c>
-      <c r="R23" s="7" t="s">
+      <c r="R23" t="s">
         <v>274</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" t="s">
         <v>275</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" t="s">
         <v>54</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" t="s">
         <v>276</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="V23" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>278</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>2025</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" t="s">
         <v>282</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" t="s">
         <v>283</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" t="s">
         <v>1398</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" t="s">
         <v>284</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" t="s">
         <v>48</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" t="s">
         <v>285</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" t="s">
         <v>1376</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="P24" t="s">
         <v>50</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" t="s">
         <v>286</v>
       </c>
-      <c r="R24" s="7" t="s">
+      <c r="R24" t="s">
         <v>287</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="S24" t="s">
         <v>288</v>
       </c>
-      <c r="T24" s="7" t="s">
+      <c r="T24" t="s">
         <v>54</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" t="s">
         <v>289</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="2" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="7" t="s">
+      <c r="A25" t="s">
         <v>291</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" t="s">
         <v>294</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>2025</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" t="s">
         <v>295</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" t="s">
         <v>296</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" t="s">
         <v>1399</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" t="s">
         <v>297</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" t="s">
         <v>298</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" t="s">
         <v>1375</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="7" t="s">
+      <c r="Q25" t="s">
         <v>299</v>
       </c>
-      <c r="R25" s="7" t="s">
+      <c r="R25" t="s">
         <v>300</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" t="s">
         <v>301</v>
       </c>
-      <c r="T25" s="7" t="s">
+      <c r="T25" t="s">
         <v>54</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" t="s">
         <v>302</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="7" t="s">
+      <c r="A26" t="s">
         <v>304</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" t="s">
         <v>305</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>2025</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" t="s">
         <v>308</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" t="s">
         <v>309</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" t="s">
         <v>310</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" t="s">
         <v>311</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" t="s">
         <v>1377</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" t="s">
         <v>34</v>
       </c>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7" t="s">
+      <c r="S26" t="s">
         <v>312</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T26" t="s">
         <v>313</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U26" t="s">
         <v>54</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="7" t="s">
+      <c r="A27" t="s">
         <v>315</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" t="s">
         <v>316</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" t="s">
         <v>317</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>2025</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" t="s">
         <v>319</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" t="s">
         <v>320</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" t="s">
         <v>46</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" t="s">
         <v>321</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="L27" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" t="s">
         <v>130</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" t="s">
         <v>322</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" t="s">
         <v>1375</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" t="s">
         <v>34</v>
       </c>
-      <c r="Q27" s="7" t="s">
+      <c r="Q27" t="s">
         <v>323</v>
       </c>
-      <c r="R27" s="7" t="s">
+      <c r="R27" t="s">
         <v>324</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" t="s">
         <v>325</v>
       </c>
-      <c r="T27" s="7" t="s">
+      <c r="T27" t="s">
         <v>54</v>
       </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" t="s">
         <v>326</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="7" t="s">
+      <c r="A28" t="s">
         <v>328</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" t="s">
         <v>330</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>2024</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" t="s">
         <v>332</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" t="s">
         <v>333</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" t="s">
         <v>46</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" t="s">
         <v>1398</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" t="s">
         <v>334</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" t="s">
         <v>110</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" t="s">
         <v>335</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" t="s">
         <v>1376</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" t="s">
         <v>34</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" t="s">
         <v>336</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" t="s">
         <v>337</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" t="s">
         <v>338</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" t="s">
         <v>38</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" t="s">
         <v>339</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="7" t="s">
+      <c r="A29" t="s">
         <v>341</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" t="s">
         <v>342</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" t="s">
         <v>343</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" t="s">
         <v>344</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>2023</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" t="s">
         <v>345</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" t="s">
         <v>346</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" t="s">
         <v>27</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" t="s">
         <v>46</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" t="s">
         <v>1398</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" t="s">
         <v>347</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="7" t="s">
+      <c r="N29" t="s">
         <v>348</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" t="s">
         <v>1375</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" t="s">
         <v>349</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" t="s">
         <v>350</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" t="s">
         <v>351</v>
       </c>
-      <c r="T29" s="7" t="s">
+      <c r="T29" t="s">
         <v>54</v>
       </c>
-      <c r="U29" s="7" t="s">
+      <c r="U29" t="s">
         <v>352</v>
       </c>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="2" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="7" t="s">
+      <c r="A30" t="s">
         <v>354</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" t="s">
         <v>355</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" t="s">
         <v>356</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" t="s">
         <v>357</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30">
         <v>2025</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" t="s">
         <v>358</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" t="s">
         <v>359</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" t="s">
         <v>360</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" t="s">
         <v>110</v>
       </c>
-      <c r="N30" s="7" t="s">
+      <c r="N30" t="s">
         <v>361</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="O30" t="s">
         <v>1375</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="P30" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="Q30" t="s">
         <v>349</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="R30" t="s">
         <v>362</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="S30" t="s">
         <v>363</v>
       </c>
-      <c r="T30" s="7" t="s">
+      <c r="T30" t="s">
         <v>54</v>
       </c>
-      <c r="U30" s="7" t="s">
+      <c r="U30" t="s">
         <v>364</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="2" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="7" t="s">
+      <c r="A31" t="s">
         <v>366</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" t="s">
         <v>367</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" t="s">
         <v>368</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" t="s">
         <v>369</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31">
         <v>2021</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" t="s">
         <v>370</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" t="s">
         <v>371</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" t="s">
         <v>27</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" t="s">
         <v>46</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" t="s">
         <v>1398</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" t="s">
         <v>372</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" t="s">
         <v>194</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" t="s">
         <v>48</v>
       </c>
-      <c r="N31" s="7" t="s">
+      <c r="N31" t="s">
         <v>373</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="O31" t="s">
         <v>1376</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="P31" t="s">
         <v>34</v>
       </c>
-      <c r="Q31" s="7" t="s">
+      <c r="Q31" t="s">
         <v>374</v>
       </c>
-      <c r="R31" s="7" t="s">
+      <c r="R31" t="s">
         <v>375</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" t="s">
         <v>376</v>
       </c>
-      <c r="T31" s="7" t="s">
+      <c r="T31" t="s">
         <v>54</v>
       </c>
-      <c r="U31" s="7" t="s">
+      <c r="U31" t="s">
         <v>377</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="2" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="7" t="s">
+      <c r="A32" t="s">
         <v>379</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" t="s">
         <v>380</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" t="s">
         <v>381</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" t="s">
         <v>382</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32">
         <v>2025</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" t="s">
         <v>383</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" t="s">
         <v>384</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" t="s">
         <v>27</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" t="s">
         <v>46</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" t="s">
         <v>87</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" t="s">
         <v>385</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="7" t="s">
+      <c r="N32" t="s">
         <v>386</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="O32" t="s">
         <v>1375</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="P32" t="s">
         <v>50</v>
       </c>
-      <c r="Q32" s="7" t="s">
+      <c r="Q32" t="s">
         <v>388</v>
       </c>
-      <c r="R32" s="7" t="s">
+      <c r="R32" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="S32" t="s">
         <v>390</v>
       </c>
-      <c r="T32" s="7" t="s">
+      <c r="T32" t="s">
         <v>54</v>
       </c>
-      <c r="U32" s="7" t="s">
+      <c r="U32" t="s">
         <v>391</v>
       </c>
-      <c r="V32" s="14" t="s">
+      <c r="V32" s="2" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="7" t="s">
+      <c r="A33" t="s">
         <v>393</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" t="s">
         <v>394</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" t="s">
         <v>395</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" t="s">
         <v>396</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33">
         <v>2022</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" t="s">
         <v>397</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" t="s">
         <v>398</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" t="s">
         <v>46</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" t="s">
         <v>1398</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" t="s">
         <v>400</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" t="s">
         <v>130</v>
       </c>
-      <c r="N33" s="7" t="s">
+      <c r="N33" t="s">
         <v>401</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="O33" t="s">
         <v>1376</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="P33" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" t="s">
         <v>402</v>
       </c>
-      <c r="R33" s="7" t="s">
+      <c r="R33" t="s">
         <v>403</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" t="s">
         <v>404</v>
       </c>
-      <c r="T33" s="7" t="s">
+      <c r="T33" t="s">
         <v>54</v>
       </c>
-      <c r="U33" s="7" t="s">
+      <c r="U33" t="s">
         <v>405</v>
       </c>
-      <c r="V33" s="14" t="s">
+      <c r="V33" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="7" t="s">
+      <c r="A34" t="s">
         <v>407</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" t="s">
         <v>408</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" t="s">
         <v>409</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" t="s">
         <v>410</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34">
         <v>2024</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" t="s">
         <v>411</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" t="s">
         <v>412</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" t="s">
         <v>413</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" t="s">
         <v>414</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" t="s">
         <v>48</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" t="s">
         <v>415</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="O34" t="s">
         <v>1377</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="P34" t="s">
         <v>50</v>
       </c>
-      <c r="Q34" s="7" t="s">
+      <c r="Q34" t="s">
         <v>416</v>
       </c>
-      <c r="R34" s="7" t="s">
+      <c r="R34" t="s">
         <v>417</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="S34" t="s">
         <v>418</v>
       </c>
-      <c r="T34" s="7" t="s">
+      <c r="T34" t="s">
         <v>54</v>
       </c>
-      <c r="U34" s="7" t="s">
+      <c r="U34" t="s">
         <v>419</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="V34" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="7" t="s">
+      <c r="A35" t="s">
         <v>421</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" t="s">
         <v>424</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35">
         <v>2023</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" t="s">
         <v>425</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" t="s">
         <v>426</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" t="s">
         <v>46</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" t="s">
         <v>427</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" t="s">
         <v>31</v>
       </c>
-      <c r="N35" s="7" t="s">
+      <c r="N35" t="s">
         <v>428</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="O35" t="s">
         <v>1375</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="P35" t="s">
         <v>50</v>
       </c>
-      <c r="Q35" s="7" t="s">
+      <c r="Q35" t="s">
         <v>429</v>
       </c>
-      <c r="R35" s="7" t="s">
+      <c r="R35" t="s">
         <v>430</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" t="s">
         <v>431</v>
       </c>
-      <c r="T35" s="7" t="s">
+      <c r="T35" t="s">
         <v>54</v>
       </c>
-      <c r="U35" s="7" t="s">
+      <c r="U35" t="s">
         <v>432</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="7" t="s">
+      <c r="A36" t="s">
         <v>434</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>435</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" t="s">
         <v>437</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>2023</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" t="s">
         <v>438</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" t="s">
         <v>439</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" t="s">
         <v>46</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" t="s">
         <v>1398</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" t="s">
         <v>440</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="7" t="s">
+      <c r="N36" t="s">
         <v>441</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" t="s">
         <v>1375</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="P36" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="7" t="s">
+      <c r="Q36" t="s">
         <v>442</v>
       </c>
-      <c r="R36" s="7" t="s">
+      <c r="R36" t="s">
         <v>443</v>
       </c>
-      <c r="S36" s="7" t="s">
+      <c r="S36" t="s">
         <v>444</v>
       </c>
-      <c r="T36" s="7" t="s">
+      <c r="T36" t="s">
         <v>54</v>
       </c>
-      <c r="U36" s="7" t="s">
+      <c r="U36" t="s">
         <v>445</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="7" t="s">
+      <c r="A37" t="s">
         <v>447</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" t="s">
         <v>448</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" t="s">
         <v>449</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" t="s">
         <v>450</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37">
         <v>2024</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" t="s">
         <v>451</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" t="s">
         <v>452</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" t="s">
         <v>1398</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" t="s">
         <v>453</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="N37" t="s">
         <v>454</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="O37" t="s">
         <v>1375</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="P37" t="s">
         <v>34</v>
       </c>
-      <c r="Q37" s="7" t="s">
+      <c r="Q37" t="s">
         <v>455</v>
       </c>
-      <c r="R37" s="7" t="s">
+      <c r="R37" t="s">
         <v>456</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="S37" t="s">
         <v>457</v>
       </c>
-      <c r="T37" s="7" t="s">
+      <c r="T37" t="s">
         <v>38</v>
       </c>
-      <c r="U37" s="7" t="s">
+      <c r="U37" t="s">
         <v>458</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="7" t="s">
+      <c r="A38" t="s">
         <v>460</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" t="s">
         <v>461</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" t="s">
         <v>463</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38">
         <v>2025</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" t="s">
         <v>464</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" t="s">
         <v>465</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" t="s">
         <v>27</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" t="s">
         <v>1398</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" t="s">
         <v>466</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" t="s">
         <v>48</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" t="s">
         <v>467</v>
       </c>
-      <c r="O38" s="7" t="s">
+      <c r="O38" t="s">
         <v>1375</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="P38" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" s="7" t="s">
+      <c r="Q38" t="s">
         <v>468</v>
       </c>
-      <c r="R38" s="7" t="s">
+      <c r="R38" t="s">
         <v>469</v>
       </c>
-      <c r="S38" s="7" t="s">
+      <c r="S38" t="s">
         <v>470</v>
       </c>
-      <c r="T38" s="7" t="s">
+      <c r="T38" t="s">
         <v>54</v>
       </c>
-      <c r="U38" s="7" t="s">
+      <c r="U38" t="s">
         <v>471</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="7" t="s">
+      <c r="A39" t="s">
         <v>473</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" t="s">
         <v>474</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" t="s">
         <v>475</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" t="s">
         <v>476</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39">
         <v>2023</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" t="s">
         <v>477</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" t="s">
         <v>478</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" t="s">
         <v>27</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" t="s">
         <v>479</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" t="s">
         <v>480</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="N39" t="s">
         <v>481</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="O39" t="s">
         <v>1376</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="P39" t="s">
         <v>387</v>
       </c>
-      <c r="Q39" s="7" t="s">
+      <c r="Q39" t="s">
         <v>482</v>
       </c>
-      <c r="R39" s="7" t="s">
+      <c r="R39" t="s">
         <v>483</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="S39" t="s">
         <v>484</v>
       </c>
-      <c r="T39" s="7" t="s">
+      <c r="T39" t="s">
         <v>485</v>
       </c>
-      <c r="U39" s="7" t="s">
+      <c r="U39" t="s">
         <v>486</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="2" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="7" t="s">
+      <c r="A40" t="s">
         <v>488</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" t="s">
         <v>489</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" t="s">
         <v>490</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" t="s">
         <v>491</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40">
         <v>2020</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" t="s">
         <v>492</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" t="s">
         <v>493</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" t="s">
         <v>27</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" t="s">
         <v>61</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" t="s">
         <v>494</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" t="s">
         <v>495</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" t="s">
         <v>496</v>
       </c>
-      <c r="O40" s="7" t="s">
+      <c r="O40" t="s">
         <v>1375</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="P40" t="s">
         <v>50</v>
       </c>
-      <c r="Q40" s="7" t="s">
+      <c r="Q40" t="s">
         <v>497</v>
       </c>
-      <c r="R40" s="7" t="s">
+      <c r="R40" t="s">
         <v>54</v>
       </c>
-      <c r="S40" s="7" t="s">
+      <c r="S40" t="s">
         <v>498</v>
       </c>
-      <c r="T40" s="7" t="s">
+      <c r="T40" t="s">
         <v>499</v>
       </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="7"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="7" t="s">
+      <c r="A41" t="s">
         <v>500</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" t="s">
         <v>501</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" t="s">
         <v>502</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" t="s">
         <v>503</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41">
         <v>2025</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" t="s">
         <v>504</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" t="s">
         <v>505</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" t="s">
         <v>27</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" t="s">
         <v>1398</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" t="s">
         <v>506</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" t="s">
         <v>63</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="7" t="s">
+      <c r="N41" t="s">
         <v>507</v>
       </c>
-      <c r="O41" s="7" t="s">
+      <c r="O41" t="s">
         <v>1376</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="P41" t="s">
         <v>387</v>
       </c>
-      <c r="Q41" s="7" t="s">
+      <c r="Q41" t="s">
         <v>508</v>
       </c>
-      <c r="R41" s="7" t="s">
+      <c r="R41" t="s">
         <v>509</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" t="s">
         <v>510</v>
       </c>
-      <c r="T41" s="7" t="s">
+      <c r="T41" t="s">
         <v>38</v>
       </c>
-      <c r="U41" s="7" t="s">
+      <c r="U41" t="s">
         <v>511</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="2" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>513</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" t="s">
         <v>514</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" t="s">
         <v>515</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" t="s">
         <v>516</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42">
         <v>2022</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" t="s">
         <v>517</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" t="s">
         <v>518</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" t="s">
         <v>27</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" t="s">
         <v>46</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" t="s">
         <v>1398</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" t="s">
         <v>519</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" t="s">
         <v>110</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" t="s">
         <v>520</v>
       </c>
-      <c r="O42" s="7" t="s">
+      <c r="O42" t="s">
         <v>1375</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="P42" t="s">
         <v>34</v>
       </c>
-      <c r="Q42" s="7" t="s">
+      <c r="Q42" t="s">
         <v>521</v>
       </c>
-      <c r="R42" s="7" t="s">
+      <c r="R42" t="s">
         <v>522</v>
       </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" t="s">
         <v>523</v>
       </c>
-      <c r="T42" s="7" t="s">
+      <c r="T42" t="s">
         <v>54</v>
       </c>
-      <c r="U42" s="7" t="s">
+      <c r="U42" t="s">
         <v>524</v>
       </c>
-      <c r="V42" s="7"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>525</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" t="s">
         <v>526</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" t="s">
         <v>527</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" t="s">
         <v>528</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43">
         <v>2023</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" t="s">
         <v>529</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" t="s">
         <v>530</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" t="s">
         <v>46</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" t="s">
         <v>1398</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" t="s">
         <v>531</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" t="s">
         <v>110</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" t="s">
         <v>532</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" t="s">
         <v>1375</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" t="s">
         <v>34</v>
       </c>
-      <c r="Q43" s="7" t="s">
+      <c r="Q43" t="s">
         <v>533</v>
       </c>
-      <c r="R43" s="7" t="s">
+      <c r="R43" t="s">
         <v>534</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="S43" t="s">
         <v>535</v>
       </c>
-      <c r="T43" s="7" t="s">
+      <c r="T43" t="s">
         <v>54</v>
       </c>
-      <c r="U43" s="7" t="s">
+      <c r="U43" t="s">
         <v>536</v>
       </c>
-      <c r="V43" s="7"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>537</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" t="s">
         <v>538</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" t="s">
         <v>539</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" t="s">
         <v>540</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44">
         <v>2023</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" t="s">
         <v>541</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" t="s">
         <v>542</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" t="s">
         <v>46</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" t="s">
         <v>1398</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" t="s">
         <v>543</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" t="s">
         <v>63</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="N44" t="s">
         <v>544</v>
       </c>
-      <c r="O44" s="7" t="s">
+      <c r="O44" t="s">
         <v>1375</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="P44" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="7" t="s">
+      <c r="Q44" t="s">
         <v>545</v>
       </c>
-      <c r="R44" s="7" t="s">
+      <c r="R44" t="s">
         <v>546</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="S44" t="s">
         <v>547</v>
       </c>
-      <c r="T44" s="7" t="s">
+      <c r="T44" t="s">
         <v>54</v>
       </c>
-      <c r="U44" s="7" t="s">
+      <c r="U44" t="s">
         <v>548</v>
       </c>
-      <c r="V44" s="7"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>549</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" t="s">
         <v>550</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" t="s">
         <v>551</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" t="s">
         <v>552</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45">
         <v>2025</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" t="s">
         <v>553</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" t="s">
         <v>554</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" t="s">
         <v>27</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" t="s">
         <v>1398</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" t="s">
         <v>555</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" t="s">
         <v>110</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N45" t="s">
         <v>556</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O45" t="s">
         <v>1375</v>
       </c>
-      <c r="P45" s="7" t="s">
+      <c r="P45" t="s">
         <v>50</v>
       </c>
-      <c r="Q45" s="7" t="s">
+      <c r="Q45" t="s">
         <v>557</v>
       </c>
-      <c r="R45" s="7" t="s">
+      <c r="R45" t="s">
         <v>558</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" t="s">
         <v>559</v>
       </c>
-      <c r="T45" s="7" t="s">
+      <c r="T45" t="s">
         <v>54</v>
       </c>
-      <c r="U45" s="7" t="s">
+      <c r="U45" t="s">
         <v>560</v>
       </c>
-      <c r="V45" s="7"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="7" t="s">
+      <c r="A46" t="s">
         <v>561</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" t="s">
         <v>562</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" t="s">
         <v>563</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" t="s">
         <v>564</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46">
         <v>2025</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" t="s">
         <v>565</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" t="s">
         <v>566</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" t="s">
         <v>46</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" t="s">
         <v>61</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" t="s">
         <v>567</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" t="s">
         <v>110</v>
       </c>
-      <c r="N46" s="7" t="s">
+      <c r="N46" t="s">
         <v>568</v>
       </c>
-      <c r="O46" s="7" t="s">
+      <c r="O46" t="s">
         <v>1375</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="P46" t="s">
         <v>34</v>
       </c>
-      <c r="Q46" s="7" t="s">
+      <c r="Q46" t="s">
         <v>569</v>
       </c>
-      <c r="R46" s="7" t="s">
+      <c r="R46" t="s">
         <v>570</v>
       </c>
-      <c r="S46" s="7" t="s">
+      <c r="S46" t="s">
         <v>571</v>
       </c>
-      <c r="T46" s="7" t="s">
+      <c r="T46" t="s">
         <v>54</v>
       </c>
-      <c r="U46" s="7" t="s">
+      <c r="U46" t="s">
         <v>572</v>
       </c>
-      <c r="V46" s="7"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="7" t="s">
+      <c r="A47" t="s">
         <v>573</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" t="s">
         <v>574</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" t="s">
         <v>1424</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" t="s">
         <v>575</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47">
         <v>2024</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" t="s">
         <v>576</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" t="s">
         <v>577</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" t="s">
         <v>578</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" t="s">
         <v>1398</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" t="s">
         <v>579</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" t="s">
         <v>110</v>
       </c>
-      <c r="N47" s="7" t="s">
+      <c r="N47" t="s">
         <v>580</v>
       </c>
-      <c r="O47" s="7" t="s">
+      <c r="O47" t="s">
         <v>1376</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="P47" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="7" t="s">
+      <c r="Q47" t="s">
         <v>581</v>
       </c>
-      <c r="R47" s="7" t="s">
+      <c r="R47" t="s">
         <v>582</v>
       </c>
-      <c r="S47" s="7" t="s">
+      <c r="S47" t="s">
         <v>583</v>
       </c>
-      <c r="T47" s="7" t="s">
+      <c r="T47" t="s">
         <v>54</v>
       </c>
-      <c r="U47" s="7" t="s">
+      <c r="U47" t="s">
         <v>584</v>
       </c>
-      <c r="V47" s="7"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="7" t="s">
+      <c r="A48" t="s">
         <v>585</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" t="s">
         <v>586</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" t="s">
         <v>587</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48">
         <v>2019</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" t="s">
         <v>588</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" t="s">
         <v>46</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" t="s">
         <v>1399</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" t="s">
         <v>589</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" t="s">
         <v>30</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" t="s">
         <v>48</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="N48" t="s">
         <v>590</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="O48" t="s">
         <v>1375</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48" t="s">
         <v>50</v>
       </c>
-      <c r="Q48" s="7" t="s">
+      <c r="Q48" t="s">
         <v>591</v>
       </c>
-      <c r="R48" s="7" t="s">
+      <c r="R48" t="s">
         <v>592</v>
       </c>
-      <c r="S48" s="7" t="s">
+      <c r="S48" t="s">
         <v>593</v>
       </c>
-      <c r="T48" s="7" t="s">
+      <c r="T48" t="s">
         <v>38</v>
       </c>
-      <c r="U48" s="7" t="s">
+      <c r="U48" t="s">
         <v>594</v>
       </c>
-      <c r="V48" s="7"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="7" t="s">
+      <c r="A49" t="s">
         <v>595</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" t="s">
         <v>596</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" t="s">
         <v>597</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" t="s">
         <v>598</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49">
         <v>2020</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" t="s">
         <v>599</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" t="s">
         <v>600</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" t="s">
         <v>27</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" t="s">
         <v>1398</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" t="s">
         <v>601</v>
       </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7" t="s">
+      <c r="O49" t="s">
         <v>1375</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="P49" t="s">
         <v>34</v>
       </c>
-      <c r="Q49" s="7" t="s">
+      <c r="Q49" t="s">
         <v>602</v>
       </c>
-      <c r="R49" s="7" t="s">
+      <c r="R49" t="s">
         <v>603</v>
       </c>
-      <c r="S49" s="7" t="s">
+      <c r="S49" t="s">
         <v>38</v>
       </c>
-      <c r="T49" s="7" t="s">
+      <c r="T49" t="s">
         <v>604</v>
       </c>
-      <c r="U49" s="14"/>
-      <c r="V49" s="7"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="7" t="s">
+      <c r="A50" t="s">
         <v>605</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" t="s">
         <v>606</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" t="s">
         <v>607</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" t="s">
         <v>608</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50">
         <v>2020</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" t="s">
         <v>609</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" t="s">
         <v>610</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" t="s">
         <v>27</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" t="s">
         <v>46</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" t="s">
         <v>1398</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" t="s">
         <v>611</v>
       </c>
-      <c r="L50" s="7" t="s">
+      <c r="L50" t="s">
         <v>63</v>
       </c>
-      <c r="M50" s="7" t="s">
+      <c r="M50" t="s">
         <v>31</v>
       </c>
-      <c r="N50" s="7" t="s">
+      <c r="N50" t="s">
         <v>612</v>
       </c>
-      <c r="O50" s="7" t="s">
+      <c r="O50" t="s">
         <v>1375</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="P50" t="s">
         <v>34</v>
       </c>
-      <c r="Q50" s="7" t="s">
+      <c r="Q50" t="s">
         <v>613</v>
       </c>
-      <c r="R50" s="7" t="s">
+      <c r="R50" t="s">
         <v>614</v>
       </c>
-      <c r="S50" s="7" t="s">
+      <c r="S50" t="s">
         <v>615</v>
       </c>
-      <c r="T50" s="7" t="s">
+      <c r="T50" t="s">
         <v>54</v>
       </c>
-      <c r="U50" s="7" t="s">
+      <c r="U50" t="s">
         <v>616</v>
       </c>
-      <c r="V50" s="7"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="7" t="s">
+      <c r="A51" t="s">
         <v>617</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" t="s">
         <v>618</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" t="s">
         <v>619</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" t="s">
         <v>620</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51">
         <v>2021</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" t="s">
         <v>621</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" t="s">
         <v>622</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" t="s">
         <v>27</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" t="s">
         <v>1398</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" t="s">
         <v>623</v>
       </c>
-      <c r="L51" s="7" t="s">
+      <c r="L51" t="s">
         <v>30</v>
       </c>
-      <c r="M51" s="7" t="s">
+      <c r="M51" t="s">
         <v>110</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="N51" t="s">
         <v>624</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" t="s">
         <v>1376</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="P51" t="s">
         <v>387</v>
       </c>
-      <c r="Q51" s="7" t="s">
+      <c r="Q51" t="s">
         <v>625</v>
       </c>
-      <c r="R51" s="7" t="s">
+      <c r="R51" t="s">
         <v>626</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="S51" t="s">
         <v>627</v>
       </c>
-      <c r="T51" s="7" t="s">
+      <c r="T51" t="s">
         <v>54</v>
       </c>
-      <c r="U51" s="7" t="s">
+      <c r="U51" t="s">
         <v>628</v>
       </c>
-      <c r="V51" s="7"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="7" t="s">
+      <c r="A52" t="s">
         <v>629</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" t="s">
         <v>630</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" t="s">
         <v>631</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" t="s">
         <v>632</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52">
         <v>2019</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" t="s">
         <v>633</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" t="s">
         <v>634</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" t="s">
         <v>46</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" t="s">
         <v>1398</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" t="s">
         <v>635</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" t="s">
         <v>414</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M52" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" t="s">
         <v>636</v>
       </c>
-      <c r="O52" s="7" t="s">
+      <c r="O52" t="s">
         <v>1375</v>
       </c>
-      <c r="P52" s="7" t="s">
+      <c r="P52" t="s">
         <v>34</v>
       </c>
-      <c r="Q52" s="7" t="s">
+      <c r="Q52" t="s">
         <v>637</v>
       </c>
-      <c r="R52" s="7" t="s">
+      <c r="R52" t="s">
         <v>638</v>
       </c>
-      <c r="S52" s="7" t="s">
+      <c r="S52" t="s">
         <v>639</v>
       </c>
-      <c r="T52" s="7" t="s">
+      <c r="T52" t="s">
         <v>54</v>
       </c>
-      <c r="U52" s="7" t="s">
+      <c r="U52" t="s">
         <v>640</v>
       </c>
-      <c r="V52" s="7"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="7" t="s">
+      <c r="A53" t="s">
         <v>641</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" t="s">
         <v>642</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" t="s">
         <v>643</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" t="s">
         <v>644</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53">
         <v>2017</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" t="s">
         <v>645</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" t="s">
         <v>646</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" t="s">
         <v>27</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" t="s">
         <v>46</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" t="s">
         <v>647</v>
       </c>
-      <c r="L53" s="7" t="s">
+      <c r="L53" t="s">
         <v>414</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" t="s">
         <v>31</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" t="s">
         <v>648</v>
       </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" t="s">
         <v>1376</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" t="s">
         <v>34</v>
       </c>
-      <c r="Q53" s="7" t="s">
+      <c r="Q53" t="s">
         <v>649</v>
       </c>
-      <c r="R53" s="7" t="s">
+      <c r="R53" t="s">
         <v>650</v>
       </c>
-      <c r="S53" s="7" t="s">
+      <c r="S53" t="s">
         <v>651</v>
       </c>
-      <c r="T53" s="7" t="s">
+      <c r="T53" t="s">
         <v>54</v>
       </c>
-      <c r="U53" s="7" t="s">
+      <c r="U53" t="s">
         <v>652</v>
       </c>
-      <c r="V53" s="7"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="7" t="s">
+      <c r="A54" t="s">
         <v>653</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" t="s">
         <v>654</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" t="s">
         <v>655</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" t="s">
         <v>656</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54">
         <v>2019</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" t="s">
         <v>657</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" t="s">
         <v>658</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" t="s">
         <v>46</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" t="s">
         <v>1398</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" t="s">
         <v>659</v>
       </c>
-      <c r="L54" s="7" t="s">
+      <c r="L54" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="7" t="s">
+      <c r="M54" t="s">
         <v>48</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="N54" t="s">
         <v>660</v>
       </c>
-      <c r="O54" s="7" t="s">
+      <c r="O54" t="s">
         <v>1375</v>
       </c>
-      <c r="P54" s="7" t="s">
+      <c r="P54" t="s">
         <v>34</v>
       </c>
-      <c r="Q54" s="7" t="s">
+      <c r="Q54" t="s">
         <v>661</v>
       </c>
-      <c r="R54" s="7" t="s">
+      <c r="R54" t="s">
         <v>662</v>
       </c>
-      <c r="S54" s="7" t="s">
+      <c r="S54" t="s">
         <v>54</v>
       </c>
-      <c r="T54" s="7" t="s">
+      <c r="T54" t="s">
         <v>663</v>
       </c>
-      <c r="U54" s="14"/>
-      <c r="V54" s="7"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="7" t="s">
+      <c r="A55" t="s">
         <v>664</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" t="s">
         <v>665</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" t="s">
         <v>666</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" t="s">
         <v>667</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55">
         <v>2025</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" t="s">
         <v>668</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" t="s">
         <v>669</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" t="s">
         <v>27</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" t="s">
         <v>46</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" t="s">
         <v>1398</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" t="s">
         <v>670</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="L55" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="M55" t="s">
         <v>48</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="N55" t="s">
         <v>671</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O55" t="s">
         <v>1375</v>
       </c>
-      <c r="P55" s="7" t="s">
+      <c r="P55" t="s">
         <v>34</v>
       </c>
-      <c r="Q55" s="7" t="s">
+      <c r="Q55" t="s">
         <v>672</v>
       </c>
-      <c r="R55" s="7" t="s">
+      <c r="R55" t="s">
         <v>673</v>
       </c>
-      <c r="S55" s="7" t="s">
+      <c r="S55" t="s">
         <v>674</v>
       </c>
-      <c r="T55" s="7" t="s">
+      <c r="T55" t="s">
         <v>54</v>
       </c>
-      <c r="U55" s="7" t="s">
+      <c r="U55" t="s">
         <v>675</v>
       </c>
-      <c r="V55" s="7"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="7" t="s">
+      <c r="A56" t="s">
         <v>676</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" t="s">
         <v>677</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" t="s">
         <v>678</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" t="s">
         <v>679</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56">
         <v>2020</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" t="s">
         <v>680</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" t="s">
         <v>46</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" t="s">
         <v>46</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" t="s">
         <v>1398</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" t="s">
         <v>414</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" t="s">
         <v>681</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="M56" t="s">
         <v>31</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="N56" t="s">
         <v>33</v>
       </c>
-      <c r="O56" s="7" t="s">
+      <c r="O56" t="s">
         <v>1377</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="P56" t="s">
         <v>34</v>
       </c>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7" t="s">
+      <c r="R56" t="s">
         <v>682</v>
       </c>
-      <c r="S56" s="7" t="s">
+      <c r="S56" t="s">
         <v>54</v>
       </c>
-      <c r="T56" s="7" t="s">
+      <c r="T56" t="s">
         <v>683</v>
       </c>
-      <c r="U56" s="14"/>
-      <c r="V56" s="7"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="7" t="s">
+      <c r="A57" t="s">
         <v>684</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" t="s">
         <v>685</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" t="s">
         <v>686</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" t="s">
         <v>687</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57">
         <v>2018</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" t="s">
         <v>688</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" t="s">
         <v>689</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" t="s">
         <v>27</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" t="s">
         <v>46</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" t="s">
         <v>61</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" t="s">
         <v>690</v>
       </c>
-      <c r="L57" s="7" t="s">
+      <c r="L57" t="s">
         <v>691</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="M57" t="s">
         <v>48</v>
       </c>
-      <c r="N57" s="7" t="s">
+      <c r="N57" t="s">
         <v>692</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="O57" t="s">
         <v>1376</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="P57" t="s">
         <v>34</v>
       </c>
-      <c r="Q57" s="7" t="s">
+      <c r="Q57" t="s">
         <v>693</v>
       </c>
-      <c r="R57" s="7" t="s">
+      <c r="R57" t="s">
         <v>694</v>
       </c>
-      <c r="S57" s="7" t="s">
+      <c r="S57" t="s">
         <v>695</v>
       </c>
-      <c r="T57" s="7" t="s">
+      <c r="T57" t="s">
         <v>54</v>
       </c>
-      <c r="U57" s="7" t="s">
+      <c r="U57" t="s">
         <v>696</v>
       </c>
-      <c r="V57" s="7"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="7" t="s">
+      <c r="A58" t="s">
         <v>697</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" t="s">
         <v>698</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" t="s">
         <v>699</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" t="s">
         <v>700</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58">
         <v>2019</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" t="s">
         <v>701</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" t="s">
         <v>702</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" t="s">
         <v>27</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" t="s">
         <v>46</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" t="s">
         <v>1398</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" t="s">
         <v>703</v>
       </c>
-      <c r="L58" s="7" t="s">
+      <c r="L58" t="s">
         <v>704</v>
       </c>
-      <c r="M58" s="7" t="s">
+      <c r="M58" t="s">
         <v>110</v>
       </c>
-      <c r="N58" s="7" t="s">
+      <c r="N58" t="s">
         <v>705</v>
       </c>
-      <c r="O58" s="7" t="s">
+      <c r="O58" t="s">
         <v>1376</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="P58" t="s">
         <v>50</v>
       </c>
-      <c r="Q58" s="7" t="s">
+      <c r="Q58" t="s">
         <v>706</v>
       </c>
-      <c r="R58" s="7" t="s">
+      <c r="R58" t="s">
         <v>707</v>
       </c>
-      <c r="S58" s="7" t="s">
+      <c r="S58" t="s">
         <v>708</v>
       </c>
-      <c r="T58" s="7" t="s">
+      <c r="T58" t="s">
         <v>54</v>
       </c>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14" t="s">
+      <c r="V58" s="2" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="7" t="s">
+      <c r="A59" t="s">
         <v>710</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
         <v>711</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" t="s">
         <v>712</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" t="s">
         <v>713</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59">
         <v>2019</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" t="s">
         <v>714</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" t="s">
         <v>715</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" t="s">
         <v>27</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" t="s">
         <v>46</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" t="s">
         <v>1398</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="K59" t="s">
         <v>716</v>
       </c>
-      <c r="L59" s="7" t="s">
+      <c r="L59" t="s">
         <v>717</v>
       </c>
-      <c r="M59" s="7" t="s">
+      <c r="M59" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="7" t="s">
+      <c r="N59" t="s">
         <v>718</v>
       </c>
-      <c r="O59" s="7" t="s">
+      <c r="O59" t="s">
         <v>1375</v>
       </c>
-      <c r="P59" s="7" t="s">
+      <c r="P59" t="s">
         <v>34</v>
       </c>
-      <c r="Q59" s="7" t="s">
+      <c r="Q59" t="s">
         <v>719</v>
       </c>
-      <c r="R59" s="7" t="s">
+      <c r="R59" t="s">
         <v>720</v>
       </c>
-      <c r="S59" s="7" t="s">
+      <c r="S59" t="s">
         <v>721</v>
       </c>
-      <c r="T59" s="7" t="s">
+      <c r="T59" t="s">
         <v>54</v>
       </c>
-      <c r="U59" s="7" t="s">
+      <c r="U59" t="s">
         <v>722</v>
       </c>
-      <c r="V59" s="7"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="7" t="s">
+      <c r="A60" t="s">
         <v>723</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" t="s">
         <v>724</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" t="s">
         <v>725</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" t="s">
         <v>726</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60">
         <v>2021</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" t="s">
         <v>727</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" t="s">
         <v>728</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" t="s">
         <v>27</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" t="s">
         <v>46</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" t="s">
         <v>1398</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" t="s">
         <v>729</v>
       </c>
-      <c r="L60" s="7" t="s">
+      <c r="L60" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="7" t="s">
+      <c r="M60" t="s">
         <v>110</v>
       </c>
-      <c r="N60" s="7" t="s">
+      <c r="N60" t="s">
         <v>730</v>
       </c>
-      <c r="O60" s="7" t="s">
+      <c r="O60" t="s">
         <v>1375</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="P60" t="s">
         <v>34</v>
       </c>
-      <c r="Q60" s="7" t="s">
+      <c r="Q60" t="s">
         <v>731</v>
       </c>
-      <c r="R60" s="7" t="s">
+      <c r="R60" t="s">
         <v>732</v>
       </c>
-      <c r="S60" s="7" t="s">
+      <c r="S60" t="s">
         <v>733</v>
       </c>
-      <c r="T60" s="7" t="s">
+      <c r="T60" t="s">
         <v>54</v>
       </c>
-      <c r="U60" s="7" t="s">
+      <c r="U60" t="s">
         <v>734</v>
       </c>
-      <c r="V60" s="7"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="7" t="s">
+      <c r="A61" t="s">
         <v>735</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" t="s">
         <v>736</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" t="s">
         <v>737</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" t="s">
         <v>738</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61">
         <v>2024</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" t="s">
         <v>739</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" t="s">
         <v>740</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" t="s">
         <v>27</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" t="s">
         <v>46</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" t="s">
         <v>1398</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" t="s">
         <v>741</v>
       </c>
-      <c r="L61" s="7" t="s">
+      <c r="L61" t="s">
         <v>30</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="M61" t="s">
         <v>110</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="N61" t="s">
         <v>742</v>
       </c>
-      <c r="O61" s="7" t="s">
+      <c r="O61" t="s">
         <v>1375</v>
       </c>
-      <c r="P61" s="7" t="s">
+      <c r="P61" t="s">
         <v>34</v>
       </c>
-      <c r="Q61" s="7" t="s">
+      <c r="Q61" t="s">
         <v>743</v>
       </c>
-      <c r="R61" s="7" t="s">
+      <c r="R61" t="s">
         <v>744</v>
       </c>
-      <c r="S61" s="7" t="s">
+      <c r="S61" t="s">
         <v>745</v>
       </c>
-      <c r="T61" s="7" t="s">
+      <c r="T61" t="s">
         <v>54</v>
       </c>
-      <c r="U61" s="7" t="s">
+      <c r="U61" t="s">
         <v>746</v>
       </c>
-      <c r="V61" s="7"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="7" t="s">
+      <c r="A62" t="s">
         <v>747</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" t="s">
         <v>748</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" t="s">
         <v>749</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" t="s">
         <v>750</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62">
         <v>2015</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" t="s">
         <v>751</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" t="s">
         <v>752</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" t="s">
         <v>27</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" t="s">
         <v>46</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" t="s">
         <v>1398</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" t="s">
         <v>753</v>
       </c>
-      <c r="L62" s="7" t="s">
+      <c r="L62" t="s">
         <v>63</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="M62" t="s">
         <v>31</v>
       </c>
-      <c r="N62" s="7" t="s">
+      <c r="N62" t="s">
         <v>754</v>
       </c>
-      <c r="O62" s="7" t="s">
+      <c r="O62" t="s">
         <v>1375</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="P62" t="s">
         <v>34</v>
       </c>
-      <c r="Q62" s="7" t="s">
+      <c r="Q62" t="s">
         <v>755</v>
       </c>
-      <c r="R62" s="7" t="s">
+      <c r="R62" t="s">
         <v>756</v>
       </c>
-      <c r="S62" s="7" t="s">
+      <c r="S62" t="s">
         <v>757</v>
       </c>
-      <c r="T62" s="7" t="s">
+      <c r="T62" t="s">
         <v>54</v>
       </c>
-      <c r="U62" s="7" t="s">
+      <c r="U62" t="s">
         <v>758</v>
       </c>
-      <c r="V62" s="7"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="7" t="s">
+      <c r="A63" t="s">
         <v>759</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" t="s">
         <v>760</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" t="s">
         <v>761</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" t="s">
         <v>762</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63">
         <v>2019</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" t="s">
         <v>763</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" t="s">
         <v>764</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" t="s">
         <v>46</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" t="s">
         <v>1398</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K63" t="s">
         <v>765</v>
       </c>
-      <c r="L63" s="7" t="s">
+      <c r="L63" t="s">
         <v>63</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="M63" t="s">
         <v>130</v>
       </c>
-      <c r="N63" s="7" t="s">
+      <c r="N63" t="s">
         <v>766</v>
       </c>
-      <c r="O63" s="7" t="s">
+      <c r="O63" t="s">
         <v>1375</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="P63" t="s">
         <v>34</v>
       </c>
-      <c r="Q63" s="7" t="s">
+      <c r="Q63" t="s">
         <v>767</v>
       </c>
-      <c r="R63" s="7" t="s">
+      <c r="R63" t="s">
         <v>768</v>
       </c>
-      <c r="S63" s="7" t="s">
+      <c r="S63" t="s">
         <v>769</v>
       </c>
-      <c r="T63" s="7" t="s">
+      <c r="T63" t="s">
         <v>54</v>
       </c>
-      <c r="U63" s="7" t="s">
+      <c r="U63" t="s">
         <v>770</v>
       </c>
-      <c r="V63" s="7"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="7" t="s">
+      <c r="A64" t="s">
         <v>771</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" t="s">
         <v>772</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" t="s">
         <v>773</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" t="s">
         <v>774</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64">
         <v>2024</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" t="s">
         <v>775</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" t="s">
         <v>776</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" t="s">
         <v>46</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" t="s">
         <v>1398</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K64" t="s">
         <v>777</v>
       </c>
-      <c r="L64" s="7" t="s">
+      <c r="L64" t="s">
         <v>30</v>
       </c>
-      <c r="M64" s="7" t="s">
+      <c r="M64" t="s">
         <v>110</v>
       </c>
-      <c r="N64" s="7" t="s">
+      <c r="N64" t="s">
         <v>778</v>
       </c>
-      <c r="O64" s="7" t="s">
+      <c r="O64" t="s">
         <v>1375</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="P64" t="s">
         <v>34</v>
       </c>
-      <c r="Q64" s="7" t="s">
+      <c r="Q64" t="s">
         <v>779</v>
       </c>
-      <c r="R64" s="7" t="s">
+      <c r="R64" t="s">
         <v>780</v>
       </c>
-      <c r="S64" s="7" t="s">
+      <c r="S64" t="s">
         <v>781</v>
       </c>
-      <c r="T64" s="7" t="s">
+      <c r="T64" t="s">
         <v>54</v>
       </c>
-      <c r="U64" s="7" t="s">
+      <c r="U64" t="s">
         <v>782</v>
       </c>
-      <c r="V64" s="7"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="7" t="s">
+      <c r="A65" t="s">
         <v>783</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" t="s">
         <v>784</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" t="s">
         <v>785</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" t="s">
         <v>786</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65">
         <v>2017</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" t="s">
         <v>787</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" t="s">
         <v>788</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" t="s">
         <v>27</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" t="s">
         <v>46</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" t="s">
         <v>61</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K65" t="s">
         <v>789</v>
       </c>
-      <c r="L65" s="7" t="s">
+      <c r="L65" t="s">
         <v>790</v>
       </c>
-      <c r="M65" s="7" t="s">
+      <c r="M65" t="s">
         <v>31</v>
       </c>
-      <c r="N65" s="7" t="s">
+      <c r="N65" t="s">
         <v>791</v>
       </c>
-      <c r="O65" s="7" t="s">
+      <c r="O65" t="s">
         <v>1375</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="P65" t="s">
         <v>34</v>
       </c>
-      <c r="Q65" s="7" t="s">
+      <c r="Q65" t="s">
         <v>792</v>
       </c>
-      <c r="R65" s="7" t="s">
+      <c r="R65" t="s">
         <v>793</v>
       </c>
-      <c r="S65" s="7" t="s">
+      <c r="S65" t="s">
         <v>794</v>
       </c>
-      <c r="T65" s="7" t="s">
+      <c r="T65" t="s">
         <v>54</v>
       </c>
-      <c r="U65" s="7" t="s">
+      <c r="U65" t="s">
         <v>795</v>
       </c>
-      <c r="V65" s="7"/>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="7" t="s">
+      <c r="A66" t="s">
         <v>796</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>797</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" t="s">
         <v>798</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" t="s">
         <v>799</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66">
         <v>2022</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" t="s">
         <v>800</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" t="s">
         <v>801</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" t="s">
         <v>27</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" t="s">
         <v>1398</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K66" t="s">
         <v>802</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="L66" t="s">
         <v>691</v>
       </c>
-      <c r="M66" s="7" t="s">
+      <c r="M66" t="s">
         <v>31</v>
       </c>
-      <c r="N66" s="7" t="s">
+      <c r="N66" t="s">
         <v>803</v>
       </c>
-      <c r="O66" s="7" t="s">
+      <c r="O66" t="s">
         <v>1376</v>
       </c>
-      <c r="P66" s="7" t="s">
+      <c r="P66" t="s">
         <v>50</v>
       </c>
-      <c r="Q66" s="7" t="s">
+      <c r="Q66" t="s">
         <v>804</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="R66" t="s">
         <v>54</v>
       </c>
-      <c r="S66" s="7" t="s">
+      <c r="S66" t="s">
         <v>805</v>
       </c>
-      <c r="T66" s="7"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="7"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="7" t="s">
+      <c r="A67" t="s">
         <v>806</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" t="s">
         <v>807</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" t="s">
         <v>808</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" t="s">
         <v>809</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67">
         <v>2023</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" t="s">
         <v>810</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" t="s">
         <v>811</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" t="s">
         <v>27</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" t="s">
         <v>46</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" t="s">
         <v>1398</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K67" t="s">
         <v>812</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" t="s">
         <v>30</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="M67" t="s">
         <v>110</v>
       </c>
-      <c r="N67" s="7" t="s">
+      <c r="N67" t="s">
         <v>813</v>
       </c>
-      <c r="O67" s="7" t="s">
+      <c r="O67" t="s">
         <v>1375</v>
       </c>
-      <c r="P67" s="7" t="s">
+      <c r="P67" t="s">
         <v>34</v>
       </c>
-      <c r="Q67" s="7" t="s">
+      <c r="Q67" t="s">
         <v>814</v>
       </c>
-      <c r="R67" s="7" t="s">
+      <c r="R67" t="s">
         <v>815</v>
       </c>
-      <c r="S67" s="7" t="s">
+      <c r="S67" t="s">
         <v>816</v>
       </c>
-      <c r="T67" s="7" t="s">
+      <c r="T67" t="s">
         <v>54</v>
       </c>
-      <c r="U67" s="7" t="s">
+      <c r="U67" t="s">
         <v>817</v>
       </c>
-      <c r="V67" s="7"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="7" t="s">
+      <c r="A68" t="s">
         <v>818</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" t="s">
         <v>819</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" t="s">
         <v>820</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" t="s">
         <v>821</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68">
         <v>2023</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" t="s">
         <v>822</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" t="s">
         <v>823</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" t="s">
         <v>27</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" t="s">
         <v>46</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K68" t="s">
         <v>30</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" t="s">
         <v>824</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="M68" t="s">
         <v>130</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="N68" t="s">
         <v>825</v>
       </c>
-      <c r="O68" s="7" t="s">
+      <c r="O68" t="s">
         <v>1377</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="P68" t="s">
         <v>34</v>
       </c>
-      <c r="Q68" s="7" t="s">
+      <c r="Q68" t="s">
         <v>826</v>
       </c>
-      <c r="R68" s="7" t="s">
+      <c r="R68" t="s">
         <v>827</v>
       </c>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="14"/>
-      <c r="V68" s="7"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="7" t="s">
+      <c r="A69" t="s">
         <v>828</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" t="s">
         <v>829</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" t="s">
         <v>830</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" t="s">
         <v>632</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69">
         <v>2018</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" t="s">
         <v>831</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" t="s">
         <v>634</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" t="s">
         <v>27</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" t="s">
         <v>46</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" t="s">
         <v>1398</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K69" t="s">
         <v>832</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" t="s">
         <v>414</v>
       </c>
-      <c r="M69" s="7" t="s">
+      <c r="M69" t="s">
         <v>31</v>
       </c>
-      <c r="N69" s="7" t="s">
+      <c r="N69" t="s">
         <v>833</v>
       </c>
-      <c r="O69" s="7" t="s">
+      <c r="O69" t="s">
         <v>1375</v>
       </c>
-      <c r="P69" s="7" t="s">
+      <c r="P69" t="s">
         <v>34</v>
       </c>
-      <c r="Q69" s="7" t="s">
+      <c r="Q69" t="s">
         <v>834</v>
       </c>
-      <c r="R69" s="7" t="s">
+      <c r="R69" t="s">
         <v>54</v>
       </c>
-      <c r="S69" s="7" t="s">
+      <c r="S69" t="s">
         <v>835</v>
       </c>
-      <c r="T69" s="7"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="7"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="7" t="s">
+      <c r="A70" t="s">
         <v>836</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" t="s">
         <v>837</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" t="s">
         <v>838</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" t="s">
         <v>839</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70">
         <v>2023</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" t="s">
         <v>840</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" t="s">
         <v>841</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" t="s">
         <v>46</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" t="s">
         <v>1398</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K70" t="s">
         <v>842</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="7" t="s">
+      <c r="M70" t="s">
         <v>110</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="N70" t="s">
         <v>843</v>
       </c>
-      <c r="O70" s="7" t="s">
+      <c r="O70" t="s">
         <v>1376</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="P70" t="s">
         <v>34</v>
       </c>
-      <c r="Q70" s="7" t="s">
+      <c r="Q70" t="s">
         <v>844</v>
       </c>
-      <c r="R70" s="7" t="s">
+      <c r="R70" t="s">
         <v>845</v>
       </c>
-      <c r="S70" s="7" t="s">
+      <c r="S70" t="s">
         <v>846</v>
       </c>
-      <c r="T70" s="7" t="s">
+      <c r="T70" t="s">
         <v>54</v>
       </c>
-      <c r="U70" s="7" t="s">
+      <c r="U70" t="s">
         <v>847</v>
       </c>
-      <c r="V70" s="7"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="7" t="s">
+      <c r="A71" t="s">
         <v>848</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" t="s">
         <v>849</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" t="s">
         <v>850</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" t="s">
         <v>851</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71">
         <v>2024</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" t="s">
         <v>852</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" t="s">
         <v>853</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" t="s">
         <v>46</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" t="s">
         <v>1398</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K71" t="s">
         <v>854</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" t="s">
         <v>30</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="M71" t="s">
         <v>48</v>
       </c>
-      <c r="N71" s="7" t="s">
+      <c r="N71" t="s">
         <v>855</v>
       </c>
-      <c r="O71" s="7" t="s">
+      <c r="O71" t="s">
         <v>1375</v>
       </c>
-      <c r="P71" s="7" t="s">
+      <c r="P71" t="s">
         <v>34</v>
       </c>
-      <c r="Q71" s="7" t="s">
+      <c r="Q71" t="s">
         <v>856</v>
       </c>
-      <c r="R71" s="7" t="s">
+      <c r="R71" t="s">
         <v>857</v>
       </c>
-      <c r="S71" s="7" t="s">
+      <c r="S71" t="s">
         <v>858</v>
       </c>
-      <c r="T71" s="7" t="s">
+      <c r="T71" t="s">
         <v>54</v>
       </c>
-      <c r="U71" s="7" t="s">
+      <c r="U71" t="s">
         <v>859</v>
       </c>
-      <c r="V71" s="7"/>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="7" t="s">
+      <c r="A72" t="s">
         <v>860</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" t="s">
         <v>861</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" t="s">
         <v>862</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" t="s">
         <v>863</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72">
         <v>2021</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" t="s">
         <v>864</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" t="s">
         <v>864</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" t="s">
         <v>27</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" t="s">
         <v>46</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" t="s">
         <v>1399</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K72" t="s">
         <v>865</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" t="s">
         <v>866</v>
       </c>
-      <c r="M72" s="7" t="s">
+      <c r="M72" t="s">
         <v>110</v>
       </c>
-      <c r="N72" s="7" t="s">
+      <c r="N72" t="s">
         <v>867</v>
       </c>
-      <c r="O72" s="7" t="s">
+      <c r="O72" t="s">
         <v>1377</v>
       </c>
-      <c r="P72" s="7" t="s">
+      <c r="P72" t="s">
         <v>34</v>
       </c>
-      <c r="Q72" s="7" t="s">
+      <c r="Q72" t="s">
         <v>868</v>
       </c>
-      <c r="R72" s="7" t="s">
+      <c r="R72" t="s">
         <v>870</v>
       </c>
-      <c r="S72" s="7" t="s">
+      <c r="S72" t="s">
         <v>871</v>
       </c>
-      <c r="T72" s="7"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="7"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="7" t="s">
+      <c r="A73" t="s">
         <v>872</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" t="s">
         <v>873</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" t="s">
         <v>874</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" t="s">
         <v>875</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73">
         <v>2017</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" t="s">
         <v>864</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" t="s">
         <v>864</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" t="s">
         <v>27</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" t="s">
         <v>46</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" t="s">
         <v>1398</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" t="s">
         <v>876</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" t="s">
         <v>877</v>
       </c>
-      <c r="M73" s="7" t="s">
+      <c r="M73" t="s">
         <v>130</v>
       </c>
-      <c r="N73" s="7" t="s">
+      <c r="N73" t="s">
         <v>878</v>
       </c>
-      <c r="O73" s="7" t="s">
+      <c r="O73" t="s">
         <v>1377</v>
       </c>
-      <c r="P73" s="7" t="s">
+      <c r="P73" t="s">
         <v>34</v>
       </c>
-      <c r="Q73" s="7" t="s">
+      <c r="Q73" t="s">
         <v>879</v>
       </c>
-      <c r="R73" s="7" t="s">
+      <c r="R73" t="s">
         <v>880</v>
       </c>
-      <c r="S73" s="7" t="s">
+      <c r="S73" t="s">
         <v>881</v>
       </c>
-      <c r="T73" s="7" t="s">
+      <c r="T73" t="s">
         <v>54</v>
       </c>
-      <c r="U73" s="7" t="s">
+      <c r="U73" t="s">
         <v>882</v>
       </c>
-      <c r="V73" s="14" t="s">
+      <c r="V73" s="2" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="7" t="s">
+      <c r="A74" t="s">
         <v>884</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" t="s">
         <v>885</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" t="s">
         <v>886</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" t="s">
         <v>887</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" t="s">
         <v>864</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" t="s">
         <v>864</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" t="s">
         <v>864</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" t="s">
         <v>27</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" t="s">
         <v>46</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" t="s">
         <v>87</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" t="s">
         <v>888</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L74" t="s">
         <v>889</v>
       </c>
-      <c r="M74" s="7" t="s">
+      <c r="M74" t="s">
         <v>110</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N74" t="s">
         <v>890</v>
       </c>
-      <c r="O74" s="7" t="s">
+      <c r="O74" t="s">
         <v>1377</v>
       </c>
-      <c r="P74" s="7" t="s">
+      <c r="P74" t="s">
         <v>34</v>
       </c>
-      <c r="Q74" s="7" t="s">
+      <c r="Q74" t="s">
         <v>891</v>
       </c>
-      <c r="R74" s="7" t="s">
+      <c r="R74" t="s">
         <v>892</v>
       </c>
-      <c r="S74" s="7" t="s">
+      <c r="S74" t="s">
         <v>893</v>
       </c>
-      <c r="T74" s="7" t="s">
+      <c r="T74" t="s">
         <v>54</v>
       </c>
-      <c r="U74" s="7" t="s">
+      <c r="U74" t="s">
         <v>894</v>
       </c>
-      <c r="V74" s="14" t="s">
+      <c r="V74" s="2" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="7" t="s">
+      <c r="A75" t="s">
         <v>896</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" t="s">
         <v>897</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" t="s">
         <v>898</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" t="s">
         <v>899</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75">
         <v>2024</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" t="s">
         <v>900</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" t="s">
         <v>901</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" t="s">
         <v>27</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" t="s">
         <v>46</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" t="s">
         <v>1398</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" t="s">
         <v>902</v>
       </c>
-      <c r="L75" s="7" t="s">
+      <c r="L75" t="s">
         <v>903</v>
       </c>
-      <c r="M75" s="7" t="s">
+      <c r="M75" t="s">
         <v>31</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="N75" t="s">
         <v>904</v>
       </c>
-      <c r="O75" s="7" t="s">
+      <c r="O75" t="s">
         <v>1377</v>
       </c>
-      <c r="P75" s="7" t="s">
+      <c r="P75" t="s">
         <v>34</v>
       </c>
-      <c r="Q75" s="7" t="s">
+      <c r="Q75" t="s">
         <v>864</v>
       </c>
-      <c r="R75" s="7" t="s">
+      <c r="R75" t="s">
         <v>906</v>
       </c>
-      <c r="S75" s="7" t="s">
+      <c r="S75" t="s">
         <v>907</v>
       </c>
-      <c r="T75" s="7" t="s">
+      <c r="T75" t="s">
         <v>54</v>
       </c>
-      <c r="U75" s="7" t="s">
+      <c r="U75" t="s">
         <v>908</v>
       </c>
-      <c r="V75" s="14" t="s">
+      <c r="V75" s="2" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="7" t="s">
+      <c r="A76" t="s">
         <v>910</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" t="s">
         <v>266</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" t="s">
         <v>911</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" t="s">
         <v>912</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76">
         <v>2023</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" t="s">
         <v>295</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" t="s">
         <v>913</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" t="s">
         <v>27</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" t="s">
         <v>46</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" t="s">
         <v>61</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K76" t="s">
         <v>914</v>
       </c>
-      <c r="L76" s="7" t="s">
+      <c r="L76" t="s">
         <v>915</v>
       </c>
-      <c r="M76" s="7" t="s">
+      <c r="M76" t="s">
         <v>110</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" t="s">
         <v>916</v>
       </c>
-      <c r="O76" s="7" t="s">
+      <c r="O76" t="s">
         <v>1376</v>
       </c>
-      <c r="P76" s="7" t="s">
+      <c r="P76" t="s">
         <v>34</v>
       </c>
-      <c r="Q76" s="7" t="s">
+      <c r="Q76" t="s">
         <v>917</v>
       </c>
-      <c r="R76" s="7" t="s">
+      <c r="R76" t="s">
         <v>918</v>
       </c>
-      <c r="S76" s="7" t="s">
+      <c r="S76" t="s">
         <v>919</v>
       </c>
-      <c r="T76" s="7" t="s">
+      <c r="T76" t="s">
         <v>54</v>
       </c>
-      <c r="U76" s="7" t="s">
+      <c r="U76" t="s">
         <v>920</v>
       </c>
-      <c r="V76" s="14" t="s">
+      <c r="V76" s="2" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="7" t="s">
+      <c r="A77" t="s">
         <v>922</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" t="s">
         <v>923</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" t="s">
         <v>924</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" t="s">
         <v>925</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77">
         <v>2025</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" t="s">
         <v>926</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" t="s">
         <v>927</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" t="s">
         <v>27</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" t="s">
         <v>46</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" t="s">
         <v>1398</v>
       </c>
-      <c r="K77" s="7" t="s">
+      <c r="K77" t="s">
         <v>928</v>
       </c>
-      <c r="L77" s="7" t="s">
+      <c r="L77" t="s">
         <v>929</v>
       </c>
-      <c r="M77" s="7" t="s">
+      <c r="M77" t="s">
         <v>31</v>
       </c>
-      <c r="N77" s="7" t="s">
+      <c r="N77" t="s">
         <v>930</v>
       </c>
-      <c r="O77" s="7" t="s">
+      <c r="O77" t="s">
         <v>1377</v>
       </c>
-      <c r="P77" s="7" t="s">
+      <c r="P77" t="s">
         <v>34</v>
       </c>
-      <c r="Q77" s="7" t="s">
+      <c r="Q77" t="s">
         <v>931</v>
       </c>
-      <c r="R77" s="7" t="s">
+      <c r="R77" t="s">
         <v>932</v>
       </c>
-      <c r="S77" s="7" t="s">
+      <c r="S77" t="s">
         <v>933</v>
       </c>
-      <c r="T77" s="7" t="s">
+      <c r="T77" t="s">
         <v>54</v>
       </c>
-      <c r="U77" s="7" t="s">
+      <c r="U77" t="s">
         <v>934</v>
       </c>
-      <c r="V77" s="14" t="s">
+      <c r="V77" s="2" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="7" t="s">
+      <c r="A78" t="s">
         <v>936</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" t="s">
         <v>937</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" t="s">
         <v>938</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" t="s">
         <v>939</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78">
         <v>2025</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" t="s">
         <v>295</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" t="s">
         <v>940</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" t="s">
         <v>27</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" t="s">
         <v>46</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" t="s">
         <v>61</v>
       </c>
-      <c r="K78" s="7" t="s">
+      <c r="K78" t="s">
         <v>941</v>
       </c>
-      <c r="L78" s="7" t="s">
+      <c r="L78" t="s">
         <v>914</v>
       </c>
-      <c r="M78" s="7" t="s">
+      <c r="M78" t="s">
         <v>31</v>
       </c>
-      <c r="N78" s="7" t="s">
+      <c r="N78" t="s">
         <v>942</v>
       </c>
-      <c r="O78" s="7" t="s">
+      <c r="O78" t="s">
         <v>1377</v>
       </c>
-      <c r="P78" s="7" t="s">
+      <c r="P78" t="s">
         <v>1378</v>
       </c>
-      <c r="Q78" s="7" t="s">
+      <c r="Q78" t="s">
         <v>943</v>
       </c>
-      <c r="R78" s="7" t="s">
+      <c r="R78" t="s">
         <v>944</v>
       </c>
-      <c r="S78" s="7" t="s">
+      <c r="S78" t="s">
         <v>945</v>
       </c>
-      <c r="T78" s="7" t="s">
+      <c r="T78" t="s">
         <v>38</v>
       </c>
-      <c r="U78" s="7" t="s">
+      <c r="U78" t="s">
         <v>946</v>
       </c>
-      <c r="V78" s="14" t="s">
+      <c r="V78" s="2" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="7" t="s">
+      <c r="A79" t="s">
         <v>948</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" t="s">
         <v>394</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" t="s">
         <v>949</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" t="s">
         <v>950</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79">
         <v>2022</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" t="s">
         <v>951</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" t="s">
         <v>952</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" t="s">
         <v>27</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" t="s">
         <v>46</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" t="s">
         <v>61</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" t="s">
         <v>953</v>
       </c>
-      <c r="L79" s="7" t="s">
+      <c r="L79" t="s">
         <v>954</v>
       </c>
-      <c r="M79" s="7" t="s">
+      <c r="M79" t="s">
         <v>48</v>
       </c>
-      <c r="N79" s="7" t="s">
+      <c r="N79" t="s">
         <v>955</v>
       </c>
-      <c r="O79" s="7" t="s">
+      <c r="O79" t="s">
         <v>1376</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="P79" t="s">
         <v>34</v>
       </c>
-      <c r="Q79" s="7" t="s">
+      <c r="Q79" t="s">
         <v>956</v>
       </c>
-      <c r="R79" s="7" t="s">
+      <c r="R79" t="s">
         <v>957</v>
       </c>
-      <c r="S79" s="7" t="s">
+      <c r="S79" t="s">
         <v>54</v>
       </c>
-      <c r="T79" s="7" t="s">
+      <c r="T79" t="s">
         <v>958</v>
       </c>
-      <c r="U79" s="7" t="s">
+      <c r="U79" t="s">
         <v>959</v>
       </c>
-      <c r="V79" s="7"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="7" t="s">
+      <c r="A80" t="s">
         <v>960</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" t="s">
         <v>961</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" t="s">
         <v>962</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" t="s">
         <v>963</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80">
         <v>2025</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" t="s">
         <v>964</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" t="s">
         <v>965</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" t="s">
         <v>27</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" t="s">
         <v>46</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" t="s">
         <v>61</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="K80" t="s">
         <v>966</v>
       </c>
-      <c r="L80" s="7" t="s">
+      <c r="L80" t="s">
         <v>967</v>
       </c>
-      <c r="M80" s="7" t="s">
+      <c r="M80" t="s">
         <v>110</v>
       </c>
-      <c r="N80" s="7" t="s">
+      <c r="N80" t="s">
         <v>968</v>
       </c>
-      <c r="O80" s="7" t="s">
+      <c r="O80" t="s">
         <v>1376</v>
       </c>
-      <c r="P80" s="7" t="s">
+      <c r="P80" t="s">
         <v>50</v>
       </c>
-      <c r="Q80" s="7" t="s">
+      <c r="Q80" t="s">
         <v>969</v>
       </c>
-      <c r="R80" s="7" t="s">
+      <c r="R80" t="s">
         <v>970</v>
       </c>
-      <c r="S80" s="7" t="s">
+      <c r="S80" t="s">
         <v>971</v>
       </c>
-      <c r="T80" s="7" t="s">
+      <c r="T80" t="s">
         <v>54</v>
       </c>
-      <c r="U80" s="7" t="s">
+      <c r="U80" t="s">
         <v>972</v>
       </c>
-      <c r="V80" s="14" t="s">
+      <c r="V80" s="2" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="7" t="s">
+      <c r="A81" t="s">
         <v>974</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" t="s">
         <v>849</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" t="s">
         <v>975</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" t="s">
         <v>976</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81">
         <v>2024</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" t="s">
         <v>977</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" t="s">
         <v>978</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" t="s">
         <v>27</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" t="s">
         <v>46</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" t="s">
         <v>1398</v>
       </c>
-      <c r="K81" s="7" t="s">
+      <c r="K81" t="s">
         <v>979</v>
       </c>
-      <c r="L81" s="7" t="s">
+      <c r="L81" t="s">
         <v>980</v>
       </c>
-      <c r="M81" s="7" t="s">
+      <c r="M81" t="s">
         <v>48</v>
       </c>
-      <c r="N81" s="7" t="s">
+      <c r="N81" t="s">
         <v>981</v>
       </c>
-      <c r="O81" s="7" t="s">
+      <c r="O81" t="s">
         <v>1377</v>
       </c>
-      <c r="P81" s="7" t="s">
+      <c r="P81" t="s">
         <v>34</v>
       </c>
-      <c r="Q81" s="7" t="s">
+      <c r="Q81" t="s">
         <v>982</v>
       </c>
-      <c r="R81" s="7" t="s">
+      <c r="R81" t="s">
         <v>983</v>
       </c>
-      <c r="S81" s="7" t="s">
+      <c r="S81" t="s">
         <v>984</v>
       </c>
-      <c r="T81" s="7" t="s">
+      <c r="T81" t="s">
         <v>54</v>
       </c>
-      <c r="U81" s="7" t="s">
+      <c r="U81" t="s">
         <v>985</v>
       </c>
-      <c r="V81" s="14" t="s">
+      <c r="V81" s="2" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="7" t="s">
+      <c r="A82" t="s">
         <v>987</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" t="s">
         <v>988</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" t="s">
         <v>989</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" t="s">
         <v>990</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82">
         <v>2023</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" t="s">
         <v>991</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" t="s">
         <v>992</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" t="s">
         <v>27</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" t="s">
         <v>46</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" t="s">
         <v>61</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="K82" t="s">
         <v>993</v>
       </c>
-      <c r="L82" s="7" t="s">
+      <c r="L82" t="s">
         <v>994</v>
       </c>
-      <c r="M82" s="7" t="s">
+      <c r="M82" t="s">
         <v>31</v>
       </c>
-      <c r="N82" s="7" t="s">
+      <c r="N82" t="s">
         <v>995</v>
       </c>
-      <c r="O82" s="7" t="s">
+      <c r="O82" t="s">
         <v>1377</v>
       </c>
-      <c r="P82" s="7" t="s">
+      <c r="P82" t="s">
         <v>34</v>
       </c>
-      <c r="Q82" s="7" t="s">
+      <c r="Q82" t="s">
         <v>996</v>
       </c>
-      <c r="R82" s="7" t="s">
+      <c r="R82" t="s">
         <v>997</v>
       </c>
-      <c r="S82" s="7" t="s">
+      <c r="S82" t="s">
         <v>998</v>
       </c>
-      <c r="T82" s="7" t="s">
+      <c r="T82" t="s">
         <v>54</v>
       </c>
-      <c r="U82" s="7" t="s">
+      <c r="U82" t="s">
         <v>999</v>
       </c>
-      <c r="V82" s="14" t="s">
+      <c r="V82" s="2" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="7" t="s">
+      <c r="A83" t="s">
         <v>1001</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" t="s">
         <v>489</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" t="s">
         <v>1002</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" t="s">
         <v>1003</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83">
         <v>2020</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" t="s">
         <v>1004</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" t="s">
         <v>864</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" t="s">
         <v>46</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" t="s">
         <v>61</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K83" t="s">
         <v>1005</v>
       </c>
-      <c r="L83" s="7" t="s">
+      <c r="L83" t="s">
         <v>1006</v>
       </c>
-      <c r="M83" s="7" t="s">
+      <c r="M83" t="s">
         <v>31</v>
       </c>
-      <c r="N83" s="7" t="s">
+      <c r="N83" t="s">
         <v>1007</v>
       </c>
-      <c r="O83" s="7" t="s">
+      <c r="O83" t="s">
         <v>1375</v>
       </c>
-      <c r="P83" s="7" t="s">
+      <c r="P83" t="s">
         <v>34</v>
       </c>
-      <c r="Q83" s="7" t="s">
+      <c r="Q83" t="s">
         <v>1008</v>
       </c>
-      <c r="R83" s="7" t="s">
+      <c r="R83" t="s">
         <v>1009</v>
       </c>
-      <c r="S83" s="7" t="s">
+      <c r="S83" t="s">
         <v>54</v>
       </c>
-      <c r="T83" s="7" t="s">
+      <c r="T83" t="s">
         <v>1010</v>
       </c>
-      <c r="U83" s="7" t="s">
+      <c r="U83" t="s">
         <v>1011</v>
       </c>
-      <c r="V83" s="7"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="7" t="s">
+      <c r="A84" t="s">
         <v>1012</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" t="s">
         <v>1013</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" t="s">
         <v>864</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" t="s">
         <v>864</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" t="s">
         <v>864</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" t="s">
         <v>864</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" t="s">
         <v>578</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" t="s">
         <v>1398</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K84" t="s">
         <v>1014</v>
       </c>
-      <c r="L84" s="7" t="s">
+      <c r="L84" t="s">
         <v>1015</v>
       </c>
-      <c r="M84" s="7" t="s">
+      <c r="M84" t="s">
         <v>130</v>
       </c>
-      <c r="N84" s="7" t="s">
+      <c r="N84" t="s">
         <v>1016</v>
       </c>
-      <c r="O84" s="7" t="s">
+      <c r="O84" t="s">
         <v>1377</v>
       </c>
-      <c r="P84" s="7" t="s">
+      <c r="P84" t="s">
         <v>34</v>
       </c>
-      <c r="Q84" s="7" t="s">
+      <c r="Q84" t="s">
         <v>1017</v>
       </c>
-      <c r="R84" s="7" t="s">
+      <c r="R84" t="s">
         <v>1018</v>
       </c>
-      <c r="S84" s="7" t="s">
+      <c r="S84" t="s">
         <v>1019</v>
       </c>
-      <c r="T84" s="7" t="s">
+      <c r="T84" t="s">
         <v>54</v>
       </c>
-      <c r="U84" s="7" t="s">
+      <c r="U84" t="s">
         <v>1020</v>
       </c>
-      <c r="V84" s="14" t="s">
+      <c r="V84" s="2" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="7" t="s">
+      <c r="A85" t="s">
         <v>1022</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" t="s">
         <v>380</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" t="s">
         <v>1023</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" t="s">
         <v>382</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85">
         <v>2025</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" t="s">
         <v>1024</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" t="s">
         <v>864</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" t="s">
         <v>27</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" t="s">
         <v>46</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" t="s">
         <v>61</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="K85" t="s">
         <v>1025</v>
       </c>
-      <c r="L85" s="7" t="s">
+      <c r="L85" t="s">
         <v>1026</v>
       </c>
-      <c r="M85" s="7" t="s">
+      <c r="M85" t="s">
         <v>130</v>
       </c>
-      <c r="N85" s="7" t="s">
+      <c r="N85" t="s">
         <v>1027</v>
       </c>
-      <c r="O85" s="7" t="s">
+      <c r="O85" t="s">
         <v>1377</v>
       </c>
-      <c r="P85" s="7" t="s">
+      <c r="P85" t="s">
         <v>387</v>
       </c>
-      <c r="Q85" s="7" t="s">
+      <c r="Q85" t="s">
         <v>864</v>
       </c>
-      <c r="R85" s="7" t="s">
+      <c r="R85" t="s">
         <v>1028</v>
       </c>
-      <c r="S85" s="7" t="s">
+      <c r="S85" t="s">
         <v>1029</v>
       </c>
-      <c r="T85" s="7" t="s">
+      <c r="T85" t="s">
         <v>54</v>
       </c>
-      <c r="U85" s="7" t="s">
+      <c r="U85" t="s">
         <v>1030</v>
       </c>
-      <c r="V85" s="14" t="s">
+      <c r="V85" s="2" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="7" t="s">
+      <c r="A86" t="s">
         <v>1032</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" t="s">
         <v>1033</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" t="s">
         <v>1034</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" t="s">
         <v>1035</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86">
         <v>2021</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" t="s">
         <v>1036</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" t="s">
         <v>1037</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" t="s">
         <v>27</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" t="s">
         <v>46</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" t="s">
         <v>61</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K86" t="s">
         <v>1038</v>
       </c>
-      <c r="L86" s="7" t="s">
+      <c r="L86" t="s">
         <v>1039</v>
       </c>
-      <c r="M86" s="7" t="s">
+      <c r="M86" t="s">
         <v>48</v>
       </c>
-      <c r="N86" s="7" t="s">
+      <c r="N86" t="s">
         <v>1040</v>
       </c>
-      <c r="O86" s="7" t="s">
+      <c r="O86" t="s">
         <v>1376</v>
       </c>
-      <c r="P86" s="7" t="s">
+      <c r="P86" t="s">
         <v>34</v>
       </c>
-      <c r="Q86" s="7" t="s">
+      <c r="Q86" t="s">
         <v>864</v>
       </c>
-      <c r="R86" s="7" t="s">
+      <c r="R86" t="s">
         <v>1041</v>
       </c>
-      <c r="S86" s="7" t="s">
+      <c r="S86" t="s">
         <v>1042</v>
       </c>
-      <c r="T86" s="7" t="s">
+      <c r="T86" t="s">
         <v>54</v>
       </c>
-      <c r="U86" s="7" t="s">
+      <c r="U86" t="s">
         <v>1043</v>
       </c>
-      <c r="V86" s="14" t="s">
+      <c r="V86" s="2" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="7" t="s">
+      <c r="A87" t="s">
         <v>1045</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" t="s">
         <v>461</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" t="s">
         <v>1046</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" t="s">
         <v>1047</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87">
         <v>2025</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" t="s">
         <v>1048</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" t="s">
         <v>1049</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" t="s">
         <v>27</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" t="s">
         <v>46</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" t="s">
         <v>87</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K87" t="s">
         <v>1050</v>
       </c>
-      <c r="L87" s="7" t="s">
+      <c r="L87" t="s">
         <v>1051</v>
       </c>
-      <c r="M87" s="7" t="s">
+      <c r="M87" t="s">
         <v>130</v>
       </c>
-      <c r="N87" s="7" t="s">
+      <c r="N87" t="s">
         <v>1052</v>
       </c>
-      <c r="O87" s="7" t="s">
+      <c r="O87" t="s">
         <v>1377</v>
       </c>
-      <c r="P87" s="7" t="s">
+      <c r="P87" t="s">
         <v>34</v>
       </c>
-      <c r="Q87" s="7" t="s">
+      <c r="Q87" t="s">
         <v>1053</v>
       </c>
-      <c r="R87" s="7" t="s">
+      <c r="R87" t="s">
         <v>1054</v>
       </c>
-      <c r="S87" s="7" t="s">
+      <c r="S87" t="s">
         <v>1055</v>
       </c>
-      <c r="T87" s="7" t="s">
+      <c r="T87" t="s">
         <v>54</v>
       </c>
-      <c r="U87" s="7" t="s">
+      <c r="U87" t="s">
         <v>1056</v>
       </c>
-      <c r="V87" s="14" t="s">
+      <c r="V87" s="2" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="7" t="s">
+      <c r="A88" t="s">
         <v>1058</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" t="s">
         <v>538</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" t="s">
         <v>1059</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" t="s">
         <v>540</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88">
         <v>2024</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" t="s">
         <v>1060</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" t="s">
         <v>864</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" t="s">
         <v>27</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" t="s">
         <v>46</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" t="s">
         <v>1400</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="K88" t="s">
         <v>1061</v>
       </c>
-      <c r="L88" s="7" t="s">
+      <c r="L88" t="s">
         <v>1062</v>
       </c>
-      <c r="M88" s="7" t="s">
+      <c r="M88" t="s">
         <v>31</v>
       </c>
-      <c r="N88" s="7" t="s">
+      <c r="N88" t="s">
         <v>1063</v>
       </c>
-      <c r="O88" s="7" t="s">
+      <c r="O88" t="s">
         <v>1377</v>
       </c>
-      <c r="P88" s="7" t="s">
+      <c r="P88" t="s">
         <v>34</v>
       </c>
-      <c r="Q88" s="7" t="s">
+      <c r="Q88" t="s">
         <v>1064</v>
       </c>
-      <c r="R88" s="7" t="s">
+      <c r="R88" t="s">
         <v>1065</v>
       </c>
-      <c r="S88" s="7" t="s">
+      <c r="S88" t="s">
         <v>1066</v>
       </c>
-      <c r="T88" s="7" t="s">
+      <c r="T88" t="s">
         <v>54</v>
       </c>
-      <c r="U88" s="7" t="s">
+      <c r="U88" t="s">
         <v>1067</v>
       </c>
-      <c r="V88" s="14" t="s">
+      <c r="V88" s="2" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="7" t="s">
+      <c r="A89" t="s">
         <v>1069</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" t="s">
         <v>1070</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" t="s">
         <v>1071</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" t="s">
         <v>1072</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89">
         <v>2025</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" t="s">
         <v>1073</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" t="s">
         <v>1074</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" t="s">
         <v>27</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" t="s">
         <v>46</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" t="s">
         <v>61</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="K89" t="s">
         <v>1075</v>
       </c>
-      <c r="L89" s="7" t="s">
+      <c r="L89" t="s">
         <v>1076</v>
       </c>
-      <c r="M89" s="7" t="s">
+      <c r="M89" t="s">
         <v>110</v>
       </c>
-      <c r="N89" s="7" t="s">
+      <c r="N89" t="s">
         <v>1077</v>
       </c>
-      <c r="O89" s="7" t="s">
+      <c r="O89" t="s">
         <v>1377</v>
       </c>
-      <c r="P89" s="7" t="s">
+      <c r="P89" t="s">
         <v>34</v>
       </c>
-      <c r="Q89" s="7" t="s">
+      <c r="Q89" t="s">
         <v>943</v>
       </c>
-      <c r="R89" s="7" t="s">
+      <c r="R89" t="s">
         <v>1078</v>
       </c>
-      <c r="S89" s="7" t="s">
+      <c r="S89" t="s">
         <v>1079</v>
       </c>
-      <c r="T89" s="7" t="s">
+      <c r="T89" t="s">
         <v>54</v>
       </c>
-      <c r="U89" s="7" t="s">
+      <c r="U89" t="s">
         <v>1080</v>
       </c>
-      <c r="V89" s="14" t="s">
+      <c r="V89" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="7" t="s">
+      <c r="A90" t="s">
         <v>1082</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" t="s">
         <v>1083</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" t="s">
         <v>1084</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" t="s">
         <v>1085</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90">
         <v>2023</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" t="s">
         <v>864</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" t="s">
         <v>864</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" t="s">
         <v>27</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" t="s">
         <v>578</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" t="s">
         <v>1400</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="K90" t="s">
         <v>1086</v>
       </c>
-      <c r="L90" s="7" t="s">
+      <c r="L90" t="s">
         <v>1087</v>
       </c>
-      <c r="M90" s="7" t="s">
+      <c r="M90" t="s">
         <v>31</v>
       </c>
-      <c r="N90" s="7" t="s">
+      <c r="N90" t="s">
         <v>1088</v>
       </c>
-      <c r="O90" s="7" t="s">
+      <c r="O90" t="s">
         <v>1377</v>
       </c>
-      <c r="P90" s="7" t="s">
+      <c r="P90" t="s">
         <v>34</v>
       </c>
-      <c r="Q90" s="7" t="s">
+      <c r="Q90" t="s">
         <v>1089</v>
       </c>
-      <c r="R90" s="7" t="s">
+      <c r="R90" t="s">
         <v>1090</v>
       </c>
-      <c r="S90" s="7" t="s">
+      <c r="S90" t="s">
         <v>1091</v>
       </c>
-      <c r="T90" s="7" t="s">
+      <c r="T90" t="s">
         <v>54</v>
       </c>
-      <c r="U90" s="7" t="s">
+      <c r="U90" t="s">
         <v>1092</v>
       </c>
-      <c r="V90" s="14" t="s">
+      <c r="V90" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="7" t="s">
+      <c r="A91" t="s">
         <v>1094</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" t="s">
         <v>1095</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" t="s">
         <v>1096</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" t="s">
         <v>1097</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91">
         <v>2024</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" t="s">
         <v>1098</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" t="s">
         <v>1099</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" t="s">
         <v>46</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" t="s">
         <v>1398</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="K91" t="s">
         <v>1005</v>
       </c>
-      <c r="L91" s="7" t="s">
+      <c r="L91" t="s">
         <v>1100</v>
       </c>
-      <c r="M91" s="7" t="s">
+      <c r="M91" t="s">
         <v>110</v>
       </c>
-      <c r="N91" s="7" t="s">
+      <c r="N91" t="s">
         <v>1101</v>
       </c>
-      <c r="O91" s="7" t="s">
+      <c r="O91" t="s">
         <v>1377</v>
       </c>
-      <c r="P91" s="7" t="s">
+      <c r="P91" t="s">
         <v>34</v>
       </c>
-      <c r="Q91" s="7" t="s">
+      <c r="Q91" t="s">
         <v>1102</v>
       </c>
-      <c r="R91" s="7" t="s">
+      <c r="R91" t="s">
         <v>1103</v>
       </c>
-      <c r="S91" s="7" t="s">
+      <c r="S91" t="s">
         <v>1104</v>
       </c>
-      <c r="T91" s="7" t="s">
+      <c r="T91" t="s">
         <v>54</v>
       </c>
-      <c r="U91" s="7" t="s">
+      <c r="U91" t="s">
         <v>1105</v>
       </c>
-      <c r="V91" s="14" t="s">
+      <c r="V91" s="2" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="7" t="s">
+      <c r="A92" t="s">
         <v>1107</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" t="s">
         <v>1108</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" t="s">
         <v>1109</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" t="s">
         <v>410</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92">
         <v>2024</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" t="s">
         <v>1110</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" t="s">
         <v>1111</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" t="s">
         <v>46</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" t="s">
         <v>61</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="K92" t="s">
         <v>1112</v>
       </c>
-      <c r="L92" s="7" t="s">
+      <c r="L92" t="s">
         <v>1113</v>
       </c>
-      <c r="M92" s="7" t="s">
+      <c r="M92" t="s">
         <v>48</v>
       </c>
-      <c r="N92" s="7" t="s">
+      <c r="N92" t="s">
         <v>1114</v>
       </c>
-      <c r="O92" s="7" t="s">
+      <c r="O92" t="s">
         <v>1377</v>
       </c>
-      <c r="P92" s="7" t="s">
+      <c r="P92" t="s">
         <v>34</v>
       </c>
-      <c r="Q92" s="7" t="s">
+      <c r="Q92" t="s">
         <v>864</v>
       </c>
-      <c r="R92" s="7" t="s">
+      <c r="R92" t="s">
         <v>1115</v>
       </c>
-      <c r="S92" s="7" t="s">
+      <c r="S92" t="s">
         <v>1116</v>
       </c>
-      <c r="T92" s="7" t="s">
+      <c r="T92" t="s">
         <v>54</v>
       </c>
-      <c r="U92" s="7" t="s">
+      <c r="U92" t="s">
         <v>1117</v>
       </c>
-      <c r="V92" s="14" t="s">
+      <c r="V92" s="2" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="7" t="s">
+      <c r="A93" t="s">
         <v>1119</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" t="s">
         <v>1120</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" t="s">
         <v>1121</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" t="s">
         <v>1122</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93">
         <v>2024</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" t="s">
         <v>1123</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" t="s">
         <v>1124</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" t="s">
         <v>27</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" t="s">
         <v>46</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" t="s">
         <v>1398</v>
       </c>
-      <c r="K93" s="7" t="s">
+      <c r="K93" t="s">
         <v>1125</v>
       </c>
-      <c r="L93" s="7" t="s">
+      <c r="L93" t="s">
         <v>1126</v>
       </c>
-      <c r="M93" s="7" t="s">
+      <c r="M93" t="s">
         <v>31</v>
       </c>
-      <c r="N93" s="7" t="s">
+      <c r="N93" t="s">
         <v>1127</v>
       </c>
-      <c r="O93" s="7" t="s">
+      <c r="O93" t="s">
         <v>1377</v>
       </c>
-      <c r="P93" s="7" t="s">
+      <c r="P93" t="s">
         <v>34</v>
       </c>
-      <c r="Q93" s="7" t="s">
+      <c r="Q93" t="s">
         <v>1128</v>
       </c>
-      <c r="R93" s="7" t="s">
+      <c r="R93" t="s">
         <v>1129</v>
       </c>
-      <c r="S93" s="7" t="s">
+      <c r="S93" t="s">
         <v>1130</v>
       </c>
-      <c r="T93" s="7" t="s">
+      <c r="T93" t="s">
         <v>54</v>
       </c>
-      <c r="U93" s="7" t="s">
+      <c r="U93" t="s">
         <v>1131</v>
       </c>
-      <c r="V93" s="14" t="s">
+      <c r="V93" s="2" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="7" t="s">
+      <c r="A94" t="s">
         <v>1133</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" t="s">
         <v>1134</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" t="s">
         <v>1135</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" t="s">
         <v>1136</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94">
         <v>2025</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" t="s">
         <v>1137</v>
       </c>
-      <c r="G94" s="7" t="s">
+      <c r="G94" t="s">
         <v>1138</v>
       </c>
-      <c r="H94" s="7" t="s">
+      <c r="H94" t="s">
         <v>27</v>
       </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" t="s">
         <v>46</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" t="s">
         <v>1398</v>
       </c>
-      <c r="K94" s="7" t="s">
+      <c r="K94" t="s">
         <v>1139</v>
       </c>
-      <c r="L94" s="7" t="s">
+      <c r="L94" t="s">
         <v>1140</v>
       </c>
-      <c r="M94" s="7" t="s">
+      <c r="M94" t="s">
         <v>31</v>
       </c>
-      <c r="N94" s="7" t="s">
+      <c r="N94" t="s">
         <v>1141</v>
       </c>
-      <c r="O94" s="7" t="s">
+      <c r="O94" t="s">
         <v>1377</v>
       </c>
-      <c r="P94" s="7" t="s">
+      <c r="P94" t="s">
         <v>34</v>
       </c>
-      <c r="Q94" s="7" t="s">
+      <c r="Q94" t="s">
         <v>905</v>
       </c>
-      <c r="R94" s="7" t="s">
+      <c r="R94" t="s">
         <v>1142</v>
       </c>
-      <c r="S94" s="7" t="s">
+      <c r="S94" t="s">
         <v>1143</v>
       </c>
-      <c r="T94" s="7" t="s">
+      <c r="T94" t="s">
         <v>54</v>
       </c>
-      <c r="U94" s="7" t="s">
+      <c r="U94" t="s">
         <v>1144</v>
       </c>
-      <c r="V94" s="14" t="s">
+      <c r="V94" s="2" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="7" t="s">
+      <c r="A95" t="s">
         <v>1146</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" t="s">
         <v>253</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" t="s">
         <v>1147</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" t="s">
         <v>1148</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95">
         <v>2025</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" t="s">
         <v>1149</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" t="s">
         <v>1150</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" t="s">
         <v>27</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" t="s">
         <v>46</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" t="s">
         <v>87</v>
       </c>
-      <c r="K95" s="7" t="s">
+      <c r="K95" t="s">
         <v>1151</v>
       </c>
-      <c r="L95" s="7" t="s">
+      <c r="L95" t="s">
         <v>1152</v>
       </c>
-      <c r="M95" s="7" t="s">
+      <c r="M95" t="s">
         <v>31</v>
       </c>
-      <c r="N95" s="7" t="s">
+      <c r="N95" t="s">
         <v>1153</v>
       </c>
-      <c r="O95" s="7" t="s">
+      <c r="O95" t="s">
         <v>1377</v>
       </c>
-      <c r="P95" s="7" t="s">
+      <c r="P95" t="s">
         <v>50</v>
       </c>
-      <c r="Q95" s="7" t="s">
+      <c r="Q95" t="s">
         <v>1154</v>
       </c>
-      <c r="R95" s="7" t="s">
+      <c r="R95" t="s">
         <v>1155</v>
       </c>
-      <c r="S95" s="7" t="s">
+      <c r="S95" t="s">
         <v>1156</v>
       </c>
-      <c r="T95" s="7" t="s">
+      <c r="T95" t="s">
         <v>54</v>
       </c>
-      <c r="U95" s="7" t="s">
+      <c r="U95" t="s">
         <v>1157</v>
       </c>
-      <c r="V95" s="14" t="s">
+      <c r="V95" s="2" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="7" t="s">
+      <c r="A96" t="s">
         <v>1159</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" t="s">
         <v>1160</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" t="s">
         <v>1161</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" t="s">
         <v>1162</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96">
         <v>2022</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" t="s">
         <v>1163</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" t="s">
         <v>1164</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" t="s">
         <v>27</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" t="s">
         <v>46</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" t="s">
         <v>87</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="K96" t="s">
         <v>1165</v>
       </c>
-      <c r="L96" s="7" t="s">
+      <c r="L96" t="s">
         <v>1166</v>
       </c>
-      <c r="M96" s="7" t="s">
+      <c r="M96" t="s">
         <v>110</v>
       </c>
-      <c r="N96" s="7" t="s">
+      <c r="N96" t="s">
         <v>1167</v>
       </c>
-      <c r="O96" s="7" t="s">
+      <c r="O96" t="s">
         <v>1377</v>
       </c>
-      <c r="P96" s="7" t="s">
+      <c r="P96" t="s">
         <v>34</v>
       </c>
-      <c r="Q96" s="7" t="s">
+      <c r="Q96" t="s">
         <v>1168</v>
       </c>
-      <c r="R96" s="7" t="s">
+      <c r="R96" t="s">
         <v>1169</v>
       </c>
-      <c r="S96" s="7" t="s">
+      <c r="S96" t="s">
         <v>1170</v>
       </c>
-      <c r="T96" s="7" t="s">
+      <c r="T96" t="s">
         <v>1171</v>
       </c>
-      <c r="U96" s="7" t="s">
+      <c r="U96" t="s">
         <v>1172</v>
       </c>
-      <c r="V96" s="14" t="s">
+      <c r="V96" s="2" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="7" t="s">
+      <c r="A97" t="s">
         <v>1174</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" t="s">
         <v>1175</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" t="s">
         <v>1176</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" t="s">
         <v>1177</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E97" t="s">
         <v>864</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" t="s">
         <v>864</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" t="s">
         <v>864</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" t="s">
         <v>27</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" t="s">
         <v>578</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" t="s">
         <v>1400</v>
       </c>
-      <c r="K97" s="7" t="s">
+      <c r="K97" t="s">
         <v>1086</v>
       </c>
-      <c r="L97" s="7" t="s">
+      <c r="L97" t="s">
         <v>1178</v>
       </c>
-      <c r="M97" s="7" t="s">
+      <c r="M97" t="s">
         <v>110</v>
       </c>
-      <c r="N97" s="7" t="s">
+      <c r="N97" t="s">
         <v>1179</v>
       </c>
-      <c r="O97" s="7" t="s">
+      <c r="O97" t="s">
         <v>1377</v>
       </c>
-      <c r="P97" s="7" t="s">
+      <c r="P97" t="s">
         <v>34</v>
       </c>
-      <c r="Q97" s="7" t="s">
+      <c r="Q97" t="s">
         <v>1180</v>
       </c>
-      <c r="R97" s="7" t="s">
+      <c r="R97" t="s">
         <v>1181</v>
       </c>
-      <c r="S97" s="7" t="s">
+      <c r="S97" t="s">
         <v>1182</v>
       </c>
-      <c r="T97" s="7" t="s">
+      <c r="T97" t="s">
         <v>54</v>
       </c>
-      <c r="U97" s="7" t="s">
+      <c r="U97" t="s">
         <v>1183</v>
       </c>
-      <c r="V97" s="14" t="s">
+      <c r="V97" s="2" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="7" t="s">
+      <c r="A98" t="s">
         <v>1185</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" t="s">
         <v>1186</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" t="s">
         <v>1187</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" t="s">
         <v>1188</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98">
         <v>2019</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" t="s">
         <v>1189</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" t="s">
         <v>1190</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" t="s">
         <v>27</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" t="s">
         <v>46</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" t="s">
         <v>1400</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K98" t="s">
         <v>1191</v>
       </c>
-      <c r="L98" s="7" t="s">
+      <c r="L98" t="s">
         <v>954</v>
       </c>
-      <c r="M98" s="7" t="s">
+      <c r="M98" t="s">
         <v>31</v>
       </c>
-      <c r="N98" s="7" t="s">
+      <c r="N98" t="s">
         <v>1192</v>
       </c>
-      <c r="O98" s="7" t="s">
+      <c r="O98" t="s">
         <v>1377</v>
       </c>
-      <c r="P98" s="7" t="s">
+      <c r="P98" t="s">
         <v>50</v>
       </c>
-      <c r="Q98" s="7" t="s">
+      <c r="Q98" t="s">
         <v>864</v>
       </c>
-      <c r="R98" s="7" t="s">
+      <c r="R98" t="s">
         <v>1193</v>
       </c>
-      <c r="S98" s="7" t="s">
+      <c r="S98" t="s">
         <v>1194</v>
       </c>
-      <c r="T98" s="7" t="s">
+      <c r="T98" t="s">
         <v>54</v>
       </c>
-      <c r="U98" s="7" t="s">
+      <c r="U98" t="s">
         <v>1195</v>
       </c>
-      <c r="V98" s="14" t="s">
+      <c r="V98" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="7" t="s">
+      <c r="A99" t="s">
         <v>1197</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" t="s">
         <v>1198</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" t="s">
         <v>1199</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" t="s">
         <v>1200</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99">
         <v>2024</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" t="s">
         <v>1201</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" t="s">
         <v>864</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" t="s">
         <v>27</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" t="s">
         <v>46</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" t="s">
         <v>61</v>
       </c>
-      <c r="K99" s="7" t="s">
+      <c r="K99" t="s">
         <v>1202</v>
       </c>
-      <c r="L99" s="7" t="s">
+      <c r="L99" t="s">
         <v>1203</v>
       </c>
-      <c r="M99" s="7" t="s">
+      <c r="M99" t="s">
         <v>110</v>
       </c>
-      <c r="N99" s="7" t="s">
+      <c r="N99" t="s">
         <v>1204</v>
       </c>
-      <c r="O99" s="7" t="s">
+      <c r="O99" t="s">
         <v>1377</v>
       </c>
-      <c r="P99" s="7" t="s">
+      <c r="P99" t="s">
         <v>34</v>
       </c>
-      <c r="Q99" s="7" t="s">
+      <c r="Q99" t="s">
         <v>1205</v>
       </c>
-      <c r="R99" s="7" t="s">
+      <c r="R99" t="s">
         <v>1206</v>
       </c>
-      <c r="S99" s="7" t="s">
+      <c r="S99" t="s">
         <v>1207</v>
       </c>
-      <c r="T99" s="7" t="s">
+      <c r="T99" t="s">
         <v>54</v>
       </c>
-      <c r="U99" s="7" t="s">
+      <c r="U99" t="s">
         <v>1208</v>
       </c>
-      <c r="V99" s="14" t="s">
+      <c r="V99" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="7" t="s">
+      <c r="A100" t="s">
         <v>1210</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" t="s">
         <v>1211</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" t="s">
         <v>1212</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" t="s">
         <v>1213</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100">
         <v>2025</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" t="s">
         <v>1214</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" t="s">
         <v>1215</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" t="s">
         <v>27</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" t="s">
         <v>46</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" t="s">
         <v>61</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K100" t="s">
         <v>1216</v>
       </c>
-      <c r="L100" s="7" t="s">
+      <c r="L100" t="s">
         <v>1166</v>
       </c>
-      <c r="M100" s="7" t="s">
+      <c r="M100" t="s">
         <v>110</v>
       </c>
-      <c r="N100" s="7" t="s">
+      <c r="N100" t="s">
         <v>1217</v>
       </c>
-      <c r="O100" s="7" t="s">
+      <c r="O100" t="s">
         <v>1376</v>
       </c>
-      <c r="P100" s="7" t="s">
+      <c r="P100" t="s">
         <v>34</v>
       </c>
-      <c r="Q100" s="7" t="s">
+      <c r="Q100" t="s">
         <v>1218</v>
       </c>
-      <c r="R100" s="7" t="s">
+      <c r="R100" t="s">
         <v>1219</v>
       </c>
-      <c r="S100" s="7" t="s">
+      <c r="S100" t="s">
         <v>1220</v>
       </c>
-      <c r="T100" s="7" t="s">
+      <c r="T100" t="s">
         <v>54</v>
       </c>
-      <c r="U100" s="7" t="s">
+      <c r="U100" t="s">
         <v>1221</v>
       </c>
-      <c r="V100" s="14" t="s">
+      <c r="V100" s="2" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="7" t="s">
+      <c r="A101" t="s">
         <v>1223</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" t="s">
         <v>1224</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" t="s">
         <v>1225</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" t="s">
         <v>1226</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101">
         <v>2025</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" t="s">
         <v>1227</v>
       </c>
-      <c r="G101" s="7" t="s">
+      <c r="G101" t="s">
         <v>1228</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H101" t="s">
         <v>27</v>
       </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" t="s">
         <v>46</v>
       </c>
-      <c r="J101" s="7" t="s">
+      <c r="J101" t="s">
         <v>1398</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" t="s">
         <v>1229</v>
       </c>
-      <c r="L101" s="7" t="s">
+      <c r="L101" t="s">
         <v>1166</v>
       </c>
-      <c r="M101" s="7" t="s">
+      <c r="M101" t="s">
         <v>110</v>
       </c>
-      <c r="N101" s="7" t="s">
+      <c r="N101" t="s">
         <v>1230</v>
       </c>
-      <c r="O101" s="7" t="s">
+      <c r="O101" t="s">
         <v>1377</v>
       </c>
-      <c r="P101" s="7" t="s">
+      <c r="P101" t="s">
         <v>34</v>
       </c>
-      <c r="Q101" s="7" t="s">
+      <c r="Q101" t="s">
         <v>1231</v>
       </c>
-      <c r="R101" s="7" t="s">
+      <c r="R101" t="s">
         <v>1232</v>
       </c>
-      <c r="S101" s="7" t="s">
+      <c r="S101" t="s">
         <v>1233</v>
       </c>
-      <c r="T101" s="7" t="s">
+      <c r="T101" t="s">
         <v>54</v>
       </c>
-      <c r="U101" s="7" t="s">
+      <c r="U101" t="s">
         <v>1234</v>
       </c>
-      <c r="V101" s="14" t="s">
+      <c r="V101" s="2" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="7" t="s">
+      <c r="A102" t="s">
         <v>1236</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" t="s">
         <v>677</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" t="s">
         <v>1237</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" t="s">
         <v>1238</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E102" t="s">
         <v>864</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" t="s">
         <v>864</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" t="s">
         <v>864</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" t="s">
         <v>27</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" t="s">
         <v>46</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J102" t="s">
         <v>1398</v>
       </c>
-      <c r="K102" s="7" t="s">
+      <c r="K102" t="s">
         <v>1239</v>
       </c>
-      <c r="L102" s="7" t="s">
+      <c r="L102" t="s">
         <v>1240</v>
       </c>
-      <c r="M102" s="7" t="s">
+      <c r="M102" t="s">
         <v>130</v>
       </c>
-      <c r="N102" s="7" t="s">
+      <c r="N102" t="s">
         <v>1241</v>
       </c>
-      <c r="O102" s="7" t="s">
+      <c r="O102" t="s">
         <v>1377</v>
       </c>
-      <c r="P102" s="7" t="s">
+      <c r="P102" t="s">
         <v>34</v>
       </c>
-      <c r="Q102" s="7" t="s">
+      <c r="Q102" t="s">
         <v>879</v>
       </c>
-      <c r="R102" s="7" t="s">
+      <c r="R102" t="s">
         <v>1242</v>
       </c>
-      <c r="S102" s="7" t="s">
+      <c r="S102" t="s">
         <v>1243</v>
       </c>
-      <c r="T102" s="7" t="s">
+      <c r="T102" t="s">
         <v>54</v>
       </c>
-      <c r="U102" s="7" t="s">
+      <c r="U102" t="s">
         <v>1244</v>
       </c>
-      <c r="V102" s="14" t="s">
+      <c r="V102" s="2" t="s">
         <v>1245</v>
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="7" t="s">
+      <c r="A103" t="s">
         <v>1246</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" t="s">
         <v>1247</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" t="s">
         <v>1248</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" t="s">
         <v>1249</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" t="s">
         <v>864</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" t="s">
         <v>864</v>
       </c>
-      <c r="G103" s="7" t="s">
+      <c r="G103" t="s">
         <v>864</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H103" t="s">
         <v>27</v>
       </c>
-      <c r="I103" s="7" t="s">
+      <c r="I103" t="s">
         <v>46</v>
       </c>
-      <c r="J103" s="7" t="s">
+      <c r="J103" t="s">
         <v>1398</v>
       </c>
-      <c r="K103" s="7" t="s">
+      <c r="K103" t="s">
         <v>1250</v>
       </c>
-      <c r="L103" s="7" t="s">
+      <c r="L103" t="s">
         <v>1251</v>
       </c>
-      <c r="M103" s="7" t="s">
+      <c r="M103" t="s">
         <v>110</v>
       </c>
-      <c r="N103" s="7" t="s">
+      <c r="N103" t="s">
         <v>1252</v>
       </c>
-      <c r="O103" s="7" t="s">
+      <c r="O103" t="s">
         <v>1377</v>
       </c>
-      <c r="P103" s="7" t="s">
+      <c r="P103" t="s">
         <v>34</v>
       </c>
-      <c r="Q103" s="7" t="s">
+      <c r="Q103" t="s">
         <v>1253</v>
       </c>
-      <c r="R103" s="7" t="s">
+      <c r="R103" t="s">
         <v>1254</v>
       </c>
-      <c r="S103" s="7" t="s">
+      <c r="S103" t="s">
         <v>1255</v>
       </c>
-      <c r="T103" s="7" t="s">
+      <c r="T103" t="s">
         <v>54</v>
       </c>
-      <c r="U103" s="7" t="s">
+      <c r="U103" t="s">
         <v>1256</v>
       </c>
-      <c r="V103" s="14" t="s">
+      <c r="V103" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="7" t="s">
+      <c r="A104" t="s">
         <v>1258</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" t="s">
         <v>1259</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" t="s">
         <v>1260</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" t="s">
         <v>1261</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104">
         <v>2021</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" t="s">
         <v>1262</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G104" t="s">
         <v>1263</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" t="s">
         <v>27</v>
       </c>
-      <c r="I104" s="7" t="s">
+      <c r="I104" t="s">
         <v>46</v>
       </c>
-      <c r="J104" s="7" t="s">
+      <c r="J104" t="s">
         <v>87</v>
       </c>
-      <c r="K104" s="7" t="s">
+      <c r="K104" t="s">
         <v>1264</v>
       </c>
-      <c r="L104" s="7" t="s">
+      <c r="L104" t="s">
         <v>1265</v>
       </c>
-      <c r="M104" s="7" t="s">
+      <c r="M104" t="s">
         <v>48</v>
       </c>
-      <c r="N104" s="7" t="s">
+      <c r="N104" t="s">
         <v>1266</v>
       </c>
-      <c r="O104" s="7" t="s">
+      <c r="O104" t="s">
         <v>1377</v>
       </c>
-      <c r="P104" s="7" t="s">
+      <c r="P104" t="s">
         <v>34</v>
       </c>
-      <c r="Q104" s="7" t="s">
+      <c r="Q104" t="s">
         <v>869</v>
       </c>
-      <c r="R104" s="7" t="s">
+      <c r="R104" t="s">
         <v>1267</v>
       </c>
-      <c r="S104" s="7" t="s">
+      <c r="S104" t="s">
         <v>38</v>
       </c>
-      <c r="T104" s="7" t="s">
+      <c r="T104" t="s">
         <v>1268</v>
       </c>
-      <c r="U104" s="7" t="s">
+      <c r="U104" t="s">
         <v>1269</v>
       </c>
-      <c r="V104" s="7"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="7" t="s">
+      <c r="A105" t="s">
         <v>1270</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" t="s">
         <v>1271</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" t="s">
         <v>1272</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" t="s">
         <v>1273</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105">
         <v>2021</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" t="s">
         <v>1274</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G105" t="s">
         <v>1275</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" t="s">
         <v>27</v>
       </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" t="s">
         <v>46</v>
       </c>
-      <c r="J105" s="7" t="s">
+      <c r="J105" t="s">
         <v>1400</v>
       </c>
-      <c r="K105" s="7" t="s">
+      <c r="K105" t="s">
         <v>1276</v>
       </c>
-      <c r="L105" s="7" t="s">
+      <c r="L105" t="s">
         <v>1277</v>
       </c>
-      <c r="M105" s="7" t="s">
+      <c r="M105" t="s">
         <v>31</v>
       </c>
-      <c r="N105" s="7" t="s">
+      <c r="N105" t="s">
         <v>1278</v>
       </c>
-      <c r="O105" s="7" t="s">
+      <c r="O105" t="s">
         <v>1377</v>
       </c>
-      <c r="P105" s="7" t="s">
+      <c r="P105" t="s">
         <v>34</v>
       </c>
-      <c r="Q105" s="7" t="s">
+      <c r="Q105" t="s">
         <v>1279</v>
       </c>
-      <c r="R105" s="7" t="s">
+      <c r="R105" t="s">
         <v>1280</v>
       </c>
-      <c r="S105" s="7" t="s">
+      <c r="S105" t="s">
         <v>1281</v>
       </c>
-      <c r="T105" s="7" t="s">
+      <c r="T105" t="s">
         <v>54</v>
       </c>
-      <c r="U105" s="7" t="s">
+      <c r="U105" t="s">
         <v>1282</v>
       </c>
-      <c r="V105" s="14" t="s">
+      <c r="V105" s="2" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="7" t="s">
+      <c r="A106" t="s">
         <v>1284</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" t="s">
         <v>1285</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" t="s">
         <v>1286</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" t="s">
         <v>1273</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106">
         <v>2018</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" t="s">
         <v>1287</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G106" t="s">
         <v>1288</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" t="s">
         <v>27</v>
       </c>
-      <c r="I106" s="7" t="s">
+      <c r="I106" t="s">
         <v>46</v>
       </c>
-      <c r="J106" s="7" t="s">
+      <c r="J106" t="s">
         <v>61</v>
       </c>
-      <c r="K106" s="7" t="s">
+      <c r="K106" t="s">
         <v>1289</v>
       </c>
-      <c r="L106" s="7" t="s">
+      <c r="L106" t="s">
         <v>1290</v>
       </c>
-      <c r="M106" s="7" t="s">
+      <c r="M106" t="s">
         <v>31</v>
       </c>
-      <c r="N106" s="7" t="s">
+      <c r="N106" t="s">
         <v>1291</v>
       </c>
-      <c r="O106" s="7" t="s">
+      <c r="O106" t="s">
         <v>1377</v>
       </c>
-      <c r="P106" s="7" t="s">
+      <c r="P106" t="s">
         <v>34</v>
       </c>
-      <c r="Q106" s="7" t="s">
+      <c r="Q106" t="s">
         <v>869</v>
       </c>
-      <c r="R106" s="7" t="s">
+      <c r="R106" t="s">
         <v>1292</v>
       </c>
-      <c r="S106" s="7" t="s">
+      <c r="S106" t="s">
         <v>54</v>
       </c>
-      <c r="T106" s="7" t="s">
+      <c r="T106" t="s">
         <v>1293</v>
       </c>
-      <c r="U106" s="7" t="s">
+      <c r="U106" t="s">
         <v>1294</v>
       </c>
-      <c r="V106" s="7"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="7" t="s">
+      <c r="A107" t="s">
         <v>1295</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" t="s">
         <v>1296</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" t="s">
         <v>1297</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" t="s">
         <v>1298</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" t="s">
         <v>864</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" t="s">
         <v>864</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G107" t="s">
         <v>864</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H107" t="s">
         <v>27</v>
       </c>
-      <c r="I107" s="7" t="s">
+      <c r="I107" t="s">
         <v>578</v>
       </c>
-      <c r="J107" s="7" t="s">
+      <c r="J107" t="s">
         <v>1398</v>
       </c>
-      <c r="K107" s="7" t="s">
+      <c r="K107" t="s">
         <v>1299</v>
       </c>
-      <c r="L107" s="7" t="s">
+      <c r="L107" t="s">
         <v>1300</v>
       </c>
-      <c r="M107" s="7" t="s">
+      <c r="M107" t="s">
         <v>31</v>
       </c>
-      <c r="N107" s="7" t="s">
+      <c r="N107" t="s">
         <v>1301</v>
       </c>
-      <c r="O107" s="7" t="s">
+      <c r="O107" t="s">
         <v>1377</v>
       </c>
-      <c r="P107" s="7" t="s">
+      <c r="P107" t="s">
         <v>34</v>
       </c>
-      <c r="Q107" s="7" t="s">
+      <c r="Q107" t="s">
         <v>1302</v>
       </c>
-      <c r="R107" s="7" t="s">
+      <c r="R107" t="s">
         <v>1303</v>
       </c>
-      <c r="S107" s="7" t="s">
+      <c r="S107" t="s">
         <v>1304</v>
       </c>
-      <c r="T107" s="7" t="s">
+      <c r="T107" t="s">
         <v>54</v>
       </c>
-      <c r="U107" s="7" t="s">
+      <c r="U107" t="s">
         <v>1305</v>
       </c>
-      <c r="V107" s="14" t="s">
+      <c r="V107" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="7" t="s">
+      <c r="A108" t="s">
         <v>1307</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" t="s">
         <v>1308</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" t="s">
         <v>1309</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" t="s">
         <v>1310</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108">
         <v>2023</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" t="s">
         <v>1311</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" t="s">
         <v>1312</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" t="s">
         <v>27</v>
       </c>
-      <c r="I108" s="7" t="s">
+      <c r="I108" t="s">
         <v>46</v>
       </c>
-      <c r="J108" s="7" t="s">
+      <c r="J108" t="s">
         <v>1398</v>
       </c>
-      <c r="K108" s="7" t="s">
+      <c r="K108" t="s">
         <v>1313</v>
       </c>
-      <c r="L108" s="7" t="s">
+      <c r="L108" t="s">
         <v>1314</v>
       </c>
-      <c r="M108" s="7" t="s">
+      <c r="M108" t="s">
         <v>110</v>
       </c>
-      <c r="N108" s="7" t="s">
+      <c r="N108" t="s">
         <v>1315</v>
       </c>
-      <c r="O108" s="7" t="s">
+      <c r="O108" t="s">
         <v>1377</v>
       </c>
-      <c r="P108" s="7" t="s">
+      <c r="P108" t="s">
         <v>34</v>
       </c>
-      <c r="Q108" s="7" t="s">
+      <c r="Q108" t="s">
         <v>1316</v>
       </c>
-      <c r="R108" s="7" t="s">
+      <c r="R108" t="s">
         <v>1317</v>
       </c>
-      <c r="S108" s="7" t="s">
+      <c r="S108" t="s">
         <v>1318</v>
       </c>
-      <c r="T108" s="7" t="s">
+      <c r="T108" t="s">
         <v>1319</v>
       </c>
-      <c r="U108" s="7" t="s">
+      <c r="U108" t="s">
         <v>1320</v>
       </c>
-      <c r="V108" s="14" t="s">
+      <c r="V108" s="2" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="7" t="s">
+      <c r="A109" t="s">
         <v>1322</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" t="s">
         <v>1323</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" t="s">
         <v>1324</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" t="s">
         <v>1325</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109">
         <v>2024</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" t="s">
         <v>1326</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" t="s">
         <v>1327</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H109" t="s">
         <v>27</v>
       </c>
-      <c r="I109" s="7" t="s">
+      <c r="I109" t="s">
         <v>46</v>
       </c>
-      <c r="J109" s="7" t="s">
+      <c r="J109" t="s">
         <v>1398</v>
       </c>
-      <c r="K109" s="7" t="s">
+      <c r="K109" t="s">
         <v>1328</v>
       </c>
-      <c r="L109" s="7" t="s">
+      <c r="L109" t="s">
         <v>1100</v>
       </c>
-      <c r="M109" s="7" t="s">
+      <c r="M109" t="s">
         <v>31</v>
       </c>
-      <c r="N109" s="7" t="s">
+      <c r="N109" t="s">
         <v>1329</v>
       </c>
-      <c r="O109" s="7" t="s">
+      <c r="O109" t="s">
         <v>1377</v>
       </c>
-      <c r="P109" s="7" t="s">
+      <c r="P109" t="s">
         <v>34</v>
       </c>
-      <c r="Q109" s="7" t="s">
+      <c r="Q109" t="s">
         <v>869</v>
       </c>
-      <c r="R109" s="7" t="s">
+      <c r="R109" t="s">
         <v>1330</v>
       </c>
-      <c r="S109" s="7" t="s">
+      <c r="S109" t="s">
         <v>1331</v>
       </c>
-      <c r="T109" s="7" t="s">
+      <c r="T109" t="s">
         <v>1332</v>
       </c>
-      <c r="U109" s="7" t="s">
+      <c r="U109" t="s">
         <v>1333</v>
       </c>
-      <c r="V109" s="7"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="7" t="s">
+      <c r="A110" t="s">
         <v>1334</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" t="s">
         <v>1335</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" t="s">
         <v>1336</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" t="s">
         <v>1337</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110">
         <v>2024</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" t="s">
         <v>864</v>
       </c>
-      <c r="G110" s="7" t="s">
+      <c r="G110" t="s">
         <v>864</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" t="s">
         <v>27</v>
       </c>
-      <c r="I110" s="7" t="s">
+      <c r="I110" t="s">
         <v>46</v>
       </c>
-      <c r="J110" s="7" t="s">
+      <c r="J110" t="s">
         <v>1398</v>
       </c>
-      <c r="K110" s="7" t="s">
+      <c r="K110" t="s">
         <v>1338</v>
       </c>
-      <c r="L110" s="7" t="s">
+      <c r="L110" t="s">
         <v>1100</v>
       </c>
-      <c r="M110" s="7" t="s">
+      <c r="M110" t="s">
         <v>110</v>
       </c>
-      <c r="N110" s="7" t="s">
+      <c r="N110" t="s">
         <v>1339</v>
       </c>
-      <c r="O110" s="7" t="s">
+      <c r="O110" t="s">
         <v>1376</v>
       </c>
-      <c r="P110" s="7" t="s">
+      <c r="P110" t="s">
         <v>34</v>
       </c>
-      <c r="Q110" s="7" t="s">
+      <c r="Q110" t="s">
         <v>1340</v>
       </c>
-      <c r="R110" s="7" t="s">
+      <c r="R110" t="s">
         <v>1341</v>
       </c>
-      <c r="S110" s="7" t="s">
+      <c r="S110" t="s">
         <v>1342</v>
       </c>
-      <c r="T110" s="7" t="s">
+      <c r="T110" t="s">
         <v>54</v>
       </c>
-      <c r="U110" s="7" t="s">
+      <c r="U110" t="s">
         <v>1343</v>
       </c>
-      <c r="V110" s="14" t="s">
+      <c r="V110" s="2" t="s">
         <v>1344</v>
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="7" t="s">
+      <c r="A111" t="s">
         <v>1345</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" t="s">
         <v>1346</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" t="s">
         <v>1347</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" t="s">
         <v>1348</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111">
         <v>2023</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" t="s">
         <v>1349</v>
       </c>
-      <c r="G111" s="7" t="s">
+      <c r="G111" t="s">
         <v>1350</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" t="s">
         <v>27</v>
       </c>
-      <c r="I111" s="7" t="s">
+      <c r="I111" t="s">
         <v>46</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" t="s">
         <v>1400</v>
       </c>
-      <c r="K111" s="7" t="s">
+      <c r="K111" t="s">
         <v>1351</v>
       </c>
-      <c r="L111" s="7" t="s">
+      <c r="L111" t="s">
         <v>1352</v>
       </c>
-      <c r="M111" s="7" t="s">
+      <c r="M111" t="s">
         <v>31</v>
       </c>
-      <c r="N111" s="7" t="s">
+      <c r="N111" t="s">
         <v>1353</v>
       </c>
-      <c r="O111" s="7" t="s">
+      <c r="O111" t="s">
         <v>1377</v>
       </c>
-      <c r="P111" s="7" t="s">
+      <c r="P111" t="s">
         <v>50</v>
       </c>
-      <c r="Q111" s="7" t="s">
+      <c r="Q111" t="s">
         <v>869</v>
       </c>
-      <c r="R111" s="7" t="s">
+      <c r="R111" t="s">
         <v>1354</v>
       </c>
-      <c r="S111" s="7" t="s">
+      <c r="S111" t="s">
         <v>38</v>
       </c>
-      <c r="T111" s="7" t="s">
+      <c r="T111" t="s">
         <v>1355</v>
       </c>
-      <c r="U111" s="14"/>
-      <c r="V111" s="14" t="s">
+      <c r="V111" s="2" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="7" t="s">
+      <c r="A112" t="s">
         <v>1357</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" t="s">
         <v>1358</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" t="s">
         <v>1359</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" t="s">
         <v>1360</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112">
         <v>2023</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" t="s">
         <v>1361</v>
       </c>
-      <c r="G112" s="7" t="s">
+      <c r="G112" t="s">
         <v>864</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" t="s">
         <v>27</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I112" t="s">
         <v>46</v>
       </c>
-      <c r="J112" s="7" t="s">
+      <c r="J112" t="s">
         <v>61</v>
       </c>
-      <c r="K112" s="7" t="s">
+      <c r="K112" t="s">
         <v>1362</v>
       </c>
-      <c r="L112" s="7" t="s">
+      <c r="L112" t="s">
         <v>1363</v>
       </c>
-      <c r="M112" s="7" t="s">
+      <c r="M112" t="s">
         <v>31</v>
       </c>
-      <c r="N112" s="7" t="s">
+      <c r="N112" t="s">
         <v>1364</v>
       </c>
-      <c r="O112" s="7" t="s">
+      <c r="O112" t="s">
         <v>1377</v>
       </c>
-      <c r="P112" s="7" t="s">
+      <c r="P112" t="s">
         <v>34</v>
       </c>
-      <c r="Q112" s="7" t="s">
+      <c r="Q112" t="s">
         <v>864</v>
       </c>
-      <c r="R112" s="7" t="s">
+      <c r="R112" t="s">
         <v>1365</v>
       </c>
-      <c r="S112" s="7" t="s">
+      <c r="S112" t="s">
         <v>1366</v>
       </c>
-      <c r="T112" s="7" t="s">
+      <c r="T112" t="s">
         <v>54</v>
       </c>
-      <c r="U112" s="7" t="s">
+      <c r="U112" t="s">
         <v>1367</v>
       </c>
-      <c r="V112" s="14" t="s">
+      <c r="V112" s="2" t="s">
         <v>1368</v>
       </c>
     </row>

--- a/final.xlsx
+++ b/final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\uav-anomaly-papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655425BB-D81B-4D22-A9B3-80F4C3BD753B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA7E89-0CB3-4A18-8BD3-D9E82C5DC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Pillar_Counts" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Papers!$A$1:$V$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Papers!$A$1:$V$109</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1432">
   <si>
     <t>BibKey</t>
   </si>
@@ -1787,9 +1787,6 @@
     <t>Some coverage limitations (fixed-wing only, limited fault types); open dataset size ~1.7 GB</t>
   </si>
   <si>
-    <t>@article{Keipour2020ALFADataset, title={ALFA: A Dataset for UAV Fault and Anomaly Detection}, author={Keipour, A. and Mousaei, M. R. and Scherer, S.}, journal={The International Journal of Robotics Research}, volume={40}, number={2-3}, pages={1-6}, year={2020}, doi={10.1177/0278364920966642}}</t>
-  </si>
-  <si>
     <t>Pan2020UAVActiveS3VM</t>
   </si>
   <si>
@@ -2027,9 +2024,6 @@
     <t>@inproceedings{NaitAbdesselam2020OnlineAnomalyUAV, title={An Online Anomaly Detection Approach for Unmanned Aerial Vehicles}, author={Nait Abdesselam, and Titouna}, booktitle={Proceedings of the International Conference on Unmanned Systems (ICUS 2020)}, year={2020}}</t>
   </si>
   <si>
-    <t>Pourpanah2018UAVMotorsPropellers</t>
-  </si>
-  <si>
     <t>Anomaly Detection and Condition Monitoring of UAV Motors and Propellers</t>
   </si>
   <si>
@@ -2061,9 +2055,6 @@
   </si>
   <si>
     <t>Limited dataset size; recovery/mitigation strategy not discussed</t>
-  </si>
-  <si>
-    <t>@inproceedings{Pourpanah2018UAVMotorsPropellers, title={Anomaly Detection and Condition Monitoring of UAV Motors and Propellers}, author={Pourpanah, F. and Zhang, B. and Ma, R. and Hao, Q.}, booktitle={Proceedings of the 2018 IEEE Sensors Conference (ICSENS)}, year={2018}, doi={10.1109/ICSENS.2018.8589572}}</t>
   </si>
   <si>
     <t>UAV Anomaly Detection with Distributed Artificial Intelligence Based on LSTM-AE and AE</t>
@@ -2409,12 +2400,6 @@
     <t>@article{Li2023BISSIAM, title={BISSIAM: Bispectrum Siamese Network Based Contrastive Learning for UAV Anomaly Detection}, author={Li, Taotao and Hong, Zhen and Cai, Qianming and Yu, Li and Wen, Zhenyu and Yang, Renyu}, journal={IEEE Transactions on Knowledge and Data Engineering}, volume={35}, number={12}, pages={12109-12124}, year={2023}, doi={10.1109/TKDE.2021.3118727}</t>
   </si>
   <si>
-    <t>He2018SSSLAD</t>
-  </si>
-  <si>
-    <t>UAV Flight Data Anomaly Detection using Structured Sparse Subspace Learning Algorithm</t>
-  </si>
-  <si>
     <t>This paper proposes the SSSL-AD algorithm, a structured sparse subspace-learning method that imposes structured sparsity on the projection coefficients to detect anomalies and identify their sources in UAV flight data; the method tracks the subspace over time via efficient optimization (Nesterov’s method) and demonstrates accurate and rapid anomaly/source detection on real UAV flight datasets.</t>
   </si>
   <si>
@@ -2433,42 +2418,9 @@
     <t>@article{He2018SSSLAD, title={A Structured Sparse Subspace Learning Algorithm for Anomaly Detection in UAV Flight Data}, author={He, Yongfu and Peng, Yu and Wang, Shaojun and Liu, Datong}, journal={IEEE Transactions on Instrumentation and Measurement}, volume={67}, number={12}, pages={2763-2774}, year={2018}, doi={10.1109/TIM.2018.2863499}}</t>
   </si>
   <si>
-    <t>Yang2023ExplainingUAVAnomalousEvents</t>
-  </si>
-  <si>
-    <t>Explaining Anomalous Events in Flight Data of UAV With Deep Attention‐Based Multi-Instance Learning</t>
-  </si>
-  <si>
-    <t>Ensuring the safety and reliability of unmanned aerial vehicles (UAVs) has become a critical issue as they continue to advance. Analyzing anomalous events using event‐based explanations is an effective approach to identifying key anomalous behaviors and mitigating potential risks. However, this task is challenging because anomalous events in flight data lack time-step labels in real-world UAV flight scenarios. To address this challenge, we propose a dual attention-based multi-instance learning (DA-DI-MIL) framework for pinpointing anomaly instances and automatically explaining anomalous events. Our MIL-based framework treats a segment of flight data as a “bag” with an available label, and its time steps as “instances” without labels. The dual attention mechanism combines temporal pseudo-label prediction with sensor-variable importance from delta feature attention to better identify anomaly points at the instance level. Extensive experiments on real UAV flight data with engine failures demonstrate the effectiveness and robustness of our method compared to existing state-of-the-art methods: DA-DI-MIL achieves near 90% in evaluation metrics with less than 5 time steps’ delay in detecting anomalous events and around 85% in temporal anomaly detection. Additionally, the method provides both global and local interpretations in time-domain and feature-space, thus contributing to higher aviation safety and reliability.</t>
-  </si>
-  <si>
-    <t>Yang, Jie; Tang, Diyin; Yu, Jinsong; Zhang, Jian; Liu, Haigang</t>
-  </si>
-  <si>
-    <t>IEEE Transactions on Vehicular Technology, Vol. 72 (1): pp. 107-119</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1109/TVT.2023.3301678</t>
   </si>
   <si>
-    <t>Runtime log/flight-data anomalies in UAVs (engine failures)</t>
-  </si>
-  <si>
-    <t>Deep attention-based multi-instance learning (DA-DI-MIL) on UAV flight segments → explain instance-level anomalies in weakly labelled bags</t>
-  </si>
-  <si>
-    <t>≈90% event-level detection with &lt;5 time-step delay; ≈85% instance‐level detection</t>
-  </si>
-  <si>
-    <t>Provides explainable detection of anomalies in UAV flight data using dual attention in MIL; links anomalous behavior to event explanation</t>
-  </si>
-  <si>
-    <t>Limited to engine-failure anomalies; dataset availability unclear; no recovery/mitigation strategy addressed</t>
-  </si>
-  <si>
-    <t>@article{Yang2023ExplainingUAVAnomalousEvents, title={Explaining Anomalous Events in Flight Data of UAV With Deep Attention‐Based Multi‐Instance Learning}, author={Yang, Jie and Tang, Diyin and Yu, Jinsong and Zhang, Jian and Liu, Haigang}, journal={IEEE Transactions on Vehicular Technology}, volume={72}, number={1}, pages={107-119}, year={2023}, doi={10.1109/TVT.2023.3301678}}</t>
-  </si>
-  <si>
     <t>UAV Anomaly Detection Method Based on Convolutional Autoencoder and Support Vector Data Description with 0/1 Soft-Margin Loss</t>
   </si>
   <si>
@@ -2499,40 +2451,10 @@
     <t>Limited to selected dataset; no explicit recovery/mitigation strategy covered; computational cost for non-convex optimization may be higher</t>
   </si>
   <si>
-    <t>hamdiDroneDLAnomaly</t>
-  </si>
-  <si>
-    <t>Deep learning anomaly detection for drone-based surveillance</t>
-  </si>
-  <si>
-    <t>This paper investigates the use of deep learning techniques for detecting anomalous events in drone-based surveillance scenarios, focusing on identifying abnormal visual patterns in aerial video data.</t>
-  </si>
-  <si>
-    <t>Hamdi et al.</t>
-  </si>
-  <si>
     <t>Not specified</t>
   </si>
   <si>
-    <t>Behavioral and visual anomalies</t>
-  </si>
-  <si>
-    <t>Deep learning-based anomaly detection</t>
-  </si>
-  <si>
-    <t>Deep neural networks (vision-based)</t>
-  </si>
-  <si>
-    <t>AUC; Accuracy; Precision; Recall</t>
-  </si>
-  <si>
     <t>Not addressed</t>
-  </si>
-  <si>
-    <t>The study shows that deep learning models can effectively identify abnormal events in UAV surveillance footage, improving detection performance compared to traditional approaches</t>
-  </si>
-  <si>
-    <t>Limited to vision-based anomalies; lacks system-</t>
   </si>
   <si>
     <t>motorRLUAVAnomaly</t>
@@ -2781,9 +2703,6 @@
     <t>@article{acousticPropellerCrackUAV2025, author={Lee, Juho and Yoon, Donghyun and Jeong, Gu Moon and Kim, Hyeoncheol}, title={Acoustic Anomaly Detection for Propeller Crack Defects: A Drone-Based Surrogate Dataset for UAM}, journal={IEEE Access}, volume={13}, pages={195564–195578}, year={2025}, doi={10.1109/ACCESS.2025.3632030}}</t>
   </si>
   <si>
-    <t>anomalyDetectionDronesML2022</t>
-  </si>
-  <si>
     <t>This chapter surveys machine learning-based anomaly detection techniques applied to drones, covering both supervised and unsupervised approaches such as k-NN, SVM, decision trees, logistic regression, and discussing their applicability for identifying anomalies in UAV data streams.</t>
   </si>
   <si>
@@ -2814,9 +2733,6 @@
     <t>Survey of ML-based anomaly detection in drones across multiple data sources</t>
   </si>
   <si>
-    <t>@incollection{anomalyDetectionDronesML2022, author={Shaw, Soumya and Joshi, Kartik and Pathak, Akhil and Thyagarajan, Abitha K. and Vidya, G. and Shah, Rahul Hemal and Kishan, V. Ram and Alex, John Sahaya Rani}, title={Anomaly Detection in Drones with Machine Learning Algorithms}, booktitle={Futuristic Communication and Network Technologies}, year={2022}, publisher={Springer Nature Singapore}, doi={10.1007/978-981-16-4625-6_42}}</t>
-  </si>
-  <si>
     <t>rssiGATDroneDetection2025</t>
   </si>
   <si>
@@ -3094,9 +3010,6 @@
   </si>
   <si>
     <t>Log-processing ensemble with time series features</t>
-  </si>
-  <si>
-    <t>Accuracy; Precision; Recall; Robustness to noise</t>
   </si>
   <si>
     <t>The ensemble strategy in LEBADAD shows improved detection performance across diverse log patterns and reduces noise sensitivity compared to single models</t>
@@ -3652,9 +3565,6 @@
     <t>@article{rpcaNetUAVFlightData2025, author={Zhou, Zeyi and Zhong, Jie and Zhang, Yujie and Miao, Qiang}, title={Anomaly Detection for UAV Flight Data via Reconstruction-Prediction Co-Learning Attention Network}, journal={IEEE Transactions on Instrumentation and Measurement}, year={2025}, doi={10.1109/TIM.2025.3593530}}</t>
   </si>
   <si>
-    <t>onlineAnomalyDetectionUAV</t>
-  </si>
-  <si>
     <t>This paper presents an online anomaly detection approach for unmanned aerial vehicles that continuously monitors multivariate flight and sensor data streams to detect deviations from normal operational behavior in real time during flight.</t>
   </si>
   <si>
@@ -3677,9 +3587,6 @@
   </si>
   <si>
     <t>Generic online anomaly detection framework for UAV runtime monitoring</t>
-  </si>
-  <si>
-    <t>@inproceedings{onlineAnomalyDetectionUAV, title={An Online Anomaly Detection Approach for Unmanned Aerial Vehicles}}</t>
   </si>
   <si>
     <t>radarMicroDopplerDroneAnomalyCNN</t>
@@ -4627,6 +4534,122 @@
   </si>
   <si>
     <t>Deep learning anomaly detection for autonomous UAV swarm operations under injected faults and cyber-attacks</t>
+  </si>
+  <si>
+    <t>@article{keipour2021alfa,
+  title={Alfa: A dataset for uav fault and anomaly detection},
+  author={Keipour, Azarakhsh and Mousaei, Mohammadreza and Scherer, Sebastian},
+  journal={The International Journal of Robotics Research},
+  volume={40},
+  number={2-3},
+  pages={515--520},
+  year={2021},
+  publisher={Sage Publications Sage UK: London, England}
+}</t>
+  </si>
+  <si>
+    <t>keipour2021alfa</t>
+  </si>
+  <si>
+    <t>shaw2020anomaly</t>
+  </si>
+  <si>
+    <t>@inproceedings{shaw2020anomaly,
+  title={Anomaly detection in drones with machine learning algorithms},
+  author={Shaw, Soumya and Joshi, Kartik and Pathak, Akhil and Thyagarajan, Abitha K and Vidya, G and Hemal Shah, Rahul and Ram Kishan, V and Alex, John Sahaya Rani},
+  booktitle={International Conference on Futuristic Communication and Network Technologies},
+  pages={433--441},
+  year={2020},
+  organization={Springer}
+}</t>
+  </si>
+  <si>
+    <t>pourpanah2018anomaly</t>
+  </si>
+  <si>
+    <t>@inproceedings{pourpanah2018anomaly,
+  title={Anomaly detection and condition monitoring of UAV motors and propellers},
+  author={Pourpanah, Farhad and Zhang, Bin and Ma, Rui and Hao, Qi},
+  booktitle={2018 IEEE SENSORS},
+  pages={1--4},
+  year={2018},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>@inproceedings{titouna2020online,
+  title={An online anomaly detection approach for unmanned aerial vehicles},
+  author={Titouna, Chafiq and Na{\"\i}t-Abdesselam, Farid and Moungla, Hassine},
+  booktitle={2020 International Wireless Communications and Mobile Computing (IWCMC)},
+  pages={469--474},
+  year={2020},
+  organization={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>titouna2020online</t>
+  </si>
+  <si>
+    <t>A structured sparse subspace learning algorithm for anomaly detection in UAV flight data</t>
+  </si>
+  <si>
+    <t>he2017structured</t>
+  </si>
+  <si>
+    <t>@article{he2017structured,
+  title={A structured sparse subspace learning algorithm for anomaly detection in UAV flight data},
+  author={He, Yongfu and Peng, Yu and Wang, Shaojun and Liu, Datong and Leong, Philip HW},
+  journal={IEEE Transactions on Instrumentation and Measurement},
+  volume={67},
+  number={1},
+  pages={90--100},
+  year={2017},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>Drone Video Anomaly Detection by Future Segmentation Prediction and Spatio-Temporal Relational Modelling</t>
+  </si>
+  <si>
+    <t>fakhry2025drone</t>
+  </si>
+  <si>
+    <t>@article{fakhry2025drone,
+  title={Drone Video Anomaly Detection by Future Segmentation Prediction and Spatio-Temporal Relational Modeling},
+  author={Fakhry, Ahmed and Lee, Janghoon and Lee, Jong Taek},
+  journal={IEEE Access},
+  volume={13},
+  pages={22395--22406},
+  year={2025},
+  publisher={IEEE}
+}</t>
+  </si>
+  <si>
+    <t>In traffic surveillance, accurate video anomaly detection is vital for public safety, yet environmental changes, occlusions, and visual obstructions pose significant challenges. In this research, we introduce DAD-FSM, an innovative drone-based video anomaly detection system that leverages a spatio-temporal relational cross-transformer to enhance the encoding of visual and temporal features for future segmentation. Additionally, we propose the motion-aware frame prediction loss function (MAFL) to improve the model’s representation and the background and foreground separation of moving objects. Our method achieves state-of-the-art (SOTA) AUC scores of 68.13% on the UIT-ADrone dataset and 73.5% mAUC on the Drone-Anomaly dataset, surpassing previous methods by 2.68% and 5.71% respectively. The approach is further validated on the CUHK Avenue dataset, underscoring its global applicability and effectiveness in diverse traffic scenarios. These results demonstrate the potential of our model for broad use in traffic surveillance applications.</t>
+  </si>
+  <si>
+    <t>Ahmed Fakhry; Janghoon Lee; Jong Taek Lee</t>
+  </si>
+  <si>
+    <t>Traffic-scene video anomalies under occlusion/obstructions and environmental changes (drone surveillance)</t>
+  </si>
+  <si>
+    <t>Future segmentation prediction with spatio-temporal relational modeling for video anomaly detection</t>
+  </si>
+  <si>
+    <t>DAD-FSM with spatio-temporal relational cross-transformer; motion-aware frame prediction loss (MAFL) for background/foreground separation</t>
+  </si>
+  <si>
+    <t>AUC 68.13% (UIT-ADrone); mAUC 73.5% (Drone-Anomaly); validated on CUHK Avenue</t>
+  </si>
+  <si>
+    <t>Cross-transformer + MAFL improves representation and future segmentation; achieves SOTA on UIT-ADrone and Drone-Anomaly and generalizes to Avenue</t>
+  </si>
+  <si>
+    <t>Focused on traffic surveillance video; performance depends on dataset characteristics (occlusions/scene diversity) and lacks real-time deployment analysis</t>
+  </si>
+  <si>
+    <t>Drone-based video anomaly detection via future segmentation prediction; evaluated on UIT-ADrone, Drone-Anomaly, and CUHK Avenue</t>
   </si>
 </sst>
 </file>
@@ -4713,15 +4736,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4751,10 +4779,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{43A8A7EB-4F89-4240-B7F0-2AE2CD906CA1}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="4" xr:uid="{FED65FE0-3330-4B44-AC70-BB007F6BF5B5}"/>
+    <cellStyle name="Hyperlink 3" xfId="3" xr:uid="{9113CF89-6D4E-4546-A50E-951A1DFD6257}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5055,10 +5089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D102" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="D97" workbookViewId="0">
+      <selection activeCell="T125" sqref="T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5161,7 +5195,7 @@
         <v>2023</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -5188,7 +5222,7 @@
         <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>34</v>
@@ -5214,7 +5248,7 @@
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>1342</v>
+        <v>1311</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>41</v>
@@ -5256,7 +5290,7 @@
         <v>49</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>50</v>
@@ -5277,12 +5311,12 @@
         <v>55</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>1341</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>1344</v>
+        <v>1313</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>56</v>
@@ -5309,7 +5343,7 @@
         <v>46</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>62</v>
@@ -5324,7 +5358,7 @@
         <v>64</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>372</v>
@@ -5345,12 +5379,12 @@
         <v>68</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>1343</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>1345</v>
+        <v>1314</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>69</v>
@@ -5377,7 +5411,7 @@
         <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>74</v>
@@ -5392,7 +5426,7 @@
         <v>76</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>34</v>
@@ -5413,39 +5447,39 @@
         <v>80</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>1343</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1335</v>
+        <v>1304</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="E6" s="3">
         <v>2024</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1338</v>
+        <v>1307</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1339</v>
+        <v>1308</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>1346</v>
+        <v>1315</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>47</v>
@@ -5460,7 +5494,7 @@
         <v>49</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>50</v>
@@ -5481,12 +5515,12 @@
         <v>55</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>1393</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="7" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>1419</v>
+        <v>1388</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>81</v>
@@ -5528,7 +5562,7 @@
         <v>88</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>34</v>
@@ -5549,12 +5583,12 @@
         <v>92</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>1347</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>1349</v>
+        <v>1318</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>93</v>
@@ -5596,7 +5630,7 @@
         <v>99</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>34</v>
@@ -5617,7 +5651,7 @@
         <v>103</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>1348</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
@@ -5631,7 +5665,7 @@
         <v>106</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1351</v>
+        <v>1320</v>
       </c>
       <c r="E9" s="3">
         <v>2022</v>
@@ -5640,7 +5674,7 @@
         <v>107</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1375</v>
+        <v>1344</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>27</v>
@@ -5649,7 +5683,7 @@
         <v>46</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>108</v>
@@ -5664,7 +5698,7 @@
         <v>110</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>34</v>
@@ -5685,12 +5719,12 @@
         <v>114</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>1350</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="3" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>1356</v>
+        <v>1325</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>115</v>
@@ -5708,7 +5742,7 @@
         <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>27</v>
@@ -5717,7 +5751,7 @@
         <v>46</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>119</v>
@@ -5732,7 +5766,7 @@
         <v>120</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>34</v>
@@ -5753,12 +5787,12 @@
         <v>124</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>1355</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="11" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>1360</v>
+        <v>1329</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>125</v>
@@ -5767,13 +5801,13 @@
         <v>126</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1357</v>
+        <v>1326</v>
       </c>
       <c r="E11" s="3">
         <v>2024</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1358</v>
+        <v>1327</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>127</v>
@@ -5800,7 +5834,7 @@
         <v>130</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>34</v>
@@ -5821,12 +5855,12 @@
         <v>134</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>1359</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="12" spans="1:22" s="3" customFormat="1" ht="16.8" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>1362</v>
+        <v>1331</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>135</v>
@@ -5853,7 +5887,7 @@
         <v>46</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>140</v>
@@ -5868,7 +5902,7 @@
         <v>141</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>34</v>
@@ -5889,12 +5923,12 @@
         <v>145</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>1361</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="13" spans="1:22" s="3" customFormat="1" ht="13.2" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>1364</v>
+        <v>1333</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>146</v>
@@ -5912,7 +5946,7 @@
         <v>149</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>27</v>
@@ -5936,7 +5970,7 @@
         <v>151</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>34</v>
@@ -5957,12 +5991,12 @@
         <v>155</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>1363</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="14" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>1366</v>
+        <v>1335</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>156</v>
@@ -5989,7 +6023,7 @@
         <v>46</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>161</v>
@@ -6004,7 +6038,7 @@
         <v>162</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>34</v>
@@ -6025,12 +6059,12 @@
         <v>166</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>1365</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>167</v>
@@ -6048,7 +6082,7 @@
         <v>170</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>27</v>
@@ -6072,10 +6106,10 @@
         <v>172</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>1333</v>
+        <v>1302</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>173</v>
@@ -6093,12 +6127,12 @@
         <v>176</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>1367</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="16" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>1369</v>
+        <v>1338</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>177</v>
@@ -6116,7 +6150,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>27</v>
@@ -6125,7 +6159,7 @@
         <v>46</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>181</v>
@@ -6140,7 +6174,7 @@
         <v>183</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>50</v>
@@ -6161,12 +6195,12 @@
         <v>187</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>1371</v>
+        <v>1340</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>188</v>
@@ -6184,7 +6218,7 @@
         <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1377</v>
+        <v>1346</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>27</v>
@@ -6193,7 +6227,7 @@
         <v>46</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>192</v>
@@ -6208,7 +6242,7 @@
         <v>194</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>34</v>
@@ -6229,12 +6263,12 @@
         <v>198</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1" ht="13.2" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>1380</v>
+        <v>1349</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>199</v>
@@ -6252,7 +6286,7 @@
         <v>202</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1381</v>
+        <v>1350</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>27</v>
@@ -6261,7 +6295,7 @@
         <v>46</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>203</v>
@@ -6276,7 +6310,7 @@
         <v>204</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>34</v>
@@ -6297,12 +6331,12 @@
         <v>208</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>1379</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>1383</v>
+        <v>1352</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>209</v>
@@ -6344,7 +6378,7 @@
         <v>215</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>34</v>
@@ -6365,12 +6399,12 @@
         <v>219</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>1382</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="20" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>1386</v>
+        <v>1355</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>220</v>
@@ -6388,7 +6422,7 @@
         <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>1384</v>
+        <v>1353</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>27</v>
@@ -6397,7 +6431,7 @@
         <v>46</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>224</v>
@@ -6412,7 +6446,7 @@
         <v>225</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>34</v>
@@ -6433,12 +6467,12 @@
         <v>229</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="3" customFormat="1" ht="15.6" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>1407</v>
+        <v>1376</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>230</v>
@@ -6465,7 +6499,7 @@
         <v>46</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>235</v>
@@ -6480,7 +6514,7 @@
         <v>236</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>34</v>
@@ -6501,7 +6535,7 @@
         <v>240</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>1406</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -6548,7 +6582,7 @@
         <v>248</v>
       </c>
       <c r="O22" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P22" t="s">
         <v>50</v>
@@ -6601,7 +6635,7 @@
         <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K23" t="s">
         <v>260</v>
@@ -6616,7 +6650,7 @@
         <v>261</v>
       </c>
       <c r="O23" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P23" t="s">
         <v>34</v>
@@ -6642,7 +6676,7 @@
     </row>
     <row r="24" spans="1:22" s="3" customFormat="1" ht="13.2" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>1405</v>
+        <v>1374</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>267</v>
@@ -6651,7 +6685,7 @@
         <v>268</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1404</v>
+        <v>1373</v>
       </c>
       <c r="E24" s="3">
         <v>2025</v>
@@ -6669,7 +6703,7 @@
         <v>46</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>271</v>
@@ -6684,7 +6718,7 @@
         <v>272</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>50</v>
@@ -6705,7 +6739,7 @@
         <v>276</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>1403</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -6737,7 +6771,7 @@
         <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
       <c r="K25" t="s">
         <v>283</v>
@@ -6752,7 +6786,7 @@
         <v>284</v>
       </c>
       <c r="O25" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P25" t="s">
         <v>34</v>
@@ -6820,7 +6854,7 @@
         <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P26" t="s">
         <v>34</v>
@@ -6885,7 +6919,7 @@
         <v>308</v>
       </c>
       <c r="O27" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P27" t="s">
         <v>34</v>
@@ -6938,7 +6972,7 @@
         <v>46</v>
       </c>
       <c r="J28" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K28" t="s">
         <v>320</v>
@@ -6953,7 +6987,7 @@
         <v>321</v>
       </c>
       <c r="O28" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P28" t="s">
         <v>34</v>
@@ -7006,7 +7040,7 @@
         <v>46</v>
       </c>
       <c r="J29" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K29" t="s">
         <v>333</v>
@@ -7021,7 +7055,7 @@
         <v>334</v>
       </c>
       <c r="O29" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P29" t="s">
         <v>50</v>
@@ -7089,7 +7123,7 @@
         <v>347</v>
       </c>
       <c r="O30" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P30" t="s">
         <v>50</v>
@@ -7142,7 +7176,7 @@
         <v>46</v>
       </c>
       <c r="J31" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K31" t="s">
         <v>358</v>
@@ -7157,7 +7191,7 @@
         <v>359</v>
       </c>
       <c r="O31" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P31" t="s">
         <v>34</v>
@@ -7183,7 +7217,7 @@
     </row>
     <row r="32" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>1415</v>
+        <v>1384</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>365</v>
@@ -7225,7 +7259,7 @@
         <v>371</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>50</v>
@@ -7246,7 +7280,7 @@
         <v>376</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>1416</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -7278,7 +7312,7 @@
         <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K33" t="s">
         <v>384</v>
@@ -7293,7 +7327,7 @@
         <v>385</v>
       </c>
       <c r="O33" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P33" t="s">
         <v>34</v>
@@ -7361,7 +7395,7 @@
         <v>399</v>
       </c>
       <c r="O34" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P34" t="s">
         <v>50</v>
@@ -7429,7 +7463,7 @@
         <v>412</v>
       </c>
       <c r="O35" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P35" t="s">
         <v>50</v>
@@ -7482,7 +7516,7 @@
         <v>46</v>
       </c>
       <c r="J36" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K36" t="s">
         <v>424</v>
@@ -7497,7 +7531,7 @@
         <v>425</v>
       </c>
       <c r="O36" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P36" t="s">
         <v>34</v>
@@ -7550,7 +7584,7 @@
         <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K37" t="s">
         <v>437</v>
@@ -7565,7 +7599,7 @@
         <v>438</v>
       </c>
       <c r="O37" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P37" t="s">
         <v>34</v>
@@ -7618,7 +7652,7 @@
         <v>46</v>
       </c>
       <c r="J38" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K38" t="s">
         <v>450</v>
@@ -7633,7 +7667,7 @@
         <v>451</v>
       </c>
       <c r="O38" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P38" t="s">
         <v>34</v>
@@ -7701,7 +7735,7 @@
         <v>465</v>
       </c>
       <c r="O39" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P39" t="s">
         <v>372</v>
@@ -7769,7 +7803,7 @@
         <v>480</v>
       </c>
       <c r="O40" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P40" t="s">
         <v>50</v>
@@ -7789,7 +7823,7 @@
     </row>
     <row r="41" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>1418</v>
+        <v>1387</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>484</v>
@@ -7816,7 +7850,7 @@
         <v>46</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>489</v>
@@ -7831,7 +7865,7 @@
         <v>490</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>372</v>
@@ -7852,12 +7886,12 @@
         <v>494</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>1417</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="42" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>1420</v>
+        <v>1389</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>495</v>
@@ -7884,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>500</v>
@@ -7899,7 +7933,7 @@
         <v>501</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>34</v>
@@ -7917,7 +7951,7 @@
         <v>54</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>1421</v>
+        <v>1390</v>
       </c>
       <c r="V42" s="12"/>
     </row>
@@ -7950,7 +7984,7 @@
         <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K43" t="s">
         <v>511</v>
@@ -7965,7 +7999,7 @@
         <v>512</v>
       </c>
       <c r="O43" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P43" t="s">
         <v>34</v>
@@ -8015,7 +8049,7 @@
         <v>46</v>
       </c>
       <c r="J44" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K44" t="s">
         <v>523</v>
@@ -8030,7 +8064,7 @@
         <v>524</v>
       </c>
       <c r="O44" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P44" t="s">
         <v>34</v>
@@ -8053,7 +8087,7 @@
     </row>
     <row r="45" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>1392</v>
+        <v>1361</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>529</v>
@@ -8080,7 +8114,7 @@
         <v>46</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>534</v>
@@ -8095,7 +8129,7 @@
         <v>535</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>50</v>
@@ -8113,7 +8147,7 @@
         <v>54</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>1391</v>
+        <v>1360</v>
       </c>
       <c r="V45" s="12"/>
     </row>
@@ -8161,7 +8195,7 @@
         <v>546</v>
       </c>
       <c r="O46" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P46" t="s">
         <v>34</v>
@@ -8190,7 +8224,7 @@
         <v>552</v>
       </c>
       <c r="C47" t="s">
-        <v>1378</v>
+        <v>1347</v>
       </c>
       <c r="D47" t="s">
         <v>553</v>
@@ -8211,7 +8245,7 @@
         <v>556</v>
       </c>
       <c r="J47" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K47" t="s">
         <v>557</v>
@@ -8226,7 +8260,7 @@
         <v>558</v>
       </c>
       <c r="O47" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P47" t="s">
         <v>34</v>
@@ -8276,7 +8310,7 @@
         <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
       <c r="K48" t="s">
         <v>567</v>
@@ -8291,7 +8325,7 @@
         <v>568</v>
       </c>
       <c r="O48" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P48" t="s">
         <v>50</v>
@@ -8312,80 +8346,81 @@
         <v>572</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
-      <c r="A49" t="s">
-        <v>573</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>2020</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J49" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="J49" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="O49" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P49" t="s">
+      <c r="O49" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P49" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T49" t="s">
-        <v>582</v>
-      </c>
+      <c r="U49" s="6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="V49" s="12"/>
     </row>
     <row r="50" spans="1:22">
       <c r="A50" t="s">
+        <v>582</v>
+      </c>
+      <c r="B50" t="s">
         <v>583</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>584</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>585</v>
-      </c>
-      <c r="D50" t="s">
-        <v>586</v>
       </c>
       <c r="E50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
+        <v>586</v>
+      </c>
+      <c r="G50" t="s">
         <v>587</v>
-      </c>
-      <c r="G50" t="s">
-        <v>588</v>
       </c>
       <c r="H50" t="s">
         <v>27</v>
@@ -8394,10 +8429,10 @@
         <v>46</v>
       </c>
       <c r="J50" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L50" t="s">
         <v>63</v>
@@ -8406,51 +8441,51 @@
         <v>31</v>
       </c>
       <c r="N50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O50" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P50" t="s">
         <v>34</v>
       </c>
       <c r="Q50" t="s">
+        <v>590</v>
+      </c>
+      <c r="R50" t="s">
         <v>591</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>592</v>
-      </c>
-      <c r="S50" t="s">
-        <v>593</v>
       </c>
       <c r="T50" t="s">
         <v>54</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" t="s">
+        <v>594</v>
+      </c>
+      <c r="B51" t="s">
         <v>595</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>596</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>597</v>
-      </c>
-      <c r="D51" t="s">
-        <v>598</v>
       </c>
       <c r="E51">
         <v>2021</v>
       </c>
       <c r="F51" t="s">
+        <v>598</v>
+      </c>
+      <c r="G51" t="s">
         <v>599</v>
-      </c>
-      <c r="G51" t="s">
-        <v>600</v>
       </c>
       <c r="H51" t="s">
         <v>27</v>
@@ -8459,10 +8494,10 @@
         <v>46</v>
       </c>
       <c r="J51" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K51" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L51" t="s">
         <v>30</v>
@@ -8471,51 +8506,51 @@
         <v>109</v>
       </c>
       <c r="N51" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O51" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P51" t="s">
         <v>372</v>
       </c>
       <c r="Q51" t="s">
+        <v>602</v>
+      </c>
+      <c r="R51" t="s">
         <v>603</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>604</v>
-      </c>
-      <c r="S51" t="s">
-        <v>605</v>
       </c>
       <c r="T51" t="s">
         <v>54</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:22">
       <c r="A52" t="s">
+        <v>606</v>
+      </c>
+      <c r="B52" t="s">
         <v>607</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>608</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>609</v>
-      </c>
-      <c r="D52" t="s">
-        <v>610</v>
       </c>
       <c r="E52">
         <v>2019</v>
       </c>
       <c r="F52" t="s">
+        <v>610</v>
+      </c>
+      <c r="G52" t="s">
         <v>611</v>
-      </c>
-      <c r="G52" t="s">
-        <v>612</v>
       </c>
       <c r="H52" t="s">
         <v>27</v>
@@ -8524,10 +8559,10 @@
         <v>46</v>
       </c>
       <c r="J52" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K52" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L52" t="s">
         <v>398</v>
@@ -8536,51 +8571,51 @@
         <v>31</v>
       </c>
       <c r="N52" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O52" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P52" t="s">
         <v>34</v>
       </c>
       <c r="Q52" t="s">
+        <v>614</v>
+      </c>
+      <c r="R52" t="s">
         <v>615</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>616</v>
-      </c>
-      <c r="S52" t="s">
-        <v>617</v>
       </c>
       <c r="T52" t="s">
         <v>54</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" t="s">
+        <v>618</v>
+      </c>
+      <c r="B53" t="s">
         <v>619</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>620</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>621</v>
-      </c>
-      <c r="D53" t="s">
-        <v>622</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
+        <v>622</v>
+      </c>
+      <c r="G53" t="s">
         <v>623</v>
-      </c>
-      <c r="G53" t="s">
-        <v>624</v>
       </c>
       <c r="H53" t="s">
         <v>27</v>
@@ -8592,7 +8627,7 @@
         <v>61</v>
       </c>
       <c r="K53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L53" t="s">
         <v>398</v>
@@ -8601,51 +8636,51 @@
         <v>31</v>
       </c>
       <c r="N53" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O53" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P53" t="s">
         <v>34</v>
       </c>
       <c r="Q53" t="s">
+        <v>626</v>
+      </c>
+      <c r="R53" t="s">
         <v>627</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>628</v>
-      </c>
-      <c r="S53" t="s">
-        <v>629</v>
       </c>
       <c r="T53" t="s">
         <v>54</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" t="s">
         <v>631</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>632</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>633</v>
-      </c>
-      <c r="D54" t="s">
-        <v>634</v>
       </c>
       <c r="E54">
         <v>2019</v>
       </c>
       <c r="F54" t="s">
+        <v>634</v>
+      </c>
+      <c r="G54" t="s">
         <v>635</v>
-      </c>
-      <c r="G54" t="s">
-        <v>636</v>
       </c>
       <c r="H54" t="s">
         <v>27</v>
@@ -8654,10 +8689,10 @@
         <v>46</v>
       </c>
       <c r="J54" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K54" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L54" t="s">
         <v>30</v>
@@ -8666,48 +8701,48 @@
         <v>48</v>
       </c>
       <c r="N54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O54" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P54" t="s">
         <v>34</v>
       </c>
       <c r="Q54" t="s">
+        <v>638</v>
+      </c>
+      <c r="R54" t="s">
         <v>639</v>
-      </c>
-      <c r="R54" t="s">
-        <v>640</v>
       </c>
       <c r="S54" t="s">
         <v>54</v>
       </c>
       <c r="T54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" t="s">
+        <v>641</v>
+      </c>
+      <c r="B55" t="s">
         <v>642</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>643</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>644</v>
-      </c>
-      <c r="D55" t="s">
-        <v>645</v>
       </c>
       <c r="E55">
         <v>2025</v>
       </c>
       <c r="F55" t="s">
+        <v>645</v>
+      </c>
+      <c r="G55" t="s">
         <v>646</v>
-      </c>
-      <c r="G55" t="s">
-        <v>647</v>
       </c>
       <c r="H55" t="s">
         <v>27</v>
@@ -8716,10 +8751,10 @@
         <v>46</v>
       </c>
       <c r="J55" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L55" t="s">
         <v>30</v>
@@ -8728,175 +8763,180 @@
         <v>48</v>
       </c>
       <c r="N55" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O55" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P55" t="s">
         <v>34</v>
       </c>
       <c r="Q55" t="s">
+        <v>649</v>
+      </c>
+      <c r="R55" t="s">
         <v>650</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>651</v>
-      </c>
-      <c r="S55" t="s">
-        <v>652</v>
       </c>
       <c r="T55" t="s">
         <v>54</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
-      <c r="A56" t="s">
+    <row r="56" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" s="3">
+        <v>2020</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E56">
-        <v>2020</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="G56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L56" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="G56" t="s">
+      <c r="M56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="U56" s="6" t="s">
+        <v>1415</v>
+      </c>
+      <c r="V56" s="12"/>
+    </row>
+    <row r="57" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K56" t="s">
-        <v>398</v>
-      </c>
-      <c r="L56" t="s">
-        <v>659</v>
-      </c>
-      <c r="M56" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" t="s">
-        <v>33</v>
-      </c>
-      <c r="O56" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="J57" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="R56" t="s">
-        <v>660</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="Q57" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="T57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T56" t="s">
-        <v>661</v>
-      </c>
+      <c r="U57" s="6" t="s">
+        <v>1414</v>
+      </c>
+      <c r="V57" s="12"/>
     </row>
-    <row r="57" spans="1:22">
-      <c r="A57" t="s">
-        <v>662</v>
-      </c>
-      <c r="B57" t="s">
-        <v>663</v>
-      </c>
-      <c r="C57" t="s">
-        <v>664</v>
-      </c>
-      <c r="D57" t="s">
-        <v>665</v>
-      </c>
-      <c r="E57">
-        <v>2018</v>
-      </c>
-      <c r="F57" t="s">
-        <v>666</v>
-      </c>
-      <c r="G57" t="s">
-        <v>667</v>
-      </c>
-      <c r="H57" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" t="s">
-        <v>46</v>
-      </c>
-      <c r="J57" t="s">
-        <v>61</v>
-      </c>
-      <c r="K57" t="s">
-        <v>668</v>
-      </c>
-      <c r="L57" t="s">
-        <v>669</v>
-      </c>
-      <c r="M57" t="s">
-        <v>48</v>
-      </c>
-      <c r="N57" t="s">
-        <v>670</v>
-      </c>
-      <c r="O57" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P57" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>671</v>
-      </c>
-      <c r="R57" t="s">
+    <row r="58" spans="1:22" s="3" customFormat="1" ht="13.2" hidden="1" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="S57" t="s">
+      <c r="C58" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="T57" t="s">
-        <v>54</v>
-      </c>
-      <c r="U57" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="3" customFormat="1" ht="13.2" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>677</v>
       </c>
       <c r="E58" s="3">
         <v>2019</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>27</v>
@@ -8905,64 +8945,64 @@
         <v>46</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>50</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="R58" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>54</v>
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" t="s">
+        <v>684</v>
+      </c>
+      <c r="B59" t="s">
+        <v>685</v>
+      </c>
+      <c r="C59" t="s">
+        <v>686</v>
+      </c>
+      <c r="D59" t="s">
         <v>687</v>
-      </c>
-      <c r="B59" t="s">
-        <v>688</v>
-      </c>
-      <c r="C59" t="s">
-        <v>689</v>
-      </c>
-      <c r="D59" t="s">
-        <v>690</v>
       </c>
       <c r="E59">
         <v>2019</v>
       </c>
       <c r="F59" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G59" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H59" t="s">
         <v>27</v>
@@ -8971,63 +9011,63 @@
         <v>46</v>
       </c>
       <c r="J59" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K59" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="L59" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M59" t="s">
         <v>48</v>
       </c>
       <c r="N59" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="O59" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P59" t="s">
         <v>34</v>
       </c>
       <c r="Q59" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="R59" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="S59" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="T59" t="s">
         <v>54</v>
       </c>
       <c r="U59" s="2" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" t="s">
+        <v>697</v>
+      </c>
+      <c r="B60" t="s">
+        <v>698</v>
+      </c>
+      <c r="C60" t="s">
+        <v>699</v>
+      </c>
+      <c r="D60" t="s">
         <v>700</v>
-      </c>
-      <c r="B60" t="s">
-        <v>701</v>
-      </c>
-      <c r="C60" t="s">
-        <v>702</v>
-      </c>
-      <c r="D60" t="s">
-        <v>703</v>
       </c>
       <c r="E60">
         <v>2021</v>
       </c>
       <c r="F60" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G60" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H60" t="s">
         <v>27</v>
@@ -9036,10 +9076,10 @@
         <v>46</v>
       </c>
       <c r="J60" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K60" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L60" t="s">
         <v>30</v>
@@ -9048,51 +9088,51 @@
         <v>109</v>
       </c>
       <c r="N60" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="O60" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P60" t="s">
         <v>34</v>
       </c>
       <c r="Q60" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="R60" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="S60" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="T60" t="s">
         <v>54</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="61" spans="1:22" s="3" customFormat="1" ht="16.2" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>1402</v>
+        <v>1371</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E61" s="3">
         <v>2024</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>27</v>
@@ -9101,10 +9141,10 @@
         <v>46</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>30</v>
@@ -9113,52 +9153,52 @@
         <v>109</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="R61" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="S61" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="T61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="U61" s="6" t="s">
-        <v>1401</v>
+        <v>1370</v>
       </c>
       <c r="V61" s="12"/>
     </row>
     <row r="62" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>1425</v>
+        <v>1394</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E62" s="3">
         <v>2015</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>27</v>
@@ -9167,10 +9207,10 @@
         <v>46</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>63</v>
@@ -9179,52 +9219,52 @@
         <v>31</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="R62" s="3" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>54</v>
       </c>
       <c r="U62" s="6" t="s">
-        <v>1424</v>
+        <v>1393</v>
       </c>
       <c r="V62" s="12"/>
     </row>
     <row r="63" spans="1:22" s="3" customFormat="1" ht="13.2" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>1388</v>
+        <v>1357</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E63" s="3">
         <v>2019</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>27</v>
@@ -9233,10 +9273,10 @@
         <v>46</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>63</v>
@@ -9245,52 +9285,52 @@
         <v>129</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="S63" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>54</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="V63" s="12"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" t="s">
+        <v>739</v>
+      </c>
+      <c r="B64" t="s">
+        <v>740</v>
+      </c>
+      <c r="C64" t="s">
+        <v>741</v>
+      </c>
+      <c r="D64" t="s">
         <v>742</v>
-      </c>
-      <c r="B64" t="s">
-        <v>743</v>
-      </c>
-      <c r="C64" t="s">
-        <v>744</v>
-      </c>
-      <c r="D64" t="s">
-        <v>745</v>
       </c>
       <c r="E64">
         <v>2017</v>
       </c>
       <c r="F64" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G64" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="H64" t="s">
         <v>27</v>
@@ -9302,60 +9342,60 @@
         <v>61</v>
       </c>
       <c r="K64" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="L64" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="M64" t="s">
         <v>31</v>
       </c>
       <c r="N64" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="O64" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P64" t="s">
         <v>34</v>
       </c>
       <c r="Q64" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="R64" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="S64" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="T64" t="s">
         <v>54</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" t="s">
+        <v>752</v>
+      </c>
+      <c r="B65" t="s">
+        <v>753</v>
+      </c>
+      <c r="C65" t="s">
+        <v>754</v>
+      </c>
+      <c r="D65" t="s">
         <v>755</v>
-      </c>
-      <c r="B65" t="s">
-        <v>756</v>
-      </c>
-      <c r="C65" t="s">
-        <v>757</v>
-      </c>
-      <c r="D65" t="s">
-        <v>758</v>
       </c>
       <c r="E65">
         <v>2022</v>
       </c>
       <c r="F65" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G65" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
@@ -9364,57 +9404,57 @@
         <v>46</v>
       </c>
       <c r="J65" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K65" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="L65" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M65" t="s">
         <v>31</v>
       </c>
       <c r="N65" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="O65" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="P65" t="s">
         <v>50</v>
       </c>
       <c r="Q65" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="R65" t="s">
         <v>54</v>
       </c>
       <c r="S65" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" t="s">
+        <v>762</v>
+      </c>
+      <c r="B66" t="s">
+        <v>763</v>
+      </c>
+      <c r="C66" t="s">
+        <v>764</v>
+      </c>
+      <c r="D66" t="s">
         <v>765</v>
-      </c>
-      <c r="B66" t="s">
-        <v>766</v>
-      </c>
-      <c r="C66" t="s">
-        <v>767</v>
-      </c>
-      <c r="D66" t="s">
-        <v>768</v>
       </c>
       <c r="E66">
         <v>2023</v>
       </c>
       <c r="F66" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G66" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H66" t="s">
         <v>27</v>
@@ -9423,10 +9463,10 @@
         <v>46</v>
       </c>
       <c r="J66" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K66" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="L66" t="s">
         <v>30</v>
@@ -9435,51 +9475,51 @@
         <v>109</v>
       </c>
       <c r="N66" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="O66" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="P66" t="s">
         <v>34</v>
       </c>
       <c r="Q66" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="R66" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="S66" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="T66" t="s">
         <v>54</v>
       </c>
       <c r="U66" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" t="s">
+        <v>774</v>
+      </c>
+      <c r="B67" t="s">
+        <v>775</v>
+      </c>
+      <c r="C67" t="s">
+        <v>776</v>
+      </c>
+      <c r="D67" t="s">
         <v>777</v>
-      </c>
-      <c r="B67" t="s">
-        <v>778</v>
-      </c>
-      <c r="C67" t="s">
-        <v>779</v>
-      </c>
-      <c r="D67" t="s">
-        <v>780</v>
       </c>
       <c r="E67">
         <v>2023</v>
       </c>
       <c r="F67" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G67" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
@@ -9494,238 +9534,245 @@
         <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="M67" t="s">
         <v>129</v>
       </c>
       <c r="N67" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="O67" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P67" t="s">
         <v>34</v>
       </c>
       <c r="Q67" t="s">
+        <v>782</v>
+      </c>
+      <c r="R67" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" s="3" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E68" s="3">
+        <v>2018</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="R67" t="s">
+      <c r="G68" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K68" s="3" t="s">
         <v>786</v>
       </c>
+      <c r="L68" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="U68" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="V68" s="12"/>
     </row>
-    <row r="68" spans="1:22">
-      <c r="A68" t="s">
-        <v>787</v>
-      </c>
-      <c r="B68" t="s">
-        <v>788</v>
-      </c>
-      <c r="C68" t="s">
-        <v>789</v>
-      </c>
-      <c r="D68" t="s">
-        <v>610</v>
-      </c>
-      <c r="E68">
-        <v>2018</v>
-      </c>
-      <c r="F68" t="s">
-        <v>790</v>
-      </c>
-      <c r="G68" t="s">
-        <v>612</v>
-      </c>
-      <c r="H68" t="s">
+    <row r="69" spans="1:22" s="3" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I69" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J68" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K68" t="s">
-        <v>791</v>
-      </c>
-      <c r="L68" t="s">
-        <v>398</v>
-      </c>
-      <c r="M68" t="s">
-        <v>31</v>
-      </c>
-      <c r="N68" t="s">
-        <v>792</v>
-      </c>
-      <c r="O68" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="J69" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q68" t="s">
-        <v>793</v>
-      </c>
-      <c r="R68" t="s">
+      <c r="Q69" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="T69" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S68" t="s">
-        <v>794</v>
-      </c>
+      <c r="U69" s="6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="V69" s="12"/>
     </row>
-    <row r="69" spans="1:22">
-      <c r="A69" t="s">
-        <v>795</v>
-      </c>
-      <c r="B69" t="s">
-        <v>796</v>
-      </c>
-      <c r="C69" t="s">
-        <v>797</v>
-      </c>
-      <c r="D69" t="s">
-        <v>798</v>
-      </c>
-      <c r="E69">
-        <v>2023</v>
-      </c>
-      <c r="F69" t="s">
-        <v>799</v>
-      </c>
-      <c r="G69" t="s">
-        <v>800</v>
-      </c>
-      <c r="H69" t="s">
+    <row r="70" spans="1:22">
+      <c r="A70" t="s">
+        <v>803</v>
+      </c>
+      <c r="B70" t="s">
+        <v>804</v>
+      </c>
+      <c r="C70" t="s">
+        <v>805</v>
+      </c>
+      <c r="D70" t="s">
+        <v>806</v>
+      </c>
+      <c r="E70">
+        <v>2017</v>
+      </c>
+      <c r="F70" t="s">
+        <v>801</v>
+      </c>
+      <c r="G70" t="s">
+        <v>801</v>
+      </c>
+      <c r="H70" t="s">
         <v>27</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I70" t="s">
         <v>46</v>
       </c>
-      <c r="J69" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K69" t="s">
-        <v>801</v>
-      </c>
-      <c r="L69" t="s">
-        <v>30</v>
-      </c>
-      <c r="M69" t="s">
-        <v>109</v>
-      </c>
-      <c r="N69" t="s">
-        <v>802</v>
-      </c>
-      <c r="O69" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P69" t="s">
+      <c r="J70" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K70" t="s">
+        <v>807</v>
+      </c>
+      <c r="L70" t="s">
+        <v>808</v>
+      </c>
+      <c r="M70" t="s">
+        <v>129</v>
+      </c>
+      <c r="N70" t="s">
+        <v>809</v>
+      </c>
+      <c r="O70" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P70" t="s">
         <v>34</v>
       </c>
-      <c r="Q69" t="s">
-        <v>803</v>
-      </c>
-      <c r="R69" t="s">
-        <v>804</v>
-      </c>
-      <c r="S69" t="s">
-        <v>805</v>
-      </c>
-      <c r="T69" t="s">
+      <c r="Q70" t="s">
+        <v>810</v>
+      </c>
+      <c r="R70" t="s">
+        <v>811</v>
+      </c>
+      <c r="S70" t="s">
+        <v>812</v>
+      </c>
+      <c r="T70" t="s">
         <v>54</v>
       </c>
-      <c r="U69" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="3" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2024</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>811</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N70" s="3" t="s">
+      <c r="U70" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q70" s="3" t="s">
+      <c r="V70" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U70" s="6" t="s">
-        <v>1389</v>
-      </c>
-      <c r="V70" s="12"/>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" t="s">
+        <v>815</v>
+      </c>
+      <c r="B71" t="s">
+        <v>816</v>
+      </c>
+      <c r="C71" t="s">
         <v>817</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>818</v>
       </c>
-      <c r="C71" t="s">
-        <v>819</v>
-      </c>
-      <c r="D71" t="s">
-        <v>820</v>
-      </c>
-      <c r="E71">
-        <v>2021</v>
+      <c r="E71" t="s">
+        <v>801</v>
       </c>
       <c r="F71" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="G71" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="H71" t="s">
         <v>27</v>
@@ -9734,57 +9781,66 @@
         <v>46</v>
       </c>
       <c r="J71" t="s">
-        <v>1353</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="L71" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M71" t="s">
         <v>109</v>
       </c>
       <c r="N71" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="O71" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P71" t="s">
         <v>34</v>
       </c>
       <c r="Q71" t="s">
+        <v>822</v>
+      </c>
+      <c r="R71" t="s">
+        <v>823</v>
+      </c>
+      <c r="S71" t="s">
+        <v>824</v>
+      </c>
+      <c r="T71" t="s">
+        <v>54</v>
+      </c>
+      <c r="U71" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="R71" t="s">
-        <v>827</v>
-      </c>
-      <c r="S71" t="s">
-        <v>828</v>
+      <c r="V71" s="2" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" t="s">
+        <v>827</v>
+      </c>
+      <c r="B72" t="s">
+        <v>828</v>
+      </c>
+      <c r="C72" t="s">
         <v>829</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>830</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72">
+        <v>2024</v>
+      </c>
+      <c r="F72" t="s">
         <v>831</v>
       </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
         <v>832</v>
-      </c>
-      <c r="E72">
-        <v>2017</v>
-      </c>
-      <c r="F72" t="s">
-        <v>821</v>
-      </c>
-      <c r="G72" t="s">
-        <v>821</v>
       </c>
       <c r="H72" t="s">
         <v>27</v>
@@ -9793,7 +9849,7 @@
         <v>46</v>
       </c>
       <c r="J72" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K72" t="s">
         <v>833</v>
@@ -9802,19 +9858,19 @@
         <v>834</v>
       </c>
       <c r="M72" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="N72" t="s">
         <v>835</v>
       </c>
       <c r="O72" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P72" t="s">
         <v>34</v>
       </c>
       <c r="Q72" t="s">
-        <v>836</v>
+        <v>801</v>
       </c>
       <c r="R72" t="s">
         <v>837</v>
@@ -9837,22 +9893,22 @@
         <v>841</v>
       </c>
       <c r="B73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" t="s">
         <v>842</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>843</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73">
+        <v>2023</v>
+      </c>
+      <c r="F73" t="s">
+        <v>281</v>
+      </c>
+      <c r="G73" t="s">
         <v>844</v>
-      </c>
-      <c r="E73" t="s">
-        <v>821</v>
-      </c>
-      <c r="F73" t="s">
-        <v>821</v>
-      </c>
-      <c r="G73" t="s">
-        <v>821</v>
       </c>
       <c r="H73" t="s">
         <v>27</v>
@@ -9861,7 +9917,7 @@
         <v>46</v>
       </c>
       <c r="J73" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="K73" t="s">
         <v>845</v>
@@ -9876,7 +9932,7 @@
         <v>847</v>
       </c>
       <c r="O73" t="s">
-        <v>1332</v>
+        <v>1300</v>
       </c>
       <c r="P73" t="s">
         <v>34</v>
@@ -9914,7 +9970,7 @@
         <v>856</v>
       </c>
       <c r="E74">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F74" t="s">
         <v>857</v>
@@ -9929,7 +9985,7 @@
         <v>46</v>
       </c>
       <c r="J74" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K74" t="s">
         <v>859</v>
@@ -9944,13 +10000,13 @@
         <v>861</v>
       </c>
       <c r="O74" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P74" t="s">
         <v>34</v>
       </c>
       <c r="Q74" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="R74" t="s">
         <v>863</v>
@@ -9973,22 +10029,22 @@
         <v>867</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>868</v>
       </c>
       <c r="C75" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D75" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E75">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="F75" t="s">
         <v>281</v>
       </c>
       <c r="G75" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="H75" t="s">
         <v>27</v>
@@ -10000,22 +10056,22 @@
         <v>61</v>
       </c>
       <c r="K75" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="L75" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="M75" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="N75" t="s">
         <v>873</v>
       </c>
       <c r="O75" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="P75" t="s">
-        <v>34</v>
+        <v>1302</v>
       </c>
       <c r="Q75" t="s">
         <v>874</v>
@@ -10027,7 +10083,7 @@
         <v>876</v>
       </c>
       <c r="T75" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>877</v>
@@ -10036,95 +10092,93 @@
         <v>878</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
-      <c r="A76" t="s">
+    <row r="76" spans="1:22" s="3" customFormat="1" ht="19.2" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" s="3">
+        <v>2022</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>881</v>
       </c>
-      <c r="D76" t="s">
+      <c r="G76" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="E76">
-        <v>2025</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="H76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K76" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="G76" t="s">
+      <c r="L76" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="H76" t="s">
-        <v>27</v>
-      </c>
-      <c r="I76" t="s">
-        <v>46</v>
-      </c>
-      <c r="J76" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K76" t="s">
+      <c r="M76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N76" s="3" t="s">
         <v>885</v>
       </c>
-      <c r="L76" t="s">
+      <c r="O76" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q76" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="M76" t="s">
-        <v>31</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="R76" s="3" t="s">
         <v>887</v>
       </c>
-      <c r="O76" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P76" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="S76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T76" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="R76" t="s">
-        <v>889</v>
-      </c>
-      <c r="S76" t="s">
-        <v>890</v>
-      </c>
-      <c r="T76" t="s">
-        <v>54</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>892</v>
+      <c r="U76" s="12"/>
+      <c r="V76" s="6" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B77" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C77" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D77" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E77">
         <v>2025</v>
       </c>
       <c r="F77" t="s">
-        <v>281</v>
+        <v>893</v>
       </c>
       <c r="G77" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H77" t="s">
         <v>27</v>
@@ -10136,63 +10190,63 @@
         <v>61</v>
       </c>
       <c r="K77" t="s">
+        <v>895</v>
+      </c>
+      <c r="L77" t="s">
+        <v>896</v>
+      </c>
+      <c r="M77" t="s">
+        <v>109</v>
+      </c>
+      <c r="N77" t="s">
+        <v>897</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P77" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q77" t="s">
         <v>898</v>
       </c>
-      <c r="L77" t="s">
-        <v>871</v>
-      </c>
-      <c r="M77" t="s">
-        <v>31</v>
-      </c>
-      <c r="N77" t="s">
+      <c r="R77" t="s">
         <v>899</v>
       </c>
-      <c r="O77" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P77" t="s">
-        <v>1333</v>
-      </c>
-      <c r="Q77" t="s">
+      <c r="S77" t="s">
         <v>900</v>
       </c>
-      <c r="R77" t="s">
+      <c r="T77" t="s">
+        <v>54</v>
+      </c>
+      <c r="U77" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="S77" t="s">
+      <c r="V77" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="T77" t="s">
-        <v>38</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" t="s">
+        <v>903</v>
+      </c>
+      <c r="B78" t="s">
+        <v>791</v>
+      </c>
+      <c r="C78" t="s">
+        <v>904</v>
+      </c>
+      <c r="D78" t="s">
         <v>905</v>
       </c>
-      <c r="B78" t="s">
-        <v>378</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="E78">
+        <v>2024</v>
+      </c>
+      <c r="F78" t="s">
         <v>906</v>
       </c>
-      <c r="D78" t="s">
+      <c r="G78" t="s">
         <v>907</v>
-      </c>
-      <c r="E78">
-        <v>2022</v>
-      </c>
-      <c r="F78" t="s">
-        <v>908</v>
-      </c>
-      <c r="G78" t="s">
-        <v>909</v>
       </c>
       <c r="H78" t="s">
         <v>27</v>
@@ -10201,63 +10255,66 @@
         <v>46</v>
       </c>
       <c r="J78" t="s">
-        <v>61</v>
+        <v>1321</v>
       </c>
       <c r="K78" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="L78" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="M78" t="s">
         <v>48</v>
       </c>
       <c r="N78" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="O78" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="P78" t="s">
         <v>34</v>
       </c>
       <c r="Q78" t="s">
+        <v>911</v>
+      </c>
+      <c r="R78" t="s">
+        <v>912</v>
+      </c>
+      <c r="S78" t="s">
         <v>913</v>
       </c>
-      <c r="R78" t="s">
+      <c r="T78" t="s">
+        <v>54</v>
+      </c>
+      <c r="U78" s="2" t="s">
         <v>914</v>
       </c>
-      <c r="S78" t="s">
-        <v>54</v>
-      </c>
-      <c r="T78" t="s">
+      <c r="V78" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" t="s">
+        <v>916</v>
+      </c>
+      <c r="B79" t="s">
         <v>917</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>918</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>919</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79">
+        <v>2023</v>
+      </c>
+      <c r="F79" t="s">
         <v>920</v>
       </c>
-      <c r="E79">
-        <v>2025</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>921</v>
-      </c>
-      <c r="G79" t="s">
-        <v>922</v>
       </c>
       <c r="H79" t="s">
         <v>27</v>
@@ -10269,63 +10326,63 @@
         <v>61</v>
       </c>
       <c r="K79" t="s">
+        <v>922</v>
+      </c>
+      <c r="L79" t="s">
         <v>923</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" t="s">
         <v>924</v>
       </c>
-      <c r="M79" t="s">
-        <v>109</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P79" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q79" t="s">
         <v>925</v>
       </c>
-      <c r="O79" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P79" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q79" t="s">
+      <c r="R79" t="s">
         <v>926</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>927</v>
-      </c>
-      <c r="S79" t="s">
-        <v>928</v>
       </c>
       <c r="T79" t="s">
         <v>54</v>
       </c>
       <c r="U79" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="V79" s="2" t="s">
         <v>929</v>
-      </c>
-      <c r="V79" s="2" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" t="s">
+        <v>930</v>
+      </c>
+      <c r="B80" t="s">
+        <v>473</v>
+      </c>
+      <c r="C80" t="s">
         <v>931</v>
       </c>
-      <c r="B80" t="s">
-        <v>807</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>932</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80">
+        <v>2020</v>
+      </c>
+      <c r="F80" t="s">
         <v>933</v>
       </c>
-      <c r="E80">
-        <v>2024</v>
-      </c>
-      <c r="F80" t="s">
-        <v>934</v>
-      </c>
       <c r="G80" t="s">
-        <v>935</v>
+        <v>801</v>
       </c>
       <c r="H80" t="s">
         <v>27</v>
@@ -10334,134 +10391,131 @@
         <v>46</v>
       </c>
       <c r="J80" t="s">
-        <v>1352</v>
+        <v>61</v>
       </c>
       <c r="K80" t="s">
+        <v>934</v>
+      </c>
+      <c r="L80" t="s">
+        <v>935</v>
+      </c>
+      <c r="M80" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" t="s">
         <v>936</v>
       </c>
-      <c r="L80" t="s">
-        <v>937</v>
-      </c>
-      <c r="M80" t="s">
-        <v>48</v>
-      </c>
-      <c r="N80" t="s">
-        <v>938</v>
-      </c>
       <c r="O80" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
       <c r="P80" t="s">
         <v>34</v>
       </c>
       <c r="Q80" t="s">
+        <v>937</v>
+      </c>
+      <c r="R80" t="s">
+        <v>938</v>
+      </c>
+      <c r="S80" t="s">
+        <v>54</v>
+      </c>
+      <c r="T80" t="s">
         <v>939</v>
       </c>
-      <c r="R80" t="s">
+      <c r="U80" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="S80" t="s">
-        <v>941</v>
-      </c>
-      <c r="T80" t="s">
-        <v>54</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="V80" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B81" t="s">
-        <v>945</v>
+        <v>328</v>
       </c>
       <c r="C81" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D81" t="s">
-        <v>947</v>
-      </c>
-      <c r="E81">
-        <v>2023</v>
+        <v>801</v>
+      </c>
+      <c r="E81" t="s">
+        <v>801</v>
       </c>
       <c r="F81" t="s">
-        <v>948</v>
+        <v>801</v>
       </c>
       <c r="G81" t="s">
-        <v>949</v>
+        <v>801</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>556</v>
       </c>
       <c r="J81" t="s">
-        <v>61</v>
+        <v>1321</v>
       </c>
       <c r="K81" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="L81" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="M81" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="N81" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="O81" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P81" t="s">
         <v>34</v>
       </c>
       <c r="Q81" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="R81" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="S81" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="T81" t="s">
         <v>54</v>
       </c>
       <c r="U81" s="2" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B82" t="s">
-        <v>473</v>
+        <v>365</v>
       </c>
       <c r="C82" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="D82" t="s">
-        <v>960</v>
+        <v>367</v>
       </c>
       <c r="E82">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="F82" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="G82" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
@@ -10473,128 +10527,131 @@
         <v>61</v>
       </c>
       <c r="K82" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="L82" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="M82" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="N82" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="O82" t="s">
-        <v>1330</v>
+        <v>1301</v>
       </c>
       <c r="P82" t="s">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="Q82" t="s">
-        <v>965</v>
+        <v>801</v>
       </c>
       <c r="R82" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="S82" t="s">
+        <v>958</v>
+      </c>
+      <c r="T82" t="s">
         <v>54</v>
       </c>
-      <c r="T82" t="s">
-        <v>967</v>
-      </c>
       <c r="U82" s="2" t="s">
-        <v>968</v>
+        <v>959</v>
+      </c>
+      <c r="V82" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>962</v>
       </c>
       <c r="C83" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="D83" t="s">
-        <v>821</v>
-      </c>
-      <c r="E83" t="s">
-        <v>821</v>
+        <v>964</v>
+      </c>
+      <c r="E83">
+        <v>2021</v>
       </c>
       <c r="F83" t="s">
-        <v>821</v>
+        <v>965</v>
       </c>
       <c r="G83" t="s">
-        <v>821</v>
+        <v>966</v>
       </c>
       <c r="H83" t="s">
         <v>27</v>
       </c>
       <c r="I83" t="s">
-        <v>556</v>
+        <v>46</v>
       </c>
       <c r="J83" t="s">
-        <v>1352</v>
+        <v>61</v>
       </c>
       <c r="K83" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="L83" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="M83" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="N83" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="O83" t="s">
-        <v>1332</v>
+        <v>1300</v>
       </c>
       <c r="P83" t="s">
         <v>34</v>
       </c>
       <c r="Q83" t="s">
-        <v>974</v>
+        <v>801</v>
       </c>
       <c r="R83" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="S83" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="T83" t="s">
         <v>54</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="C84" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D84" t="s">
-        <v>367</v>
+        <v>976</v>
       </c>
       <c r="E84">
         <v>2025</v>
       </c>
       <c r="F84" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="G84" t="s">
-        <v>821</v>
+        <v>978</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -10603,66 +10660,66 @@
         <v>46</v>
       </c>
       <c r="J84" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="L84" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="M84" t="s">
         <v>129</v>
       </c>
       <c r="N84" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="O84" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P84" t="s">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="Q84" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="R84" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S84" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="T84" t="s">
         <v>54</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B85" t="s">
-        <v>990</v>
+        <v>518</v>
       </c>
       <c r="C85" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D85" t="s">
-        <v>992</v>
+        <v>520</v>
       </c>
       <c r="E85">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="F85" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="G85" t="s">
-        <v>994</v>
+        <v>801</v>
       </c>
       <c r="H85" t="s">
         <v>27</v>
@@ -10671,66 +10728,66 @@
         <v>46</v>
       </c>
       <c r="J85" t="s">
-        <v>61</v>
+        <v>1323</v>
       </c>
       <c r="K85" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="L85" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="M85" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N85" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="O85" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="P85" t="s">
         <v>34</v>
       </c>
       <c r="Q85" t="s">
-        <v>821</v>
+        <v>992</v>
       </c>
       <c r="R85" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="S85" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="T85" t="s">
         <v>54</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="B86" t="s">
-        <v>445</v>
+        <v>998</v>
       </c>
       <c r="C86" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D86" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E86">
         <v>2025</v>
       </c>
       <c r="F86" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="G86" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="H86" t="s">
         <v>27</v>
@@ -10739,134 +10796,134 @@
         <v>46</v>
       </c>
       <c r="J86" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="K86" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="L86" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M86" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="N86" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="O86" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P86" t="s">
         <v>34</v>
       </c>
       <c r="Q86" t="s">
-        <v>1010</v>
+        <v>874</v>
       </c>
       <c r="R86" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="S86" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="T86" t="s">
         <v>54</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="87" spans="1:22">
       <c r="A87" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B87" t="s">
-        <v>518</v>
+        <v>1011</v>
       </c>
       <c r="C87" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D87" t="s">
-        <v>520</v>
+        <v>1013</v>
       </c>
       <c r="E87">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F87" t="s">
-        <v>1017</v>
+        <v>801</v>
       </c>
       <c r="G87" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="H87" t="s">
         <v>27</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>556</v>
       </c>
       <c r="J87" t="s">
-        <v>1354</v>
+        <v>1323</v>
       </c>
       <c r="K87" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="L87" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="M87" t="s">
         <v>31</v>
       </c>
       <c r="N87" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="O87" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P87" t="s">
         <v>34</v>
       </c>
       <c r="Q87" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="R87" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="S87" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="T87" t="s">
         <v>54</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="88" spans="1:22">
       <c r="A88" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E88">
+        <v>2024</v>
+      </c>
+      <c r="F88" t="s">
         <v>1026</v>
       </c>
-      <c r="B88" t="s">
+      <c r="G88" t="s">
         <v>1027</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E88">
-        <v>2025</v>
-      </c>
-      <c r="F88" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1031</v>
       </c>
       <c r="H88" t="s">
         <v>27</v>
@@ -10875,134 +10932,134 @@
         <v>46</v>
       </c>
       <c r="J88" t="s">
-        <v>61</v>
+        <v>1321</v>
       </c>
       <c r="K88" t="s">
-        <v>1032</v>
+        <v>934</v>
       </c>
       <c r="L88" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="M88" t="s">
         <v>109</v>
       </c>
       <c r="N88" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="O88" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P88" t="s">
         <v>34</v>
       </c>
       <c r="Q88" t="s">
-        <v>900</v>
+        <v>1030</v>
       </c>
       <c r="R88" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="S88" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="T88" t="s">
         <v>54</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D89" t="s">
+        <v>394</v>
+      </c>
+      <c r="E89">
+        <v>2024</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G89" t="s">
         <v>1039</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E89">
-        <v>2023</v>
-      </c>
-      <c r="F89" t="s">
-        <v>821</v>
-      </c>
-      <c r="G89" t="s">
-        <v>821</v>
       </c>
       <c r="H89" t="s">
         <v>27</v>
       </c>
       <c r="I89" t="s">
-        <v>556</v>
+        <v>46</v>
       </c>
       <c r="J89" t="s">
-        <v>1354</v>
+        <v>61</v>
       </c>
       <c r="K89" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="L89" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="M89" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N89" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="O89" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P89" t="s">
         <v>34</v>
       </c>
       <c r="Q89" t="s">
-        <v>1046</v>
+        <v>801</v>
       </c>
       <c r="R89" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="S89" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="T89" t="s">
         <v>54</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B90" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C90" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="D90" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E90">
         <v>2024</v>
       </c>
       <c r="F90" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="G90" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="H90" t="s">
         <v>27</v>
@@ -11011,66 +11068,66 @@
         <v>46</v>
       </c>
       <c r="J90" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K90" t="s">
-        <v>962</v>
+        <v>1053</v>
       </c>
       <c r="L90" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="M90" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="N90" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="O90" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P90" t="s">
         <v>34</v>
       </c>
       <c r="Q90" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="R90" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="S90" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="T90" t="s">
         <v>54</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D91" t="s">
         <v>1064</v>
       </c>
-      <c r="B91" t="s">
+      <c r="E91">
+        <v>2025</v>
+      </c>
+      <c r="F91" t="s">
         <v>1065</v>
       </c>
-      <c r="C91" t="s">
+      <c r="G91" t="s">
         <v>1066</v>
-      </c>
-      <c r="D91" t="s">
-        <v>394</v>
-      </c>
-      <c r="E91">
-        <v>2024</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G91" t="s">
-        <v>1068</v>
       </c>
       <c r="H91" t="s">
         <v>27</v>
@@ -11079,66 +11136,66 @@
         <v>46</v>
       </c>
       <c r="J91" t="s">
-        <v>61</v>
+        <v>1321</v>
       </c>
       <c r="K91" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M91" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" t="s">
         <v>1069</v>
       </c>
-      <c r="L91" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M91" t="s">
-        <v>48</v>
-      </c>
-      <c r="N91" t="s">
-        <v>1071</v>
-      </c>
       <c r="O91" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P91" t="s">
         <v>34</v>
       </c>
       <c r="Q91" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="R91" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="S91" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="T91" t="s">
         <v>54</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D92" t="s">
         <v>1076</v>
       </c>
-      <c r="B92" t="s">
+      <c r="E92">
+        <v>2025</v>
+      </c>
+      <c r="F92" t="s">
         <v>1077</v>
       </c>
-      <c r="C92" t="s">
+      <c r="G92" t="s">
         <v>1078</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E92">
-        <v>2024</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G92" t="s">
-        <v>1081</v>
       </c>
       <c r="H92" t="s">
         <v>27</v>
@@ -11147,66 +11204,66 @@
         <v>46</v>
       </c>
       <c r="J92" t="s">
-        <v>1352</v>
+        <v>86</v>
       </c>
       <c r="K92" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="L92" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="M92" t="s">
         <v>31</v>
       </c>
       <c r="N92" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P92" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R92" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S92" t="s">
         <v>1084</v>
-      </c>
-      <c r="O92" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P92" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>1085</v>
-      </c>
-      <c r="R92" t="s">
-        <v>1086</v>
-      </c>
-      <c r="S92" t="s">
-        <v>1087</v>
       </c>
       <c r="T92" t="s">
         <v>54</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D93" t="s">
         <v>1090</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93">
+        <v>2022</v>
+      </c>
+      <c r="F93" t="s">
         <v>1091</v>
       </c>
-      <c r="C93" t="s">
+      <c r="G93" t="s">
         <v>1092</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E93">
-        <v>2025</v>
-      </c>
-      <c r="F93" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1095</v>
       </c>
       <c r="H93" t="s">
         <v>27</v>
@@ -11215,51 +11272,51 @@
         <v>46</v>
       </c>
       <c r="J93" t="s">
-        <v>1352</v>
+        <v>86</v>
       </c>
       <c r="K93" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="L93" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="M93" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N93" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="O93" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P93" t="s">
         <v>34</v>
       </c>
       <c r="Q93" t="s">
-        <v>862</v>
+        <v>1096</v>
       </c>
       <c r="R93" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S93" t="s">
+        <v>1098</v>
+      </c>
+      <c r="T93" t="s">
         <v>1099</v>
       </c>
-      <c r="S93" t="s">
+      <c r="U93" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="T93" t="s">
-        <v>54</v>
-      </c>
-      <c r="U93" s="2" t="s">
+      <c r="V93" s="2" t="s">
         <v>1101</v>
-      </c>
-      <c r="V93" s="2" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B94" t="s">
         <v>1103</v>
-      </c>
-      <c r="B94" t="s">
-        <v>242</v>
       </c>
       <c r="C94" t="s">
         <v>1104</v>
@@ -11267,82 +11324,82 @@
       <c r="D94" t="s">
         <v>1105</v>
       </c>
-      <c r="E94">
-        <v>2025</v>
+      <c r="E94" t="s">
+        <v>801</v>
       </c>
       <c r="F94" t="s">
-        <v>1106</v>
+        <v>801</v>
       </c>
       <c r="G94" t="s">
-        <v>1107</v>
+        <v>801</v>
       </c>
       <c r="H94" t="s">
         <v>27</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>556</v>
       </c>
       <c r="J94" t="s">
-        <v>86</v>
+        <v>1323</v>
       </c>
       <c r="K94" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M94" t="s">
+        <v>109</v>
+      </c>
+      <c r="N94" t="s">
+        <v>1107</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P94" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q94" t="s">
         <v>1108</v>
       </c>
-      <c r="L94" t="s">
+      <c r="R94" t="s">
         <v>1109</v>
       </c>
-      <c r="M94" t="s">
-        <v>31</v>
-      </c>
-      <c r="N94" t="s">
+      <c r="S94" t="s">
         <v>1110</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P94" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>1111</v>
-      </c>
-      <c r="R94" t="s">
-        <v>1112</v>
-      </c>
-      <c r="S94" t="s">
-        <v>1113</v>
       </c>
       <c r="T94" t="s">
         <v>54</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D95" t="s">
         <v>1116</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95">
+        <v>2019</v>
+      </c>
+      <c r="F95" t="s">
         <v>1117</v>
       </c>
-      <c r="C95" t="s">
+      <c r="G95" t="s">
         <v>1118</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E95">
-        <v>2022</v>
-      </c>
-      <c r="F95" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>1121</v>
       </c>
       <c r="H95" t="s">
         <v>27</v>
@@ -11351,134 +11408,134 @@
         <v>46</v>
       </c>
       <c r="J95" t="s">
-        <v>86</v>
+        <v>1323</v>
       </c>
       <c r="K95" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L95" t="s">
+        <v>884</v>
+      </c>
+      <c r="M95" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1120</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P95" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>801</v>
+      </c>
+      <c r="R95" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S95" t="s">
         <v>1122</v>
       </c>
-      <c r="L95" t="s">
+      <c r="T95" t="s">
+        <v>54</v>
+      </c>
+      <c r="U95" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="M95" t="s">
-        <v>109</v>
-      </c>
-      <c r="N95" t="s">
+      <c r="V95" s="2" t="s">
         <v>1124</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P95" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>1125</v>
-      </c>
-      <c r="R95" t="s">
-        <v>1126</v>
-      </c>
-      <c r="S95" t="s">
-        <v>1127</v>
-      </c>
-      <c r="T95" t="s">
-        <v>1128</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="V95" s="2" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="B96" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C96" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="D96" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E96" t="s">
-        <v>821</v>
+        <v>1128</v>
+      </c>
+      <c r="E96">
+        <v>2024</v>
       </c>
       <c r="F96" t="s">
-        <v>821</v>
+        <v>1129</v>
       </c>
       <c r="G96" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="H96" t="s">
         <v>27</v>
       </c>
       <c r="I96" t="s">
-        <v>556</v>
+        <v>46</v>
       </c>
       <c r="J96" t="s">
-        <v>1354</v>
+        <v>61</v>
       </c>
       <c r="K96" t="s">
-        <v>1043</v>
+        <v>1130</v>
       </c>
       <c r="L96" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="M96" t="s">
         <v>109</v>
       </c>
       <c r="N96" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="O96" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P96" t="s">
         <v>34</v>
       </c>
       <c r="Q96" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="R96" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="S96" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="T96" t="s">
         <v>54</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="V96" s="2" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E97">
+        <v>2025</v>
+      </c>
+      <c r="F97" t="s">
         <v>1142</v>
       </c>
-      <c r="B97" t="s">
+      <c r="G97" t="s">
         <v>1143</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E97">
-        <v>2019</v>
-      </c>
-      <c r="F97" t="s">
-        <v>1146</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1147</v>
       </c>
       <c r="H97" t="s">
         <v>27</v>
@@ -11487,66 +11544,66 @@
         <v>46</v>
       </c>
       <c r="J97" t="s">
-        <v>1354</v>
+        <v>61</v>
       </c>
       <c r="K97" t="s">
+        <v>1144</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M97" t="s">
+        <v>109</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O97" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P97" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R97" t="s">
+        <v>1147</v>
+      </c>
+      <c r="S97" t="s">
         <v>1148</v>
-      </c>
-      <c r="L97" t="s">
-        <v>911</v>
-      </c>
-      <c r="M97" t="s">
-        <v>31</v>
-      </c>
-      <c r="N97" t="s">
-        <v>1149</v>
-      </c>
-      <c r="O97" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P97" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>821</v>
-      </c>
-      <c r="R97" t="s">
-        <v>1150</v>
-      </c>
-      <c r="S97" t="s">
-        <v>1151</v>
       </c>
       <c r="T97" t="s">
         <v>54</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="V97" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D98" t="s">
         <v>1154</v>
       </c>
-      <c r="B98" t="s">
+      <c r="E98">
+        <v>2025</v>
+      </c>
+      <c r="F98" t="s">
         <v>1155</v>
       </c>
-      <c r="C98" t="s">
+      <c r="G98" t="s">
         <v>1156</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1157</v>
-      </c>
-      <c r="E98">
-        <v>2024</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G98" t="s">
-        <v>821</v>
       </c>
       <c r="H98" t="s">
         <v>27</v>
@@ -11555,134 +11612,134 @@
         <v>46</v>
       </c>
       <c r="J98" t="s">
-        <v>61</v>
+        <v>1321</v>
       </c>
       <c r="K98" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L98" t="s">
-        <v>1160</v>
+        <v>1094</v>
       </c>
       <c r="M98" t="s">
         <v>109</v>
       </c>
       <c r="N98" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="O98" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P98" t="s">
         <v>34</v>
       </c>
       <c r="Q98" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="R98" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="S98" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="T98" t="s">
         <v>54</v>
       </c>
       <c r="U98" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>1165</v>
       </c>
-      <c r="V98" s="2" t="s">
+      <c r="E99" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K99" s="3" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="99" spans="1:22">
-      <c r="A99" t="s">
+      <c r="L99" s="3" t="s">
         <v>1167</v>
       </c>
-      <c r="B99" t="s">
+      <c r="M99" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N99" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C99" t="s">
+      <c r="O99" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="R99" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="D99" t="s">
+      <c r="S99" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="E99">
-        <v>2025</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="T99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U99" s="12" t="s">
         <v>1171</v>
       </c>
-      <c r="G99" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H99" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" t="s">
-        <v>46</v>
-      </c>
-      <c r="J99" t="s">
-        <v>61</v>
-      </c>
-      <c r="K99" t="s">
-        <v>1173</v>
-      </c>
-      <c r="L99" t="s">
-        <v>1123</v>
-      </c>
-      <c r="M99" t="s">
-        <v>109</v>
-      </c>
-      <c r="N99" t="s">
-        <v>1174</v>
-      </c>
-      <c r="O99" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P99" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>1175</v>
-      </c>
-      <c r="R99" t="s">
-        <v>1176</v>
-      </c>
-      <c r="S99" t="s">
-        <v>1177</v>
-      </c>
-      <c r="T99" t="s">
-        <v>54</v>
-      </c>
-      <c r="U99" s="2" t="s">
-        <v>1178</v>
-      </c>
-      <c r="V99" s="2" t="s">
-        <v>1179</v>
+      <c r="V99" s="6" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="B100" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="C100" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="D100" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E100">
-        <v>2025</v>
+        <v>1175</v>
+      </c>
+      <c r="E100" t="s">
+        <v>801</v>
       </c>
       <c r="F100" t="s">
-        <v>1184</v>
+        <v>801</v>
       </c>
       <c r="G100" t="s">
-        <v>1185</v>
+        <v>801</v>
       </c>
       <c r="H100" t="s">
         <v>27</v>
@@ -11691,66 +11748,66 @@
         <v>46</v>
       </c>
       <c r="J100" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K100" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="L100" t="s">
-        <v>1123</v>
+        <v>1177</v>
       </c>
       <c r="M100" t="s">
         <v>109</v>
       </c>
       <c r="N100" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="O100" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P100" t="s">
         <v>34</v>
       </c>
       <c r="Q100" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="R100" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="S100" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="T100" t="s">
         <v>54</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="V100" s="2" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="B101" t="s">
-        <v>655</v>
+        <v>1185</v>
       </c>
       <c r="C101" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="D101" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E101" t="s">
-        <v>821</v>
+        <v>1187</v>
+      </c>
+      <c r="E101">
+        <v>2021</v>
       </c>
       <c r="F101" t="s">
-        <v>821</v>
+        <v>1188</v>
       </c>
       <c r="G101" t="s">
-        <v>821</v>
+        <v>1189</v>
       </c>
       <c r="H101" t="s">
         <v>27</v>
@@ -11759,66 +11816,63 @@
         <v>46</v>
       </c>
       <c r="J101" t="s">
-        <v>1352</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="L101" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="M101" t="s">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="N101" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="O101" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P101" t="s">
         <v>34</v>
       </c>
       <c r="Q101" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="R101" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="S101" t="s">
-        <v>1200</v>
+        <v>38</v>
       </c>
       <c r="T101" t="s">
-        <v>54</v>
+        <v>1194</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="V101" s="2" t="s">
-        <v>1202</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="A102" t="s">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="B102" t="s">
-        <v>1204</v>
+        <v>1197</v>
       </c>
       <c r="C102" t="s">
-        <v>1205</v>
+        <v>1198</v>
       </c>
       <c r="D102" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E102" t="s">
-        <v>821</v>
+        <v>1199</v>
+      </c>
+      <c r="E102">
+        <v>2021</v>
       </c>
       <c r="F102" t="s">
-        <v>821</v>
+        <v>1200</v>
       </c>
       <c r="G102" t="s">
-        <v>821</v>
+        <v>1201</v>
       </c>
       <c r="H102" t="s">
         <v>27</v>
@@ -11827,66 +11881,66 @@
         <v>46</v>
       </c>
       <c r="J102" t="s">
-        <v>1352</v>
+        <v>1323</v>
       </c>
       <c r="K102" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="L102" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="M102" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="N102" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="O102" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P102" t="s">
         <v>34</v>
       </c>
       <c r="Q102" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="R102" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="S102" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="T102" t="s">
         <v>54</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="V102" s="2" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="B103" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C103" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D103" t="s">
-        <v>1218</v>
+        <v>1199</v>
       </c>
       <c r="E103">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="F103" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="G103" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="H103" t="s">
         <v>27</v>
@@ -11895,131 +11949,131 @@
         <v>46</v>
       </c>
       <c r="J103" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="L103" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="M103" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="N103" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="O103" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P103" t="s">
         <v>34</v>
       </c>
       <c r="Q103" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="R103" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="S103" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T103" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="B104" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="C104" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="D104" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E104">
-        <v>2021</v>
+        <v>1224</v>
+      </c>
+      <c r="E104" t="s">
+        <v>801</v>
       </c>
       <c r="F104" t="s">
-        <v>1231</v>
+        <v>801</v>
       </c>
       <c r="G104" t="s">
-        <v>1232</v>
+        <v>801</v>
       </c>
       <c r="H104" t="s">
         <v>27</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>556</v>
       </c>
       <c r="J104" t="s">
-        <v>1354</v>
+        <v>1321</v>
       </c>
       <c r="K104" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="L104" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="M104" t="s">
         <v>31</v>
       </c>
       <c r="N104" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="O104" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P104" t="s">
         <v>34</v>
       </c>
       <c r="Q104" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="R104" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="S104" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="T104" t="s">
         <v>54</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="V104" s="2" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="105" spans="1:22">
       <c r="A105" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="B105" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="C105" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="D105" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F105" t="s">
-        <v>1244</v>
+        <v>1237</v>
       </c>
       <c r="G105" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
@@ -12028,332 +12082,333 @@
         <v>46</v>
       </c>
       <c r="J105" t="s">
-        <v>61</v>
+        <v>1321</v>
       </c>
       <c r="K105" t="s">
-        <v>1246</v>
+        <v>1239</v>
       </c>
       <c r="L105" t="s">
-        <v>1247</v>
+        <v>1240</v>
       </c>
       <c r="M105" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N105" t="s">
-        <v>1248</v>
+        <v>1241</v>
       </c>
       <c r="O105" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P105" t="s">
         <v>34</v>
       </c>
       <c r="Q105" t="s">
-        <v>826</v>
+        <v>1242</v>
       </c>
       <c r="R105" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="S105" t="s">
-        <v>54</v>
+        <v>1244</v>
       </c>
       <c r="T105" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>1251</v>
+        <v>1246</v>
+      </c>
+      <c r="V105" s="2" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E106">
+        <v>2024</v>
+      </c>
+      <c r="F106" t="s">
         <v>1252</v>
       </c>
-      <c r="B106" t="s">
+      <c r="G106" t="s">
         <v>1253</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E106" t="s">
-        <v>821</v>
-      </c>
-      <c r="F106" t="s">
-        <v>821</v>
-      </c>
-      <c r="G106" t="s">
-        <v>821</v>
       </c>
       <c r="H106" t="s">
         <v>27</v>
       </c>
       <c r="I106" t="s">
-        <v>556</v>
+        <v>46</v>
       </c>
       <c r="J106" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="K106" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="L106" t="s">
-        <v>1257</v>
+        <v>1028</v>
       </c>
       <c r="M106" t="s">
         <v>31</v>
       </c>
       <c r="N106" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="O106" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="P106" t="s">
         <v>34</v>
       </c>
       <c r="Q106" t="s">
+        <v>802</v>
+      </c>
+      <c r="R106" t="s">
+        <v>1256</v>
+      </c>
+      <c r="S106" t="s">
+        <v>1257</v>
+      </c>
+      <c r="T106" t="s">
+        <v>1258</v>
+      </c>
+      <c r="U106" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="R106" t="s">
+    </row>
+    <row r="107" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A107" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="S106" t="s">
+      <c r="C107" s="3" t="s">
         <v>1261</v>
       </c>
-      <c r="T106" t="s">
+      <c r="D107" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E107" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="T107" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="U106" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="V106" s="2" t="s">
-        <v>1263</v>
+      <c r="U107" s="12" t="s">
+        <v>1268</v>
+      </c>
+      <c r="V107" s="6" t="s">
+        <v>1269</v>
       </c>
     </row>
-    <row r="107" spans="1:22">
-      <c r="A107" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E107">
+    <row r="108" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A108" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E108" s="3">
         <v>2023</v>
       </c>
-      <c r="F107" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G107" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="F108" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I108" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J107" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K107" t="s">
-        <v>1270</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1271</v>
-      </c>
-      <c r="M107" t="s">
-        <v>109</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1272</v>
-      </c>
-      <c r="O107" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P107" t="s">
+      <c r="J108" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="U108" s="12"/>
+      <c r="V108" s="6" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="A109" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E109">
+        <v>2023</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G109" t="s">
+        <v>801</v>
+      </c>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" t="s">
+        <v>61</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M109" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" t="s">
+        <v>1288</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P109" t="s">
         <v>34</v>
       </c>
-      <c r="Q107" t="s">
-        <v>1273</v>
-      </c>
-      <c r="R107" t="s">
-        <v>1274</v>
-      </c>
-      <c r="S107" t="s">
-        <v>1275</v>
-      </c>
-      <c r="T107" t="s">
-        <v>1276</v>
-      </c>
-      <c r="U107" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="V107" s="2" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22">
-      <c r="A108" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C108" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D108" t="s">
-        <v>1282</v>
-      </c>
-      <c r="E108">
-        <v>2024</v>
-      </c>
-      <c r="F108" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H108" t="s">
-        <v>27</v>
-      </c>
-      <c r="I108" t="s">
-        <v>46</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K108" t="s">
-        <v>1285</v>
-      </c>
-      <c r="L108" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M108" t="s">
-        <v>31</v>
-      </c>
-      <c r="N108" t="s">
-        <v>1286</v>
-      </c>
-      <c r="O108" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P108" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>826</v>
-      </c>
-      <c r="R108" t="s">
-        <v>1287</v>
-      </c>
-      <c r="S108" t="s">
-        <v>1288</v>
-      </c>
-      <c r="T108" t="s">
+      <c r="Q109" t="s">
+        <v>801</v>
+      </c>
+      <c r="R109" t="s">
         <v>1289</v>
       </c>
-      <c r="U108" s="2" t="s">
+      <c r="S109" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="T109" t="s">
+        <v>54</v>
+      </c>
+      <c r="U109" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="V109" s="2" t="s">
         <v>1292</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E109" s="3">
-        <v>2024</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>1294</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="O109" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="R109" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="S109" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="T109" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U109" s="12" t="s">
-        <v>1299</v>
-      </c>
-      <c r="V109" s="6" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="110" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
       <c r="A110" s="8" t="s">
-        <v>1423</v>
+        <v>1369</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1301</v>
+        <v>1364</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>1302</v>
+        <v>1365</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>1303</v>
+        <v>1366</v>
       </c>
       <c r="E110" s="3">
         <v>2023</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>1305</v>
+        <v>1367</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>790</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>27</v>
@@ -12362,249 +12417,183 @@
         <v>46</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>1354</v>
+        <v>61</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>1306</v>
+        <v>1395</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>1307</v>
+        <v>1396</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>1308</v>
+        <v>1397</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>1332</v>
+        <v>1299</v>
       </c>
       <c r="P110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U110" s="12" t="s">
+        <v>1401</v>
+      </c>
+      <c r="V110" s="6" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A111" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2024</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="P111" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q110" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="R110" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="S110" s="3" t="s">
+      <c r="Q111" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U111" s="12" t="s">
+        <v>1408</v>
+      </c>
+      <c r="V111" s="6" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" ht="16.2" customHeight="1">
+      <c r="A112" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E112" s="14">
+        <v>2025</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J112" s="14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="M112" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N112" s="14" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O112" s="14" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P112" s="14" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Q112" s="14" t="s">
+        <v>1428</v>
+      </c>
+      <c r="R112" s="14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="S112" s="14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="T112" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="T110" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="U110" s="12"/>
-      <c r="V110" s="6" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22">
-      <c r="A111" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1314</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E111">
-        <v>2023</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G111" t="s">
-        <v>821</v>
-      </c>
-      <c r="H111" t="s">
-        <v>27</v>
-      </c>
-      <c r="I111" t="s">
-        <v>46</v>
-      </c>
-      <c r="J111" t="s">
-        <v>61</v>
-      </c>
-      <c r="K111" t="s">
-        <v>1317</v>
-      </c>
-      <c r="L111" t="s">
-        <v>1318</v>
-      </c>
-      <c r="M111" t="s">
-        <v>31</v>
-      </c>
-      <c r="N111" t="s">
-        <v>1319</v>
-      </c>
-      <c r="O111" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P111" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>821</v>
-      </c>
-      <c r="R111" t="s">
-        <v>1320</v>
-      </c>
-      <c r="S111" t="s">
-        <v>1321</v>
-      </c>
-      <c r="T111" t="s">
-        <v>54</v>
-      </c>
-      <c r="U111" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="V111" s="2" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A112" s="8" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>1396</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>1397</v>
-      </c>
-      <c r="E112" s="3">
-        <v>2023</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>1398</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>1426</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>1428</v>
-      </c>
-      <c r="O112" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>1429</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="S112" s="3" t="s">
+      <c r="U112" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="T112" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U112" s="12" t="s">
-        <v>1432</v>
-      </c>
-      <c r="V112" s="6" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" s="3" customFormat="1" ht="13.8" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>1410</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E113" s="3">
-        <v>2024</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>1413</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>1414</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>1433</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>1434</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>1435</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>1436</v>
-      </c>
-      <c r="R113" s="3" t="s">
-        <v>1437</v>
-      </c>
-      <c r="S113" s="3" t="s">
-        <v>1438</v>
-      </c>
-      <c r="T113" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U113" s="12" t="s">
-        <v>1439</v>
-      </c>
-      <c r="V113" s="6" t="s">
-        <v>1411</v>
+      <c r="V112" s="13" t="s">
+        <v>1422</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V111" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" xr:uid="{98EC9591-B59A-4EB1-84D2-1B2528B18401}"/>
     <hyperlink ref="V12" r:id="rId2" display="=@inproceedings{Zhai2020SmartAutopilotDrone, title={Smart Autopilot Drone System for Surface Surveillance and Anomaly Detection via Customizable Deep Neural Network}, author={Zhai, Xiang and Liu, Kui and Nash, William and Castineira, David}, booktitle={International Petroleum Technology Conference (IPTC)}, year={2020}, doi={10.2523/IPTC-20111-MS}}" xr:uid="{92A0DF47-F495-4BEC-99DC-CA2C070A8202}"/>
@@ -12621,11 +12610,12 @@
     <hyperlink ref="G18" r:id="rId13" xr:uid="{6411F98B-94A2-48C0-A8E0-EB72C301364B}"/>
     <hyperlink ref="G19" r:id="rId14" xr:uid="{B5124CB8-B28E-4115-BBA4-78B3B9B254D4}"/>
     <hyperlink ref="G20" r:id="rId15" xr:uid="{4F291811-C24E-4E42-93A4-8C0BAA545272}"/>
-    <hyperlink ref="G112" r:id="rId16" xr:uid="{64CA765D-41AB-4BE2-A0DB-9588BF82D159}"/>
-    <hyperlink ref="D113" r:id="rId17" display="https://scholar.google.com/citations?user=_GrgM8oAAAAJ&amp;hl=en&amp;oi=sra" xr:uid="{DEA87A46-5C52-461D-BA4F-A6A809066CA4}"/>
-    <hyperlink ref="G113" r:id="rId18" xr:uid="{2FBE6262-9CC6-4C61-86D0-03F780795CEB}"/>
+    <hyperlink ref="G110" r:id="rId16" xr:uid="{64CA765D-41AB-4BE2-A0DB-9588BF82D159}"/>
+    <hyperlink ref="D111" r:id="rId17" display="https://scholar.google.com/citations?user=_GrgM8oAAAAJ&amp;hl=en&amp;oi=sra" xr:uid="{DEA87A46-5C52-461D-BA4F-A6A809066CA4}"/>
+    <hyperlink ref="G111" r:id="rId18" xr:uid="{2FBE6262-9CC6-4C61-86D0-03F780795CEB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos"&amp;1 &amp;K000000 SMU Classification: Restricted#_x000D_</oddHeader>
   </headerFooter>
@@ -12651,10 +12641,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1324</v>
+        <v>1293</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1325</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12668,7 +12658,7 @@
         <v>2023</v>
       </c>
       <c r="D2" t="s">
-        <v>1326</v>
+        <v>1295</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
@@ -12685,7 +12675,7 @@
         <v>2024</v>
       </c>
       <c r="D3" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="E3" t="s">
         <v>556</v>
@@ -12702,7 +12692,7 @@
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>1328</v>
+        <v>1297</v>
       </c>
       <c r="E4" t="s">
         <v>556</v>
@@ -12710,10 +12700,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" t="s">
         <v>654</v>
-      </c>
-      <c r="B5" t="s">
-        <v>655</v>
       </c>
       <c r="C5">
         <v>2020</v>
@@ -12727,16 +12717,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="B6" t="s">
         <v>328</v>
       </c>
       <c r="C6" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="D6" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="E6" t="s">
         <v>556</v>
@@ -12744,16 +12734,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="E7" t="s">
         <v>556</v>
@@ -12761,16 +12751,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1131</v>
+        <v>1102</v>
       </c>
       <c r="B8" t="s">
-        <v>1132</v>
+        <v>1103</v>
       </c>
       <c r="C8" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="D8" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="E8" t="s">
         <v>556</v>
@@ -12778,16 +12768,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1252</v>
+        <v>1221</v>
       </c>
       <c r="B9" t="s">
-        <v>1253</v>
+        <v>1222</v>
       </c>
       <c r="C9" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="D9" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="E9" t="s">
         <v>556</v>
@@ -12814,7 +12804,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1329</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="2" spans="1:2">
